--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -846,7 +846,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -942,6 +942,10 @@
       <sz val="4"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
+    <font>
+      <sz val="5.5"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1868,45 +1872,762 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1916,33 +2637,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1976,700 +2670,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2749,7 +2753,7 @@
         <xdr:cNvPr id="2" name="AutoShape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2823,7 @@
         <xdr:cNvPr id="3" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2893,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2948,7 @@
         <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2969,7 @@
           <xdr:cNvPr id="7" name="AutoShape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3011,7 +3015,7 @@
           <xdr:cNvPr id="8" name="Rectangle 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3052,7 +3056,7 @@
           <xdr:cNvPr id="9" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3093,7 +3097,7 @@
           <xdr:cNvPr id="10" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3160,7 +3164,7 @@
           <xdr:cNvPr id="11" name="Rectangle 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3227,7 +3231,7 @@
           <xdr:cNvPr id="12" name="Rectangle 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3294,7 +3298,7 @@
           <xdr:cNvPr id="13" name="Rectangle 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3368,7 +3372,7 @@
           <xdr:cNvPr id="14" name="Rectangle 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3435,7 +3439,7 @@
           <xdr:cNvPr id="15" name="Rectangle 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3502,7 +3506,7 @@
           <xdr:cNvPr id="16" name="Rectangle 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3569,7 +3573,7 @@
           <xdr:cNvPr id="17" name="Rectangle 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3636,7 +3640,7 @@
           <xdr:cNvPr id="18" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3703,7 +3707,7 @@
           <xdr:cNvPr id="19" name="Rectangle 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3770,7 +3774,7 @@
           <xdr:cNvPr id="20" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3837,7 +3841,7 @@
           <xdr:cNvPr id="21" name="Rectangle 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3878,7 +3882,7 @@
           <xdr:cNvPr id="22" name="Line 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3918,7 +3922,7 @@
           <xdr:cNvPr id="23" name="Rectangle 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3959,7 +3963,7 @@
           <xdr:cNvPr id="24" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4000,7 +4004,7 @@
           <xdr:cNvPr id="25" name="Rectangle 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4041,7 +4045,7 @@
           <xdr:cNvPr id="26" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4082,7 +4086,7 @@
           <xdr:cNvPr id="27" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4123,7 +4127,7 @@
           <xdr:cNvPr id="28" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4164,7 +4168,7 @@
           <xdr:cNvPr id="29" name="Rectangle 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4205,7 +4209,7 @@
           <xdr:cNvPr id="30" name="Line 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4245,7 +4249,7 @@
           <xdr:cNvPr id="31" name="Rectangle 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4286,7 +4290,7 @@
           <xdr:cNvPr id="32" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4327,7 +4331,7 @@
           <xdr:cNvPr id="33" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4367,7 +4371,7 @@
           <xdr:cNvPr id="34" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4408,7 +4412,7 @@
           <xdr:cNvPr id="35" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4448,7 +4452,7 @@
           <xdr:cNvPr id="36" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4489,7 +4493,7 @@
           <xdr:cNvPr id="37" name="Rectangle 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4530,7 +4534,7 @@
           <xdr:cNvPr id="38" name="Line 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4570,7 +4574,7 @@
           <xdr:cNvPr id="39" name="Rectangle 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4611,7 +4615,7 @@
           <xdr:cNvPr id="40" name="Line 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4651,7 +4655,7 @@
           <xdr:cNvPr id="41" name="Rectangle 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4692,7 +4696,7 @@
           <xdr:cNvPr id="42" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4733,7 +4737,7 @@
           <xdr:cNvPr id="43" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4774,7 +4778,7 @@
           <xdr:cNvPr id="44" name="Line 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4814,7 +4818,7 @@
           <xdr:cNvPr id="45" name="Rectangle 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4855,7 +4859,7 @@
           <xdr:cNvPr id="46" name="Line 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4895,7 +4899,7 @@
           <xdr:cNvPr id="47" name="Rectangle 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4936,7 +4940,7 @@
           <xdr:cNvPr id="48" name="Line 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4976,7 +4980,7 @@
           <xdr:cNvPr id="49" name="Rectangle 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5017,7 +5021,7 @@
           <xdr:cNvPr id="50" name="Line 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5057,7 +5061,7 @@
           <xdr:cNvPr id="51" name="Rectangle 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5098,7 +5102,7 @@
           <xdr:cNvPr id="52" name="Line 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5138,7 +5142,7 @@
           <xdr:cNvPr id="53" name="Rectangle 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5179,7 +5183,7 @@
           <xdr:cNvPr id="54" name="Line 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5219,7 +5223,7 @@
           <xdr:cNvPr id="55" name="Rectangle 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5260,7 +5264,7 @@
           <xdr:cNvPr id="56" name="Line 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5300,7 +5304,7 @@
           <xdr:cNvPr id="57" name="Rectangle 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5341,7 +5345,7 @@
           <xdr:cNvPr id="58" name="Line 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5381,7 +5385,7 @@
           <xdr:cNvPr id="59" name="Rectangle 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5422,7 +5426,7 @@
           <xdr:cNvPr id="60" name="Line 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5462,7 +5466,7 @@
           <xdr:cNvPr id="61" name="Rectangle 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5503,7 +5507,7 @@
           <xdr:cNvPr id="62" name="Line 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5543,7 +5547,7 @@
           <xdr:cNvPr id="63" name="Rectangle 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5584,7 +5588,7 @@
           <xdr:cNvPr id="64" name="Line 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5624,7 +5628,7 @@
           <xdr:cNvPr id="65" name="Rectangle 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5665,7 +5669,7 @@
           <xdr:cNvPr id="66" name="Line 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5705,7 +5709,7 @@
           <xdr:cNvPr id="67" name="Rectangle 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5746,7 +5750,7 @@
           <xdr:cNvPr id="68" name="Line 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5786,7 +5790,7 @@
           <xdr:cNvPr id="69" name="Rectangle 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5827,7 +5831,7 @@
           <xdr:cNvPr id="70" name="Line 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5867,7 +5871,7 @@
           <xdr:cNvPr id="71" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5908,7 +5912,7 @@
           <xdr:cNvPr id="72" name="Line 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5948,7 +5952,7 @@
           <xdr:cNvPr id="73" name="Rectangle 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5989,7 +5993,7 @@
           <xdr:cNvPr id="74" name="Line 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6029,7 +6033,7 @@
           <xdr:cNvPr id="75" name="Rectangle 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6070,7 +6074,7 @@
           <xdr:cNvPr id="76" name="図 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6129,7 +6133,7 @@
           <xdr:cNvPr id="77" name="図 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6188,7 +6192,7 @@
           <xdr:cNvPr id="78" name="図 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6247,7 +6251,7 @@
           <xdr:cNvPr id="79" name="図 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6306,7 +6310,7 @@
           <xdr:cNvPr id="80" name="Oval 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6341,7 +6345,7 @@
           <xdr:cNvPr id="81" name="Rectangle 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6436,7 +6440,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6503,7 +6507,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6570,7 +6574,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6637,7 +6641,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6704,7 +6708,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6771,7 +6775,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6838,7 +6842,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6905,7 +6909,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6972,7 +6976,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7039,7 +7043,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7101,7 +7105,7 @@
         <xdr:cNvPr id="84" name="A2_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7167,7 +7171,7 @@
         <xdr:cNvPr id="96" name="A2_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000060000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7233,7 +7237,7 @@
         <xdr:cNvPr id="97" name="A2_41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7299,7 +7303,7 @@
         <xdr:cNvPr id="101" name="A1_15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7364,7 +7368,7 @@
         <xdr:cNvPr id="100" name="A1_51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7430,7 +7434,7 @@
         <xdr:cNvPr id="102" name="A1_52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000066000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7496,7 +7500,7 @@
         <xdr:cNvPr id="103" name="A1_53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7562,7 +7566,7 @@
         <xdr:cNvPr id="99" name="A4_111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7627,7 +7631,7 @@
         <xdr:cNvPr id="104" name="A4_113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7692,7 +7696,7 @@
         <xdr:cNvPr id="105" name="A4_112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000069000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7757,7 +7761,7 @@
         <xdr:cNvPr id="106" name="A4_114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7822,7 +7826,7 @@
         <xdr:cNvPr id="107" name="A4_221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7887,7 +7891,7 @@
         <xdr:cNvPr id="108" name="A4_222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7952,7 +7956,7 @@
         <xdr:cNvPr id="109" name="A4_223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8017,7 +8021,7 @@
         <xdr:cNvPr id="110" name="A4_224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8082,7 +8086,7 @@
         <xdr:cNvPr id="111" name="A4_1111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8147,7 +8151,7 @@
         <xdr:cNvPr id="118" name="A2_19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000076000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8229,7 +8233,7 @@
         <xdr:cNvPr id="120" name="Picture 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8273,7 +8277,7 @@
         <xdr:cNvPr id="112" name="TextBox 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000070000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8339,7 +8343,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000071000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8405,7 +8409,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,7 +8482,7 @@
         <xdr:cNvPr id="121" name="TextBox 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8557,7 +8561,7 @@
         <xdr:cNvPr id="123" name="TextBox 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8636,7 +8640,7 @@
         <xdr:cNvPr id="82" name="TextBox 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8714,7 +8718,7 @@
         <xdr:cNvPr id="115" name="TextBox 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000073000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9079,8 +9083,8 @@
   </sheetPr>
   <dimension ref="C1:CX75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AB41" sqref="AB41"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34:AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -9101,1054 +9105,1054 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="BK2" s="58" t="s">
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="BK2" s="288" t="s">
         <v>50</v>
       </c>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="61" t="s">
+      <c r="BL2" s="279"/>
+      <c r="BM2" s="279"/>
+      <c r="BN2" s="279"/>
+      <c r="BO2" s="279"/>
+      <c r="BP2" s="291" t="s">
         <v>49</v>
       </c>
-      <c r="BQ2" s="62"/>
-      <c r="BR2" s="62"/>
-      <c r="BS2" s="62"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="30" t="s">
+      <c r="BQ2" s="292"/>
+      <c r="BR2" s="292"/>
+      <c r="BS2" s="292"/>
+      <c r="BT2" s="293"/>
+      <c r="BU2" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="55" t="s">
+      <c r="BV2" s="279"/>
+      <c r="BW2" s="279"/>
+      <c r="BX2" s="279"/>
+      <c r="BY2" s="279"/>
+      <c r="BZ2" s="285" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="56"/>
-      <c r="CC2" s="56"/>
-      <c r="CD2" s="57"/>
+      <c r="CA2" s="286"/>
+      <c r="CB2" s="286"/>
+      <c r="CC2" s="286"/>
+      <c r="CD2" s="287"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="Y3" s="156" t="s">
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="Y3" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="156"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="156"/>
-      <c r="AM3" s="156"/>
-      <c r="AN3" s="156"/>
-      <c r="AO3" s="156"/>
-      <c r="AP3" s="156"/>
-      <c r="AQ3" s="156"/>
-      <c r="AR3" s="156"/>
-      <c r="AS3" s="156"/>
-      <c r="AT3" s="156"/>
-      <c r="AU3" s="156"/>
-      <c r="AV3" s="156"/>
-      <c r="AW3" s="156"/>
-      <c r="AX3" s="156"/>
-      <c r="AY3" s="156"/>
-      <c r="AZ3" s="156"/>
-      <c r="BA3" s="156"/>
-      <c r="BB3" s="156"/>
-      <c r="BC3" s="156"/>
-      <c r="BD3" s="156"/>
-      <c r="BE3" s="156"/>
-      <c r="BF3" s="156"/>
-      <c r="BG3" s="156"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="208"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="208"/>
+      <c r="AE3" s="208"/>
+      <c r="AF3" s="208"/>
+      <c r="AG3" s="208"/>
+      <c r="AH3" s="208"/>
+      <c r="AI3" s="208"/>
+      <c r="AJ3" s="208"/>
+      <c r="AK3" s="208"/>
+      <c r="AL3" s="208"/>
+      <c r="AM3" s="208"/>
+      <c r="AN3" s="208"/>
+      <c r="AO3" s="208"/>
+      <c r="AP3" s="208"/>
+      <c r="AQ3" s="208"/>
+      <c r="AR3" s="208"/>
+      <c r="AS3" s="208"/>
+      <c r="AT3" s="208"/>
+      <c r="AU3" s="208"/>
+      <c r="AV3" s="208"/>
+      <c r="AW3" s="208"/>
+      <c r="AX3" s="208"/>
+      <c r="AY3" s="208"/>
+      <c r="AZ3" s="208"/>
+      <c r="BA3" s="208"/>
+      <c r="BB3" s="208"/>
+      <c r="BC3" s="208"/>
+      <c r="BD3" s="208"/>
+      <c r="BE3" s="208"/>
+      <c r="BF3" s="208"/>
+      <c r="BG3" s="208"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="33"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="32"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="33"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="32"/>
-      <c r="BX3" s="32"/>
-      <c r="BY3" s="33"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="32"/>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="32"/>
-      <c r="CD3" s="33"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="137"/>
+      <c r="BP3" s="135"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="137"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="137"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="137"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="156"/>
-      <c r="AC4" s="156"/>
-      <c r="AD4" s="156"/>
-      <c r="AE4" s="156"/>
-      <c r="AF4" s="156"/>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
-      <c r="AR4" s="156"/>
-      <c r="AS4" s="156"/>
-      <c r="AT4" s="156"/>
-      <c r="AU4" s="156"/>
-      <c r="AV4" s="156"/>
-      <c r="AW4" s="156"/>
-      <c r="AX4" s="156"/>
-      <c r="AY4" s="156"/>
-      <c r="AZ4" s="156"/>
-      <c r="BA4" s="156"/>
-      <c r="BB4" s="156"/>
-      <c r="BC4" s="156"/>
-      <c r="BD4" s="156"/>
-      <c r="BE4" s="156"/>
-      <c r="BF4" s="156"/>
-      <c r="BG4" s="156"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="208"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="208"/>
+      <c r="AG4" s="208"/>
+      <c r="AH4" s="208"/>
+      <c r="AI4" s="208"/>
+      <c r="AJ4" s="208"/>
+      <c r="AK4" s="208"/>
+      <c r="AL4" s="208"/>
+      <c r="AM4" s="208"/>
+      <c r="AN4" s="208"/>
+      <c r="AO4" s="208"/>
+      <c r="AP4" s="208"/>
+      <c r="AQ4" s="208"/>
+      <c r="AR4" s="208"/>
+      <c r="AS4" s="208"/>
+      <c r="AT4" s="208"/>
+      <c r="AU4" s="208"/>
+      <c r="AV4" s="208"/>
+      <c r="AW4" s="208"/>
+      <c r="AX4" s="208"/>
+      <c r="AY4" s="208"/>
+      <c r="AZ4" s="208"/>
+      <c r="BA4" s="208"/>
+      <c r="BB4" s="208"/>
+      <c r="BC4" s="208"/>
+      <c r="BD4" s="208"/>
+      <c r="BE4" s="208"/>
+      <c r="BF4" s="208"/>
+      <c r="BG4" s="208"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="36"/>
+      <c r="BK4" s="194"/>
+      <c r="BL4" s="189"/>
+      <c r="BM4" s="189"/>
+      <c r="BN4" s="189"/>
+      <c r="BO4" s="280"/>
+      <c r="BP4" s="194"/>
+      <c r="BQ4" s="189"/>
+      <c r="BR4" s="189"/>
+      <c r="BS4" s="189"/>
+      <c r="BT4" s="280"/>
+      <c r="BU4" s="194"/>
+      <c r="BV4" s="189"/>
+      <c r="BW4" s="189"/>
+      <c r="BX4" s="189"/>
+      <c r="BY4" s="280"/>
+      <c r="BZ4" s="194"/>
+      <c r="CA4" s="189"/>
+      <c r="CB4" s="189"/>
+      <c r="CC4" s="189"/>
+      <c r="CD4" s="280"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="78" t="s">
+      <c r="D6" s="210"/>
+      <c r="E6" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="159" t="s">
+      <c r="F6" s="143"/>
+      <c r="G6" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="157" t="s">
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="164" t="s">
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="118"/>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="118"/>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="119"/>
-      <c r="AV6" s="118" t="s">
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="33"/>
+      <c r="AV6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AW6" s="118"/>
-      <c r="AX6" s="118"/>
-      <c r="AY6" s="118"/>
-      <c r="AZ6" s="118"/>
-      <c r="BA6" s="118"/>
-      <c r="BB6" s="118"/>
-      <c r="BC6" s="118"/>
-      <c r="BD6" s="118"/>
-      <c r="BE6" s="118"/>
-      <c r="BF6" s="118"/>
-      <c r="BG6" s="118"/>
-      <c r="BH6" s="118"/>
-      <c r="BI6" s="118"/>
-      <c r="BJ6" s="118"/>
-      <c r="BK6" s="119"/>
-      <c r="BL6" s="31" t="s">
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BW6" s="32"/>
-      <c r="BX6" s="32"/>
-      <c r="BY6" s="32"/>
-      <c r="BZ6" s="32"/>
-      <c r="CA6" s="33"/>
+      <c r="BM6" s="136"/>
+      <c r="BN6" s="136"/>
+      <c r="BO6" s="136"/>
+      <c r="BP6" s="136"/>
+      <c r="BQ6" s="136"/>
+      <c r="BR6" s="136"/>
+      <c r="BS6" s="136"/>
+      <c r="BT6" s="136"/>
+      <c r="BU6" s="136"/>
+      <c r="BV6" s="136"/>
+      <c r="BW6" s="136"/>
+      <c r="BX6" s="136"/>
+      <c r="BY6" s="136"/>
+      <c r="BZ6" s="136"/>
+      <c r="CA6" s="137"/>
       <c r="CD6" s="3"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="130"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="202"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="37"/>
+      <c r="Z7" s="40"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="37"/>
+      <c r="AB7" s="40"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="130"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="202"/>
       <c r="AG7" s="41"/>
-      <c r="AH7" s="37"/>
+      <c r="AH7" s="40"/>
       <c r="AI7" s="41"/>
-      <c r="AJ7" s="37"/>
+      <c r="AJ7" s="40"/>
       <c r="AK7" s="41"/>
-      <c r="AL7" s="165"/>
-      <c r="AM7" s="121"/>
-      <c r="AN7" s="130"/>
+      <c r="AL7" s="200"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="202"/>
       <c r="AO7" s="41"/>
-      <c r="AP7" s="37"/>
+      <c r="AP7" s="40"/>
       <c r="AQ7" s="41"/>
-      <c r="AR7" s="37"/>
+      <c r="AR7" s="40"/>
       <c r="AS7" s="41"/>
-      <c r="AT7" s="165"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="64" t="s">
+      <c r="AT7" s="200"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="294" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="117"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="66"/>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="99" t="s">
+      <c r="AW7" s="295"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="278"/>
+      <c r="BD7" s="277"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="278"/>
+      <c r="BL7" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="BM7" s="100"/>
-      <c r="BN7" s="100"/>
-      <c r="BO7" s="101"/>
-      <c r="BP7" s="51"/>
+      <c r="BM7" s="221"/>
+      <c r="BN7" s="221"/>
+      <c r="BO7" s="222"/>
+      <c r="BP7" s="251"/>
       <c r="BQ7" s="41"/>
-      <c r="BR7" s="49"/>
+      <c r="BR7" s="252"/>
       <c r="BS7" s="41"/>
-      <c r="BT7" s="51"/>
+      <c r="BT7" s="251"/>
       <c r="BU7" s="41"/>
-      <c r="BV7" s="49"/>
+      <c r="BV7" s="252"/>
       <c r="BW7" s="41"/>
-      <c r="BX7" s="51"/>
-      <c r="BY7" s="49"/>
-      <c r="BZ7" s="37"/>
-      <c r="CA7" s="38"/>
+      <c r="BX7" s="251"/>
+      <c r="BY7" s="252"/>
+      <c r="BZ7" s="40"/>
+      <c r="CA7" s="217"/>
       <c r="CB7" s="4"/>
       <c r="CD7" s="3"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="131"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="42"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="189"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="189"/>
+      <c r="W8" s="189"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="201"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="201"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="203"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="201"/>
+      <c r="AU8" s="45"/>
       <c r="AV8" s="29"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="54"/>
+      <c r="AW8" s="254"/>
+      <c r="AX8" s="254"/>
+      <c r="AY8" s="254"/>
+      <c r="AZ8" s="254"/>
+      <c r="BA8" s="254"/>
+      <c r="BB8" s="254"/>
+      <c r="BC8" s="255"/>
       <c r="BD8" s="29"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="53"/>
-      <c r="BH8" s="53"/>
-      <c r="BI8" s="53"/>
-      <c r="BJ8" s="53"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="102"/>
-      <c r="BM8" s="103"/>
-      <c r="BN8" s="103"/>
-      <c r="BO8" s="104"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="42"/>
-      <c r="BR8" s="50"/>
-      <c r="BS8" s="42"/>
-      <c r="BT8" s="52"/>
-      <c r="BU8" s="42"/>
-      <c r="BV8" s="50"/>
-      <c r="BW8" s="42"/>
-      <c r="BX8" s="52"/>
-      <c r="BY8" s="50"/>
-      <c r="BZ8" s="39"/>
-      <c r="CA8" s="40"/>
+      <c r="BE8" s="254"/>
+      <c r="BF8" s="254"/>
+      <c r="BG8" s="254"/>
+      <c r="BH8" s="254"/>
+      <c r="BI8" s="254"/>
+      <c r="BJ8" s="254"/>
+      <c r="BK8" s="255"/>
+      <c r="BL8" s="223"/>
+      <c r="BM8" s="224"/>
+      <c r="BN8" s="224"/>
+      <c r="BO8" s="225"/>
+      <c r="BP8" s="253"/>
+      <c r="BQ8" s="45"/>
+      <c r="BR8" s="201"/>
+      <c r="BS8" s="45"/>
+      <c r="BT8" s="253"/>
+      <c r="BU8" s="45"/>
+      <c r="BV8" s="201"/>
+      <c r="BW8" s="45"/>
+      <c r="BX8" s="253"/>
+      <c r="BY8" s="201"/>
+      <c r="BZ8" s="44"/>
+      <c r="CA8" s="281"/>
       <c r="CB8" s="5"/>
       <c r="CC8" s="6"/>
       <c r="CD8" s="3"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="275" t="s">
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="276"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="284" t="s">
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="285"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="286"/>
-      <c r="P9" s="37"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="41"/>
-      <c r="R9" s="37"/>
+      <c r="R9" s="40"/>
       <c r="S9" s="41"/>
-      <c r="T9" s="37"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="37"/>
+      <c r="V9" s="40"/>
       <c r="W9" s="41"/>
-      <c r="X9" s="37"/>
+      <c r="X9" s="40"/>
       <c r="Y9" s="41"/>
-      <c r="Z9" s="37"/>
+      <c r="Z9" s="40"/>
       <c r="AA9" s="41"/>
-      <c r="AB9" s="37"/>
+      <c r="AB9" s="40"/>
       <c r="AC9" s="41"/>
-      <c r="AD9" s="78" t="s">
+      <c r="AD9" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="166"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="59" t="s">
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="204"/>
+      <c r="AG9" s="289" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="225"/>
-      <c r="AL9" s="225"/>
-      <c r="AM9" s="225"/>
-      <c r="AN9" s="225"/>
-      <c r="AO9" s="225"/>
-      <c r="AP9" s="225"/>
-      <c r="AQ9" s="225"/>
-      <c r="AR9" s="225"/>
-      <c r="AS9" s="225"/>
-      <c r="AT9" s="225"/>
-      <c r="AU9" s="225"/>
-      <c r="AV9" s="225"/>
-      <c r="AW9" s="225"/>
-      <c r="AX9" s="225"/>
-      <c r="AY9" s="225"/>
-      <c r="AZ9" s="225"/>
-      <c r="BA9" s="225"/>
-      <c r="BB9" s="225"/>
-      <c r="BC9" s="225"/>
-      <c r="BD9" s="225"/>
-      <c r="BE9" s="225"/>
-      <c r="BF9" s="225"/>
-      <c r="BG9" s="225"/>
-      <c r="BH9" s="225"/>
-      <c r="BI9" s="225"/>
-      <c r="BJ9" s="225"/>
-      <c r="BK9" s="225"/>
-      <c r="BL9" s="225"/>
-      <c r="BM9" s="225"/>
-      <c r="BN9" s="225"/>
-      <c r="BO9" s="225"/>
-      <c r="BP9" s="225"/>
-      <c r="BQ9" s="225"/>
-      <c r="BR9" s="225"/>
-      <c r="BS9" s="225"/>
-      <c r="BT9" s="225"/>
-      <c r="BU9" s="225"/>
-      <c r="BV9" s="225"/>
-      <c r="BW9" s="225"/>
-      <c r="BX9" s="225"/>
-      <c r="BY9" s="225"/>
-      <c r="BZ9" s="225"/>
-      <c r="CA9" s="225"/>
-      <c r="CB9" s="225"/>
-      <c r="CC9" s="225"/>
-      <c r="CD9" s="226"/>
+      <c r="AH9" s="290"/>
+      <c r="AI9" s="290"/>
+      <c r="AJ9" s="290"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="46"/>
+      <c r="BK9" s="46"/>
+      <c r="BL9" s="46"/>
+      <c r="BM9" s="46"/>
+      <c r="BN9" s="46"/>
+      <c r="BO9" s="46"/>
+      <c r="BP9" s="46"/>
+      <c r="BQ9" s="46"/>
+      <c r="BR9" s="46"/>
+      <c r="BS9" s="46"/>
+      <c r="BT9" s="46"/>
+      <c r="BU9" s="46"/>
+      <c r="BV9" s="46"/>
+      <c r="BW9" s="46"/>
+      <c r="BX9" s="46"/>
+      <c r="BY9" s="46"/>
+      <c r="BZ9" s="46"/>
+      <c r="CA9" s="46"/>
+      <c r="CB9" s="46"/>
+      <c r="CC9" s="46"/>
+      <c r="CD9" s="47"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="287"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="288"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="168"/>
-      <c r="AF10" s="169"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
-      <c r="BM10" s="44"/>
-      <c r="BN10" s="44"/>
-      <c r="BO10" s="44"/>
-      <c r="BP10" s="44"/>
-      <c r="BQ10" s="44"/>
-      <c r="BR10" s="44"/>
-      <c r="BS10" s="44"/>
-      <c r="BT10" s="44"/>
-      <c r="BU10" s="44"/>
-      <c r="BV10" s="44"/>
-      <c r="BW10" s="44"/>
-      <c r="BX10" s="44"/>
-      <c r="BY10" s="44"/>
-      <c r="BZ10" s="44"/>
-      <c r="CA10" s="44"/>
-      <c r="CB10" s="44"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="45"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="282"/>
+      <c r="AH10" s="283"/>
+      <c r="AI10" s="283"/>
+      <c r="AJ10" s="283"/>
+      <c r="AK10" s="283"/>
+      <c r="AL10" s="283"/>
+      <c r="AM10" s="283"/>
+      <c r="AN10" s="283"/>
+      <c r="AO10" s="283"/>
+      <c r="AP10" s="283"/>
+      <c r="AQ10" s="283"/>
+      <c r="AR10" s="283"/>
+      <c r="AS10" s="283"/>
+      <c r="AT10" s="283"/>
+      <c r="AU10" s="283"/>
+      <c r="AV10" s="283"/>
+      <c r="AW10" s="283"/>
+      <c r="AX10" s="283"/>
+      <c r="AY10" s="283"/>
+      <c r="AZ10" s="283"/>
+      <c r="BA10" s="283"/>
+      <c r="BB10" s="283"/>
+      <c r="BC10" s="283"/>
+      <c r="BD10" s="283"/>
+      <c r="BE10" s="283"/>
+      <c r="BF10" s="283"/>
+      <c r="BG10" s="283"/>
+      <c r="BH10" s="283"/>
+      <c r="BI10" s="283"/>
+      <c r="BJ10" s="283"/>
+      <c r="BK10" s="283"/>
+      <c r="BL10" s="283"/>
+      <c r="BM10" s="283"/>
+      <c r="BN10" s="283"/>
+      <c r="BO10" s="283"/>
+      <c r="BP10" s="283"/>
+      <c r="BQ10" s="283"/>
+      <c r="BR10" s="283"/>
+      <c r="BS10" s="283"/>
+      <c r="BT10" s="283"/>
+      <c r="BU10" s="283"/>
+      <c r="BV10" s="283"/>
+      <c r="BW10" s="283"/>
+      <c r="BX10" s="283"/>
+      <c r="BY10" s="283"/>
+      <c r="BZ10" s="283"/>
+      <c r="CA10" s="283"/>
+      <c r="CB10" s="283"/>
+      <c r="CC10" s="283"/>
+      <c r="CD10" s="284"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="282"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="291"/>
-      <c r="L11" s="291"/>
-      <c r="M11" s="291"/>
-      <c r="N11" s="291"/>
-      <c r="O11" s="292"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="170"/>
-      <c r="AF11" s="171"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="47"/>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="47"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="47"/>
-      <c r="BE11" s="47"/>
-      <c r="BF11" s="47"/>
-      <c r="BG11" s="47"/>
-      <c r="BH11" s="47"/>
-      <c r="BI11" s="47"/>
-      <c r="BJ11" s="47"/>
-      <c r="BK11" s="47"/>
-      <c r="BL11" s="47"/>
-      <c r="BM11" s="47"/>
-      <c r="BN11" s="47"/>
-      <c r="BO11" s="47"/>
-      <c r="BP11" s="47"/>
-      <c r="BQ11" s="47"/>
-      <c r="BR11" s="47"/>
-      <c r="BS11" s="47"/>
-      <c r="BT11" s="47"/>
-      <c r="BU11" s="47"/>
-      <c r="BV11" s="47"/>
-      <c r="BW11" s="47"/>
-      <c r="BX11" s="47"/>
-      <c r="BY11" s="47"/>
-      <c r="BZ11" s="47"/>
-      <c r="CA11" s="47"/>
-      <c r="CB11" s="47"/>
-      <c r="CC11" s="47"/>
-      <c r="CD11" s="48"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="206"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
+      <c r="BM11" s="92"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="92"/>
+      <c r="BP11" s="92"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="92"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="92"/>
+      <c r="BX11" s="92"/>
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="92"/>
+      <c r="CB11" s="92"/>
+      <c r="CC11" s="92"/>
+      <c r="CD11" s="93"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="195" t="s">
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="196"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="284" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="285"/>
-      <c r="L12" s="285"/>
-      <c r="M12" s="285"/>
-      <c r="N12" s="285"/>
-      <c r="O12" s="286"/>
-      <c r="P12" s="293"/>
-      <c r="Q12" s="294"/>
-      <c r="R12" s="294"/>
-      <c r="S12" s="294"/>
-      <c r="T12" s="294"/>
-      <c r="U12" s="294"/>
-      <c r="V12" s="294"/>
-      <c r="W12" s="294"/>
-      <c r="X12" s="294"/>
-      <c r="Y12" s="294"/>
-      <c r="Z12" s="294"/>
-      <c r="AA12" s="294"/>
-      <c r="AB12" s="294"/>
-      <c r="AC12" s="294"/>
-      <c r="AD12" s="294"/>
-      <c r="AE12" s="294"/>
-      <c r="AF12" s="294"/>
-      <c r="AG12" s="294"/>
-      <c r="AH12" s="294"/>
-      <c r="AI12" s="294"/>
-      <c r="AJ12" s="294"/>
-      <c r="AK12" s="294"/>
-      <c r="AL12" s="294"/>
-      <c r="AM12" s="294"/>
-      <c r="AN12" s="294"/>
-      <c r="AO12" s="294"/>
-      <c r="AP12" s="294"/>
-      <c r="AQ12" s="294"/>
-      <c r="AR12" s="294"/>
-      <c r="AS12" s="294"/>
-      <c r="AT12" s="294"/>
-      <c r="AU12" s="294"/>
-      <c r="AV12" s="294"/>
-      <c r="AW12" s="294"/>
-      <c r="AX12" s="294"/>
-      <c r="AY12" s="294"/>
-      <c r="AZ12" s="294"/>
-      <c r="BA12" s="294"/>
-      <c r="BB12" s="294"/>
-      <c r="BC12" s="294"/>
-      <c r="BD12" s="294"/>
-      <c r="BE12" s="294"/>
-      <c r="BF12" s="294"/>
-      <c r="BG12" s="294"/>
-      <c r="BH12" s="294"/>
-      <c r="BI12" s="294"/>
-      <c r="BJ12" s="294"/>
-      <c r="BK12" s="294"/>
-      <c r="BL12" s="294"/>
-      <c r="BM12" s="294"/>
-      <c r="BN12" s="294"/>
-      <c r="BO12" s="294"/>
-      <c r="BP12" s="294"/>
-      <c r="BQ12" s="294"/>
-      <c r="BR12" s="294"/>
-      <c r="BS12" s="294"/>
-      <c r="BT12" s="294"/>
-      <c r="BU12" s="294"/>
-      <c r="BV12" s="294"/>
-      <c r="BW12" s="294"/>
-      <c r="BX12" s="294"/>
-      <c r="BY12" s="294"/>
-      <c r="BZ12" s="294"/>
-      <c r="CA12" s="294"/>
-      <c r="CB12" s="294"/>
-      <c r="CC12" s="294"/>
-      <c r="CD12" s="295"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
+      <c r="BH12" s="89"/>
+      <c r="BI12" s="89"/>
+      <c r="BJ12" s="89"/>
+      <c r="BK12" s="89"/>
+      <c r="BL12" s="89"/>
+      <c r="BM12" s="89"/>
+      <c r="BN12" s="89"/>
+      <c r="BO12" s="89"/>
+      <c r="BP12" s="89"/>
+      <c r="BQ12" s="89"/>
+      <c r="BR12" s="89"/>
+      <c r="BS12" s="89"/>
+      <c r="BT12" s="89"/>
+      <c r="BU12" s="89"/>
+      <c r="BV12" s="89"/>
+      <c r="BW12" s="89"/>
+      <c r="BX12" s="89"/>
+      <c r="BY12" s="89"/>
+      <c r="BZ12" s="89"/>
+      <c r="CA12" s="89"/>
+      <c r="CB12" s="89"/>
+      <c r="CC12" s="89"/>
+      <c r="CD12" s="90"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="291"/>
-      <c r="M13" s="291"/>
-      <c r="N13" s="291"/>
-      <c r="O13" s="292"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BI13" s="47"/>
-      <c r="BJ13" s="47"/>
-      <c r="BK13" s="47"/>
-      <c r="BL13" s="47"/>
-      <c r="BM13" s="47"/>
-      <c r="BN13" s="47"/>
-      <c r="BO13" s="47"/>
-      <c r="BP13" s="47"/>
-      <c r="BQ13" s="47"/>
-      <c r="BR13" s="47"/>
-      <c r="BS13" s="47"/>
-      <c r="BT13" s="47"/>
-      <c r="BU13" s="47"/>
-      <c r="BV13" s="47"/>
-      <c r="BW13" s="47"/>
-      <c r="BX13" s="47"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="47"/>
-      <c r="CA13" s="47"/>
-      <c r="CB13" s="47"/>
-      <c r="CC13" s="47"/>
-      <c r="CD13" s="48"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="92"/>
+      <c r="BG13" s="92"/>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="92"/>
+      <c r="BL13" s="92"/>
+      <c r="BM13" s="92"/>
+      <c r="BN13" s="92"/>
+      <c r="BO13" s="92"/>
+      <c r="BP13" s="92"/>
+      <c r="BQ13" s="92"/>
+      <c r="BR13" s="92"/>
+      <c r="BS13" s="92"/>
+      <c r="BT13" s="92"/>
+      <c r="BU13" s="92"/>
+      <c r="BV13" s="92"/>
+      <c r="BW13" s="92"/>
+      <c r="BX13" s="92"/>
+      <c r="BY13" s="92"/>
+      <c r="BZ13" s="92"/>
+      <c r="CA13" s="92"/>
+      <c r="CB13" s="92"/>
+      <c r="CC13" s="92"/>
+      <c r="CD13" s="93"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="267" t="s">
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="188" t="s">
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="176"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="176"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="186"/>
-      <c r="Z14" s="176"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="192"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="178"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="57"/>
       <c r="AC14" s="180"/>
       <c r="AD14" s="181"/>
       <c r="AE14" s="182"/>
-      <c r="AF14" s="150" t="s">
+      <c r="AF14" s="242" t="s">
         <v>58</v>
       </c>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="151"/>
-      <c r="AJ14" s="87" t="s">
+      <c r="AG14" s="243"/>
+      <c r="AH14" s="243"/>
+      <c r="AI14" s="243"/>
+      <c r="AJ14" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="88"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="88"/>
-      <c r="AY14" s="88"/>
-      <c r="AZ14" s="88"/>
-      <c r="BA14" s="88"/>
-      <c r="BB14" s="88"/>
-      <c r="BC14" s="88"/>
-      <c r="BD14" s="88"/>
-      <c r="BE14" s="88"/>
-      <c r="BF14" s="88"/>
-      <c r="BG14" s="88"/>
-      <c r="BH14" s="88"/>
-      <c r="BI14" s="88"/>
-      <c r="BJ14" s="88"/>
-      <c r="BK14" s="88"/>
-      <c r="BL14" s="88"/>
-      <c r="BM14" s="88"/>
-      <c r="BN14" s="88"/>
-      <c r="BO14" s="89"/>
+      <c r="AK14" s="257"/>
+      <c r="AL14" s="257"/>
+      <c r="AM14" s="257"/>
+      <c r="AN14" s="257"/>
+      <c r="AO14" s="257"/>
+      <c r="AP14" s="257"/>
+      <c r="AQ14" s="257"/>
+      <c r="AR14" s="257"/>
+      <c r="AS14" s="257"/>
+      <c r="AT14" s="257"/>
+      <c r="AU14" s="257"/>
+      <c r="AV14" s="257"/>
+      <c r="AW14" s="257"/>
+      <c r="AX14" s="257"/>
+      <c r="AY14" s="257"/>
+      <c r="AZ14" s="257"/>
+      <c r="BA14" s="257"/>
+      <c r="BB14" s="257"/>
+      <c r="BC14" s="257"/>
+      <c r="BD14" s="257"/>
+      <c r="BE14" s="257"/>
+      <c r="BF14" s="257"/>
+      <c r="BG14" s="257"/>
+      <c r="BH14" s="257"/>
+      <c r="BI14" s="257"/>
+      <c r="BJ14" s="257"/>
+      <c r="BK14" s="257"/>
+      <c r="BL14" s="257"/>
+      <c r="BM14" s="257"/>
+      <c r="BN14" s="257"/>
+      <c r="BO14" s="258"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="271"/>
-      <c r="L15" s="272"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="179"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="179"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="179"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="194"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="179"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
       <c r="AC15" s="183"/>
       <c r="AD15" s="184"/>
       <c r="AE15" s="185"/>
-      <c r="AF15" s="152"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="153"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="91"/>
-      <c r="AL15" s="91"/>
-      <c r="AM15" s="91"/>
-      <c r="AN15" s="91"/>
-      <c r="AO15" s="91"/>
-      <c r="AP15" s="91"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="91"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="91"/>
-      <c r="BG15" s="91"/>
-      <c r="BH15" s="91"/>
-      <c r="BI15" s="91"/>
-      <c r="BJ15" s="91"/>
-      <c r="BK15" s="91"/>
-      <c r="BL15" s="91"/>
-      <c r="BM15" s="91"/>
-      <c r="BN15" s="91"/>
-      <c r="BO15" s="92"/>
-      <c r="BS15" s="68" t="s">
+      <c r="AF15" s="244"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="259"/>
+      <c r="AK15" s="260"/>
+      <c r="AL15" s="260"/>
+      <c r="AM15" s="260"/>
+      <c r="AN15" s="260"/>
+      <c r="AO15" s="260"/>
+      <c r="AP15" s="260"/>
+      <c r="AQ15" s="260"/>
+      <c r="AR15" s="260"/>
+      <c r="AS15" s="260"/>
+      <c r="AT15" s="260"/>
+      <c r="AU15" s="260"/>
+      <c r="AV15" s="260"/>
+      <c r="AW15" s="260"/>
+      <c r="AX15" s="260"/>
+      <c r="AY15" s="260"/>
+      <c r="AZ15" s="260"/>
+      <c r="BA15" s="260"/>
+      <c r="BB15" s="260"/>
+      <c r="BC15" s="260"/>
+      <c r="BD15" s="260"/>
+      <c r="BE15" s="260"/>
+      <c r="BF15" s="260"/>
+      <c r="BG15" s="260"/>
+      <c r="BH15" s="260"/>
+      <c r="BI15" s="260"/>
+      <c r="BJ15" s="260"/>
+      <c r="BK15" s="260"/>
+      <c r="BL15" s="260"/>
+      <c r="BM15" s="260"/>
+      <c r="BN15" s="260"/>
+      <c r="BO15" s="261"/>
+      <c r="BS15" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="BT15" s="69"/>
-      <c r="BU15" s="69"/>
-      <c r="BV15" s="69"/>
-      <c r="BW15" s="69"/>
-      <c r="BX15" s="69"/>
-      <c r="BY15" s="69"/>
-      <c r="BZ15" s="69"/>
-      <c r="CA15" s="69"/>
-      <c r="CB15" s="69"/>
-      <c r="CC15" s="69"/>
-      <c r="CD15" s="70"/>
+      <c r="BT15" s="215"/>
+      <c r="BU15" s="215"/>
+      <c r="BV15" s="215"/>
+      <c r="BW15" s="215"/>
+      <c r="BX15" s="215"/>
+      <c r="BY15" s="215"/>
+      <c r="BZ15" s="215"/>
+      <c r="CA15" s="215"/>
+      <c r="CB15" s="215"/>
+      <c r="CC15" s="215"/>
+      <c r="CD15" s="216"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10177,22 +10181,22 @@
       <c r="AO16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BS16" s="68"/>
-      <c r="BT16" s="69"/>
-      <c r="BU16" s="69"/>
-      <c r="BV16" s="69"/>
-      <c r="BW16" s="69"/>
-      <c r="BX16" s="69"/>
-      <c r="BY16" s="69"/>
-      <c r="BZ16" s="69"/>
-      <c r="CA16" s="69"/>
-      <c r="CB16" s="69"/>
-      <c r="CC16" s="69"/>
-      <c r="CD16" s="70"/>
+      <c r="BS16" s="214"/>
+      <c r="BT16" s="215"/>
+      <c r="BU16" s="215"/>
+      <c r="BV16" s="215"/>
+      <c r="BW16" s="215"/>
+      <c r="BX16" s="215"/>
+      <c r="BY16" s="215"/>
+      <c r="BZ16" s="215"/>
+      <c r="CA16" s="215"/>
+      <c r="CB16" s="215"/>
+      <c r="CC16" s="215"/>
+      <c r="CD16" s="216"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="H17" s="13" t="s">
@@ -10201,882 +10205,882 @@
       <c r="AO17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BS17" s="71"/>
-      <c r="BT17" s="72"/>
-      <c r="BU17" s="72"/>
-      <c r="BV17" s="72"/>
-      <c r="BW17" s="72"/>
-      <c r="BX17" s="72"/>
-      <c r="BY17" s="72"/>
-      <c r="BZ17" s="72"/>
-      <c r="CA17" s="72"/>
-      <c r="CB17" s="72"/>
-      <c r="CC17" s="72"/>
-      <c r="CD17" s="73"/>
+      <c r="BS17" s="245"/>
+      <c r="BT17" s="209"/>
+      <c r="BU17" s="209"/>
+      <c r="BV17" s="209"/>
+      <c r="BW17" s="209"/>
+      <c r="BX17" s="209"/>
+      <c r="BY17" s="209"/>
+      <c r="BZ17" s="209"/>
+      <c r="CA17" s="209"/>
+      <c r="CB17" s="209"/>
+      <c r="CC17" s="209"/>
+      <c r="CD17" s="246"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BS18" s="71"/>
-      <c r="BT18" s="72"/>
-      <c r="BU18" s="72"/>
-      <c r="BV18" s="72"/>
-      <c r="BW18" s="72"/>
-      <c r="BX18" s="72"/>
-      <c r="BY18" s="72"/>
-      <c r="BZ18" s="72"/>
-      <c r="CA18" s="72"/>
-      <c r="CB18" s="72"/>
-      <c r="CC18" s="72"/>
-      <c r="CD18" s="73"/>
+      <c r="BS18" s="245"/>
+      <c r="BT18" s="209"/>
+      <c r="BU18" s="209"/>
+      <c r="BV18" s="209"/>
+      <c r="BW18" s="209"/>
+      <c r="BX18" s="209"/>
+      <c r="BY18" s="209"/>
+      <c r="BZ18" s="209"/>
+      <c r="CA18" s="209"/>
+      <c r="CB18" s="209"/>
+      <c r="CC18" s="209"/>
+      <c r="CD18" s="246"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="77" t="s">
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="250" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="250"/>
+      <c r="N19" s="250"/>
+      <c r="O19" s="250"/>
+      <c r="P19" s="250"/>
+      <c r="Q19" s="250"/>
+      <c r="R19" s="250"/>
+      <c r="S19" s="250"/>
+      <c r="T19" s="250"/>
+      <c r="U19" s="250"/>
+      <c r="V19" s="250"/>
+      <c r="W19" s="250"/>
+      <c r="X19" s="250"/>
+      <c r="Y19" s="250"/>
+      <c r="Z19" s="250"/>
+      <c r="AA19" s="250"/>
+      <c r="AB19" s="250"/>
+      <c r="AC19" s="250"/>
+      <c r="AD19" s="250"/>
+      <c r="AE19" s="250"/>
+      <c r="AF19" s="250"/>
+      <c r="AG19" s="250"/>
+      <c r="AH19" s="250"/>
+      <c r="AI19" s="250"/>
+      <c r="AJ19" s="250"/>
       <c r="AV19" s="15"/>
-      <c r="BS19" s="71"/>
-      <c r="BT19" s="72"/>
-      <c r="BU19" s="72"/>
-      <c r="BV19" s="72"/>
-      <c r="BW19" s="72"/>
-      <c r="BX19" s="72"/>
-      <c r="BY19" s="72"/>
-      <c r="BZ19" s="72"/>
-      <c r="CA19" s="72"/>
-      <c r="CB19" s="72"/>
-      <c r="CC19" s="72"/>
-      <c r="CD19" s="73"/>
+      <c r="BS19" s="245"/>
+      <c r="BT19" s="209"/>
+      <c r="BU19" s="209"/>
+      <c r="BV19" s="209"/>
+      <c r="BW19" s="209"/>
+      <c r="BX19" s="209"/>
+      <c r="BY19" s="209"/>
+      <c r="BZ19" s="209"/>
+      <c r="CA19" s="209"/>
+      <c r="CB19" s="209"/>
+      <c r="CC19" s="209"/>
+      <c r="CD19" s="246"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="135" t="s">
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="164" t="s">
+      <c r="F20" s="230"/>
+      <c r="G20" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="164" t="s">
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AF20" s="118"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="119"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="108"/>
-      <c r="AW20" s="148" t="s">
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="33"/>
+      <c r="AU20" s="267"/>
+      <c r="AV20" s="268"/>
+      <c r="AW20" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="AX20" s="149"/>
+      <c r="AX20" s="241"/>
       <c r="AY20" s="16"/>
       <c r="AZ20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="BA20" s="18"/>
       <c r="BB20" s="18"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
-      <c r="BI20" s="264"/>
-      <c r="BJ20" s="265"/>
-      <c r="BK20" s="265"/>
-      <c r="BL20" s="265"/>
-      <c r="BM20" s="265"/>
-      <c r="BN20" s="265"/>
-      <c r="BO20" s="265"/>
-      <c r="BP20" s="265"/>
-      <c r="BQ20" s="266"/>
-      <c r="BS20" s="71"/>
-      <c r="BT20" s="72"/>
-      <c r="BU20" s="72"/>
-      <c r="BV20" s="72"/>
-      <c r="BW20" s="72"/>
-      <c r="BX20" s="72"/>
-      <c r="BY20" s="72"/>
-      <c r="BZ20" s="72"/>
-      <c r="CA20" s="72"/>
-      <c r="CB20" s="72"/>
-      <c r="CC20" s="72"/>
-      <c r="CD20" s="73"/>
+      <c r="BC20" s="34"/>
+      <c r="BD20" s="34"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="34"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="35"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="37"/>
+      <c r="BS20" s="245"/>
+      <c r="BT20" s="209"/>
+      <c r="BU20" s="209"/>
+      <c r="BV20" s="209"/>
+      <c r="BW20" s="209"/>
+      <c r="BX20" s="209"/>
+      <c r="BY20" s="209"/>
+      <c r="BZ20" s="209"/>
+      <c r="CA20" s="209"/>
+      <c r="CB20" s="209"/>
+      <c r="CC20" s="209"/>
+      <c r="CD20" s="246"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="273"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="273"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="273"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="172"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="172"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="99" t="s">
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="176"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="105"/>
-      <c r="AJ21" s="94"/>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="94"/>
-      <c r="AO21" s="97"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="93"/>
-      <c r="AR21" s="94"/>
-      <c r="AS21" s="97"/>
-      <c r="AT21" s="98"/>
-      <c r="AU21" s="109"/>
-      <c r="AV21" s="110"/>
-      <c r="AW21" s="113" t="s">
+      <c r="AF21" s="221"/>
+      <c r="AG21" s="221"/>
+      <c r="AH21" s="222"/>
+      <c r="AI21" s="265"/>
+      <c r="AJ21" s="263"/>
+      <c r="AK21" s="236"/>
+      <c r="AL21" s="237"/>
+      <c r="AM21" s="262"/>
+      <c r="AN21" s="263"/>
+      <c r="AO21" s="236"/>
+      <c r="AP21" s="237"/>
+      <c r="AQ21" s="262"/>
+      <c r="AR21" s="263"/>
+      <c r="AS21" s="236"/>
+      <c r="AT21" s="237"/>
+      <c r="AU21" s="269"/>
+      <c r="AV21" s="270"/>
+      <c r="AW21" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="114"/>
+      <c r="AX21" s="273"/>
+      <c r="AY21" s="274"/>
       <c r="AZ21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="BA21" s="20"/>
-      <c r="BB21" s="144"/>
-      <c r="BC21" s="144"/>
-      <c r="BD21" s="144"/>
-      <c r="BE21" s="144"/>
-      <c r="BF21" s="144"/>
-      <c r="BG21" s="144"/>
-      <c r="BH21" s="144"/>
+      <c r="BB21" s="157"/>
+      <c r="BC21" s="157"/>
+      <c r="BD21" s="157"/>
+      <c r="BE21" s="157"/>
+      <c r="BF21" s="157"/>
+      <c r="BG21" s="157"/>
+      <c r="BH21" s="157"/>
       <c r="BI21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="BJ21" s="20"/>
-      <c r="BK21" s="144"/>
-      <c r="BL21" s="144"/>
-      <c r="BM21" s="144"/>
-      <c r="BN21" s="144"/>
-      <c r="BO21" s="144"/>
-      <c r="BP21" s="144"/>
-      <c r="BQ21" s="146"/>
-      <c r="BS21" s="74"/>
-      <c r="BT21" s="75"/>
-      <c r="BU21" s="75"/>
-      <c r="BV21" s="75"/>
-      <c r="BW21" s="75"/>
-      <c r="BX21" s="75"/>
-      <c r="BY21" s="75"/>
-      <c r="BZ21" s="75"/>
-      <c r="CA21" s="75"/>
-      <c r="CB21" s="75"/>
-      <c r="CC21" s="75"/>
-      <c r="CD21" s="76"/>
-      <c r="CV21" s="155"/>
-      <c r="CW21" s="155"/>
-      <c r="CX21" s="155"/>
+      <c r="BK21" s="157"/>
+      <c r="BL21" s="157"/>
+      <c r="BM21" s="157"/>
+      <c r="BN21" s="157"/>
+      <c r="BO21" s="157"/>
+      <c r="BP21" s="157"/>
+      <c r="BQ21" s="158"/>
+      <c r="BS21" s="247"/>
+      <c r="BT21" s="248"/>
+      <c r="BU21" s="248"/>
+      <c r="BV21" s="248"/>
+      <c r="BW21" s="248"/>
+      <c r="BX21" s="248"/>
+      <c r="BY21" s="248"/>
+      <c r="BZ21" s="248"/>
+      <c r="CA21" s="248"/>
+      <c r="CB21" s="248"/>
+      <c r="CC21" s="248"/>
+      <c r="CD21" s="249"/>
+      <c r="CV21" s="30"/>
+      <c r="CW21" s="30"/>
+      <c r="CX21" s="30"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="274"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="274"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="274"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="111"/>
-      <c r="AV22" s="112"/>
-      <c r="AW22" s="115"/>
-      <c r="AX22" s="115"/>
-      <c r="AY22" s="116"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="224"/>
+      <c r="AG22" s="224"/>
+      <c r="AH22" s="225"/>
+      <c r="AI22" s="266"/>
+      <c r="AJ22" s="238"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="238"/>
+      <c r="AM22" s="264"/>
+      <c r="AN22" s="238"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="238"/>
+      <c r="AQ22" s="264"/>
+      <c r="AR22" s="238"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="238"/>
+      <c r="AU22" s="271"/>
+      <c r="AV22" s="272"/>
+      <c r="AW22" s="275"/>
+      <c r="AX22" s="275"/>
+      <c r="AY22" s="276"/>
       <c r="AZ22" s="5"/>
       <c r="BA22" s="6"/>
-      <c r="BB22" s="145"/>
-      <c r="BC22" s="145"/>
-      <c r="BD22" s="145"/>
-      <c r="BE22" s="145"/>
-      <c r="BF22" s="145"/>
-      <c r="BG22" s="145"/>
-      <c r="BH22" s="145"/>
+      <c r="BB22" s="154"/>
+      <c r="BC22" s="154"/>
+      <c r="BD22" s="154"/>
+      <c r="BE22" s="154"/>
+      <c r="BF22" s="154"/>
+      <c r="BG22" s="154"/>
+      <c r="BH22" s="154"/>
       <c r="BI22" s="5"/>
       <c r="BJ22" s="6"/>
-      <c r="BK22" s="145"/>
-      <c r="BL22" s="145"/>
-      <c r="BM22" s="145"/>
-      <c r="BN22" s="145"/>
-      <c r="BO22" s="145"/>
-      <c r="BP22" s="145"/>
-      <c r="BQ22" s="147"/>
-      <c r="CV22" s="155"/>
-      <c r="CW22" s="155"/>
-      <c r="CX22" s="155"/>
+      <c r="BK22" s="154"/>
+      <c r="BL22" s="154"/>
+      <c r="BM22" s="154"/>
+      <c r="BN22" s="154"/>
+      <c r="BO22" s="154"/>
+      <c r="BP22" s="154"/>
+      <c r="BQ22" s="239"/>
+      <c r="CV22" s="30"/>
+      <c r="CW22" s="30"/>
+      <c r="CX22" s="30"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="78" t="s">
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="166"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="31" t="s">
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="31" t="s">
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="136"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="136"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="32"/>
-      <c r="BG23" s="32"/>
-      <c r="BH23" s="32"/>
-      <c r="BI23" s="32"/>
-      <c r="BJ23" s="32"/>
-      <c r="BK23" s="32"/>
-      <c r="BL23" s="32"/>
-      <c r="BM23" s="32"/>
-      <c r="BN23" s="32"/>
-      <c r="BO23" s="32"/>
-      <c r="BP23" s="33"/>
-      <c r="BQ23" s="31" t="s">
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="136"/>
+      <c r="AB23" s="136"/>
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="136"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="136"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="136"/>
+      <c r="AJ23" s="136"/>
+      <c r="AK23" s="136"/>
+      <c r="AL23" s="136"/>
+      <c r="AM23" s="136"/>
+      <c r="AN23" s="136"/>
+      <c r="AO23" s="136"/>
+      <c r="AP23" s="136"/>
+      <c r="AQ23" s="136"/>
+      <c r="AR23" s="136"/>
+      <c r="AS23" s="136"/>
+      <c r="AT23" s="136"/>
+      <c r="AU23" s="136"/>
+      <c r="AV23" s="136"/>
+      <c r="AW23" s="136"/>
+      <c r="AX23" s="136"/>
+      <c r="AY23" s="136"/>
+      <c r="AZ23" s="136"/>
+      <c r="BA23" s="136"/>
+      <c r="BB23" s="136"/>
+      <c r="BC23" s="136"/>
+      <c r="BD23" s="136"/>
+      <c r="BE23" s="136"/>
+      <c r="BF23" s="136"/>
+      <c r="BG23" s="136"/>
+      <c r="BH23" s="136"/>
+      <c r="BI23" s="136"/>
+      <c r="BJ23" s="136"/>
+      <c r="BK23" s="136"/>
+      <c r="BL23" s="136"/>
+      <c r="BM23" s="136"/>
+      <c r="BN23" s="136"/>
+      <c r="BO23" s="136"/>
+      <c r="BP23" s="137"/>
+      <c r="BQ23" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="BR23" s="32"/>
-      <c r="BS23" s="32"/>
-      <c r="BT23" s="32"/>
-      <c r="BU23" s="32"/>
-      <c r="BV23" s="32"/>
-      <c r="BW23" s="32"/>
-      <c r="BX23" s="32"/>
-      <c r="BY23" s="32"/>
-      <c r="BZ23" s="32"/>
-      <c r="CA23" s="32"/>
-      <c r="CB23" s="32"/>
-      <c r="CC23" s="32"/>
-      <c r="CD23" s="33"/>
-      <c r="CE23" s="125"/>
-      <c r="CF23" s="125"/>
+      <c r="BR23" s="136"/>
+      <c r="BS23" s="136"/>
+      <c r="BT23" s="136"/>
+      <c r="BU23" s="136"/>
+      <c r="BV23" s="136"/>
+      <c r="BW23" s="136"/>
+      <c r="BX23" s="136"/>
+      <c r="BY23" s="136"/>
+      <c r="BZ23" s="136"/>
+      <c r="CA23" s="136"/>
+      <c r="CB23" s="136"/>
+      <c r="CC23" s="136"/>
+      <c r="CD23" s="137"/>
+      <c r="CE23" s="213"/>
+      <c r="CF23" s="213"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="155"/>
-      <c r="CW23" s="155"/>
-      <c r="CX23" s="155"/>
+      <c r="CV23" s="30"/>
+      <c r="CW23" s="30"/>
+      <c r="CX23" s="30"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="176"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="192"/>
-      <c r="X24" s="132" t="s">
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="231"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="133"/>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="133"/>
-      <c r="AG24" s="134"/>
-      <c r="AH24" s="224" t="s">
+      <c r="Y24" s="227"/>
+      <c r="Z24" s="227"/>
+      <c r="AA24" s="227"/>
+      <c r="AB24" s="227"/>
+      <c r="AC24" s="227"/>
+      <c r="AD24" s="227"/>
+      <c r="AE24" s="227"/>
+      <c r="AF24" s="227"/>
+      <c r="AG24" s="228"/>
+      <c r="AH24" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="224"/>
-      <c r="AJ24" s="224"/>
-      <c r="AK24" s="224"/>
-      <c r="AL24" s="225"/>
-      <c r="AM24" s="225"/>
-      <c r="AN24" s="225"/>
-      <c r="AO24" s="225"/>
-      <c r="AP24" s="225"/>
-      <c r="AQ24" s="225"/>
-      <c r="AR24" s="225"/>
-      <c r="AS24" s="225"/>
-      <c r="AT24" s="225"/>
-      <c r="AU24" s="225"/>
-      <c r="AV24" s="225"/>
-      <c r="AW24" s="225"/>
-      <c r="AX24" s="225"/>
-      <c r="AY24" s="225"/>
-      <c r="AZ24" s="225"/>
-      <c r="BA24" s="225"/>
-      <c r="BB24" s="225"/>
-      <c r="BC24" s="225"/>
-      <c r="BD24" s="225"/>
-      <c r="BE24" s="225"/>
-      <c r="BF24" s="225"/>
-      <c r="BG24" s="225"/>
-      <c r="BH24" s="225"/>
-      <c r="BI24" s="225"/>
-      <c r="BJ24" s="225"/>
-      <c r="BK24" s="225"/>
-      <c r="BL24" s="225"/>
-      <c r="BM24" s="225"/>
-      <c r="BN24" s="225"/>
-      <c r="BO24" s="225"/>
-      <c r="BP24" s="226"/>
-      <c r="BQ24" s="230" t="s">
+      <c r="AI24" s="168"/>
+      <c r="AJ24" s="168"/>
+      <c r="AK24" s="168"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
+      <c r="AS24" s="46"/>
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="46"/>
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46"/>
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="46"/>
+      <c r="AZ24" s="46"/>
+      <c r="BA24" s="46"/>
+      <c r="BB24" s="46"/>
+      <c r="BC24" s="46"/>
+      <c r="BD24" s="46"/>
+      <c r="BE24" s="46"/>
+      <c r="BF24" s="46"/>
+      <c r="BG24" s="46"/>
+      <c r="BH24" s="46"/>
+      <c r="BI24" s="46"/>
+      <c r="BJ24" s="46"/>
+      <c r="BK24" s="46"/>
+      <c r="BL24" s="46"/>
+      <c r="BM24" s="46"/>
+      <c r="BN24" s="46"/>
+      <c r="BO24" s="46"/>
+      <c r="BP24" s="47"/>
+      <c r="BQ24" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="BR24" s="231"/>
-      <c r="BS24" s="128"/>
+      <c r="BR24" s="173"/>
+      <c r="BS24" s="133"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="126"/>
-      <c r="BV24" s="38"/>
-      <c r="BW24" s="128"/>
+      <c r="BU24" s="56"/>
+      <c r="BV24" s="217"/>
+      <c r="BW24" s="133"/>
       <c r="BX24" s="41"/>
-      <c r="BY24" s="126"/>
-      <c r="BZ24" s="38"/>
-      <c r="CA24" s="128"/>
+      <c r="BY24" s="56"/>
+      <c r="BZ24" s="217"/>
+      <c r="CA24" s="133"/>
       <c r="CB24" s="41"/>
-      <c r="CC24" s="126"/>
-      <c r="CD24" s="38"/>
-      <c r="CE24" s="125"/>
-      <c r="CF24" s="125"/>
+      <c r="CC24" s="56"/>
+      <c r="CD24" s="217"/>
+      <c r="CE24" s="213"/>
+      <c r="CF24" s="213"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="177"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="177"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="177"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="176"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="176"/>
-      <c r="AB25" s="126"/>
-      <c r="AC25" s="176"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="176"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="192"/>
-      <c r="AH25" s="214"/>
-      <c r="AI25" s="144"/>
-      <c r="AJ25" s="144"/>
-      <c r="AK25" s="144"/>
-      <c r="AL25" s="144"/>
-      <c r="AM25" s="144"/>
-      <c r="AN25" s="144"/>
-      <c r="AO25" s="144"/>
-      <c r="AP25" s="144"/>
-      <c r="AQ25" s="144"/>
-      <c r="AR25" s="144"/>
-      <c r="AS25" s="144"/>
-      <c r="AT25" s="144"/>
-      <c r="AU25" s="144"/>
-      <c r="AV25" s="144"/>
-      <c r="AW25" s="144"/>
-      <c r="AX25" s="144"/>
-      <c r="AY25" s="144"/>
-      <c r="AZ25" s="144"/>
-      <c r="BA25" s="144"/>
-      <c r="BB25" s="144"/>
-      <c r="BC25" s="144"/>
-      <c r="BD25" s="144"/>
-      <c r="BE25" s="144"/>
-      <c r="BF25" s="144"/>
-      <c r="BG25" s="144"/>
-      <c r="BH25" s="144"/>
-      <c r="BI25" s="144"/>
-      <c r="BJ25" s="144"/>
-      <c r="BK25" s="144"/>
-      <c r="BL25" s="144"/>
-      <c r="BM25" s="144"/>
-      <c r="BN25" s="144"/>
-      <c r="BO25" s="144"/>
-      <c r="BP25" s="146"/>
-      <c r="BQ25" s="232"/>
-      <c r="BR25" s="233"/>
-      <c r="BS25" s="129"/>
-      <c r="BT25" s="121"/>
-      <c r="BU25" s="120"/>
-      <c r="BV25" s="127"/>
-      <c r="BW25" s="129"/>
-      <c r="BX25" s="121"/>
-      <c r="BY25" s="120"/>
-      <c r="BZ25" s="127"/>
-      <c r="CA25" s="129"/>
-      <c r="CB25" s="121"/>
-      <c r="CC25" s="120"/>
-      <c r="CD25" s="127"/>
-      <c r="CE25" s="125"/>
-      <c r="CF25" s="125"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="139"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="133"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="156"/>
+      <c r="AI25" s="157"/>
+      <c r="AJ25" s="157"/>
+      <c r="AK25" s="157"/>
+      <c r="AL25" s="157"/>
+      <c r="AM25" s="157"/>
+      <c r="AN25" s="157"/>
+      <c r="AO25" s="157"/>
+      <c r="AP25" s="157"/>
+      <c r="AQ25" s="157"/>
+      <c r="AR25" s="157"/>
+      <c r="AS25" s="157"/>
+      <c r="AT25" s="157"/>
+      <c r="AU25" s="157"/>
+      <c r="AV25" s="157"/>
+      <c r="AW25" s="157"/>
+      <c r="AX25" s="157"/>
+      <c r="AY25" s="157"/>
+      <c r="AZ25" s="157"/>
+      <c r="BA25" s="157"/>
+      <c r="BB25" s="157"/>
+      <c r="BC25" s="157"/>
+      <c r="BD25" s="157"/>
+      <c r="BE25" s="157"/>
+      <c r="BF25" s="157"/>
+      <c r="BG25" s="157"/>
+      <c r="BH25" s="157"/>
+      <c r="BI25" s="157"/>
+      <c r="BJ25" s="157"/>
+      <c r="BK25" s="157"/>
+      <c r="BL25" s="157"/>
+      <c r="BM25" s="157"/>
+      <c r="BN25" s="157"/>
+      <c r="BO25" s="157"/>
+      <c r="BP25" s="158"/>
+      <c r="BQ25" s="174"/>
+      <c r="BR25" s="175"/>
+      <c r="BS25" s="219"/>
+      <c r="BT25" s="43"/>
+      <c r="BU25" s="42"/>
+      <c r="BV25" s="218"/>
+      <c r="BW25" s="219"/>
+      <c r="BX25" s="43"/>
+      <c r="BY25" s="42"/>
+      <c r="BZ25" s="218"/>
+      <c r="CA25" s="219"/>
+      <c r="CB25" s="43"/>
+      <c r="CC25" s="42"/>
+      <c r="CD25" s="218"/>
+      <c r="CE25" s="213"/>
+      <c r="CF25" s="213"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="207"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="179"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="179"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="179"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="194"/>
-      <c r="X26" s="207"/>
-      <c r="Y26" s="179"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="179"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="179"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="179"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="194"/>
-      <c r="AH26" s="215"/>
-      <c r="AI26" s="216"/>
-      <c r="AJ26" s="216"/>
-      <c r="AK26" s="216"/>
-      <c r="AL26" s="216"/>
-      <c r="AM26" s="216"/>
-      <c r="AN26" s="216"/>
-      <c r="AO26" s="216"/>
-      <c r="AP26" s="216"/>
-      <c r="AQ26" s="216"/>
-      <c r="AR26" s="216"/>
-      <c r="AS26" s="216"/>
-      <c r="AT26" s="216"/>
-      <c r="AU26" s="216"/>
-      <c r="AV26" s="216"/>
-      <c r="AW26" s="216"/>
-      <c r="AX26" s="216"/>
-      <c r="AY26" s="216"/>
-      <c r="AZ26" s="216"/>
-      <c r="BA26" s="216"/>
-      <c r="BB26" s="216"/>
-      <c r="BC26" s="216"/>
-      <c r="BD26" s="216"/>
-      <c r="BE26" s="216"/>
-      <c r="BF26" s="216"/>
-      <c r="BG26" s="216"/>
-      <c r="BH26" s="216"/>
-      <c r="BI26" s="216"/>
-      <c r="BJ26" s="216"/>
-      <c r="BK26" s="216"/>
-      <c r="BL26" s="216"/>
-      <c r="BM26" s="216"/>
-      <c r="BN26" s="216"/>
-      <c r="BO26" s="216"/>
-      <c r="BP26" s="217"/>
-      <c r="BQ26" s="232"/>
-      <c r="BR26" s="233"/>
-      <c r="BS26" s="129"/>
-      <c r="BT26" s="121"/>
-      <c r="BU26" s="120"/>
-      <c r="BV26" s="127"/>
-      <c r="BW26" s="129"/>
-      <c r="BX26" s="121"/>
-      <c r="BY26" s="120"/>
-      <c r="BZ26" s="127"/>
-      <c r="CA26" s="129"/>
-      <c r="CB26" s="121"/>
-      <c r="CC26" s="120"/>
-      <c r="CD26" s="127"/>
-      <c r="CE26" s="125"/>
-      <c r="CF26" s="125"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="160"/>
+      <c r="AN26" s="160"/>
+      <c r="AO26" s="160"/>
+      <c r="AP26" s="160"/>
+      <c r="AQ26" s="160"/>
+      <c r="AR26" s="160"/>
+      <c r="AS26" s="160"/>
+      <c r="AT26" s="160"/>
+      <c r="AU26" s="160"/>
+      <c r="AV26" s="160"/>
+      <c r="AW26" s="160"/>
+      <c r="AX26" s="160"/>
+      <c r="AY26" s="160"/>
+      <c r="AZ26" s="160"/>
+      <c r="BA26" s="160"/>
+      <c r="BB26" s="160"/>
+      <c r="BC26" s="160"/>
+      <c r="BD26" s="160"/>
+      <c r="BE26" s="160"/>
+      <c r="BF26" s="160"/>
+      <c r="BG26" s="160"/>
+      <c r="BH26" s="160"/>
+      <c r="BI26" s="160"/>
+      <c r="BJ26" s="160"/>
+      <c r="BK26" s="160"/>
+      <c r="BL26" s="160"/>
+      <c r="BM26" s="160"/>
+      <c r="BN26" s="160"/>
+      <c r="BO26" s="160"/>
+      <c r="BP26" s="161"/>
+      <c r="BQ26" s="174"/>
+      <c r="BR26" s="175"/>
+      <c r="BS26" s="219"/>
+      <c r="BT26" s="43"/>
+      <c r="BU26" s="42"/>
+      <c r="BV26" s="218"/>
+      <c r="BW26" s="219"/>
+      <c r="BX26" s="43"/>
+      <c r="BY26" s="42"/>
+      <c r="BZ26" s="218"/>
+      <c r="CA26" s="219"/>
+      <c r="CB26" s="43"/>
+      <c r="CC26" s="42"/>
+      <c r="CD26" s="218"/>
+      <c r="CE26" s="213"/>
+      <c r="CF26" s="213"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="195" t="s">
+      <c r="C27" s="210"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="196"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="204" t="s">
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="205"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="210"/>
-      <c r="R27" s="210"/>
-      <c r="S27" s="210"/>
-      <c r="T27" s="210"/>
-      <c r="U27" s="210"/>
-      <c r="V27" s="210"/>
-      <c r="W27" s="210"/>
-      <c r="X27" s="210"/>
-      <c r="Y27" s="210"/>
-      <c r="Z27" s="210"/>
-      <c r="AA27" s="210"/>
-      <c r="AB27" s="210"/>
-      <c r="AC27" s="210"/>
-      <c r="AD27" s="210"/>
-      <c r="AE27" s="210"/>
-      <c r="AF27" s="210"/>
-      <c r="AG27" s="210"/>
-      <c r="AH27" s="210"/>
-      <c r="AI27" s="210"/>
-      <c r="AJ27" s="210"/>
-      <c r="AK27" s="210"/>
-      <c r="AL27" s="210"/>
-      <c r="AM27" s="210"/>
-      <c r="AN27" s="210"/>
-      <c r="AO27" s="210"/>
-      <c r="AP27" s="210"/>
-      <c r="AQ27" s="210"/>
-      <c r="AR27" s="210"/>
-      <c r="AS27" s="210"/>
-      <c r="AT27" s="210"/>
-      <c r="AU27" s="210"/>
-      <c r="AV27" s="210"/>
-      <c r="AW27" s="210"/>
-      <c r="AX27" s="210"/>
-      <c r="AY27" s="210"/>
-      <c r="AZ27" s="210"/>
-      <c r="BA27" s="210"/>
-      <c r="BB27" s="210"/>
-      <c r="BC27" s="210"/>
-      <c r="BD27" s="210"/>
-      <c r="BE27" s="210"/>
-      <c r="BF27" s="210"/>
-      <c r="BG27" s="210"/>
-      <c r="BH27" s="210"/>
-      <c r="BI27" s="211"/>
-      <c r="BJ27" s="218" t="s">
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="151"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="151"/>
+      <c r="AE27" s="151"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="151"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="151"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
+      <c r="AQ27" s="151"/>
+      <c r="AR27" s="151"/>
+      <c r="AS27" s="151"/>
+      <c r="AT27" s="151"/>
+      <c r="AU27" s="151"/>
+      <c r="AV27" s="151"/>
+      <c r="AW27" s="151"/>
+      <c r="AX27" s="151"/>
+      <c r="AY27" s="151"/>
+      <c r="AZ27" s="151"/>
+      <c r="BA27" s="151"/>
+      <c r="BB27" s="151"/>
+      <c r="BC27" s="151"/>
+      <c r="BD27" s="151"/>
+      <c r="BE27" s="151"/>
+      <c r="BF27" s="151"/>
+      <c r="BG27" s="151"/>
+      <c r="BH27" s="151"/>
+      <c r="BI27" s="152"/>
+      <c r="BJ27" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="BK27" s="219"/>
-      <c r="BL27" s="220"/>
-      <c r="BM27" s="227" t="s">
+      <c r="BK27" s="163"/>
+      <c r="BL27" s="164"/>
+      <c r="BM27" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="BN27" s="228"/>
-      <c r="BO27" s="228"/>
-      <c r="BP27" s="228"/>
-      <c r="BQ27" s="228"/>
-      <c r="BR27" s="228"/>
-      <c r="BS27" s="228"/>
-      <c r="BT27" s="228"/>
-      <c r="BU27" s="228"/>
-      <c r="BV27" s="228"/>
-      <c r="BW27" s="228"/>
-      <c r="BX27" s="228"/>
-      <c r="BY27" s="228"/>
-      <c r="BZ27" s="228"/>
-      <c r="CA27" s="228"/>
-      <c r="CB27" s="228"/>
-      <c r="CC27" s="228"/>
-      <c r="CD27" s="228"/>
-      <c r="CE27" s="228"/>
-      <c r="CF27" s="229"/>
+      <c r="BN27" s="170"/>
+      <c r="BO27" s="170"/>
+      <c r="BP27" s="170"/>
+      <c r="BQ27" s="170"/>
+      <c r="BR27" s="170"/>
+      <c r="BS27" s="170"/>
+      <c r="BT27" s="170"/>
+      <c r="BU27" s="170"/>
+      <c r="BV27" s="170"/>
+      <c r="BW27" s="170"/>
+      <c r="BX27" s="170"/>
+      <c r="BY27" s="170"/>
+      <c r="BZ27" s="170"/>
+      <c r="CA27" s="170"/>
+      <c r="CB27" s="170"/>
+      <c r="CC27" s="170"/>
+      <c r="CD27" s="170"/>
+      <c r="CE27" s="170"/>
+      <c r="CF27" s="171"/>
     </row>
     <row r="28" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="201" t="s">
+      <c r="C28" s="210"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="203"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="145"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="145"/>
-      <c r="AM28" s="145"/>
-      <c r="AN28" s="145"/>
-      <c r="AO28" s="145"/>
-      <c r="AP28" s="145"/>
-      <c r="AQ28" s="145"/>
-      <c r="AR28" s="145"/>
-      <c r="AS28" s="145"/>
-      <c r="AT28" s="145"/>
-      <c r="AU28" s="145"/>
-      <c r="AV28" s="145"/>
-      <c r="AW28" s="145"/>
-      <c r="AX28" s="145"/>
-      <c r="AY28" s="145"/>
-      <c r="AZ28" s="145"/>
-      <c r="BA28" s="145"/>
-      <c r="BB28" s="145"/>
-      <c r="BC28" s="145"/>
-      <c r="BD28" s="145"/>
-      <c r="BE28" s="145"/>
-      <c r="BF28" s="145"/>
-      <c r="BG28" s="145"/>
-      <c r="BH28" s="145"/>
-      <c r="BI28" s="213"/>
-      <c r="BJ28" s="221"/>
-      <c r="BK28" s="222"/>
-      <c r="BL28" s="223"/>
-      <c r="BM28" s="141" t="s">
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="154"/>
+      <c r="AF28" s="154"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="154"/>
+      <c r="AJ28" s="154"/>
+      <c r="AK28" s="154"/>
+      <c r="AL28" s="154"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
+      <c r="AQ28" s="154"/>
+      <c r="AR28" s="154"/>
+      <c r="AS28" s="154"/>
+      <c r="AT28" s="154"/>
+      <c r="AU28" s="154"/>
+      <c r="AV28" s="154"/>
+      <c r="AW28" s="154"/>
+      <c r="AX28" s="154"/>
+      <c r="AY28" s="154"/>
+      <c r="AZ28" s="154"/>
+      <c r="BA28" s="154"/>
+      <c r="BB28" s="154"/>
+      <c r="BC28" s="154"/>
+      <c r="BD28" s="154"/>
+      <c r="BE28" s="154"/>
+      <c r="BF28" s="154"/>
+      <c r="BG28" s="154"/>
+      <c r="BH28" s="154"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="165"/>
+      <c r="BK28" s="166"/>
+      <c r="BL28" s="167"/>
+      <c r="BM28" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="BN28" s="142"/>
-      <c r="BO28" s="142"/>
-      <c r="BP28" s="142"/>
-      <c r="BQ28" s="142"/>
-      <c r="BR28" s="142"/>
-      <c r="BS28" s="142"/>
-      <c r="BT28" s="142"/>
-      <c r="BU28" s="142"/>
-      <c r="BV28" s="142"/>
-      <c r="BW28" s="142"/>
-      <c r="BX28" s="142"/>
-      <c r="BY28" s="142"/>
-      <c r="BZ28" s="142"/>
-      <c r="CA28" s="142"/>
-      <c r="CB28" s="142"/>
-      <c r="CC28" s="142"/>
-      <c r="CD28" s="142"/>
-      <c r="CE28" s="142"/>
-      <c r="CF28" s="143"/>
+      <c r="BN28" s="234"/>
+      <c r="BO28" s="234"/>
+      <c r="BP28" s="234"/>
+      <c r="BQ28" s="234"/>
+      <c r="BR28" s="234"/>
+      <c r="BS28" s="234"/>
+      <c r="BT28" s="234"/>
+      <c r="BU28" s="234"/>
+      <c r="BV28" s="234"/>
+      <c r="BW28" s="234"/>
+      <c r="BX28" s="234"/>
+      <c r="BY28" s="234"/>
+      <c r="BZ28" s="234"/>
+      <c r="CA28" s="234"/>
+      <c r="CB28" s="234"/>
+      <c r="CC28" s="234"/>
+      <c r="CD28" s="234"/>
+      <c r="CE28" s="234"/>
+      <c r="CF28" s="235"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="21"/>
@@ -11088,247 +11092,247 @@
       <c r="CF30" s="6"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="242" t="s">
+      <c r="C31" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="243"/>
-      <c r="I31" s="243"/>
-      <c r="J31" s="243"/>
-      <c r="K31" s="243"/>
-      <c r="L31" s="243"/>
-      <c r="M31" s="243"/>
-      <c r="N31" s="243"/>
-      <c r="O31" s="243"/>
-      <c r="P31" s="243"/>
-      <c r="Q31" s="243"/>
-      <c r="R31" s="243"/>
-      <c r="S31" s="243"/>
-      <c r="T31" s="243"/>
-      <c r="U31" s="243"/>
-      <c r="V31" s="243"/>
-      <c r="W31" s="243"/>
-      <c r="X31" s="243"/>
-      <c r="Y31" s="243"/>
-      <c r="Z31" s="243"/>
-      <c r="AA31" s="243"/>
-      <c r="AB31" s="244"/>
-      <c r="AD31" s="246" t="s">
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="105"/>
+      <c r="AD31" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AE31" s="247"/>
-      <c r="AF31" s="247"/>
-      <c r="AG31" s="247"/>
-      <c r="AH31" s="247"/>
-      <c r="AI31" s="247"/>
-      <c r="AJ31" s="247"/>
-      <c r="AK31" s="247"/>
-      <c r="AL31" s="247"/>
-      <c r="AM31" s="247"/>
-      <c r="AN31" s="247"/>
-      <c r="AO31" s="247"/>
-      <c r="AP31" s="247"/>
-      <c r="AQ31" s="247"/>
-      <c r="AR31" s="247"/>
-      <c r="AS31" s="247"/>
-      <c r="AT31" s="247"/>
-      <c r="AU31" s="247"/>
-      <c r="AV31" s="247"/>
-      <c r="AW31" s="247"/>
-      <c r="AX31" s="247"/>
-      <c r="AY31" s="247"/>
-      <c r="AZ31" s="247"/>
-      <c r="BA31" s="247"/>
-      <c r="BB31" s="247"/>
-      <c r="BC31" s="248"/>
-      <c r="BE31" s="240" t="s">
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="108"/>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="108"/>
+      <c r="AJ31" s="108"/>
+      <c r="AK31" s="108"/>
+      <c r="AL31" s="108"/>
+      <c r="AM31" s="108"/>
+      <c r="AN31" s="108"/>
+      <c r="AO31" s="108"/>
+      <c r="AP31" s="108"/>
+      <c r="AQ31" s="108"/>
+      <c r="AR31" s="108"/>
+      <c r="AS31" s="108"/>
+      <c r="AT31" s="108"/>
+      <c r="AU31" s="108"/>
+      <c r="AV31" s="108"/>
+      <c r="AW31" s="108"/>
+      <c r="AX31" s="108"/>
+      <c r="AY31" s="108"/>
+      <c r="AZ31" s="108"/>
+      <c r="BA31" s="108"/>
+      <c r="BB31" s="108"/>
+      <c r="BC31" s="109"/>
+      <c r="BE31" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="BF31" s="241"/>
-      <c r="BG31" s="241"/>
-      <c r="BH31" s="241"/>
-      <c r="BI31" s="241"/>
-      <c r="BJ31" s="241"/>
-      <c r="BK31" s="241"/>
-      <c r="BL31" s="241"/>
-      <c r="BM31" s="241"/>
-      <c r="BN31" s="241"/>
-      <c r="BO31" s="241"/>
-      <c r="BP31" s="241"/>
-      <c r="BQ31" s="241"/>
-      <c r="BR31" s="241"/>
-      <c r="BS31" s="241"/>
-      <c r="BT31" s="241"/>
-      <c r="BU31" s="241"/>
-      <c r="BV31" s="241"/>
-      <c r="BW31" s="241"/>
-      <c r="BX31" s="241"/>
-      <c r="BY31" s="241"/>
-      <c r="BZ31" s="241"/>
-      <c r="CA31" s="241"/>
-      <c r="CB31" s="241"/>
-      <c r="CC31" s="241"/>
-      <c r="CD31" s="241"/>
-      <c r="CE31" s="241"/>
-      <c r="CF31" s="241"/>
+      <c r="BF31" s="102"/>
+      <c r="BG31" s="102"/>
+      <c r="BH31" s="102"/>
+      <c r="BI31" s="102"/>
+      <c r="BJ31" s="102"/>
+      <c r="BK31" s="102"/>
+      <c r="BL31" s="102"/>
+      <c r="BM31" s="102"/>
+      <c r="BN31" s="102"/>
+      <c r="BO31" s="102"/>
+      <c r="BP31" s="102"/>
+      <c r="BQ31" s="102"/>
+      <c r="BR31" s="102"/>
+      <c r="BS31" s="102"/>
+      <c r="BT31" s="102"/>
+      <c r="BU31" s="102"/>
+      <c r="BV31" s="102"/>
+      <c r="BW31" s="102"/>
+      <c r="BX31" s="102"/>
+      <c r="BY31" s="102"/>
+      <c r="BZ31" s="102"/>
+      <c r="CA31" s="102"/>
+      <c r="CB31" s="102"/>
+      <c r="CC31" s="102"/>
+      <c r="CD31" s="102"/>
+      <c r="CE31" s="102"/>
+      <c r="CF31" s="102"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="22"/>
       <c r="D32" s="12"/>
-      <c r="L32" s="262" t="s">
+      <c r="L32" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="262"/>
-      <c r="N32" s="262"/>
-      <c r="O32" s="262"/>
-      <c r="P32" s="262"/>
-      <c r="Q32" s="262"/>
-      <c r="R32" s="262"/>
-      <c r="S32" s="262"/>
-      <c r="T32" s="262"/>
-      <c r="U32" s="262"/>
-      <c r="V32" s="262"/>
-      <c r="W32" s="262"/>
-      <c r="X32" s="262"/>
-      <c r="Y32" s="262"/>
-      <c r="Z32" s="262"/>
-      <c r="AA32" s="262"/>
-      <c r="AB32" s="263"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="125"/>
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="125"/>
+      <c r="AB32" s="126"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="245" t="s">
+      <c r="AR32" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="AS32" s="245"/>
-      <c r="AT32" s="245"/>
-      <c r="AU32" s="245"/>
-      <c r="AV32" s="245"/>
-      <c r="AW32" s="245"/>
-      <c r="AX32" s="245"/>
-      <c r="AY32" s="245"/>
-      <c r="AZ32" s="245"/>
-      <c r="BA32" s="245"/>
-      <c r="BB32" s="245"/>
-      <c r="BC32" s="258"/>
-      <c r="BE32" s="237" t="s">
+      <c r="AS32" s="106"/>
+      <c r="AT32" s="106"/>
+      <c r="AU32" s="106"/>
+      <c r="AV32" s="106"/>
+      <c r="AW32" s="106"/>
+      <c r="AX32" s="106"/>
+      <c r="AY32" s="106"/>
+      <c r="AZ32" s="106"/>
+      <c r="BA32" s="106"/>
+      <c r="BB32" s="106"/>
+      <c r="BC32" s="121"/>
+      <c r="BE32" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="BF32" s="238"/>
-      <c r="BG32" s="238"/>
-      <c r="BH32" s="238"/>
-      <c r="BI32" s="238"/>
-      <c r="BJ32" s="238"/>
-      <c r="BK32" s="238"/>
-      <c r="BL32" s="238"/>
-      <c r="BM32" s="238"/>
-      <c r="BN32" s="238"/>
-      <c r="BO32" s="238"/>
-      <c r="BP32" s="238"/>
-      <c r="BQ32" s="238"/>
-      <c r="BR32" s="238"/>
-      <c r="BS32" s="238"/>
-      <c r="BT32" s="238"/>
-      <c r="BU32" s="238"/>
-      <c r="BV32" s="238"/>
-      <c r="BW32" s="238"/>
-      <c r="BX32" s="238"/>
-      <c r="BY32" s="238"/>
-      <c r="BZ32" s="238"/>
-      <c r="CA32" s="238"/>
-      <c r="CB32" s="238"/>
-      <c r="CC32" s="238"/>
-      <c r="CD32" s="238"/>
-      <c r="CE32" s="238"/>
-      <c r="CF32" s="239"/>
+      <c r="BF32" s="99"/>
+      <c r="BG32" s="99"/>
+      <c r="BH32" s="99"/>
+      <c r="BI32" s="99"/>
+      <c r="BJ32" s="99"/>
+      <c r="BK32" s="99"/>
+      <c r="BL32" s="99"/>
+      <c r="BM32" s="99"/>
+      <c r="BN32" s="99"/>
+      <c r="BO32" s="99"/>
+      <c r="BP32" s="99"/>
+      <c r="BQ32" s="99"/>
+      <c r="BR32" s="99"/>
+      <c r="BS32" s="99"/>
+      <c r="BT32" s="99"/>
+      <c r="BU32" s="99"/>
+      <c r="BV32" s="99"/>
+      <c r="BW32" s="99"/>
+      <c r="BX32" s="99"/>
+      <c r="BY32" s="99"/>
+      <c r="BZ32" s="99"/>
+      <c r="CA32" s="99"/>
+      <c r="CB32" s="99"/>
+      <c r="CC32" s="99"/>
+      <c r="CD32" s="99"/>
+      <c r="CE32" s="99"/>
+      <c r="CF32" s="100"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="137"/>
-      <c r="D33" s="249"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="259"/>
-      <c r="M33" s="259"/>
-      <c r="N33" s="259"/>
-      <c r="O33" s="259"/>
-      <c r="P33" s="259"/>
-      <c r="Q33" s="259"/>
-      <c r="R33" s="259"/>
-      <c r="S33" s="259"/>
-      <c r="T33" s="259"/>
-      <c r="U33" s="259"/>
-      <c r="V33" s="259"/>
-      <c r="W33" s="259"/>
-      <c r="X33" s="259"/>
-      <c r="Y33" s="259"/>
-      <c r="Z33" s="259"/>
-      <c r="AA33" s="259"/>
-      <c r="AB33" s="260"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="249"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="123"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="111"/>
       <c r="AF33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AJ33" s="251"/>
-      <c r="AK33" s="251"/>
-      <c r="AL33" s="251"/>
-      <c r="AM33" s="251"/>
-      <c r="AN33" s="251"/>
-      <c r="AO33" s="251"/>
-      <c r="AP33" s="251"/>
-      <c r="AQ33" s="251"/>
-      <c r="AR33" s="251"/>
-      <c r="AS33" s="251"/>
-      <c r="AT33" s="251"/>
-      <c r="AU33" s="251"/>
-      <c r="AV33" s="251"/>
-      <c r="AW33" s="251"/>
-      <c r="AX33" s="251"/>
-      <c r="AY33" s="251"/>
-      <c r="AZ33" s="251"/>
-      <c r="BA33" s="251"/>
-      <c r="BB33" s="251"/>
-      <c r="BC33" s="252"/>
-      <c r="BE33" s="254" t="s">
+      <c r="AJ33" s="114"/>
+      <c r="AK33" s="114"/>
+      <c r="AL33" s="114"/>
+      <c r="AM33" s="114"/>
+      <c r="AN33" s="114"/>
+      <c r="AO33" s="114"/>
+      <c r="AP33" s="114"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
+      <c r="AX33" s="114"/>
+      <c r="AY33" s="114"/>
+      <c r="AZ33" s="114"/>
+      <c r="BA33" s="114"/>
+      <c r="BB33" s="114"/>
+      <c r="BC33" s="115"/>
+      <c r="BE33" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="BF33" s="255"/>
-      <c r="BG33" s="236" t="s">
+      <c r="BF33" s="118"/>
+      <c r="BG33" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="BH33" s="236"/>
-      <c r="BI33" s="236"/>
-      <c r="BJ33" s="236"/>
-      <c r="BK33" s="236"/>
-      <c r="BL33" s="236"/>
-      <c r="BM33" s="236"/>
-      <c r="BN33" s="236"/>
-      <c r="BO33" s="236"/>
-      <c r="BP33" s="236"/>
-      <c r="BQ33" s="236"/>
-      <c r="BT33" s="245" t="s">
+      <c r="BH33" s="97"/>
+      <c r="BI33" s="97"/>
+      <c r="BJ33" s="97"/>
+      <c r="BK33" s="97"/>
+      <c r="BL33" s="97"/>
+      <c r="BM33" s="97"/>
+      <c r="BN33" s="97"/>
+      <c r="BO33" s="97"/>
+      <c r="BP33" s="97"/>
+      <c r="BQ33" s="97"/>
+      <c r="BT33" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BU33" s="245"/>
-      <c r="BV33" s="245"/>
-      <c r="BW33" s="245"/>
-      <c r="BX33" s="245"/>
-      <c r="BY33" s="245"/>
-      <c r="BZ33" s="245"/>
-      <c r="CA33" s="245"/>
-      <c r="CB33" s="245"/>
-      <c r="CC33" s="245"/>
-      <c r="CD33" s="245"/>
-      <c r="CE33" s="245"/>
+      <c r="BU33" s="106"/>
+      <c r="BV33" s="106"/>
+      <c r="BW33" s="106"/>
+      <c r="BX33" s="106"/>
+      <c r="BY33" s="106"/>
+      <c r="BZ33" s="106"/>
+      <c r="CA33" s="106"/>
+      <c r="CB33" s="106"/>
+      <c r="CC33" s="106"/>
+      <c r="CD33" s="106"/>
+      <c r="CE33" s="106"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="137"/>
-      <c r="D34" s="249"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="23" t="s">
         <v>8</v>
       </c>
@@ -11349,139 +11353,139 @@
       <c r="Z34" s="296"/>
       <c r="AA34" s="296"/>
       <c r="AB34" s="297"/>
-      <c r="AD34" s="137"/>
-      <c r="AE34" s="249"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="111"/>
       <c r="AF34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ34" s="251"/>
-      <c r="AK34" s="251"/>
-      <c r="AL34" s="251"/>
-      <c r="AM34" s="251"/>
-      <c r="AN34" s="251"/>
-      <c r="AO34" s="251"/>
-      <c r="AP34" s="251"/>
-      <c r="AQ34" s="251"/>
-      <c r="AR34" s="251"/>
-      <c r="AS34" s="251"/>
-      <c r="AT34" s="251"/>
-      <c r="AU34" s="251"/>
-      <c r="AV34" s="251"/>
-      <c r="AW34" s="251"/>
-      <c r="AX34" s="251"/>
-      <c r="AY34" s="251"/>
-      <c r="AZ34" s="251"/>
-      <c r="BA34" s="251"/>
-      <c r="BB34" s="251"/>
-      <c r="BC34" s="252"/>
-      <c r="BE34" s="254"/>
-      <c r="BF34" s="255"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="114"/>
+      <c r="AM34" s="114"/>
+      <c r="AN34" s="114"/>
+      <c r="AO34" s="114"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
+      <c r="AX34" s="114"/>
+      <c r="AY34" s="114"/>
+      <c r="AZ34" s="114"/>
+      <c r="BA34" s="114"/>
+      <c r="BB34" s="114"/>
+      <c r="BC34" s="115"/>
+      <c r="BE34" s="117"/>
+      <c r="BF34" s="118"/>
       <c r="BG34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BL34" s="153"/>
-      <c r="BM34" s="153"/>
-      <c r="BN34" s="153"/>
-      <c r="BO34" s="153"/>
-      <c r="BP34" s="153"/>
-      <c r="BQ34" s="153"/>
-      <c r="BR34" s="153"/>
-      <c r="BS34" s="153"/>
-      <c r="BT34" s="153"/>
-      <c r="BU34" s="153"/>
-      <c r="BV34" s="153"/>
-      <c r="BW34" s="153"/>
-      <c r="BX34" s="153"/>
-      <c r="BY34" s="153"/>
-      <c r="BZ34" s="153"/>
-      <c r="CA34" s="153"/>
-      <c r="CB34" s="153"/>
-      <c r="CC34" s="153"/>
-      <c r="CD34" s="153"/>
+      <c r="BL34" s="94"/>
+      <c r="BM34" s="94"/>
+      <c r="BN34" s="94"/>
+      <c r="BO34" s="94"/>
+      <c r="BP34" s="94"/>
+      <c r="BQ34" s="94"/>
+      <c r="BR34" s="94"/>
+      <c r="BS34" s="94"/>
+      <c r="BT34" s="94"/>
+      <c r="BU34" s="94"/>
+      <c r="BV34" s="94"/>
+      <c r="BW34" s="94"/>
+      <c r="BX34" s="94"/>
+      <c r="BY34" s="94"/>
+      <c r="BZ34" s="94"/>
+      <c r="CA34" s="94"/>
+      <c r="CB34" s="94"/>
+      <c r="CC34" s="94"/>
+      <c r="CD34" s="94"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="137"/>
-      <c r="D35" s="249"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="261"/>
-      <c r="M35" s="261"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
-      <c r="P35" s="261"/>
-      <c r="Q35" s="261"/>
-      <c r="R35" s="261"/>
-      <c r="S35" s="261"/>
-      <c r="T35" s="261"/>
-      <c r="U35" s="261"/>
-      <c r="V35" s="261"/>
-      <c r="W35" s="261"/>
-      <c r="X35" s="261"/>
-      <c r="Y35" s="261"/>
-      <c r="Z35" s="261"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="124"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="124"/>
+      <c r="S35" s="124"/>
+      <c r="T35" s="124"/>
+      <c r="U35" s="124"/>
+      <c r="V35" s="124"/>
+      <c r="W35" s="124"/>
+      <c r="X35" s="124"/>
+      <c r="Y35" s="124"/>
+      <c r="Z35" s="124"/>
       <c r="AA35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="AB35" s="25"/>
-      <c r="AD35" s="137"/>
-      <c r="AE35" s="249"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="111"/>
       <c r="AF35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AJ35" s="251"/>
-      <c r="AK35" s="251"/>
-      <c r="AL35" s="251"/>
-      <c r="AM35" s="251"/>
-      <c r="AN35" s="251"/>
-      <c r="AO35" s="251"/>
-      <c r="AP35" s="251"/>
-      <c r="AQ35" s="251"/>
-      <c r="AR35" s="251"/>
-      <c r="AS35" s="251"/>
-      <c r="AT35" s="251"/>
-      <c r="AU35" s="251"/>
-      <c r="AV35" s="251"/>
-      <c r="AW35" s="251"/>
-      <c r="AX35" s="251"/>
-      <c r="AY35" s="251"/>
-      <c r="AZ35" s="251"/>
-      <c r="BA35" s="251"/>
+      <c r="AJ35" s="114"/>
+      <c r="AK35" s="114"/>
+      <c r="AL35" s="114"/>
+      <c r="AM35" s="114"/>
+      <c r="AN35" s="114"/>
+      <c r="AO35" s="114"/>
+      <c r="AP35" s="114"/>
+      <c r="AQ35" s="114"/>
+      <c r="AR35" s="114"/>
+      <c r="AS35" s="114"/>
+      <c r="AT35" s="114"/>
+      <c r="AU35" s="114"/>
+      <c r="AV35" s="114"/>
+      <c r="AW35" s="114"/>
+      <c r="AX35" s="114"/>
+      <c r="AY35" s="114"/>
+      <c r="AZ35" s="114"/>
+      <c r="BA35" s="114"/>
       <c r="BB35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="BC35" s="25"/>
-      <c r="BE35" s="254"/>
-      <c r="BF35" s="255"/>
+      <c r="BE35" s="117"/>
+      <c r="BF35" s="118"/>
       <c r="BG35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="BL35" s="153"/>
-      <c r="BM35" s="153"/>
-      <c r="BN35" s="153"/>
-      <c r="BO35" s="153"/>
-      <c r="BP35" s="153"/>
-      <c r="BQ35" s="153"/>
-      <c r="BR35" s="153"/>
-      <c r="BS35" s="153"/>
-      <c r="BT35" s="153"/>
-      <c r="BU35" s="153"/>
-      <c r="BV35" s="153"/>
-      <c r="BW35" s="153"/>
-      <c r="BX35" s="153"/>
-      <c r="BY35" s="153"/>
-      <c r="BZ35" s="153"/>
-      <c r="CA35" s="153"/>
-      <c r="CB35" s="153"/>
+      <c r="BL35" s="94"/>
+      <c r="BM35" s="94"/>
+      <c r="BN35" s="94"/>
+      <c r="BO35" s="94"/>
+      <c r="BP35" s="94"/>
+      <c r="BQ35" s="94"/>
+      <c r="BR35" s="94"/>
+      <c r="BS35" s="94"/>
+      <c r="BT35" s="94"/>
+      <c r="BU35" s="94"/>
+      <c r="BV35" s="94"/>
+      <c r="BW35" s="94"/>
+      <c r="BX35" s="94"/>
+      <c r="BY35" s="94"/>
+      <c r="BZ35" s="94"/>
+      <c r="CA35" s="94"/>
+      <c r="CB35" s="94"/>
       <c r="CC35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="139"/>
-      <c r="D36" s="250"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="26" t="s">
         <v>63</v>
       </c>
@@ -11491,53 +11495,53 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="153"/>
-      <c r="W36" s="153"/>
-      <c r="X36" s="153"/>
-      <c r="Y36" s="153"/>
-      <c r="Z36" s="153"/>
-      <c r="AA36" s="153"/>
-      <c r="AB36" s="253"/>
-      <c r="AD36" s="139"/>
-      <c r="AE36" s="250"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="116"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="113"/>
       <c r="AF36" s="26" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="153"/>
-      <c r="AK36" s="153"/>
-      <c r="AL36" s="153"/>
-      <c r="AM36" s="153"/>
-      <c r="AN36" s="153"/>
-      <c r="AO36" s="153"/>
-      <c r="AP36" s="153"/>
-      <c r="AQ36" s="153"/>
-      <c r="AR36" s="153"/>
-      <c r="AS36" s="153"/>
-      <c r="AT36" s="153"/>
-      <c r="AU36" s="153"/>
-      <c r="AV36" s="153"/>
-      <c r="AW36" s="153"/>
-      <c r="AX36" s="153"/>
-      <c r="AY36" s="153"/>
-      <c r="AZ36" s="153"/>
-      <c r="BA36" s="153"/>
-      <c r="BB36" s="153"/>
-      <c r="BC36" s="253"/>
-      <c r="BE36" s="256"/>
-      <c r="BF36" s="257"/>
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="94"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="94"/>
+      <c r="AP36" s="94"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="94"/>
+      <c r="AS36" s="94"/>
+      <c r="AT36" s="94"/>
+      <c r="AU36" s="94"/>
+      <c r="AV36" s="94"/>
+      <c r="AW36" s="94"/>
+      <c r="AX36" s="94"/>
+      <c r="AY36" s="94"/>
+      <c r="AZ36" s="94"/>
+      <c r="BA36" s="94"/>
+      <c r="BB36" s="94"/>
+      <c r="BC36" s="116"/>
+      <c r="BE36" s="119"/>
+      <c r="BF36" s="120"/>
       <c r="BG36" s="27" t="s">
         <v>0</v>
       </c>
@@ -11545,27 +11549,27 @@
       <c r="BI36" s="6"/>
       <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
-      <c r="BL36" s="234" t="s">
+      <c r="BL36" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BM36" s="235"/>
-      <c r="BN36" s="235"/>
-      <c r="BO36" s="235"/>
-      <c r="BP36" s="235"/>
-      <c r="BQ36" s="235"/>
-      <c r="BR36" s="235"/>
-      <c r="BS36" s="235"/>
-      <c r="BT36" s="235"/>
-      <c r="BU36" s="235"/>
-      <c r="BV36" s="235"/>
-      <c r="BW36" s="235"/>
-      <c r="BX36" s="235"/>
-      <c r="BY36" s="235"/>
-      <c r="BZ36" s="235"/>
-      <c r="CA36" s="235"/>
-      <c r="CB36" s="235"/>
-      <c r="CC36" s="235"/>
-      <c r="CD36" s="235"/>
+      <c r="BM36" s="96"/>
+      <c r="BN36" s="96"/>
+      <c r="BO36" s="96"/>
+      <c r="BP36" s="96"/>
+      <c r="BQ36" s="96"/>
+      <c r="BR36" s="96"/>
+      <c r="BS36" s="96"/>
+      <c r="BT36" s="96"/>
+      <c r="BU36" s="96"/>
+      <c r="BV36" s="96"/>
+      <c r="BW36" s="96"/>
+      <c r="BX36" s="96"/>
+      <c r="BY36" s="96"/>
+      <c r="BZ36" s="96"/>
+      <c r="CA36" s="96"/>
+      <c r="CB36" s="96"/>
+      <c r="CC36" s="96"/>
+      <c r="CD36" s="96"/>
       <c r="CE36" s="6"/>
       <c r="CF36" s="6"/>
       <c r="CG36" s="4"/>
@@ -11694,6 +11698,155 @@
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AW8:BC8"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="BS16:CD21"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="E6:F15"/>
+    <mergeCell ref="BX7:BY8"/>
+    <mergeCell ref="BP7:BQ8"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="BE8:BK8"/>
+    <mergeCell ref="AJ14:BO15"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AE21:AH22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="AU20:AV22"/>
+    <mergeCell ref="AW21:AY22"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="AV6:BK6"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="BM28:CF28"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AF14:AI15"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC14:AE15"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="AH25:BP26"/>
+    <mergeCell ref="BJ27:BL28"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="BM27:CF27"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="L32:AB32"/>
     <mergeCell ref="CV21:CX23"/>
     <mergeCell ref="G20:AD20"/>
     <mergeCell ref="AE20:AT20"/>
@@ -11718,155 +11871,6 @@
     <mergeCell ref="J12:O13"/>
     <mergeCell ref="P12:CD13"/>
     <mergeCell ref="O21:P22"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="P27:BI28"/>
-    <mergeCell ref="AH25:BP26"/>
-    <mergeCell ref="BJ27:BL28"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="BM27:CF27"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="BM28:CF28"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="BS16:CD21"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="E6:F15"/>
-    <mergeCell ref="BX7:BY8"/>
-    <mergeCell ref="BP7:BQ8"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="BE8:BK8"/>
-    <mergeCell ref="AJ14:BO15"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AE21:AH22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="AU20:AV22"/>
-    <mergeCell ref="AW21:AY22"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="BD7:BK7"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="AV6:BK6"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AG10:CD11"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AW8:BC8"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -846,7 +846,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -935,15 +935,11 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6.5"/>
-      <name val="ＭＳ Ｐ明朝"/>
-    </font>
-    <font>
       <sz val="4"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
-      <sz val="5.5"/>
+      <sz val="7.5"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
   </fonts>
@@ -2148,532 +2144,532 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9084,7 +9080,7 @@
   <dimension ref="C1:CX75"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:AB34"/>
+      <selection activeCell="L35" sqref="L35:Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -9105,242 +9101,242 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="206"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
       <c r="S2" s="30"/>
       <c r="T2" s="30"/>
-      <c r="BK2" s="288" t="s">
+      <c r="BK2" s="287" t="s">
         <v>50</v>
       </c>
-      <c r="BL2" s="279"/>
-      <c r="BM2" s="279"/>
-      <c r="BN2" s="279"/>
-      <c r="BO2" s="279"/>
-      <c r="BP2" s="291" t="s">
+      <c r="BL2" s="278"/>
+      <c r="BM2" s="278"/>
+      <c r="BN2" s="278"/>
+      <c r="BO2" s="278"/>
+      <c r="BP2" s="290" t="s">
         <v>49</v>
       </c>
-      <c r="BQ2" s="292"/>
-      <c r="BR2" s="292"/>
-      <c r="BS2" s="292"/>
-      <c r="BT2" s="293"/>
-      <c r="BU2" s="279" t="s">
+      <c r="BQ2" s="291"/>
+      <c r="BR2" s="291"/>
+      <c r="BS2" s="291"/>
+      <c r="BT2" s="292"/>
+      <c r="BU2" s="278" t="s">
         <v>48</v>
       </c>
-      <c r="BV2" s="279"/>
-      <c r="BW2" s="279"/>
-      <c r="BX2" s="279"/>
-      <c r="BY2" s="279"/>
-      <c r="BZ2" s="285" t="s">
+      <c r="BV2" s="278"/>
+      <c r="BW2" s="278"/>
+      <c r="BX2" s="278"/>
+      <c r="BY2" s="278"/>
+      <c r="BZ2" s="284" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="286"/>
-      <c r="CB2" s="286"/>
-      <c r="CC2" s="286"/>
-      <c r="CD2" s="287"/>
+      <c r="CA2" s="285"/>
+      <c r="CB2" s="285"/>
+      <c r="CC2" s="285"/>
+      <c r="CD2" s="286"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
       <c r="S3" s="30"/>
       <c r="T3" s="30"/>
-      <c r="Y3" s="208" t="s">
+      <c r="Y3" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="208"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="208"/>
-      <c r="AG3" s="208"/>
-      <c r="AH3" s="208"/>
-      <c r="AI3" s="208"/>
-      <c r="AJ3" s="208"/>
-      <c r="AK3" s="208"/>
-      <c r="AL3" s="208"/>
-      <c r="AM3" s="208"/>
-      <c r="AN3" s="208"/>
-      <c r="AO3" s="208"/>
-      <c r="AP3" s="208"/>
-      <c r="AQ3" s="208"/>
-      <c r="AR3" s="208"/>
-      <c r="AS3" s="208"/>
-      <c r="AT3" s="208"/>
-      <c r="AU3" s="208"/>
-      <c r="AV3" s="208"/>
-      <c r="AW3" s="208"/>
-      <c r="AX3" s="208"/>
-      <c r="AY3" s="208"/>
-      <c r="AZ3" s="208"/>
-      <c r="BA3" s="208"/>
-      <c r="BB3" s="208"/>
-      <c r="BC3" s="208"/>
-      <c r="BD3" s="208"/>
-      <c r="BE3" s="208"/>
-      <c r="BF3" s="208"/>
-      <c r="BG3" s="208"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="207"/>
+      <c r="AJ3" s="207"/>
+      <c r="AK3" s="207"/>
+      <c r="AL3" s="207"/>
+      <c r="AM3" s="207"/>
+      <c r="AN3" s="207"/>
+      <c r="AO3" s="207"/>
+      <c r="AP3" s="207"/>
+      <c r="AQ3" s="207"/>
+      <c r="AR3" s="207"/>
+      <c r="AS3" s="207"/>
+      <c r="AT3" s="207"/>
+      <c r="AU3" s="207"/>
+      <c r="AV3" s="207"/>
+      <c r="AW3" s="207"/>
+      <c r="AX3" s="207"/>
+      <c r="AY3" s="207"/>
+      <c r="AZ3" s="207"/>
+      <c r="BA3" s="207"/>
+      <c r="BB3" s="207"/>
+      <c r="BC3" s="207"/>
+      <c r="BD3" s="207"/>
+      <c r="BE3" s="207"/>
+      <c r="BF3" s="207"/>
+      <c r="BG3" s="207"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="137"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="136"/>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="137"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="137"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="137"/>
+      <c r="BK3" s="134"/>
+      <c r="BL3" s="135"/>
+      <c r="BM3" s="135"/>
+      <c r="BN3" s="135"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="134"/>
+      <c r="BQ3" s="135"/>
+      <c r="BR3" s="135"/>
+      <c r="BS3" s="135"/>
+      <c r="BT3" s="136"/>
+      <c r="BU3" s="134"/>
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="135"/>
+      <c r="BX3" s="135"/>
+      <c r="BY3" s="136"/>
+      <c r="BZ3" s="134"/>
+      <c r="CA3" s="135"/>
+      <c r="CB3" s="135"/>
+      <c r="CC3" s="135"/>
+      <c r="CD3" s="136"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="209"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="208"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="208"/>
-      <c r="AG4" s="208"/>
-      <c r="AH4" s="208"/>
-      <c r="AI4" s="208"/>
-      <c r="AJ4" s="208"/>
-      <c r="AK4" s="208"/>
-      <c r="AL4" s="208"/>
-      <c r="AM4" s="208"/>
-      <c r="AN4" s="208"/>
-      <c r="AO4" s="208"/>
-      <c r="AP4" s="208"/>
-      <c r="AQ4" s="208"/>
-      <c r="AR4" s="208"/>
-      <c r="AS4" s="208"/>
-      <c r="AT4" s="208"/>
-      <c r="AU4" s="208"/>
-      <c r="AV4" s="208"/>
-      <c r="AW4" s="208"/>
-      <c r="AX4" s="208"/>
-      <c r="AY4" s="208"/>
-      <c r="AZ4" s="208"/>
-      <c r="BA4" s="208"/>
-      <c r="BB4" s="208"/>
-      <c r="BC4" s="208"/>
-      <c r="BD4" s="208"/>
-      <c r="BE4" s="208"/>
-      <c r="BF4" s="208"/>
-      <c r="BG4" s="208"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="207"/>
+      <c r="AJ4" s="207"/>
+      <c r="AK4" s="207"/>
+      <c r="AL4" s="207"/>
+      <c r="AM4" s="207"/>
+      <c r="AN4" s="207"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="207"/>
+      <c r="AQ4" s="207"/>
+      <c r="AR4" s="207"/>
+      <c r="AS4" s="207"/>
+      <c r="AT4" s="207"/>
+      <c r="AU4" s="207"/>
+      <c r="AV4" s="207"/>
+      <c r="AW4" s="207"/>
+      <c r="AX4" s="207"/>
+      <c r="AY4" s="207"/>
+      <c r="AZ4" s="207"/>
+      <c r="BA4" s="207"/>
+      <c r="BB4" s="207"/>
+      <c r="BC4" s="207"/>
+      <c r="BD4" s="207"/>
+      <c r="BE4" s="207"/>
+      <c r="BF4" s="207"/>
+      <c r="BG4" s="207"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
-      <c r="BK4" s="194"/>
-      <c r="BL4" s="189"/>
-      <c r="BM4" s="189"/>
-      <c r="BN4" s="189"/>
-      <c r="BO4" s="280"/>
-      <c r="BP4" s="194"/>
-      <c r="BQ4" s="189"/>
-      <c r="BR4" s="189"/>
-      <c r="BS4" s="189"/>
-      <c r="BT4" s="280"/>
-      <c r="BU4" s="194"/>
-      <c r="BV4" s="189"/>
-      <c r="BW4" s="189"/>
-      <c r="BX4" s="189"/>
-      <c r="BY4" s="280"/>
-      <c r="BZ4" s="194"/>
-      <c r="CA4" s="189"/>
-      <c r="CB4" s="189"/>
-      <c r="CC4" s="189"/>
-      <c r="CD4" s="280"/>
+      <c r="BK4" s="193"/>
+      <c r="BL4" s="188"/>
+      <c r="BM4" s="188"/>
+      <c r="BN4" s="188"/>
+      <c r="BO4" s="279"/>
+      <c r="BP4" s="193"/>
+      <c r="BQ4" s="188"/>
+      <c r="BR4" s="188"/>
+      <c r="BS4" s="188"/>
+      <c r="BT4" s="279"/>
+      <c r="BU4" s="193"/>
+      <c r="BV4" s="188"/>
+      <c r="BW4" s="188"/>
+      <c r="BX4" s="188"/>
+      <c r="BY4" s="279"/>
+      <c r="BZ4" s="193"/>
+      <c r="CA4" s="188"/>
+      <c r="CB4" s="188"/>
+      <c r="CC4" s="188"/>
+      <c r="CD4" s="279"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="210" t="s">
+      <c r="C6" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="141" t="s">
+      <c r="D6" s="209"/>
+      <c r="E6" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="195" t="s">
+      <c r="F6" s="142"/>
+      <c r="G6" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="192" t="s">
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="191" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
       <c r="X6" s="31" t="s">
         <v>43</v>
       </c>
@@ -9385,198 +9381,198 @@
       <c r="BI6" s="32"/>
       <c r="BJ6" s="32"/>
       <c r="BK6" s="33"/>
-      <c r="BL6" s="135" t="s">
+      <c r="BL6" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="BM6" s="136"/>
-      <c r="BN6" s="136"/>
-      <c r="BO6" s="136"/>
-      <c r="BP6" s="136"/>
-      <c r="BQ6" s="136"/>
-      <c r="BR6" s="136"/>
-      <c r="BS6" s="136"/>
-      <c r="BT6" s="136"/>
-      <c r="BU6" s="136"/>
-      <c r="BV6" s="136"/>
-      <c r="BW6" s="136"/>
-      <c r="BX6" s="136"/>
-      <c r="BY6" s="136"/>
-      <c r="BZ6" s="136"/>
-      <c r="CA6" s="137"/>
+      <c r="BM6" s="135"/>
+      <c r="BN6" s="135"/>
+      <c r="BO6" s="135"/>
+      <c r="BP6" s="135"/>
+      <c r="BQ6" s="135"/>
+      <c r="BR6" s="135"/>
+      <c r="BS6" s="135"/>
+      <c r="BT6" s="135"/>
+      <c r="BU6" s="135"/>
+      <c r="BV6" s="135"/>
+      <c r="BW6" s="135"/>
+      <c r="BX6" s="135"/>
+      <c r="BY6" s="135"/>
+      <c r="BZ6" s="135"/>
+      <c r="CA6" s="136"/>
       <c r="CD6" s="3"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="177"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="176"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="177"/>
+      <c r="M7" s="176"/>
       <c r="N7" s="39"/>
-      <c r="O7" s="177"/>
+      <c r="O7" s="176"/>
       <c r="P7" s="39"/>
-      <c r="Q7" s="177"/>
+      <c r="Q7" s="176"/>
       <c r="R7" s="39"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="202"/>
+      <c r="S7" s="134"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="201"/>
       <c r="Y7" s="41"/>
       <c r="Z7" s="40"/>
       <c r="AA7" s="41"/>
       <c r="AB7" s="40"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="200"/>
+      <c r="AD7" s="199"/>
       <c r="AE7" s="43"/>
-      <c r="AF7" s="202"/>
+      <c r="AF7" s="201"/>
       <c r="AG7" s="41"/>
       <c r="AH7" s="40"/>
       <c r="AI7" s="41"/>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="41"/>
-      <c r="AL7" s="200"/>
+      <c r="AL7" s="199"/>
       <c r="AM7" s="43"/>
-      <c r="AN7" s="202"/>
+      <c r="AN7" s="201"/>
       <c r="AO7" s="41"/>
       <c r="AP7" s="40"/>
       <c r="AQ7" s="41"/>
       <c r="AR7" s="40"/>
       <c r="AS7" s="41"/>
-      <c r="AT7" s="200"/>
+      <c r="AT7" s="199"/>
       <c r="AU7" s="43"/>
-      <c r="AV7" s="294" t="s">
+      <c r="AV7" s="293" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="295"/>
+      <c r="AW7" s="294"/>
       <c r="AX7" s="34"/>
       <c r="AY7" s="34"/>
       <c r="AZ7" s="34"/>
       <c r="BA7" s="34"/>
       <c r="BB7" s="34"/>
-      <c r="BC7" s="278"/>
-      <c r="BD7" s="277"/>
+      <c r="BC7" s="277"/>
+      <c r="BD7" s="276"/>
       <c r="BE7" s="34"/>
       <c r="BF7" s="34"/>
       <c r="BG7" s="34"/>
       <c r="BH7" s="34"/>
       <c r="BI7" s="34"/>
       <c r="BJ7" s="34"/>
-      <c r="BK7" s="278"/>
-      <c r="BL7" s="220" t="s">
+      <c r="BK7" s="277"/>
+      <c r="BL7" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="BM7" s="221"/>
-      <c r="BN7" s="221"/>
-      <c r="BO7" s="222"/>
-      <c r="BP7" s="251"/>
+      <c r="BM7" s="220"/>
+      <c r="BN7" s="220"/>
+      <c r="BO7" s="221"/>
+      <c r="BP7" s="250"/>
       <c r="BQ7" s="41"/>
-      <c r="BR7" s="252"/>
+      <c r="BR7" s="251"/>
       <c r="BS7" s="41"/>
-      <c r="BT7" s="251"/>
+      <c r="BT7" s="250"/>
       <c r="BU7" s="41"/>
-      <c r="BV7" s="252"/>
+      <c r="BV7" s="251"/>
       <c r="BW7" s="41"/>
-      <c r="BX7" s="251"/>
-      <c r="BY7" s="252"/>
+      <c r="BX7" s="250"/>
+      <c r="BY7" s="251"/>
       <c r="BZ7" s="40"/>
-      <c r="CA7" s="217"/>
+      <c r="CA7" s="216"/>
       <c r="CB7" s="4"/>
       <c r="CD7" s="3"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="177"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="176"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="177"/>
+      <c r="M8" s="176"/>
       <c r="N8" s="39"/>
-      <c r="O8" s="177"/>
+      <c r="O8" s="176"/>
       <c r="P8" s="39"/>
-      <c r="Q8" s="177"/>
+      <c r="Q8" s="176"/>
       <c r="R8" s="39"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="189"/>
-      <c r="U8" s="189"/>
-      <c r="V8" s="189"/>
-      <c r="W8" s="189"/>
-      <c r="X8" s="203"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="188"/>
+      <c r="U8" s="188"/>
+      <c r="V8" s="188"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="202"/>
       <c r="Y8" s="45"/>
       <c r="Z8" s="44"/>
       <c r="AA8" s="45"/>
       <c r="AB8" s="44"/>
       <c r="AC8" s="45"/>
-      <c r="AD8" s="201"/>
+      <c r="AD8" s="200"/>
       <c r="AE8" s="45"/>
-      <c r="AF8" s="203"/>
+      <c r="AF8" s="202"/>
       <c r="AG8" s="45"/>
       <c r="AH8" s="44"/>
       <c r="AI8" s="45"/>
       <c r="AJ8" s="44"/>
       <c r="AK8" s="45"/>
-      <c r="AL8" s="201"/>
+      <c r="AL8" s="200"/>
       <c r="AM8" s="45"/>
-      <c r="AN8" s="203"/>
+      <c r="AN8" s="202"/>
       <c r="AO8" s="45"/>
       <c r="AP8" s="44"/>
       <c r="AQ8" s="45"/>
       <c r="AR8" s="44"/>
       <c r="AS8" s="45"/>
-      <c r="AT8" s="201"/>
+      <c r="AT8" s="200"/>
       <c r="AU8" s="45"/>
       <c r="AV8" s="29"/>
-      <c r="AW8" s="254"/>
-      <c r="AX8" s="254"/>
-      <c r="AY8" s="254"/>
-      <c r="AZ8" s="254"/>
-      <c r="BA8" s="254"/>
-      <c r="BB8" s="254"/>
-      <c r="BC8" s="255"/>
+      <c r="AW8" s="253"/>
+      <c r="AX8" s="253"/>
+      <c r="AY8" s="253"/>
+      <c r="AZ8" s="253"/>
+      <c r="BA8" s="253"/>
+      <c r="BB8" s="253"/>
+      <c r="BC8" s="254"/>
       <c r="BD8" s="29"/>
-      <c r="BE8" s="254"/>
-      <c r="BF8" s="254"/>
-      <c r="BG8" s="254"/>
-      <c r="BH8" s="254"/>
-      <c r="BI8" s="254"/>
-      <c r="BJ8" s="254"/>
-      <c r="BK8" s="255"/>
-      <c r="BL8" s="223"/>
-      <c r="BM8" s="224"/>
-      <c r="BN8" s="224"/>
-      <c r="BO8" s="225"/>
-      <c r="BP8" s="253"/>
+      <c r="BE8" s="253"/>
+      <c r="BF8" s="253"/>
+      <c r="BG8" s="253"/>
+      <c r="BH8" s="253"/>
+      <c r="BI8" s="253"/>
+      <c r="BJ8" s="253"/>
+      <c r="BK8" s="254"/>
+      <c r="BL8" s="222"/>
+      <c r="BM8" s="223"/>
+      <c r="BN8" s="223"/>
+      <c r="BO8" s="224"/>
+      <c r="BP8" s="252"/>
       <c r="BQ8" s="45"/>
-      <c r="BR8" s="201"/>
+      <c r="BR8" s="200"/>
       <c r="BS8" s="45"/>
-      <c r="BT8" s="253"/>
+      <c r="BT8" s="252"/>
       <c r="BU8" s="45"/>
-      <c r="BV8" s="201"/>
+      <c r="BV8" s="200"/>
       <c r="BW8" s="45"/>
-      <c r="BX8" s="253"/>
-      <c r="BY8" s="201"/>
+      <c r="BX8" s="252"/>
+      <c r="BY8" s="200"/>
       <c r="BZ8" s="44"/>
-      <c r="CA8" s="281"/>
+      <c r="CA8" s="280"/>
       <c r="CB8" s="5"/>
       <c r="CC8" s="6"/>
       <c r="CD8" s="3"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="146"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="145"/>
       <c r="G9" s="66" t="s">
         <v>41</v>
       </c>
@@ -9604,17 +9600,17 @@
       <c r="AA9" s="41"/>
       <c r="AB9" s="40"/>
       <c r="AC9" s="41"/>
-      <c r="AD9" s="141" t="s">
+      <c r="AD9" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="204"/>
-      <c r="AG9" s="289" t="s">
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="203"/>
+      <c r="AG9" s="288" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="290"/>
-      <c r="AI9" s="290"/>
-      <c r="AJ9" s="290"/>
+      <c r="AH9" s="289"/>
+      <c r="AI9" s="289"/>
+      <c r="AJ9" s="289"/>
       <c r="AK9" s="46"/>
       <c r="AL9" s="46"/>
       <c r="AM9" s="46"/>
@@ -9663,10 +9659,10 @@
       <c r="CD9" s="47"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="146"/>
+      <c r="C10" s="209"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="145"/>
       <c r="G10" s="69"/>
       <c r="H10" s="70"/>
       <c r="I10" s="71"/>
@@ -9690,65 +9686,65 @@
       <c r="AA10" s="43"/>
       <c r="AB10" s="42"/>
       <c r="AC10" s="43"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="282"/>
-      <c r="AH10" s="283"/>
-      <c r="AI10" s="283"/>
-      <c r="AJ10" s="283"/>
-      <c r="AK10" s="283"/>
-      <c r="AL10" s="283"/>
-      <c r="AM10" s="283"/>
-      <c r="AN10" s="283"/>
-      <c r="AO10" s="283"/>
-      <c r="AP10" s="283"/>
-      <c r="AQ10" s="283"/>
-      <c r="AR10" s="283"/>
-      <c r="AS10" s="283"/>
-      <c r="AT10" s="283"/>
-      <c r="AU10" s="283"/>
-      <c r="AV10" s="283"/>
-      <c r="AW10" s="283"/>
-      <c r="AX10" s="283"/>
-      <c r="AY10" s="283"/>
-      <c r="AZ10" s="283"/>
-      <c r="BA10" s="283"/>
-      <c r="BB10" s="283"/>
-      <c r="BC10" s="283"/>
-      <c r="BD10" s="283"/>
-      <c r="BE10" s="283"/>
-      <c r="BF10" s="283"/>
-      <c r="BG10" s="283"/>
-      <c r="BH10" s="283"/>
-      <c r="BI10" s="283"/>
-      <c r="BJ10" s="283"/>
-      <c r="BK10" s="283"/>
-      <c r="BL10" s="283"/>
-      <c r="BM10" s="283"/>
-      <c r="BN10" s="283"/>
-      <c r="BO10" s="283"/>
-      <c r="BP10" s="283"/>
-      <c r="BQ10" s="283"/>
-      <c r="BR10" s="283"/>
-      <c r="BS10" s="283"/>
-      <c r="BT10" s="283"/>
-      <c r="BU10" s="283"/>
-      <c r="BV10" s="283"/>
-      <c r="BW10" s="283"/>
-      <c r="BX10" s="283"/>
-      <c r="BY10" s="283"/>
-      <c r="BZ10" s="283"/>
-      <c r="CA10" s="283"/>
-      <c r="CB10" s="283"/>
-      <c r="CC10" s="283"/>
-      <c r="CD10" s="284"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="204"/>
+      <c r="AG10" s="281"/>
+      <c r="AH10" s="282"/>
+      <c r="AI10" s="282"/>
+      <c r="AJ10" s="282"/>
+      <c r="AK10" s="282"/>
+      <c r="AL10" s="282"/>
+      <c r="AM10" s="282"/>
+      <c r="AN10" s="282"/>
+      <c r="AO10" s="282"/>
+      <c r="AP10" s="282"/>
+      <c r="AQ10" s="282"/>
+      <c r="AR10" s="282"/>
+      <c r="AS10" s="282"/>
+      <c r="AT10" s="282"/>
+      <c r="AU10" s="282"/>
+      <c r="AV10" s="282"/>
+      <c r="AW10" s="282"/>
+      <c r="AX10" s="282"/>
+      <c r="AY10" s="282"/>
+      <c r="AZ10" s="282"/>
+      <c r="BA10" s="282"/>
+      <c r="BB10" s="282"/>
+      <c r="BC10" s="282"/>
+      <c r="BD10" s="282"/>
+      <c r="BE10" s="282"/>
+      <c r="BF10" s="282"/>
+      <c r="BG10" s="282"/>
+      <c r="BH10" s="282"/>
+      <c r="BI10" s="282"/>
+      <c r="BJ10" s="282"/>
+      <c r="BK10" s="282"/>
+      <c r="BL10" s="282"/>
+      <c r="BM10" s="282"/>
+      <c r="BN10" s="282"/>
+      <c r="BO10" s="282"/>
+      <c r="BP10" s="282"/>
+      <c r="BQ10" s="282"/>
+      <c r="BR10" s="282"/>
+      <c r="BS10" s="282"/>
+      <c r="BT10" s="282"/>
+      <c r="BU10" s="282"/>
+      <c r="BV10" s="282"/>
+      <c r="BW10" s="282"/>
+      <c r="BX10" s="282"/>
+      <c r="BY10" s="282"/>
+      <c r="BZ10" s="282"/>
+      <c r="CA10" s="282"/>
+      <c r="CB10" s="282"/>
+      <c r="CC10" s="282"/>
+      <c r="CD10" s="283"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="146"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="72"/>
       <c r="H11" s="73"/>
       <c r="I11" s="74"/>
@@ -9772,9 +9768,9 @@
       <c r="AA11" s="45"/>
       <c r="AB11" s="44"/>
       <c r="AC11" s="45"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="206"/>
+      <c r="AD11" s="146"/>
+      <c r="AE11" s="147"/>
+      <c r="AF11" s="205"/>
       <c r="AG11" s="91"/>
       <c r="AH11" s="92"/>
       <c r="AI11" s="92"/>
@@ -9827,10 +9823,10 @@
       <c r="CD11" s="93"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="146"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="145"/>
       <c r="G12" s="60" t="s">
         <v>37</v>
       </c>
@@ -9913,10 +9909,10 @@
       <c r="CD12" s="90"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="146"/>
+      <c r="C13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="145"/>
       <c r="G13" s="63"/>
       <c r="H13" s="64"/>
       <c r="I13" s="65"/>
@@ -9995,10 +9991,10 @@
       <c r="CD13" s="93"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="146"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="145"/>
       <c r="G14" s="48" t="s">
         <v>36</v>
       </c>
@@ -10007,152 +10003,152 @@
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
       <c r="L14" s="50"/>
-      <c r="M14" s="186" t="s">
+      <c r="M14" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="187"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="186"/>
       <c r="Q14" s="84"/>
       <c r="R14" s="85"/>
       <c r="S14" s="56"/>
-      <c r="T14" s="178"/>
+      <c r="T14" s="177"/>
       <c r="U14" s="84"/>
       <c r="V14" s="85"/>
       <c r="W14" s="56"/>
-      <c r="X14" s="178"/>
+      <c r="X14" s="177"/>
       <c r="Y14" s="84"/>
       <c r="Z14" s="85"/>
       <c r="AA14" s="56"/>
       <c r="AB14" s="57"/>
-      <c r="AC14" s="180"/>
-      <c r="AD14" s="181"/>
-      <c r="AE14" s="182"/>
-      <c r="AF14" s="242" t="s">
+      <c r="AC14" s="179"/>
+      <c r="AD14" s="180"/>
+      <c r="AE14" s="181"/>
+      <c r="AF14" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="AG14" s="243"/>
-      <c r="AH14" s="243"/>
-      <c r="AI14" s="243"/>
-      <c r="AJ14" s="256" t="s">
+      <c r="AG14" s="242"/>
+      <c r="AH14" s="242"/>
+      <c r="AI14" s="242"/>
+      <c r="AJ14" s="255" t="s">
         <v>66</v>
       </c>
-      <c r="AK14" s="257"/>
-      <c r="AL14" s="257"/>
-      <c r="AM14" s="257"/>
-      <c r="AN14" s="257"/>
-      <c r="AO14" s="257"/>
-      <c r="AP14" s="257"/>
-      <c r="AQ14" s="257"/>
-      <c r="AR14" s="257"/>
-      <c r="AS14" s="257"/>
-      <c r="AT14" s="257"/>
-      <c r="AU14" s="257"/>
-      <c r="AV14" s="257"/>
-      <c r="AW14" s="257"/>
-      <c r="AX14" s="257"/>
-      <c r="AY14" s="257"/>
-      <c r="AZ14" s="257"/>
-      <c r="BA14" s="257"/>
-      <c r="BB14" s="257"/>
-      <c r="BC14" s="257"/>
-      <c r="BD14" s="257"/>
-      <c r="BE14" s="257"/>
-      <c r="BF14" s="257"/>
-      <c r="BG14" s="257"/>
-      <c r="BH14" s="257"/>
-      <c r="BI14" s="257"/>
-      <c r="BJ14" s="257"/>
-      <c r="BK14" s="257"/>
-      <c r="BL14" s="257"/>
-      <c r="BM14" s="257"/>
-      <c r="BN14" s="257"/>
-      <c r="BO14" s="258"/>
+      <c r="AK14" s="256"/>
+      <c r="AL14" s="256"/>
+      <c r="AM14" s="256"/>
+      <c r="AN14" s="256"/>
+      <c r="AO14" s="256"/>
+      <c r="AP14" s="256"/>
+      <c r="AQ14" s="256"/>
+      <c r="AR14" s="256"/>
+      <c r="AS14" s="256"/>
+      <c r="AT14" s="256"/>
+      <c r="AU14" s="256"/>
+      <c r="AV14" s="256"/>
+      <c r="AW14" s="256"/>
+      <c r="AX14" s="256"/>
+      <c r="AY14" s="256"/>
+      <c r="AZ14" s="256"/>
+      <c r="BA14" s="256"/>
+      <c r="BB14" s="256"/>
+      <c r="BC14" s="256"/>
+      <c r="BD14" s="256"/>
+      <c r="BE14" s="256"/>
+      <c r="BF14" s="256"/>
+      <c r="BG14" s="256"/>
+      <c r="BH14" s="256"/>
+      <c r="BI14" s="256"/>
+      <c r="BJ14" s="256"/>
+      <c r="BK14" s="256"/>
+      <c r="BL14" s="256"/>
+      <c r="BM14" s="256"/>
+      <c r="BN14" s="256"/>
+      <c r="BO14" s="257"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="149"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="148"/>
       <c r="G15" s="51"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
       <c r="L15" s="53"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="190"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="188"/>
+      <c r="P15" s="189"/>
       <c r="Q15" s="86"/>
       <c r="R15" s="87"/>
       <c r="S15" s="58"/>
-      <c r="T15" s="179"/>
+      <c r="T15" s="178"/>
       <c r="U15" s="86"/>
       <c r="V15" s="87"/>
       <c r="W15" s="58"/>
-      <c r="X15" s="179"/>
+      <c r="X15" s="178"/>
       <c r="Y15" s="86"/>
       <c r="Z15" s="87"/>
       <c r="AA15" s="58"/>
       <c r="AB15" s="59"/>
-      <c r="AC15" s="183"/>
-      <c r="AD15" s="184"/>
-      <c r="AE15" s="185"/>
-      <c r="AF15" s="244"/>
+      <c r="AC15" s="182"/>
+      <c r="AD15" s="183"/>
+      <c r="AE15" s="184"/>
+      <c r="AF15" s="243"/>
       <c r="AG15" s="94"/>
       <c r="AH15" s="94"/>
       <c r="AI15" s="94"/>
-      <c r="AJ15" s="259"/>
-      <c r="AK15" s="260"/>
-      <c r="AL15" s="260"/>
-      <c r="AM15" s="260"/>
-      <c r="AN15" s="260"/>
-      <c r="AO15" s="260"/>
-      <c r="AP15" s="260"/>
-      <c r="AQ15" s="260"/>
-      <c r="AR15" s="260"/>
-      <c r="AS15" s="260"/>
-      <c r="AT15" s="260"/>
-      <c r="AU15" s="260"/>
-      <c r="AV15" s="260"/>
-      <c r="AW15" s="260"/>
-      <c r="AX15" s="260"/>
-      <c r="AY15" s="260"/>
-      <c r="AZ15" s="260"/>
-      <c r="BA15" s="260"/>
-      <c r="BB15" s="260"/>
-      <c r="BC15" s="260"/>
-      <c r="BD15" s="260"/>
-      <c r="BE15" s="260"/>
-      <c r="BF15" s="260"/>
-      <c r="BG15" s="260"/>
-      <c r="BH15" s="260"/>
-      <c r="BI15" s="260"/>
-      <c r="BJ15" s="260"/>
-      <c r="BK15" s="260"/>
-      <c r="BL15" s="260"/>
-      <c r="BM15" s="260"/>
-      <c r="BN15" s="260"/>
-      <c r="BO15" s="261"/>
-      <c r="BS15" s="214" t="s">
+      <c r="AJ15" s="258"/>
+      <c r="AK15" s="259"/>
+      <c r="AL15" s="259"/>
+      <c r="AM15" s="259"/>
+      <c r="AN15" s="259"/>
+      <c r="AO15" s="259"/>
+      <c r="AP15" s="259"/>
+      <c r="AQ15" s="259"/>
+      <c r="AR15" s="259"/>
+      <c r="AS15" s="259"/>
+      <c r="AT15" s="259"/>
+      <c r="AU15" s="259"/>
+      <c r="AV15" s="259"/>
+      <c r="AW15" s="259"/>
+      <c r="AX15" s="259"/>
+      <c r="AY15" s="259"/>
+      <c r="AZ15" s="259"/>
+      <c r="BA15" s="259"/>
+      <c r="BB15" s="259"/>
+      <c r="BC15" s="259"/>
+      <c r="BD15" s="259"/>
+      <c r="BE15" s="259"/>
+      <c r="BF15" s="259"/>
+      <c r="BG15" s="259"/>
+      <c r="BH15" s="259"/>
+      <c r="BI15" s="259"/>
+      <c r="BJ15" s="259"/>
+      <c r="BK15" s="259"/>
+      <c r="BL15" s="259"/>
+      <c r="BM15" s="259"/>
+      <c r="BN15" s="259"/>
+      <c r="BO15" s="260"/>
+      <c r="BS15" s="213" t="s">
         <v>34</v>
       </c>
-      <c r="BT15" s="215"/>
-      <c r="BU15" s="215"/>
-      <c r="BV15" s="215"/>
-      <c r="BW15" s="215"/>
-      <c r="BX15" s="215"/>
-      <c r="BY15" s="215"/>
-      <c r="BZ15" s="215"/>
-      <c r="CA15" s="215"/>
-      <c r="CB15" s="215"/>
-      <c r="CC15" s="215"/>
-      <c r="CD15" s="216"/>
+      <c r="BT15" s="214"/>
+      <c r="BU15" s="214"/>
+      <c r="BV15" s="214"/>
+      <c r="BW15" s="214"/>
+      <c r="BX15" s="214"/>
+      <c r="BY15" s="214"/>
+      <c r="BZ15" s="214"/>
+      <c r="CA15" s="214"/>
+      <c r="CB15" s="214"/>
+      <c r="CC15" s="214"/>
+      <c r="CD15" s="215"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10181,22 +10177,22 @@
       <c r="AO16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BS16" s="214"/>
-      <c r="BT16" s="215"/>
-      <c r="BU16" s="215"/>
-      <c r="BV16" s="215"/>
-      <c r="BW16" s="215"/>
-      <c r="BX16" s="215"/>
-      <c r="BY16" s="215"/>
-      <c r="BZ16" s="215"/>
-      <c r="CA16" s="215"/>
-      <c r="CB16" s="215"/>
-      <c r="CC16" s="215"/>
-      <c r="CD16" s="216"/>
+      <c r="BS16" s="213"/>
+      <c r="BT16" s="214"/>
+      <c r="BU16" s="214"/>
+      <c r="BV16" s="214"/>
+      <c r="BW16" s="214"/>
+      <c r="BX16" s="214"/>
+      <c r="BY16" s="214"/>
+      <c r="BZ16" s="214"/>
+      <c r="CA16" s="214"/>
+      <c r="CB16" s="214"/>
+      <c r="CC16" s="214"/>
+      <c r="CD16" s="215"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="H17" s="13" t="s">
@@ -10205,98 +10201,98 @@
       <c r="AO17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BS17" s="245"/>
-      <c r="BT17" s="209"/>
-      <c r="BU17" s="209"/>
-      <c r="BV17" s="209"/>
-      <c r="BW17" s="209"/>
-      <c r="BX17" s="209"/>
-      <c r="BY17" s="209"/>
-      <c r="BZ17" s="209"/>
-      <c r="CA17" s="209"/>
-      <c r="CB17" s="209"/>
-      <c r="CC17" s="209"/>
-      <c r="CD17" s="246"/>
+      <c r="BS17" s="244"/>
+      <c r="BT17" s="208"/>
+      <c r="BU17" s="208"/>
+      <c r="BV17" s="208"/>
+      <c r="BW17" s="208"/>
+      <c r="BX17" s="208"/>
+      <c r="BY17" s="208"/>
+      <c r="BZ17" s="208"/>
+      <c r="CA17" s="208"/>
+      <c r="CB17" s="208"/>
+      <c r="CC17" s="208"/>
+      <c r="CD17" s="245"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BS18" s="245"/>
-      <c r="BT18" s="209"/>
-      <c r="BU18" s="209"/>
-      <c r="BV18" s="209"/>
-      <c r="BW18" s="209"/>
-      <c r="BX18" s="209"/>
-      <c r="BY18" s="209"/>
-      <c r="BZ18" s="209"/>
-      <c r="CA18" s="209"/>
-      <c r="CB18" s="209"/>
-      <c r="CC18" s="209"/>
-      <c r="CD18" s="246"/>
+      <c r="BS18" s="244"/>
+      <c r="BT18" s="208"/>
+      <c r="BU18" s="208"/>
+      <c r="BV18" s="208"/>
+      <c r="BW18" s="208"/>
+      <c r="BX18" s="208"/>
+      <c r="BY18" s="208"/>
+      <c r="BZ18" s="208"/>
+      <c r="CA18" s="208"/>
+      <c r="CB18" s="208"/>
+      <c r="CC18" s="208"/>
+      <c r="CD18" s="245"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="250" t="s">
+      <c r="C19" s="209"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="249" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="250"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="250"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="250"/>
-      <c r="N19" s="250"/>
-      <c r="O19" s="250"/>
-      <c r="P19" s="250"/>
-      <c r="Q19" s="250"/>
-      <c r="R19" s="250"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="250"/>
-      <c r="V19" s="250"/>
-      <c r="W19" s="250"/>
-      <c r="X19" s="250"/>
-      <c r="Y19" s="250"/>
-      <c r="Z19" s="250"/>
-      <c r="AA19" s="250"/>
-      <c r="AB19" s="250"/>
-      <c r="AC19" s="250"/>
-      <c r="AD19" s="250"/>
-      <c r="AE19" s="250"/>
-      <c r="AF19" s="250"/>
-      <c r="AG19" s="250"/>
-      <c r="AH19" s="250"/>
-      <c r="AI19" s="250"/>
-      <c r="AJ19" s="250"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="249"/>
+      <c r="K19" s="249"/>
+      <c r="L19" s="249"/>
+      <c r="M19" s="249"/>
+      <c r="N19" s="249"/>
+      <c r="O19" s="249"/>
+      <c r="P19" s="249"/>
+      <c r="Q19" s="249"/>
+      <c r="R19" s="249"/>
+      <c r="S19" s="249"/>
+      <c r="T19" s="249"/>
+      <c r="U19" s="249"/>
+      <c r="V19" s="249"/>
+      <c r="W19" s="249"/>
+      <c r="X19" s="249"/>
+      <c r="Y19" s="249"/>
+      <c r="Z19" s="249"/>
+      <c r="AA19" s="249"/>
+      <c r="AB19" s="249"/>
+      <c r="AC19" s="249"/>
+      <c r="AD19" s="249"/>
+      <c r="AE19" s="249"/>
+      <c r="AF19" s="249"/>
+      <c r="AG19" s="249"/>
+      <c r="AH19" s="249"/>
+      <c r="AI19" s="249"/>
+      <c r="AJ19" s="249"/>
       <c r="AV19" s="15"/>
-      <c r="BS19" s="245"/>
-      <c r="BT19" s="209"/>
-      <c r="BU19" s="209"/>
-      <c r="BV19" s="209"/>
-      <c r="BW19" s="209"/>
-      <c r="BX19" s="209"/>
-      <c r="BY19" s="209"/>
-      <c r="BZ19" s="209"/>
-      <c r="CA19" s="209"/>
-      <c r="CB19" s="209"/>
-      <c r="CC19" s="209"/>
-      <c r="CD19" s="246"/>
+      <c r="BS19" s="244"/>
+      <c r="BT19" s="208"/>
+      <c r="BU19" s="208"/>
+      <c r="BV19" s="208"/>
+      <c r="BW19" s="208"/>
+      <c r="BX19" s="208"/>
+      <c r="BY19" s="208"/>
+      <c r="BZ19" s="208"/>
+      <c r="CA19" s="208"/>
+      <c r="CB19" s="208"/>
+      <c r="CC19" s="208"/>
+      <c r="CD19" s="245"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="229" t="s">
+      <c r="C20" s="209"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="228" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="230"/>
+      <c r="F20" s="229"/>
       <c r="G20" s="31" t="s">
         <v>29</v>
       </c>
@@ -10341,12 +10337,12 @@
       <c r="AR20" s="32"/>
       <c r="AS20" s="32"/>
       <c r="AT20" s="33"/>
-      <c r="AU20" s="267"/>
-      <c r="AV20" s="268"/>
-      <c r="AW20" s="240" t="s">
+      <c r="AU20" s="266"/>
+      <c r="AV20" s="267"/>
+      <c r="AW20" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="AX20" s="241"/>
+      <c r="AX20" s="240"/>
       <c r="AY20" s="16"/>
       <c r="AZ20" s="17" t="s">
         <v>19</v>
@@ -10368,31 +10364,31 @@
       <c r="BO20" s="36"/>
       <c r="BP20" s="36"/>
       <c r="BQ20" s="37"/>
-      <c r="BS20" s="245"/>
-      <c r="BT20" s="209"/>
-      <c r="BU20" s="209"/>
-      <c r="BV20" s="209"/>
-      <c r="BW20" s="209"/>
-      <c r="BX20" s="209"/>
-      <c r="BY20" s="209"/>
-      <c r="BZ20" s="209"/>
-      <c r="CA20" s="209"/>
-      <c r="CB20" s="209"/>
-      <c r="CC20" s="209"/>
-      <c r="CD20" s="246"/>
+      <c r="BS20" s="244"/>
+      <c r="BT20" s="208"/>
+      <c r="BU20" s="208"/>
+      <c r="BV20" s="208"/>
+      <c r="BW20" s="208"/>
+      <c r="BX20" s="208"/>
+      <c r="BY20" s="208"/>
+      <c r="BZ20" s="208"/>
+      <c r="CA20" s="208"/>
+      <c r="CB20" s="208"/>
+      <c r="CC20" s="208"/>
+      <c r="CD20" s="245"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="110"/>
-      <c r="F21" s="231"/>
+      <c r="F21" s="230"/>
       <c r="G21" s="54"/>
       <c r="H21" s="39"/>
       <c r="I21" s="38"/>
       <c r="J21" s="39"/>
       <c r="K21" s="38"/>
       <c r="L21" s="39"/>
-      <c r="M21" s="176"/>
+      <c r="M21" s="175"/>
       <c r="N21" s="39"/>
       <c r="O21" s="54"/>
       <c r="P21" s="39"/>
@@ -10400,7 +10396,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="38"/>
       <c r="T21" s="39"/>
-      <c r="U21" s="176"/>
+      <c r="U21" s="175"/>
       <c r="V21" s="39"/>
       <c r="W21" s="54"/>
       <c r="X21" s="39"/>
@@ -10408,83 +10404,83 @@
       <c r="Z21" s="39"/>
       <c r="AA21" s="38"/>
       <c r="AB21" s="39"/>
-      <c r="AC21" s="176"/>
+      <c r="AC21" s="175"/>
       <c r="AD21" s="39"/>
-      <c r="AE21" s="220" t="s">
+      <c r="AE21" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="AF21" s="221"/>
-      <c r="AG21" s="221"/>
-      <c r="AH21" s="222"/>
-      <c r="AI21" s="265"/>
-      <c r="AJ21" s="263"/>
-      <c r="AK21" s="236"/>
-      <c r="AL21" s="237"/>
-      <c r="AM21" s="262"/>
-      <c r="AN21" s="263"/>
-      <c r="AO21" s="236"/>
-      <c r="AP21" s="237"/>
-      <c r="AQ21" s="262"/>
-      <c r="AR21" s="263"/>
-      <c r="AS21" s="236"/>
-      <c r="AT21" s="237"/>
-      <c r="AU21" s="269"/>
-      <c r="AV21" s="270"/>
-      <c r="AW21" s="273" t="s">
+      <c r="AF21" s="220"/>
+      <c r="AG21" s="220"/>
+      <c r="AH21" s="221"/>
+      <c r="AI21" s="264"/>
+      <c r="AJ21" s="262"/>
+      <c r="AK21" s="235"/>
+      <c r="AL21" s="236"/>
+      <c r="AM21" s="261"/>
+      <c r="AN21" s="262"/>
+      <c r="AO21" s="235"/>
+      <c r="AP21" s="236"/>
+      <c r="AQ21" s="261"/>
+      <c r="AR21" s="262"/>
+      <c r="AS21" s="235"/>
+      <c r="AT21" s="236"/>
+      <c r="AU21" s="268"/>
+      <c r="AV21" s="269"/>
+      <c r="AW21" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="AX21" s="273"/>
-      <c r="AY21" s="274"/>
+      <c r="AX21" s="272"/>
+      <c r="AY21" s="273"/>
       <c r="AZ21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="BA21" s="20"/>
-      <c r="BB21" s="157"/>
-      <c r="BC21" s="157"/>
-      <c r="BD21" s="157"/>
-      <c r="BE21" s="157"/>
-      <c r="BF21" s="157"/>
-      <c r="BG21" s="157"/>
-      <c r="BH21" s="157"/>
+      <c r="BB21" s="156"/>
+      <c r="BC21" s="156"/>
+      <c r="BD21" s="156"/>
+      <c r="BE21" s="156"/>
+      <c r="BF21" s="156"/>
+      <c r="BG21" s="156"/>
+      <c r="BH21" s="156"/>
       <c r="BI21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="BJ21" s="20"/>
-      <c r="BK21" s="157"/>
-      <c r="BL21" s="157"/>
-      <c r="BM21" s="157"/>
-      <c r="BN21" s="157"/>
-      <c r="BO21" s="157"/>
-      <c r="BP21" s="157"/>
-      <c r="BQ21" s="158"/>
-      <c r="BS21" s="247"/>
-      <c r="BT21" s="248"/>
-      <c r="BU21" s="248"/>
-      <c r="BV21" s="248"/>
-      <c r="BW21" s="248"/>
-      <c r="BX21" s="248"/>
-      <c r="BY21" s="248"/>
-      <c r="BZ21" s="248"/>
-      <c r="CA21" s="248"/>
-      <c r="CB21" s="248"/>
-      <c r="CC21" s="248"/>
-      <c r="CD21" s="249"/>
+      <c r="BK21" s="156"/>
+      <c r="BL21" s="156"/>
+      <c r="BM21" s="156"/>
+      <c r="BN21" s="156"/>
+      <c r="BO21" s="156"/>
+      <c r="BP21" s="156"/>
+      <c r="BQ21" s="157"/>
+      <c r="BS21" s="246"/>
+      <c r="BT21" s="247"/>
+      <c r="BU21" s="247"/>
+      <c r="BV21" s="247"/>
+      <c r="BW21" s="247"/>
+      <c r="BX21" s="247"/>
+      <c r="BY21" s="247"/>
+      <c r="BZ21" s="247"/>
+      <c r="CA21" s="247"/>
+      <c r="CB21" s="247"/>
+      <c r="CC21" s="247"/>
+      <c r="CD21" s="248"/>
       <c r="CV21" s="30"/>
       <c r="CW21" s="30"/>
       <c r="CX21" s="30"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="110"/>
-      <c r="F22" s="231"/>
+      <c r="F22" s="230"/>
       <c r="G22" s="55"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
-      <c r="M22" s="177"/>
+      <c r="M22" s="176"/>
       <c r="N22" s="39"/>
       <c r="O22" s="55"/>
       <c r="P22" s="39"/>
@@ -10492,7 +10488,7 @@
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
       <c r="T22" s="39"/>
-      <c r="U22" s="177"/>
+      <c r="U22" s="176"/>
       <c r="V22" s="39"/>
       <c r="W22" s="55"/>
       <c r="X22" s="39"/>
@@ -10500,156 +10496,156 @@
       <c r="Z22" s="39"/>
       <c r="AA22" s="39"/>
       <c r="AB22" s="39"/>
-      <c r="AC22" s="177"/>
+      <c r="AC22" s="176"/>
       <c r="AD22" s="39"/>
-      <c r="AE22" s="223"/>
-      <c r="AF22" s="224"/>
-      <c r="AG22" s="224"/>
-      <c r="AH22" s="225"/>
-      <c r="AI22" s="266"/>
-      <c r="AJ22" s="238"/>
+      <c r="AE22" s="222"/>
+      <c r="AF22" s="223"/>
+      <c r="AG22" s="223"/>
+      <c r="AH22" s="224"/>
+      <c r="AI22" s="265"/>
+      <c r="AJ22" s="237"/>
       <c r="AK22" s="45"/>
-      <c r="AL22" s="238"/>
-      <c r="AM22" s="264"/>
-      <c r="AN22" s="238"/>
+      <c r="AL22" s="237"/>
+      <c r="AM22" s="263"/>
+      <c r="AN22" s="237"/>
       <c r="AO22" s="45"/>
-      <c r="AP22" s="238"/>
-      <c r="AQ22" s="264"/>
-      <c r="AR22" s="238"/>
+      <c r="AP22" s="237"/>
+      <c r="AQ22" s="263"/>
+      <c r="AR22" s="237"/>
       <c r="AS22" s="45"/>
-      <c r="AT22" s="238"/>
-      <c r="AU22" s="271"/>
-      <c r="AV22" s="272"/>
-      <c r="AW22" s="275"/>
-      <c r="AX22" s="275"/>
-      <c r="AY22" s="276"/>
+      <c r="AT22" s="237"/>
+      <c r="AU22" s="270"/>
+      <c r="AV22" s="271"/>
+      <c r="AW22" s="274"/>
+      <c r="AX22" s="274"/>
+      <c r="AY22" s="275"/>
       <c r="AZ22" s="5"/>
       <c r="BA22" s="6"/>
-      <c r="BB22" s="154"/>
-      <c r="BC22" s="154"/>
-      <c r="BD22" s="154"/>
-      <c r="BE22" s="154"/>
-      <c r="BF22" s="154"/>
-      <c r="BG22" s="154"/>
-      <c r="BH22" s="154"/>
+      <c r="BB22" s="153"/>
+      <c r="BC22" s="153"/>
+      <c r="BD22" s="153"/>
+      <c r="BE22" s="153"/>
+      <c r="BF22" s="153"/>
+      <c r="BG22" s="153"/>
+      <c r="BH22" s="153"/>
       <c r="BI22" s="5"/>
       <c r="BJ22" s="6"/>
-      <c r="BK22" s="154"/>
-      <c r="BL22" s="154"/>
-      <c r="BM22" s="154"/>
-      <c r="BN22" s="154"/>
-      <c r="BO22" s="154"/>
-      <c r="BP22" s="154"/>
-      <c r="BQ22" s="239"/>
+      <c r="BK22" s="153"/>
+      <c r="BL22" s="153"/>
+      <c r="BM22" s="153"/>
+      <c r="BN22" s="153"/>
+      <c r="BO22" s="153"/>
+      <c r="BP22" s="153"/>
+      <c r="BQ22" s="238"/>
       <c r="CV22" s="30"/>
       <c r="CW22" s="30"/>
       <c r="CX22" s="30"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="110"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="141" t="s">
+      <c r="F23" s="230"/>
+      <c r="G23" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="142"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="135" t="s">
+      <c r="H23" s="141"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="136"/>
-      <c r="T23" s="136"/>
-      <c r="U23" s="136"/>
-      <c r="V23" s="136"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="135" t="s">
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="135"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="136"/>
+      <c r="X23" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="136"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="136"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="136"/>
-      <c r="AJ23" s="136"/>
-      <c r="AK23" s="136"/>
-      <c r="AL23" s="136"/>
-      <c r="AM23" s="136"/>
-      <c r="AN23" s="136"/>
-      <c r="AO23" s="136"/>
-      <c r="AP23" s="136"/>
-      <c r="AQ23" s="136"/>
-      <c r="AR23" s="136"/>
-      <c r="AS23" s="136"/>
-      <c r="AT23" s="136"/>
-      <c r="AU23" s="136"/>
-      <c r="AV23" s="136"/>
-      <c r="AW23" s="136"/>
-      <c r="AX23" s="136"/>
-      <c r="AY23" s="136"/>
-      <c r="AZ23" s="136"/>
-      <c r="BA23" s="136"/>
-      <c r="BB23" s="136"/>
-      <c r="BC23" s="136"/>
-      <c r="BD23" s="136"/>
-      <c r="BE23" s="136"/>
-      <c r="BF23" s="136"/>
-      <c r="BG23" s="136"/>
-      <c r="BH23" s="136"/>
-      <c r="BI23" s="136"/>
-      <c r="BJ23" s="136"/>
-      <c r="BK23" s="136"/>
-      <c r="BL23" s="136"/>
-      <c r="BM23" s="136"/>
-      <c r="BN23" s="136"/>
-      <c r="BO23" s="136"/>
-      <c r="BP23" s="137"/>
-      <c r="BQ23" s="135" t="s">
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="135"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="135"/>
+      <c r="AH23" s="135"/>
+      <c r="AI23" s="135"/>
+      <c r="AJ23" s="135"/>
+      <c r="AK23" s="135"/>
+      <c r="AL23" s="135"/>
+      <c r="AM23" s="135"/>
+      <c r="AN23" s="135"/>
+      <c r="AO23" s="135"/>
+      <c r="AP23" s="135"/>
+      <c r="AQ23" s="135"/>
+      <c r="AR23" s="135"/>
+      <c r="AS23" s="135"/>
+      <c r="AT23" s="135"/>
+      <c r="AU23" s="135"/>
+      <c r="AV23" s="135"/>
+      <c r="AW23" s="135"/>
+      <c r="AX23" s="135"/>
+      <c r="AY23" s="135"/>
+      <c r="AZ23" s="135"/>
+      <c r="BA23" s="135"/>
+      <c r="BB23" s="135"/>
+      <c r="BC23" s="135"/>
+      <c r="BD23" s="135"/>
+      <c r="BE23" s="135"/>
+      <c r="BF23" s="135"/>
+      <c r="BG23" s="135"/>
+      <c r="BH23" s="135"/>
+      <c r="BI23" s="135"/>
+      <c r="BJ23" s="135"/>
+      <c r="BK23" s="135"/>
+      <c r="BL23" s="135"/>
+      <c r="BM23" s="135"/>
+      <c r="BN23" s="135"/>
+      <c r="BO23" s="135"/>
+      <c r="BP23" s="136"/>
+      <c r="BQ23" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="BR23" s="136"/>
-      <c r="BS23" s="136"/>
-      <c r="BT23" s="136"/>
-      <c r="BU23" s="136"/>
-      <c r="BV23" s="136"/>
-      <c r="BW23" s="136"/>
-      <c r="BX23" s="136"/>
-      <c r="BY23" s="136"/>
-      <c r="BZ23" s="136"/>
-      <c r="CA23" s="136"/>
-      <c r="CB23" s="136"/>
-      <c r="CC23" s="136"/>
-      <c r="CD23" s="137"/>
-      <c r="CE23" s="213"/>
-      <c r="CF23" s="213"/>
+      <c r="BR23" s="135"/>
+      <c r="BS23" s="135"/>
+      <c r="BT23" s="135"/>
+      <c r="BU23" s="135"/>
+      <c r="BV23" s="135"/>
+      <c r="BW23" s="135"/>
+      <c r="BX23" s="135"/>
+      <c r="BY23" s="135"/>
+      <c r="BZ23" s="135"/>
+      <c r="CA23" s="135"/>
+      <c r="CB23" s="135"/>
+      <c r="CC23" s="135"/>
+      <c r="CD23" s="136"/>
+      <c r="CE23" s="212"/>
+      <c r="CF23" s="212"/>
       <c r="CG23" s="4"/>
       <c r="CV23" s="30"/>
       <c r="CW23" s="30"/>
       <c r="CX23" s="30"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="110"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="133"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="132"/>
       <c r="K24" s="85"/>
       <c r="L24" s="56"/>
       <c r="M24" s="85"/>
@@ -10663,24 +10659,24 @@
       <c r="U24" s="85"/>
       <c r="V24" s="56"/>
       <c r="W24" s="57"/>
-      <c r="X24" s="226" t="s">
+      <c r="X24" s="225" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="227"/>
-      <c r="Z24" s="227"/>
-      <c r="AA24" s="227"/>
-      <c r="AB24" s="227"/>
-      <c r="AC24" s="227"/>
-      <c r="AD24" s="227"/>
-      <c r="AE24" s="227"/>
-      <c r="AF24" s="227"/>
-      <c r="AG24" s="228"/>
-      <c r="AH24" s="168" t="s">
+      <c r="Y24" s="226"/>
+      <c r="Z24" s="226"/>
+      <c r="AA24" s="226"/>
+      <c r="AB24" s="226"/>
+      <c r="AC24" s="226"/>
+      <c r="AD24" s="226"/>
+      <c r="AE24" s="226"/>
+      <c r="AF24" s="226"/>
+      <c r="AG24" s="227"/>
+      <c r="AH24" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="168"/>
-      <c r="AJ24" s="168"/>
-      <c r="AK24" s="168"/>
+      <c r="AI24" s="167"/>
+      <c r="AJ24" s="167"/>
+      <c r="AK24" s="167"/>
       <c r="AL24" s="46"/>
       <c r="AM24" s="46"/>
       <c r="AN24" s="46"/>
@@ -10712,49 +10708,49 @@
       <c r="BN24" s="46"/>
       <c r="BO24" s="46"/>
       <c r="BP24" s="47"/>
-      <c r="BQ24" s="172" t="s">
+      <c r="BQ24" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="BR24" s="173"/>
-      <c r="BS24" s="133"/>
+      <c r="BR24" s="172"/>
+      <c r="BS24" s="132"/>
       <c r="BT24" s="41"/>
       <c r="BU24" s="56"/>
-      <c r="BV24" s="217"/>
-      <c r="BW24" s="133"/>
+      <c r="BV24" s="216"/>
+      <c r="BW24" s="132"/>
       <c r="BX24" s="41"/>
       <c r="BY24" s="56"/>
-      <c r="BZ24" s="217"/>
-      <c r="CA24" s="133"/>
+      <c r="BZ24" s="216"/>
+      <c r="CA24" s="132"/>
       <c r="CB24" s="41"/>
       <c r="CC24" s="56"/>
-      <c r="CD24" s="217"/>
-      <c r="CE24" s="213"/>
-      <c r="CF24" s="213"/>
+      <c r="CD24" s="216"/>
+      <c r="CE24" s="212"/>
+      <c r="CF24" s="212"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="209"/>
       <c r="E25" s="110"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="139"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="191"/>
-      <c r="X25" s="133"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="190"/>
+      <c r="X25" s="132"/>
       <c r="Y25" s="85"/>
       <c r="Z25" s="56"/>
       <c r="AA25" s="85"/>
@@ -10764,68 +10760,68 @@
       <c r="AE25" s="85"/>
       <c r="AF25" s="56"/>
       <c r="AG25" s="57"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="157"/>
-      <c r="AJ25" s="157"/>
-      <c r="AK25" s="157"/>
-      <c r="AL25" s="157"/>
-      <c r="AM25" s="157"/>
-      <c r="AN25" s="157"/>
-      <c r="AO25" s="157"/>
-      <c r="AP25" s="157"/>
-      <c r="AQ25" s="157"/>
-      <c r="AR25" s="157"/>
-      <c r="AS25" s="157"/>
-      <c r="AT25" s="157"/>
-      <c r="AU25" s="157"/>
-      <c r="AV25" s="157"/>
-      <c r="AW25" s="157"/>
-      <c r="AX25" s="157"/>
-      <c r="AY25" s="157"/>
-      <c r="AZ25" s="157"/>
-      <c r="BA25" s="157"/>
-      <c r="BB25" s="157"/>
-      <c r="BC25" s="157"/>
-      <c r="BD25" s="157"/>
-      <c r="BE25" s="157"/>
-      <c r="BF25" s="157"/>
-      <c r="BG25" s="157"/>
-      <c r="BH25" s="157"/>
-      <c r="BI25" s="157"/>
-      <c r="BJ25" s="157"/>
-      <c r="BK25" s="157"/>
-      <c r="BL25" s="157"/>
-      <c r="BM25" s="157"/>
-      <c r="BN25" s="157"/>
-      <c r="BO25" s="157"/>
-      <c r="BP25" s="158"/>
-      <c r="BQ25" s="174"/>
-      <c r="BR25" s="175"/>
-      <c r="BS25" s="219"/>
+      <c r="AH25" s="155"/>
+      <c r="AI25" s="156"/>
+      <c r="AJ25" s="156"/>
+      <c r="AK25" s="156"/>
+      <c r="AL25" s="156"/>
+      <c r="AM25" s="156"/>
+      <c r="AN25" s="156"/>
+      <c r="AO25" s="156"/>
+      <c r="AP25" s="156"/>
+      <c r="AQ25" s="156"/>
+      <c r="AR25" s="156"/>
+      <c r="AS25" s="156"/>
+      <c r="AT25" s="156"/>
+      <c r="AU25" s="156"/>
+      <c r="AV25" s="156"/>
+      <c r="AW25" s="156"/>
+      <c r="AX25" s="156"/>
+      <c r="AY25" s="156"/>
+      <c r="AZ25" s="156"/>
+      <c r="BA25" s="156"/>
+      <c r="BB25" s="156"/>
+      <c r="BC25" s="156"/>
+      <c r="BD25" s="156"/>
+      <c r="BE25" s="156"/>
+      <c r="BF25" s="156"/>
+      <c r="BG25" s="156"/>
+      <c r="BH25" s="156"/>
+      <c r="BI25" s="156"/>
+      <c r="BJ25" s="156"/>
+      <c r="BK25" s="156"/>
+      <c r="BL25" s="156"/>
+      <c r="BM25" s="156"/>
+      <c r="BN25" s="156"/>
+      <c r="BO25" s="156"/>
+      <c r="BP25" s="157"/>
+      <c r="BQ25" s="173"/>
+      <c r="BR25" s="174"/>
+      <c r="BS25" s="218"/>
       <c r="BT25" s="43"/>
       <c r="BU25" s="42"/>
-      <c r="BV25" s="218"/>
-      <c r="BW25" s="219"/>
+      <c r="BV25" s="217"/>
+      <c r="BW25" s="218"/>
       <c r="BX25" s="43"/>
       <c r="BY25" s="42"/>
-      <c r="BZ25" s="218"/>
-      <c r="CA25" s="219"/>
+      <c r="BZ25" s="217"/>
+      <c r="CA25" s="218"/>
       <c r="CB25" s="43"/>
       <c r="CC25" s="42"/>
-      <c r="CD25" s="218"/>
-      <c r="CE25" s="213"/>
-      <c r="CF25" s="213"/>
+      <c r="CD25" s="217"/>
+      <c r="CE25" s="212"/>
+      <c r="CF25" s="212"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="209"/>
       <c r="E26" s="110"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="134"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="133"/>
       <c r="K26" s="87"/>
       <c r="L26" s="58"/>
       <c r="M26" s="87"/>
@@ -10839,7 +10835,7 @@
       <c r="U26" s="87"/>
       <c r="V26" s="58"/>
       <c r="W26" s="59"/>
-      <c r="X26" s="134"/>
+      <c r="X26" s="133"/>
       <c r="Y26" s="87"/>
       <c r="Z26" s="58"/>
       <c r="AA26" s="87"/>
@@ -10849,238 +10845,238 @@
       <c r="AE26" s="87"/>
       <c r="AF26" s="58"/>
       <c r="AG26" s="59"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="160"/>
-      <c r="AN26" s="160"/>
-      <c r="AO26" s="160"/>
-      <c r="AP26" s="160"/>
-      <c r="AQ26" s="160"/>
-      <c r="AR26" s="160"/>
-      <c r="AS26" s="160"/>
-      <c r="AT26" s="160"/>
-      <c r="AU26" s="160"/>
-      <c r="AV26" s="160"/>
-      <c r="AW26" s="160"/>
-      <c r="AX26" s="160"/>
-      <c r="AY26" s="160"/>
-      <c r="AZ26" s="160"/>
-      <c r="BA26" s="160"/>
-      <c r="BB26" s="160"/>
-      <c r="BC26" s="160"/>
-      <c r="BD26" s="160"/>
-      <c r="BE26" s="160"/>
-      <c r="BF26" s="160"/>
-      <c r="BG26" s="160"/>
-      <c r="BH26" s="160"/>
-      <c r="BI26" s="160"/>
-      <c r="BJ26" s="160"/>
-      <c r="BK26" s="160"/>
-      <c r="BL26" s="160"/>
-      <c r="BM26" s="160"/>
-      <c r="BN26" s="160"/>
-      <c r="BO26" s="160"/>
-      <c r="BP26" s="161"/>
-      <c r="BQ26" s="174"/>
-      <c r="BR26" s="175"/>
-      <c r="BS26" s="219"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="159"/>
+      <c r="AJ26" s="159"/>
+      <c r="AK26" s="159"/>
+      <c r="AL26" s="159"/>
+      <c r="AM26" s="159"/>
+      <c r="AN26" s="159"/>
+      <c r="AO26" s="159"/>
+      <c r="AP26" s="159"/>
+      <c r="AQ26" s="159"/>
+      <c r="AR26" s="159"/>
+      <c r="AS26" s="159"/>
+      <c r="AT26" s="159"/>
+      <c r="AU26" s="159"/>
+      <c r="AV26" s="159"/>
+      <c r="AW26" s="159"/>
+      <c r="AX26" s="159"/>
+      <c r="AY26" s="159"/>
+      <c r="AZ26" s="159"/>
+      <c r="BA26" s="159"/>
+      <c r="BB26" s="159"/>
+      <c r="BC26" s="159"/>
+      <c r="BD26" s="159"/>
+      <c r="BE26" s="159"/>
+      <c r="BF26" s="159"/>
+      <c r="BG26" s="159"/>
+      <c r="BH26" s="159"/>
+      <c r="BI26" s="159"/>
+      <c r="BJ26" s="159"/>
+      <c r="BK26" s="159"/>
+      <c r="BL26" s="159"/>
+      <c r="BM26" s="159"/>
+      <c r="BN26" s="159"/>
+      <c r="BO26" s="159"/>
+      <c r="BP26" s="160"/>
+      <c r="BQ26" s="173"/>
+      <c r="BR26" s="174"/>
+      <c r="BS26" s="218"/>
       <c r="BT26" s="43"/>
       <c r="BU26" s="42"/>
-      <c r="BV26" s="218"/>
-      <c r="BW26" s="219"/>
+      <c r="BV26" s="217"/>
+      <c r="BW26" s="218"/>
       <c r="BX26" s="43"/>
       <c r="BY26" s="42"/>
-      <c r="BZ26" s="218"/>
-      <c r="CA26" s="219"/>
+      <c r="BZ26" s="217"/>
+      <c r="CA26" s="218"/>
       <c r="CB26" s="43"/>
       <c r="CC26" s="42"/>
-      <c r="CD26" s="218"/>
-      <c r="CE26" s="213"/>
-      <c r="CF26" s="213"/>
+      <c r="CD26" s="217"/>
+      <c r="CE26" s="212"/>
+      <c r="CF26" s="212"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
+      <c r="C27" s="209"/>
+      <c r="D27" s="209"/>
       <c r="E27" s="110"/>
-      <c r="F27" s="231"/>
+      <c r="F27" s="230"/>
       <c r="G27" s="60" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="61"/>
       <c r="I27" s="62"/>
-      <c r="J27" s="130" t="s">
+      <c r="J27" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="151"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="151"/>
-      <c r="AP27" s="151"/>
-      <c r="AQ27" s="151"/>
-      <c r="AR27" s="151"/>
-      <c r="AS27" s="151"/>
-      <c r="AT27" s="151"/>
-      <c r="AU27" s="151"/>
-      <c r="AV27" s="151"/>
-      <c r="AW27" s="151"/>
-      <c r="AX27" s="151"/>
-      <c r="AY27" s="151"/>
-      <c r="AZ27" s="151"/>
-      <c r="BA27" s="151"/>
-      <c r="BB27" s="151"/>
-      <c r="BC27" s="151"/>
-      <c r="BD27" s="151"/>
-      <c r="BE27" s="151"/>
-      <c r="BF27" s="151"/>
-      <c r="BG27" s="151"/>
-      <c r="BH27" s="151"/>
-      <c r="BI27" s="152"/>
-      <c r="BJ27" s="162" t="s">
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="150"/>
+      <c r="Z27" s="150"/>
+      <c r="AA27" s="150"/>
+      <c r="AB27" s="150"/>
+      <c r="AC27" s="150"/>
+      <c r="AD27" s="150"/>
+      <c r="AE27" s="150"/>
+      <c r="AF27" s="150"/>
+      <c r="AG27" s="150"/>
+      <c r="AH27" s="150"/>
+      <c r="AI27" s="150"/>
+      <c r="AJ27" s="150"/>
+      <c r="AK27" s="150"/>
+      <c r="AL27" s="150"/>
+      <c r="AM27" s="150"/>
+      <c r="AN27" s="150"/>
+      <c r="AO27" s="150"/>
+      <c r="AP27" s="150"/>
+      <c r="AQ27" s="150"/>
+      <c r="AR27" s="150"/>
+      <c r="AS27" s="150"/>
+      <c r="AT27" s="150"/>
+      <c r="AU27" s="150"/>
+      <c r="AV27" s="150"/>
+      <c r="AW27" s="150"/>
+      <c r="AX27" s="150"/>
+      <c r="AY27" s="150"/>
+      <c r="AZ27" s="150"/>
+      <c r="BA27" s="150"/>
+      <c r="BB27" s="150"/>
+      <c r="BC27" s="150"/>
+      <c r="BD27" s="150"/>
+      <c r="BE27" s="150"/>
+      <c r="BF27" s="150"/>
+      <c r="BG27" s="150"/>
+      <c r="BH27" s="150"/>
+      <c r="BI27" s="151"/>
+      <c r="BJ27" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="BK27" s="163"/>
-      <c r="BL27" s="164"/>
-      <c r="BM27" s="169" t="s">
+      <c r="BK27" s="162"/>
+      <c r="BL27" s="163"/>
+      <c r="BM27" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="BN27" s="170"/>
-      <c r="BO27" s="170"/>
-      <c r="BP27" s="170"/>
-      <c r="BQ27" s="170"/>
-      <c r="BR27" s="170"/>
-      <c r="BS27" s="170"/>
-      <c r="BT27" s="170"/>
-      <c r="BU27" s="170"/>
-      <c r="BV27" s="170"/>
-      <c r="BW27" s="170"/>
-      <c r="BX27" s="170"/>
-      <c r="BY27" s="170"/>
-      <c r="BZ27" s="170"/>
-      <c r="CA27" s="170"/>
-      <c r="CB27" s="170"/>
-      <c r="CC27" s="170"/>
-      <c r="CD27" s="170"/>
-      <c r="CE27" s="170"/>
-      <c r="CF27" s="171"/>
+      <c r="BN27" s="169"/>
+      <c r="BO27" s="169"/>
+      <c r="BP27" s="169"/>
+      <c r="BQ27" s="169"/>
+      <c r="BR27" s="169"/>
+      <c r="BS27" s="169"/>
+      <c r="BT27" s="169"/>
+      <c r="BU27" s="169"/>
+      <c r="BV27" s="169"/>
+      <c r="BW27" s="169"/>
+      <c r="BX27" s="169"/>
+      <c r="BY27" s="169"/>
+      <c r="BZ27" s="169"/>
+      <c r="CA27" s="169"/>
+      <c r="CB27" s="169"/>
+      <c r="CC27" s="169"/>
+      <c r="CD27" s="169"/>
+      <c r="CE27" s="169"/>
+      <c r="CF27" s="170"/>
     </row>
     <row r="28" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C28" s="210"/>
-      <c r="D28" s="210"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="209"/>
       <c r="E28" s="112"/>
-      <c r="F28" s="232"/>
+      <c r="F28" s="231"/>
       <c r="G28" s="63"/>
       <c r="H28" s="64"/>
       <c r="I28" s="65"/>
-      <c r="J28" s="127" t="s">
+      <c r="J28" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="154"/>
-      <c r="AF28" s="154"/>
-      <c r="AG28" s="154"/>
-      <c r="AH28" s="154"/>
-      <c r="AI28" s="154"/>
-      <c r="AJ28" s="154"/>
-      <c r="AK28" s="154"/>
-      <c r="AL28" s="154"/>
-      <c r="AM28" s="154"/>
-      <c r="AN28" s="154"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
-      <c r="AQ28" s="154"/>
-      <c r="AR28" s="154"/>
-      <c r="AS28" s="154"/>
-      <c r="AT28" s="154"/>
-      <c r="AU28" s="154"/>
-      <c r="AV28" s="154"/>
-      <c r="AW28" s="154"/>
-      <c r="AX28" s="154"/>
-      <c r="AY28" s="154"/>
-      <c r="AZ28" s="154"/>
-      <c r="BA28" s="154"/>
-      <c r="BB28" s="154"/>
-      <c r="BC28" s="154"/>
-      <c r="BD28" s="154"/>
-      <c r="BE28" s="154"/>
-      <c r="BF28" s="154"/>
-      <c r="BG28" s="154"/>
-      <c r="BH28" s="154"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="165"/>
-      <c r="BK28" s="166"/>
-      <c r="BL28" s="167"/>
-      <c r="BM28" s="233" t="s">
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="153"/>
+      <c r="W28" s="153"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="153"/>
+      <c r="Z28" s="153"/>
+      <c r="AA28" s="153"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="153"/>
+      <c r="AD28" s="153"/>
+      <c r="AE28" s="153"/>
+      <c r="AF28" s="153"/>
+      <c r="AG28" s="153"/>
+      <c r="AH28" s="153"/>
+      <c r="AI28" s="153"/>
+      <c r="AJ28" s="153"/>
+      <c r="AK28" s="153"/>
+      <c r="AL28" s="153"/>
+      <c r="AM28" s="153"/>
+      <c r="AN28" s="153"/>
+      <c r="AO28" s="153"/>
+      <c r="AP28" s="153"/>
+      <c r="AQ28" s="153"/>
+      <c r="AR28" s="153"/>
+      <c r="AS28" s="153"/>
+      <c r="AT28" s="153"/>
+      <c r="AU28" s="153"/>
+      <c r="AV28" s="153"/>
+      <c r="AW28" s="153"/>
+      <c r="AX28" s="153"/>
+      <c r="AY28" s="153"/>
+      <c r="AZ28" s="153"/>
+      <c r="BA28" s="153"/>
+      <c r="BB28" s="153"/>
+      <c r="BC28" s="153"/>
+      <c r="BD28" s="153"/>
+      <c r="BE28" s="153"/>
+      <c r="BF28" s="153"/>
+      <c r="BG28" s="153"/>
+      <c r="BH28" s="153"/>
+      <c r="BI28" s="154"/>
+      <c r="BJ28" s="164"/>
+      <c r="BK28" s="165"/>
+      <c r="BL28" s="166"/>
+      <c r="BM28" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="BN28" s="234"/>
-      <c r="BO28" s="234"/>
-      <c r="BP28" s="234"/>
-      <c r="BQ28" s="234"/>
-      <c r="BR28" s="234"/>
-      <c r="BS28" s="234"/>
-      <c r="BT28" s="234"/>
-      <c r="BU28" s="234"/>
-      <c r="BV28" s="234"/>
-      <c r="BW28" s="234"/>
-      <c r="BX28" s="234"/>
-      <c r="BY28" s="234"/>
-      <c r="BZ28" s="234"/>
-      <c r="CA28" s="234"/>
-      <c r="CB28" s="234"/>
-      <c r="CC28" s="234"/>
-      <c r="CD28" s="234"/>
-      <c r="CE28" s="234"/>
-      <c r="CF28" s="235"/>
+      <c r="BN28" s="233"/>
+      <c r="BO28" s="233"/>
+      <c r="BP28" s="233"/>
+      <c r="BQ28" s="233"/>
+      <c r="BR28" s="233"/>
+      <c r="BS28" s="233"/>
+      <c r="BT28" s="233"/>
+      <c r="BU28" s="233"/>
+      <c r="BV28" s="233"/>
+      <c r="BW28" s="233"/>
+      <c r="BX28" s="233"/>
+      <c r="BY28" s="233"/>
+      <c r="BZ28" s="233"/>
+      <c r="CA28" s="233"/>
+      <c r="CB28" s="233"/>
+      <c r="CC28" s="233"/>
+      <c r="CD28" s="233"/>
+      <c r="CE28" s="233"/>
+      <c r="CF28" s="234"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="21"/>
@@ -11183,25 +11179,25 @@
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="22"/>
       <c r="D32" s="12"/>
-      <c r="L32" s="125" t="s">
+      <c r="L32" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="125"/>
-      <c r="R32" s="125"/>
-      <c r="S32" s="125"/>
-      <c r="T32" s="125"/>
-      <c r="U32" s="125"/>
-      <c r="V32" s="125"/>
-      <c r="W32" s="125"/>
-      <c r="X32" s="125"/>
-      <c r="Y32" s="125"/>
-      <c r="Z32" s="125"/>
-      <c r="AA32" s="125"/>
-      <c r="AB32" s="126"/>
+      <c r="M32" s="124"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="124"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="124"/>
+      <c r="U32" s="124"/>
+      <c r="V32" s="124"/>
+      <c r="W32" s="124"/>
+      <c r="X32" s="124"/>
+      <c r="Y32" s="124"/>
+      <c r="Z32" s="124"/>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="125"/>
       <c r="AD32" s="4"/>
       <c r="AR32" s="106" t="s">
         <v>9</v>
@@ -11410,21 +11406,21 @@
       <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="124"/>
-      <c r="U35" s="124"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="124"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="124"/>
+      <c r="L35" s="295"/>
+      <c r="M35" s="295"/>
+      <c r="N35" s="295"/>
+      <c r="O35" s="295"/>
+      <c r="P35" s="295"/>
+      <c r="Q35" s="295"/>
+      <c r="R35" s="295"/>
+      <c r="S35" s="295"/>
+      <c r="T35" s="295"/>
+      <c r="U35" s="295"/>
+      <c r="V35" s="295"/>
+      <c r="W35" s="295"/>
+      <c r="X35" s="295"/>
+      <c r="Y35" s="295"/>
+      <c r="Z35" s="295"/>
       <c r="AA35" s="24" t="s">
         <v>2</v>
       </c>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -846,7 +846,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -942,6 +942,10 @@
       <sz val="7.5"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
+    <font>
+      <sz val="5.5"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1868,20 +1872,707 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1892,36 +2583,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1946,36 +2607,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2030,18 +2661,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2051,625 +2670,10 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2749,7 +2753,7 @@
         <xdr:cNvPr id="2" name="AutoShape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2823,7 @@
         <xdr:cNvPr id="3" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2893,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2948,7 @@
         <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2969,7 @@
           <xdr:cNvPr id="7" name="AutoShape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3011,7 +3015,7 @@
           <xdr:cNvPr id="8" name="Rectangle 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3052,7 +3056,7 @@
           <xdr:cNvPr id="9" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3093,7 +3097,7 @@
           <xdr:cNvPr id="10" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3160,7 +3164,7 @@
           <xdr:cNvPr id="11" name="Rectangle 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3227,7 +3231,7 @@
           <xdr:cNvPr id="12" name="Rectangle 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3294,7 +3298,7 @@
           <xdr:cNvPr id="13" name="Rectangle 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3368,7 +3372,7 @@
           <xdr:cNvPr id="14" name="Rectangle 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3435,7 +3439,7 @@
           <xdr:cNvPr id="15" name="Rectangle 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3502,7 +3506,7 @@
           <xdr:cNvPr id="16" name="Rectangle 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3569,7 +3573,7 @@
           <xdr:cNvPr id="17" name="Rectangle 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3636,7 +3640,7 @@
           <xdr:cNvPr id="18" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3703,7 +3707,7 @@
           <xdr:cNvPr id="19" name="Rectangle 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3770,7 +3774,7 @@
           <xdr:cNvPr id="20" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3837,7 +3841,7 @@
           <xdr:cNvPr id="21" name="Rectangle 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3878,7 +3882,7 @@
           <xdr:cNvPr id="22" name="Line 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3918,7 +3922,7 @@
           <xdr:cNvPr id="23" name="Rectangle 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3959,7 +3963,7 @@
           <xdr:cNvPr id="24" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4000,7 +4004,7 @@
           <xdr:cNvPr id="25" name="Rectangle 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4041,7 +4045,7 @@
           <xdr:cNvPr id="26" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4082,7 +4086,7 @@
           <xdr:cNvPr id="27" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4123,7 +4127,7 @@
           <xdr:cNvPr id="28" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4164,7 +4168,7 @@
           <xdr:cNvPr id="29" name="Rectangle 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4205,7 +4209,7 @@
           <xdr:cNvPr id="30" name="Line 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4245,7 +4249,7 @@
           <xdr:cNvPr id="31" name="Rectangle 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4286,7 +4290,7 @@
           <xdr:cNvPr id="32" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4327,7 +4331,7 @@
           <xdr:cNvPr id="33" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4367,7 +4371,7 @@
           <xdr:cNvPr id="34" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4408,7 +4412,7 @@
           <xdr:cNvPr id="35" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4448,7 +4452,7 @@
           <xdr:cNvPr id="36" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4489,7 +4493,7 @@
           <xdr:cNvPr id="37" name="Rectangle 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4530,7 +4534,7 @@
           <xdr:cNvPr id="38" name="Line 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4570,7 +4574,7 @@
           <xdr:cNvPr id="39" name="Rectangle 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4611,7 +4615,7 @@
           <xdr:cNvPr id="40" name="Line 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4651,7 +4655,7 @@
           <xdr:cNvPr id="41" name="Rectangle 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4692,7 +4696,7 @@
           <xdr:cNvPr id="42" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4733,7 +4737,7 @@
           <xdr:cNvPr id="43" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4774,7 +4778,7 @@
           <xdr:cNvPr id="44" name="Line 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4814,7 +4818,7 @@
           <xdr:cNvPr id="45" name="Rectangle 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4855,7 +4859,7 @@
           <xdr:cNvPr id="46" name="Line 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4895,7 +4899,7 @@
           <xdr:cNvPr id="47" name="Rectangle 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4936,7 +4940,7 @@
           <xdr:cNvPr id="48" name="Line 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4976,7 +4980,7 @@
           <xdr:cNvPr id="49" name="Rectangle 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5017,7 +5021,7 @@
           <xdr:cNvPr id="50" name="Line 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5057,7 +5061,7 @@
           <xdr:cNvPr id="51" name="Rectangle 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5098,7 +5102,7 @@
           <xdr:cNvPr id="52" name="Line 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5138,7 +5142,7 @@
           <xdr:cNvPr id="53" name="Rectangle 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5179,7 +5183,7 @@
           <xdr:cNvPr id="54" name="Line 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5219,7 +5223,7 @@
           <xdr:cNvPr id="55" name="Rectangle 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5260,7 +5264,7 @@
           <xdr:cNvPr id="56" name="Line 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5300,7 +5304,7 @@
           <xdr:cNvPr id="57" name="Rectangle 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5341,7 +5345,7 @@
           <xdr:cNvPr id="58" name="Line 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5381,7 +5385,7 @@
           <xdr:cNvPr id="59" name="Rectangle 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5422,7 +5426,7 @@
           <xdr:cNvPr id="60" name="Line 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5462,7 +5466,7 @@
           <xdr:cNvPr id="61" name="Rectangle 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5503,7 +5507,7 @@
           <xdr:cNvPr id="62" name="Line 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5543,7 +5547,7 @@
           <xdr:cNvPr id="63" name="Rectangle 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5584,7 +5588,7 @@
           <xdr:cNvPr id="64" name="Line 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5624,7 +5628,7 @@
           <xdr:cNvPr id="65" name="Rectangle 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5665,7 +5669,7 @@
           <xdr:cNvPr id="66" name="Line 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5705,7 +5709,7 @@
           <xdr:cNvPr id="67" name="Rectangle 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5746,7 +5750,7 @@
           <xdr:cNvPr id="68" name="Line 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5786,7 +5790,7 @@
           <xdr:cNvPr id="69" name="Rectangle 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5827,7 +5831,7 @@
           <xdr:cNvPr id="70" name="Line 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5867,7 +5871,7 @@
           <xdr:cNvPr id="71" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5908,7 +5912,7 @@
           <xdr:cNvPr id="72" name="Line 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5948,7 +5952,7 @@
           <xdr:cNvPr id="73" name="Rectangle 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5989,7 +5993,7 @@
           <xdr:cNvPr id="74" name="Line 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6029,7 +6033,7 @@
           <xdr:cNvPr id="75" name="Rectangle 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6070,7 +6074,7 @@
           <xdr:cNvPr id="76" name="図 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6129,7 +6133,7 @@
           <xdr:cNvPr id="77" name="図 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6188,7 +6192,7 @@
           <xdr:cNvPr id="78" name="図 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6247,7 +6251,7 @@
           <xdr:cNvPr id="79" name="図 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6306,7 +6310,7 @@
           <xdr:cNvPr id="80" name="Oval 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6341,7 +6345,7 @@
           <xdr:cNvPr id="81" name="Rectangle 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6436,7 +6440,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6503,7 +6507,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6570,7 +6574,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6637,7 +6641,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6704,7 +6708,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6771,7 +6775,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6838,7 +6842,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6905,7 +6909,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6972,7 +6976,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7039,7 +7043,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7101,7 +7105,7 @@
         <xdr:cNvPr id="84" name="A2_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7167,7 +7171,7 @@
         <xdr:cNvPr id="96" name="A2_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7233,7 +7237,7 @@
         <xdr:cNvPr id="97" name="A2_41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7299,7 +7303,7 @@
         <xdr:cNvPr id="101" name="A1_15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7364,7 +7368,7 @@
         <xdr:cNvPr id="100" name="A1_51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7430,7 +7434,7 @@
         <xdr:cNvPr id="102" name="A1_52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7496,7 +7500,7 @@
         <xdr:cNvPr id="103" name="A1_53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7562,7 +7566,7 @@
         <xdr:cNvPr id="99" name="A4_111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7627,7 +7631,7 @@
         <xdr:cNvPr id="104" name="A4_113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7692,7 +7696,7 @@
         <xdr:cNvPr id="105" name="A4_112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7757,7 +7761,7 @@
         <xdr:cNvPr id="106" name="A4_114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7822,7 +7826,7 @@
         <xdr:cNvPr id="107" name="A4_221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7887,7 +7891,7 @@
         <xdr:cNvPr id="108" name="A4_222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7952,7 +7956,7 @@
         <xdr:cNvPr id="109" name="A4_223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8017,7 +8021,7 @@
         <xdr:cNvPr id="110" name="A4_224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8082,7 +8086,7 @@
         <xdr:cNvPr id="111" name="A4_1111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8147,7 +8151,7 @@
         <xdr:cNvPr id="118" name="A2_19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8229,7 +8233,7 @@
         <xdr:cNvPr id="120" name="Picture 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8273,7 +8277,7 @@
         <xdr:cNvPr id="112" name="TextBox 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8339,7 +8343,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8405,7 +8409,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,7 +8482,7 @@
         <xdr:cNvPr id="121" name="TextBox 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8557,7 +8561,7 @@
         <xdr:cNvPr id="123" name="TextBox 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8636,7 +8640,7 @@
         <xdr:cNvPr id="82" name="TextBox 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8714,7 +8718,7 @@
         <xdr:cNvPr id="115" name="TextBox 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9079,8 +9083,8 @@
   </sheetPr>
   <dimension ref="C1:CX75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35:Z35"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34:AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -9101,1054 +9105,1054 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="BK2" s="287" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="BK2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="BL2" s="278"/>
-      <c r="BM2" s="278"/>
-      <c r="BN2" s="278"/>
-      <c r="BO2" s="278"/>
-      <c r="BP2" s="290" t="s">
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BO2" s="30"/>
+      <c r="BP2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="BQ2" s="291"/>
-      <c r="BR2" s="291"/>
-      <c r="BS2" s="291"/>
-      <c r="BT2" s="292"/>
-      <c r="BU2" s="278" t="s">
+      <c r="BQ2" s="62"/>
+      <c r="BR2" s="62"/>
+      <c r="BS2" s="62"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="BV2" s="278"/>
-      <c r="BW2" s="278"/>
-      <c r="BX2" s="278"/>
-      <c r="BY2" s="278"/>
-      <c r="BZ2" s="284" t="s">
+      <c r="BV2" s="30"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="285"/>
-      <c r="CB2" s="285"/>
-      <c r="CC2" s="285"/>
-      <c r="CD2" s="286"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="57"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="Y3" s="207" t="s">
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="Y3" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="207"/>
-      <c r="AB3" s="207"/>
-      <c r="AC3" s="207"/>
-      <c r="AD3" s="207"/>
-      <c r="AE3" s="207"/>
-      <c r="AF3" s="207"/>
-      <c r="AG3" s="207"/>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="207"/>
-      <c r="AJ3" s="207"/>
-      <c r="AK3" s="207"/>
-      <c r="AL3" s="207"/>
-      <c r="AM3" s="207"/>
-      <c r="AN3" s="207"/>
-      <c r="AO3" s="207"/>
-      <c r="AP3" s="207"/>
-      <c r="AQ3" s="207"/>
-      <c r="AR3" s="207"/>
-      <c r="AS3" s="207"/>
-      <c r="AT3" s="207"/>
-      <c r="AU3" s="207"/>
-      <c r="AV3" s="207"/>
-      <c r="AW3" s="207"/>
-      <c r="AX3" s="207"/>
-      <c r="AY3" s="207"/>
-      <c r="AZ3" s="207"/>
-      <c r="BA3" s="207"/>
-      <c r="BB3" s="207"/>
-      <c r="BC3" s="207"/>
-      <c r="BD3" s="207"/>
-      <c r="BE3" s="207"/>
-      <c r="BF3" s="207"/>
-      <c r="BG3" s="207"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="156"/>
+      <c r="AL3" s="156"/>
+      <c r="AM3" s="156"/>
+      <c r="AN3" s="156"/>
+      <c r="AO3" s="156"/>
+      <c r="AP3" s="156"/>
+      <c r="AQ3" s="156"/>
+      <c r="AR3" s="156"/>
+      <c r="AS3" s="156"/>
+      <c r="AT3" s="156"/>
+      <c r="AU3" s="156"/>
+      <c r="AV3" s="156"/>
+      <c r="AW3" s="156"/>
+      <c r="AX3" s="156"/>
+      <c r="AY3" s="156"/>
+      <c r="AZ3" s="156"/>
+      <c r="BA3" s="156"/>
+      <c r="BB3" s="156"/>
+      <c r="BC3" s="156"/>
+      <c r="BD3" s="156"/>
+      <c r="BE3" s="156"/>
+      <c r="BF3" s="156"/>
+      <c r="BG3" s="156"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="134"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="135"/>
-      <c r="BN3" s="135"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="134"/>
-      <c r="BQ3" s="135"/>
-      <c r="BR3" s="135"/>
-      <c r="BS3" s="135"/>
-      <c r="BT3" s="136"/>
-      <c r="BU3" s="134"/>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="136"/>
-      <c r="BZ3" s="134"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="136"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="33"/>
+      <c r="BU3" s="31"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="33"/>
+      <c r="BZ3" s="31"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="33"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="207"/>
-      <c r="AI4" s="207"/>
-      <c r="AJ4" s="207"/>
-      <c r="AK4" s="207"/>
-      <c r="AL4" s="207"/>
-      <c r="AM4" s="207"/>
-      <c r="AN4" s="207"/>
-      <c r="AO4" s="207"/>
-      <c r="AP4" s="207"/>
-      <c r="AQ4" s="207"/>
-      <c r="AR4" s="207"/>
-      <c r="AS4" s="207"/>
-      <c r="AT4" s="207"/>
-      <c r="AU4" s="207"/>
-      <c r="AV4" s="207"/>
-      <c r="AW4" s="207"/>
-      <c r="AX4" s="207"/>
-      <c r="AY4" s="207"/>
-      <c r="AZ4" s="207"/>
-      <c r="BA4" s="207"/>
-      <c r="BB4" s="207"/>
-      <c r="BC4" s="207"/>
-      <c r="BD4" s="207"/>
-      <c r="BE4" s="207"/>
-      <c r="BF4" s="207"/>
-      <c r="BG4" s="207"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="Y4" s="156"/>
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="156"/>
+      <c r="AD4" s="156"/>
+      <c r="AE4" s="156"/>
+      <c r="AF4" s="156"/>
+      <c r="AG4" s="156"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="156"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="156"/>
+      <c r="AM4" s="156"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="156"/>
+      <c r="AR4" s="156"/>
+      <c r="AS4" s="156"/>
+      <c r="AT4" s="156"/>
+      <c r="AU4" s="156"/>
+      <c r="AV4" s="156"/>
+      <c r="AW4" s="156"/>
+      <c r="AX4" s="156"/>
+      <c r="AY4" s="156"/>
+      <c r="AZ4" s="156"/>
+      <c r="BA4" s="156"/>
+      <c r="BB4" s="156"/>
+      <c r="BC4" s="156"/>
+      <c r="BD4" s="156"/>
+      <c r="BE4" s="156"/>
+      <c r="BF4" s="156"/>
+      <c r="BG4" s="156"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
-      <c r="BK4" s="193"/>
-      <c r="BL4" s="188"/>
-      <c r="BM4" s="188"/>
-      <c r="BN4" s="188"/>
-      <c r="BO4" s="279"/>
-      <c r="BP4" s="193"/>
-      <c r="BQ4" s="188"/>
-      <c r="BR4" s="188"/>
-      <c r="BS4" s="188"/>
-      <c r="BT4" s="279"/>
-      <c r="BU4" s="193"/>
-      <c r="BV4" s="188"/>
-      <c r="BW4" s="188"/>
-      <c r="BX4" s="188"/>
-      <c r="BY4" s="279"/>
-      <c r="BZ4" s="193"/>
-      <c r="CA4" s="188"/>
-      <c r="CB4" s="188"/>
-      <c r="CC4" s="188"/>
-      <c r="CD4" s="279"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="36"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="140" t="s">
+      <c r="D6" s="122"/>
+      <c r="E6" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="194" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="191" t="s">
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="192"/>
-      <c r="U6" s="192"/>
-      <c r="V6" s="192"/>
-      <c r="W6" s="192"/>
-      <c r="X6" s="31" t="s">
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="32" t="s">
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="118"/>
+      <c r="AN6" s="118"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="118"/>
+      <c r="AT6" s="118"/>
+      <c r="AU6" s="119"/>
+      <c r="AV6" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="134" t="s">
+      <c r="AW6" s="118"/>
+      <c r="AX6" s="118"/>
+      <c r="AY6" s="118"/>
+      <c r="AZ6" s="118"/>
+      <c r="BA6" s="118"/>
+      <c r="BB6" s="118"/>
+      <c r="BC6" s="118"/>
+      <c r="BD6" s="118"/>
+      <c r="BE6" s="118"/>
+      <c r="BF6" s="118"/>
+      <c r="BG6" s="118"/>
+      <c r="BH6" s="118"/>
+      <c r="BI6" s="118"/>
+      <c r="BJ6" s="118"/>
+      <c r="BK6" s="119"/>
+      <c r="BL6" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="BM6" s="135"/>
-      <c r="BN6" s="135"/>
-      <c r="BO6" s="135"/>
-      <c r="BP6" s="135"/>
-      <c r="BQ6" s="135"/>
-      <c r="BR6" s="135"/>
-      <c r="BS6" s="135"/>
-      <c r="BT6" s="135"/>
-      <c r="BU6" s="135"/>
-      <c r="BV6" s="135"/>
-      <c r="BW6" s="135"/>
-      <c r="BX6" s="135"/>
-      <c r="BY6" s="135"/>
-      <c r="BZ6" s="135"/>
-      <c r="CA6" s="136"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="32"/>
+      <c r="BY6" s="32"/>
+      <c r="BZ6" s="32"/>
+      <c r="CA6" s="33"/>
       <c r="CD6" s="3"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="135"/>
-      <c r="U7" s="135"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="201"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="130"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="40"/>
+      <c r="Z7" s="37"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="40"/>
+      <c r="AB7" s="37"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="199"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="201"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="130"/>
       <c r="AG7" s="41"/>
-      <c r="AH7" s="40"/>
+      <c r="AH7" s="37"/>
       <c r="AI7" s="41"/>
-      <c r="AJ7" s="40"/>
+      <c r="AJ7" s="37"/>
       <c r="AK7" s="41"/>
-      <c r="AL7" s="199"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="201"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="130"/>
       <c r="AO7" s="41"/>
-      <c r="AP7" s="40"/>
+      <c r="AP7" s="37"/>
       <c r="AQ7" s="41"/>
-      <c r="AR7" s="40"/>
+      <c r="AR7" s="37"/>
       <c r="AS7" s="41"/>
-      <c r="AT7" s="199"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="293" t="s">
+      <c r="AT7" s="165"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="294"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
-      <c r="BB7" s="34"/>
-      <c r="BC7" s="277"/>
-      <c r="BD7" s="276"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="277"/>
-      <c r="BL7" s="219" t="s">
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="66"/>
+      <c r="AZ7" s="66"/>
+      <c r="BA7" s="66"/>
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="117"/>
+      <c r="BE7" s="66"/>
+      <c r="BF7" s="66"/>
+      <c r="BG7" s="66"/>
+      <c r="BH7" s="66"/>
+      <c r="BI7" s="66"/>
+      <c r="BJ7" s="66"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="BM7" s="220"/>
-      <c r="BN7" s="220"/>
-      <c r="BO7" s="221"/>
-      <c r="BP7" s="250"/>
+      <c r="BM7" s="100"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="101"/>
+      <c r="BP7" s="51"/>
       <c r="BQ7" s="41"/>
-      <c r="BR7" s="251"/>
+      <c r="BR7" s="49"/>
       <c r="BS7" s="41"/>
-      <c r="BT7" s="250"/>
+      <c r="BT7" s="51"/>
       <c r="BU7" s="41"/>
-      <c r="BV7" s="251"/>
+      <c r="BV7" s="49"/>
       <c r="BW7" s="41"/>
-      <c r="BX7" s="250"/>
-      <c r="BY7" s="251"/>
-      <c r="BZ7" s="40"/>
-      <c r="CA7" s="216"/>
+      <c r="BX7" s="51"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="37"/>
+      <c r="CA7" s="38"/>
       <c r="CB7" s="4"/>
       <c r="CD7" s="3"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="176"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="193"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="202"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="200"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="202"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="200"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="202"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="200"/>
-      <c r="AU8" s="45"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="131"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="131"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="42"/>
       <c r="AV8" s="29"/>
-      <c r="AW8" s="253"/>
-      <c r="AX8" s="253"/>
-      <c r="AY8" s="253"/>
-      <c r="AZ8" s="253"/>
-      <c r="BA8" s="253"/>
-      <c r="BB8" s="253"/>
-      <c r="BC8" s="254"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="54"/>
       <c r="BD8" s="29"/>
-      <c r="BE8" s="253"/>
-      <c r="BF8" s="253"/>
-      <c r="BG8" s="253"/>
-      <c r="BH8" s="253"/>
-      <c r="BI8" s="253"/>
-      <c r="BJ8" s="253"/>
-      <c r="BK8" s="254"/>
-      <c r="BL8" s="222"/>
-      <c r="BM8" s="223"/>
-      <c r="BN8" s="223"/>
-      <c r="BO8" s="224"/>
-      <c r="BP8" s="252"/>
-      <c r="BQ8" s="45"/>
-      <c r="BR8" s="200"/>
-      <c r="BS8" s="45"/>
-      <c r="BT8" s="252"/>
-      <c r="BU8" s="45"/>
-      <c r="BV8" s="200"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="252"/>
-      <c r="BY8" s="200"/>
-      <c r="BZ8" s="44"/>
-      <c r="CA8" s="280"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="53"/>
+      <c r="BG8" s="53"/>
+      <c r="BH8" s="53"/>
+      <c r="BI8" s="53"/>
+      <c r="BJ8" s="53"/>
+      <c r="BK8" s="54"/>
+      <c r="BL8" s="102"/>
+      <c r="BM8" s="103"/>
+      <c r="BN8" s="103"/>
+      <c r="BO8" s="104"/>
+      <c r="BP8" s="52"/>
+      <c r="BQ8" s="42"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="42"/>
+      <c r="BT8" s="52"/>
+      <c r="BU8" s="42"/>
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="42"/>
+      <c r="BX8" s="52"/>
+      <c r="BY8" s="50"/>
+      <c r="BZ8" s="39"/>
+      <c r="CA8" s="40"/>
       <c r="CB8" s="5"/>
       <c r="CC8" s="6"/>
       <c r="CD8" s="3"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="66" t="s">
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="75" t="s">
+      <c r="H9" s="276"/>
+      <c r="I9" s="277"/>
+      <c r="J9" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="40"/>
+      <c r="K9" s="285"/>
+      <c r="L9" s="285"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="286"/>
+      <c r="P9" s="37"/>
       <c r="Q9" s="41"/>
-      <c r="R9" s="40"/>
+      <c r="R9" s="37"/>
       <c r="S9" s="41"/>
-      <c r="T9" s="40"/>
+      <c r="T9" s="37"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="40"/>
+      <c r="V9" s="37"/>
       <c r="W9" s="41"/>
-      <c r="X9" s="40"/>
+      <c r="X9" s="37"/>
       <c r="Y9" s="41"/>
-      <c r="Z9" s="40"/>
+      <c r="Z9" s="37"/>
       <c r="AA9" s="41"/>
-      <c r="AB9" s="40"/>
+      <c r="AB9" s="37"/>
       <c r="AC9" s="41"/>
-      <c r="AD9" s="140" t="s">
+      <c r="AD9" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="203"/>
-      <c r="AG9" s="288" t="s">
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="289"/>
-      <c r="AI9" s="289"/>
-      <c r="AJ9" s="289"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="46"/>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="46"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="46"/>
-      <c r="BF9" s="46"/>
-      <c r="BG9" s="46"/>
-      <c r="BH9" s="46"/>
-      <c r="BI9" s="46"/>
-      <c r="BJ9" s="46"/>
-      <c r="BK9" s="46"/>
-      <c r="BL9" s="46"/>
-      <c r="BM9" s="46"/>
-      <c r="BN9" s="46"/>
-      <c r="BO9" s="46"/>
-      <c r="BP9" s="46"/>
-      <c r="BQ9" s="46"/>
-      <c r="BR9" s="46"/>
-      <c r="BS9" s="46"/>
-      <c r="BT9" s="46"/>
-      <c r="BU9" s="46"/>
-      <c r="BV9" s="46"/>
-      <c r="BW9" s="46"/>
-      <c r="BX9" s="46"/>
-      <c r="BY9" s="46"/>
-      <c r="BZ9" s="46"/>
-      <c r="CA9" s="46"/>
-      <c r="CB9" s="46"/>
-      <c r="CC9" s="46"/>
-      <c r="CD9" s="47"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="225"/>
+      <c r="AL9" s="225"/>
+      <c r="AM9" s="225"/>
+      <c r="AN9" s="225"/>
+      <c r="AO9" s="225"/>
+      <c r="AP9" s="225"/>
+      <c r="AQ9" s="225"/>
+      <c r="AR9" s="225"/>
+      <c r="AS9" s="225"/>
+      <c r="AT9" s="225"/>
+      <c r="AU9" s="225"/>
+      <c r="AV9" s="225"/>
+      <c r="AW9" s="225"/>
+      <c r="AX9" s="225"/>
+      <c r="AY9" s="225"/>
+      <c r="AZ9" s="225"/>
+      <c r="BA9" s="225"/>
+      <c r="BB9" s="225"/>
+      <c r="BC9" s="225"/>
+      <c r="BD9" s="225"/>
+      <c r="BE9" s="225"/>
+      <c r="BF9" s="225"/>
+      <c r="BG9" s="225"/>
+      <c r="BH9" s="225"/>
+      <c r="BI9" s="225"/>
+      <c r="BJ9" s="225"/>
+      <c r="BK9" s="225"/>
+      <c r="BL9" s="225"/>
+      <c r="BM9" s="225"/>
+      <c r="BN9" s="225"/>
+      <c r="BO9" s="225"/>
+      <c r="BP9" s="225"/>
+      <c r="BQ9" s="225"/>
+      <c r="BR9" s="225"/>
+      <c r="BS9" s="225"/>
+      <c r="BT9" s="225"/>
+      <c r="BU9" s="225"/>
+      <c r="BV9" s="225"/>
+      <c r="BW9" s="225"/>
+      <c r="BX9" s="225"/>
+      <c r="BY9" s="225"/>
+      <c r="BZ9" s="225"/>
+      <c r="CA9" s="225"/>
+      <c r="CB9" s="225"/>
+      <c r="CC9" s="225"/>
+      <c r="CD9" s="226"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="204"/>
-      <c r="AG10" s="281"/>
-      <c r="AH10" s="282"/>
-      <c r="AI10" s="282"/>
-      <c r="AJ10" s="282"/>
-      <c r="AK10" s="282"/>
-      <c r="AL10" s="282"/>
-      <c r="AM10" s="282"/>
-      <c r="AN10" s="282"/>
-      <c r="AO10" s="282"/>
-      <c r="AP10" s="282"/>
-      <c r="AQ10" s="282"/>
-      <c r="AR10" s="282"/>
-      <c r="AS10" s="282"/>
-      <c r="AT10" s="282"/>
-      <c r="AU10" s="282"/>
-      <c r="AV10" s="282"/>
-      <c r="AW10" s="282"/>
-      <c r="AX10" s="282"/>
-      <c r="AY10" s="282"/>
-      <c r="AZ10" s="282"/>
-      <c r="BA10" s="282"/>
-      <c r="BB10" s="282"/>
-      <c r="BC10" s="282"/>
-      <c r="BD10" s="282"/>
-      <c r="BE10" s="282"/>
-      <c r="BF10" s="282"/>
-      <c r="BG10" s="282"/>
-      <c r="BH10" s="282"/>
-      <c r="BI10" s="282"/>
-      <c r="BJ10" s="282"/>
-      <c r="BK10" s="282"/>
-      <c r="BL10" s="282"/>
-      <c r="BM10" s="282"/>
-      <c r="BN10" s="282"/>
-      <c r="BO10" s="282"/>
-      <c r="BP10" s="282"/>
-      <c r="BQ10" s="282"/>
-      <c r="BR10" s="282"/>
-      <c r="BS10" s="282"/>
-      <c r="BT10" s="282"/>
-      <c r="BU10" s="282"/>
-      <c r="BV10" s="282"/>
-      <c r="BW10" s="282"/>
-      <c r="BX10" s="282"/>
-      <c r="BY10" s="282"/>
-      <c r="BZ10" s="282"/>
-      <c r="CA10" s="282"/>
-      <c r="CB10" s="282"/>
-      <c r="CC10" s="282"/>
-      <c r="CD10" s="283"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="279"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="287"/>
+      <c r="K10" s="288"/>
+      <c r="L10" s="288"/>
+      <c r="M10" s="288"/>
+      <c r="N10" s="288"/>
+      <c r="O10" s="289"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="168"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44"/>
+      <c r="BD10" s="44"/>
+      <c r="BE10" s="44"/>
+      <c r="BF10" s="44"/>
+      <c r="BG10" s="44"/>
+      <c r="BH10" s="44"/>
+      <c r="BI10" s="44"/>
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="44"/>
+      <c r="BM10" s="44"/>
+      <c r="BN10" s="44"/>
+      <c r="BO10" s="44"/>
+      <c r="BP10" s="44"/>
+      <c r="BQ10" s="44"/>
+      <c r="BR10" s="44"/>
+      <c r="BS10" s="44"/>
+      <c r="BT10" s="44"/>
+      <c r="BU10" s="44"/>
+      <c r="BV10" s="44"/>
+      <c r="BW10" s="44"/>
+      <c r="BX10" s="44"/>
+      <c r="BY10" s="44"/>
+      <c r="BZ10" s="44"/>
+      <c r="CA10" s="44"/>
+      <c r="CB10" s="44"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="45"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="146"/>
-      <c r="AE11" s="147"/>
-      <c r="AF11" s="205"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="92"/>
-      <c r="CC11" s="92"/>
-      <c r="CD11" s="93"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="282"/>
+      <c r="I11" s="283"/>
+      <c r="J11" s="290"/>
+      <c r="K11" s="291"/>
+      <c r="L11" s="291"/>
+      <c r="M11" s="291"/>
+      <c r="N11" s="291"/>
+      <c r="O11" s="292"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="170"/>
+      <c r="AF11" s="171"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="47"/>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="47"/>
+      <c r="BE11" s="47"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="47"/>
+      <c r="BH11" s="47"/>
+      <c r="BI11" s="47"/>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="47"/>
+      <c r="BL11" s="47"/>
+      <c r="BM11" s="47"/>
+      <c r="BN11" s="47"/>
+      <c r="BO11" s="47"/>
+      <c r="BP11" s="47"/>
+      <c r="BQ11" s="47"/>
+      <c r="BR11" s="47"/>
+      <c r="BS11" s="47"/>
+      <c r="BT11" s="47"/>
+      <c r="BU11" s="47"/>
+      <c r="BV11" s="47"/>
+      <c r="BW11" s="47"/>
+      <c r="BX11" s="47"/>
+      <c r="BY11" s="47"/>
+      <c r="BZ11" s="47"/>
+      <c r="CA11" s="47"/>
+      <c r="CB11" s="47"/>
+      <c r="CC11" s="47"/>
+      <c r="CD11" s="48"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="60" t="s">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="75" t="s">
+      <c r="H12" s="196"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="284" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="89"/>
-      <c r="AP12" s="89"/>
-      <c r="AQ12" s="89"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="89"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="89"/>
-      <c r="AV12" s="89"/>
-      <c r="AW12" s="89"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="89"/>
-      <c r="BB12" s="89"/>
-      <c r="BC12" s="89"/>
-      <c r="BD12" s="89"/>
-      <c r="BE12" s="89"/>
-      <c r="BF12" s="89"/>
-      <c r="BG12" s="89"/>
-      <c r="BH12" s="89"/>
-      <c r="BI12" s="89"/>
-      <c r="BJ12" s="89"/>
-      <c r="BK12" s="89"/>
-      <c r="BL12" s="89"/>
-      <c r="BM12" s="89"/>
-      <c r="BN12" s="89"/>
-      <c r="BO12" s="89"/>
-      <c r="BP12" s="89"/>
-      <c r="BQ12" s="89"/>
-      <c r="BR12" s="89"/>
-      <c r="BS12" s="89"/>
-      <c r="BT12" s="89"/>
-      <c r="BU12" s="89"/>
-      <c r="BV12" s="89"/>
-      <c r="BW12" s="89"/>
-      <c r="BX12" s="89"/>
-      <c r="BY12" s="89"/>
-      <c r="BZ12" s="89"/>
-      <c r="CA12" s="89"/>
-      <c r="CB12" s="89"/>
-      <c r="CC12" s="89"/>
-      <c r="CD12" s="90"/>
+      <c r="K12" s="285"/>
+      <c r="L12" s="285"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="285"/>
+      <c r="O12" s="286"/>
+      <c r="P12" s="293"/>
+      <c r="Q12" s="294"/>
+      <c r="R12" s="294"/>
+      <c r="S12" s="294"/>
+      <c r="T12" s="294"/>
+      <c r="U12" s="294"/>
+      <c r="V12" s="294"/>
+      <c r="W12" s="294"/>
+      <c r="X12" s="294"/>
+      <c r="Y12" s="294"/>
+      <c r="Z12" s="294"/>
+      <c r="AA12" s="294"/>
+      <c r="AB12" s="294"/>
+      <c r="AC12" s="294"/>
+      <c r="AD12" s="294"/>
+      <c r="AE12" s="294"/>
+      <c r="AF12" s="294"/>
+      <c r="AG12" s="294"/>
+      <c r="AH12" s="294"/>
+      <c r="AI12" s="294"/>
+      <c r="AJ12" s="294"/>
+      <c r="AK12" s="294"/>
+      <c r="AL12" s="294"/>
+      <c r="AM12" s="294"/>
+      <c r="AN12" s="294"/>
+      <c r="AO12" s="294"/>
+      <c r="AP12" s="294"/>
+      <c r="AQ12" s="294"/>
+      <c r="AR12" s="294"/>
+      <c r="AS12" s="294"/>
+      <c r="AT12" s="294"/>
+      <c r="AU12" s="294"/>
+      <c r="AV12" s="294"/>
+      <c r="AW12" s="294"/>
+      <c r="AX12" s="294"/>
+      <c r="AY12" s="294"/>
+      <c r="AZ12" s="294"/>
+      <c r="BA12" s="294"/>
+      <c r="BB12" s="294"/>
+      <c r="BC12" s="294"/>
+      <c r="BD12" s="294"/>
+      <c r="BE12" s="294"/>
+      <c r="BF12" s="294"/>
+      <c r="BG12" s="294"/>
+      <c r="BH12" s="294"/>
+      <c r="BI12" s="294"/>
+      <c r="BJ12" s="294"/>
+      <c r="BK12" s="294"/>
+      <c r="BL12" s="294"/>
+      <c r="BM12" s="294"/>
+      <c r="BN12" s="294"/>
+      <c r="BO12" s="294"/>
+      <c r="BP12" s="294"/>
+      <c r="BQ12" s="294"/>
+      <c r="BR12" s="294"/>
+      <c r="BS12" s="294"/>
+      <c r="BT12" s="294"/>
+      <c r="BU12" s="294"/>
+      <c r="BV12" s="294"/>
+      <c r="BW12" s="294"/>
+      <c r="BX12" s="294"/>
+      <c r="BY12" s="294"/>
+      <c r="BZ12" s="294"/>
+      <c r="CA12" s="294"/>
+      <c r="CB12" s="294"/>
+      <c r="CC12" s="294"/>
+      <c r="CD12" s="295"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="92"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="92"/>
-      <c r="BE13" s="92"/>
-      <c r="BF13" s="92"/>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="92"/>
-      <c r="BJ13" s="92"/>
-      <c r="BK13" s="92"/>
-      <c r="BL13" s="92"/>
-      <c r="BM13" s="92"/>
-      <c r="BN13" s="92"/>
-      <c r="BO13" s="92"/>
-      <c r="BP13" s="92"/>
-      <c r="BQ13" s="92"/>
-      <c r="BR13" s="92"/>
-      <c r="BS13" s="92"/>
-      <c r="BT13" s="92"/>
-      <c r="BU13" s="92"/>
-      <c r="BV13" s="92"/>
-      <c r="BW13" s="92"/>
-      <c r="BX13" s="92"/>
-      <c r="BY13" s="92"/>
-      <c r="BZ13" s="92"/>
-      <c r="CA13" s="92"/>
-      <c r="CB13" s="92"/>
-      <c r="CC13" s="92"/>
-      <c r="CD13" s="93"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="290"/>
+      <c r="K13" s="291"/>
+      <c r="L13" s="291"/>
+      <c r="M13" s="291"/>
+      <c r="N13" s="291"/>
+      <c r="O13" s="292"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="47"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
+      <c r="AX13" s="47"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="47"/>
+      <c r="BA13" s="47"/>
+      <c r="BB13" s="47"/>
+      <c r="BC13" s="47"/>
+      <c r="BD13" s="47"/>
+      <c r="BE13" s="47"/>
+      <c r="BF13" s="47"/>
+      <c r="BG13" s="47"/>
+      <c r="BH13" s="47"/>
+      <c r="BI13" s="47"/>
+      <c r="BJ13" s="47"/>
+      <c r="BK13" s="47"/>
+      <c r="BL13" s="47"/>
+      <c r="BM13" s="47"/>
+      <c r="BN13" s="47"/>
+      <c r="BO13" s="47"/>
+      <c r="BP13" s="47"/>
+      <c r="BQ13" s="47"/>
+      <c r="BR13" s="47"/>
+      <c r="BS13" s="47"/>
+      <c r="BT13" s="47"/>
+      <c r="BU13" s="47"/>
+      <c r="BV13" s="47"/>
+      <c r="BW13" s="47"/>
+      <c r="BX13" s="47"/>
+      <c r="BY13" s="47"/>
+      <c r="BZ13" s="47"/>
+      <c r="CA13" s="47"/>
+      <c r="CB13" s="47"/>
+      <c r="CC13" s="47"/>
+      <c r="CD13" s="48"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="48" t="s">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="267" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="185" t="s">
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="269"/>
+      <c r="M14" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="186"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="177"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="177"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="179"/>
-      <c r="AD14" s="180"/>
-      <c r="AE14" s="181"/>
-      <c r="AF14" s="241" t="s">
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="173"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="173"/>
+      <c r="Y14" s="186"/>
+      <c r="Z14" s="176"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="192"/>
+      <c r="AC14" s="180"/>
+      <c r="AD14" s="181"/>
+      <c r="AE14" s="182"/>
+      <c r="AF14" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="AG14" s="242"/>
-      <c r="AH14" s="242"/>
-      <c r="AI14" s="242"/>
-      <c r="AJ14" s="255" t="s">
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="151"/>
+      <c r="AJ14" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="AK14" s="256"/>
-      <c r="AL14" s="256"/>
-      <c r="AM14" s="256"/>
-      <c r="AN14" s="256"/>
-      <c r="AO14" s="256"/>
-      <c r="AP14" s="256"/>
-      <c r="AQ14" s="256"/>
-      <c r="AR14" s="256"/>
-      <c r="AS14" s="256"/>
-      <c r="AT14" s="256"/>
-      <c r="AU14" s="256"/>
-      <c r="AV14" s="256"/>
-      <c r="AW14" s="256"/>
-      <c r="AX14" s="256"/>
-      <c r="AY14" s="256"/>
-      <c r="AZ14" s="256"/>
-      <c r="BA14" s="256"/>
-      <c r="BB14" s="256"/>
-      <c r="BC14" s="256"/>
-      <c r="BD14" s="256"/>
-      <c r="BE14" s="256"/>
-      <c r="BF14" s="256"/>
-      <c r="BG14" s="256"/>
-      <c r="BH14" s="256"/>
-      <c r="BI14" s="256"/>
-      <c r="BJ14" s="256"/>
-      <c r="BK14" s="256"/>
-      <c r="BL14" s="256"/>
-      <c r="BM14" s="256"/>
-      <c r="BN14" s="256"/>
-      <c r="BO14" s="257"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="88"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="88"/>
+      <c r="AQ14" s="88"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="88"/>
+      <c r="AU14" s="88"/>
+      <c r="AV14" s="88"/>
+      <c r="AW14" s="88"/>
+      <c r="AX14" s="88"/>
+      <c r="AY14" s="88"/>
+      <c r="AZ14" s="88"/>
+      <c r="BA14" s="88"/>
+      <c r="BB14" s="88"/>
+      <c r="BC14" s="88"/>
+      <c r="BD14" s="88"/>
+      <c r="BE14" s="88"/>
+      <c r="BF14" s="88"/>
+      <c r="BG14" s="88"/>
+      <c r="BH14" s="88"/>
+      <c r="BI14" s="88"/>
+      <c r="BJ14" s="88"/>
+      <c r="BK14" s="88"/>
+      <c r="BL14" s="88"/>
+      <c r="BM14" s="88"/>
+      <c r="BN14" s="88"/>
+      <c r="BO14" s="89"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="209"/>
-      <c r="D15" s="209"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="188"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="178"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="182"/>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="184"/>
-      <c r="AF15" s="243"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="94"/>
-      <c r="AJ15" s="258"/>
-      <c r="AK15" s="259"/>
-      <c r="AL15" s="259"/>
-      <c r="AM15" s="259"/>
-      <c r="AN15" s="259"/>
-      <c r="AO15" s="259"/>
-      <c r="AP15" s="259"/>
-      <c r="AQ15" s="259"/>
-      <c r="AR15" s="259"/>
-      <c r="AS15" s="259"/>
-      <c r="AT15" s="259"/>
-      <c r="AU15" s="259"/>
-      <c r="AV15" s="259"/>
-      <c r="AW15" s="259"/>
-      <c r="AX15" s="259"/>
-      <c r="AY15" s="259"/>
-      <c r="AZ15" s="259"/>
-      <c r="BA15" s="259"/>
-      <c r="BB15" s="259"/>
-      <c r="BC15" s="259"/>
-      <c r="BD15" s="259"/>
-      <c r="BE15" s="259"/>
-      <c r="BF15" s="259"/>
-      <c r="BG15" s="259"/>
-      <c r="BH15" s="259"/>
-      <c r="BI15" s="259"/>
-      <c r="BJ15" s="259"/>
-      <c r="BK15" s="259"/>
-      <c r="BL15" s="259"/>
-      <c r="BM15" s="259"/>
-      <c r="BN15" s="259"/>
-      <c r="BO15" s="260"/>
-      <c r="BS15" s="213" t="s">
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="271"/>
+      <c r="K15" s="271"/>
+      <c r="L15" s="272"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="179"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="179"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="179"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="184"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="152"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="153"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="91"/>
+      <c r="AO15" s="91"/>
+      <c r="AP15" s="91"/>
+      <c r="AQ15" s="91"/>
+      <c r="AR15" s="91"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="91"/>
+      <c r="BD15" s="91"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="91"/>
+      <c r="BG15" s="91"/>
+      <c r="BH15" s="91"/>
+      <c r="BI15" s="91"/>
+      <c r="BJ15" s="91"/>
+      <c r="BK15" s="91"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="91"/>
+      <c r="BN15" s="91"/>
+      <c r="BO15" s="92"/>
+      <c r="BS15" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="BT15" s="214"/>
-      <c r="BU15" s="214"/>
-      <c r="BV15" s="214"/>
-      <c r="BW15" s="214"/>
-      <c r="BX15" s="214"/>
-      <c r="BY15" s="214"/>
-      <c r="BZ15" s="214"/>
-      <c r="CA15" s="214"/>
-      <c r="CB15" s="214"/>
-      <c r="CC15" s="214"/>
-      <c r="CD15" s="215"/>
+      <c r="BT15" s="69"/>
+      <c r="BU15" s="69"/>
+      <c r="BV15" s="69"/>
+      <c r="BW15" s="69"/>
+      <c r="BX15" s="69"/>
+      <c r="BY15" s="69"/>
+      <c r="BZ15" s="69"/>
+      <c r="CA15" s="69"/>
+      <c r="CB15" s="69"/>
+      <c r="CC15" s="69"/>
+      <c r="CD15" s="70"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10177,22 +10181,22 @@
       <c r="AO16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BS16" s="213"/>
-      <c r="BT16" s="214"/>
-      <c r="BU16" s="214"/>
-      <c r="BV16" s="214"/>
-      <c r="BW16" s="214"/>
-      <c r="BX16" s="214"/>
-      <c r="BY16" s="214"/>
-      <c r="BZ16" s="214"/>
-      <c r="CA16" s="214"/>
-      <c r="CB16" s="214"/>
-      <c r="CC16" s="214"/>
-      <c r="CD16" s="215"/>
+      <c r="BS16" s="68"/>
+      <c r="BT16" s="69"/>
+      <c r="BU16" s="69"/>
+      <c r="BV16" s="69"/>
+      <c r="BW16" s="69"/>
+      <c r="BX16" s="69"/>
+      <c r="BY16" s="69"/>
+      <c r="BZ16" s="69"/>
+      <c r="CA16" s="69"/>
+      <c r="CB16" s="69"/>
+      <c r="CC16" s="69"/>
+      <c r="CD16" s="70"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="209"/>
-      <c r="D17" s="209"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="H17" s="13" t="s">
@@ -10201,882 +10205,882 @@
       <c r="AO17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BS17" s="244"/>
-      <c r="BT17" s="208"/>
-      <c r="BU17" s="208"/>
-      <c r="BV17" s="208"/>
-      <c r="BW17" s="208"/>
-      <c r="BX17" s="208"/>
-      <c r="BY17" s="208"/>
-      <c r="BZ17" s="208"/>
-      <c r="CA17" s="208"/>
-      <c r="CB17" s="208"/>
-      <c r="CC17" s="208"/>
-      <c r="CD17" s="245"/>
+      <c r="BS17" s="71"/>
+      <c r="BT17" s="72"/>
+      <c r="BU17" s="72"/>
+      <c r="BV17" s="72"/>
+      <c r="BW17" s="72"/>
+      <c r="BX17" s="72"/>
+      <c r="BY17" s="72"/>
+      <c r="BZ17" s="72"/>
+      <c r="CA17" s="72"/>
+      <c r="CB17" s="72"/>
+      <c r="CC17" s="72"/>
+      <c r="CD17" s="73"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="209"/>
-      <c r="D18" s="209"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BS18" s="244"/>
-      <c r="BT18" s="208"/>
-      <c r="BU18" s="208"/>
-      <c r="BV18" s="208"/>
-      <c r="BW18" s="208"/>
-      <c r="BX18" s="208"/>
-      <c r="BY18" s="208"/>
-      <c r="BZ18" s="208"/>
-      <c r="CA18" s="208"/>
-      <c r="CB18" s="208"/>
-      <c r="CC18" s="208"/>
-      <c r="CD18" s="245"/>
+      <c r="BS18" s="71"/>
+      <c r="BT18" s="72"/>
+      <c r="BU18" s="72"/>
+      <c r="BV18" s="72"/>
+      <c r="BW18" s="72"/>
+      <c r="BX18" s="72"/>
+      <c r="BY18" s="72"/>
+      <c r="BZ18" s="72"/>
+      <c r="CA18" s="72"/>
+      <c r="CB18" s="72"/>
+      <c r="CC18" s="72"/>
+      <c r="CD18" s="73"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="249" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="249"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="249"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="249"/>
-      <c r="K19" s="249"/>
-      <c r="L19" s="249"/>
-      <c r="M19" s="249"/>
-      <c r="N19" s="249"/>
-      <c r="O19" s="249"/>
-      <c r="P19" s="249"/>
-      <c r="Q19" s="249"/>
-      <c r="R19" s="249"/>
-      <c r="S19" s="249"/>
-      <c r="T19" s="249"/>
-      <c r="U19" s="249"/>
-      <c r="V19" s="249"/>
-      <c r="W19" s="249"/>
-      <c r="X19" s="249"/>
-      <c r="Y19" s="249"/>
-      <c r="Z19" s="249"/>
-      <c r="AA19" s="249"/>
-      <c r="AB19" s="249"/>
-      <c r="AC19" s="249"/>
-      <c r="AD19" s="249"/>
-      <c r="AE19" s="249"/>
-      <c r="AF19" s="249"/>
-      <c r="AG19" s="249"/>
-      <c r="AH19" s="249"/>
-      <c r="AI19" s="249"/>
-      <c r="AJ19" s="249"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
       <c r="AV19" s="15"/>
-      <c r="BS19" s="244"/>
-      <c r="BT19" s="208"/>
-      <c r="BU19" s="208"/>
-      <c r="BV19" s="208"/>
-      <c r="BW19" s="208"/>
-      <c r="BX19" s="208"/>
-      <c r="BY19" s="208"/>
-      <c r="BZ19" s="208"/>
-      <c r="CA19" s="208"/>
-      <c r="CB19" s="208"/>
-      <c r="CC19" s="208"/>
-      <c r="CD19" s="245"/>
+      <c r="BS19" s="71"/>
+      <c r="BT19" s="72"/>
+      <c r="BU19" s="72"/>
+      <c r="BV19" s="72"/>
+      <c r="BW19" s="72"/>
+      <c r="BX19" s="72"/>
+      <c r="BY19" s="72"/>
+      <c r="BZ19" s="72"/>
+      <c r="CA19" s="72"/>
+      <c r="CB19" s="72"/>
+      <c r="CC19" s="72"/>
+      <c r="CD19" s="73"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="209"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="228" t="s">
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="229"/>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="136"/>
+      <c r="G20" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="31" t="s">
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="266"/>
-      <c r="AV20" s="267"/>
-      <c r="AW20" s="239" t="s">
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="119"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="108"/>
+      <c r="AW20" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="AX20" s="240"/>
+      <c r="AX20" s="149"/>
       <c r="AY20" s="16"/>
       <c r="AZ20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="BA20" s="18"/>
       <c r="BB20" s="18"/>
-      <c r="BC20" s="34"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="35"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="37"/>
-      <c r="BS20" s="244"/>
-      <c r="BT20" s="208"/>
-      <c r="BU20" s="208"/>
-      <c r="BV20" s="208"/>
-      <c r="BW20" s="208"/>
-      <c r="BX20" s="208"/>
-      <c r="BY20" s="208"/>
-      <c r="BZ20" s="208"/>
-      <c r="CA20" s="208"/>
-      <c r="CB20" s="208"/>
-      <c r="CC20" s="208"/>
-      <c r="CD20" s="245"/>
+      <c r="BC20" s="66"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="264"/>
+      <c r="BJ20" s="265"/>
+      <c r="BK20" s="265"/>
+      <c r="BL20" s="265"/>
+      <c r="BM20" s="265"/>
+      <c r="BN20" s="265"/>
+      <c r="BO20" s="265"/>
+      <c r="BP20" s="265"/>
+      <c r="BQ20" s="266"/>
+      <c r="BS20" s="71"/>
+      <c r="BT20" s="72"/>
+      <c r="BU20" s="72"/>
+      <c r="BV20" s="72"/>
+      <c r="BW20" s="72"/>
+      <c r="BX20" s="72"/>
+      <c r="BY20" s="72"/>
+      <c r="BZ20" s="72"/>
+      <c r="CA20" s="72"/>
+      <c r="CB20" s="72"/>
+      <c r="CC20" s="72"/>
+      <c r="CD20" s="73"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="175"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="175"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="219" t="s">
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="273"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="273"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="273"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="172"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="AF21" s="220"/>
-      <c r="AG21" s="220"/>
-      <c r="AH21" s="221"/>
-      <c r="AI21" s="264"/>
-      <c r="AJ21" s="262"/>
-      <c r="AK21" s="235"/>
-      <c r="AL21" s="236"/>
-      <c r="AM21" s="261"/>
-      <c r="AN21" s="262"/>
-      <c r="AO21" s="235"/>
-      <c r="AP21" s="236"/>
-      <c r="AQ21" s="261"/>
-      <c r="AR21" s="262"/>
-      <c r="AS21" s="235"/>
-      <c r="AT21" s="236"/>
-      <c r="AU21" s="268"/>
-      <c r="AV21" s="269"/>
-      <c r="AW21" s="272" t="s">
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="97"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="93"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="97"/>
+      <c r="AT21" s="98"/>
+      <c r="AU21" s="109"/>
+      <c r="AV21" s="110"/>
+      <c r="AW21" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="AX21" s="272"/>
-      <c r="AY21" s="273"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="114"/>
       <c r="AZ21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="BA21" s="20"/>
-      <c r="BB21" s="156"/>
-      <c r="BC21" s="156"/>
-      <c r="BD21" s="156"/>
-      <c r="BE21" s="156"/>
-      <c r="BF21" s="156"/>
-      <c r="BG21" s="156"/>
-      <c r="BH21" s="156"/>
+      <c r="BB21" s="144"/>
+      <c r="BC21" s="144"/>
+      <c r="BD21" s="144"/>
+      <c r="BE21" s="144"/>
+      <c r="BF21" s="144"/>
+      <c r="BG21" s="144"/>
+      <c r="BH21" s="144"/>
       <c r="BI21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="BJ21" s="20"/>
-      <c r="BK21" s="156"/>
-      <c r="BL21" s="156"/>
-      <c r="BM21" s="156"/>
-      <c r="BN21" s="156"/>
-      <c r="BO21" s="156"/>
-      <c r="BP21" s="156"/>
-      <c r="BQ21" s="157"/>
-      <c r="BS21" s="246"/>
-      <c r="BT21" s="247"/>
-      <c r="BU21" s="247"/>
-      <c r="BV21" s="247"/>
-      <c r="BW21" s="247"/>
-      <c r="BX21" s="247"/>
-      <c r="BY21" s="247"/>
-      <c r="BZ21" s="247"/>
-      <c r="CA21" s="247"/>
-      <c r="CB21" s="247"/>
-      <c r="CC21" s="247"/>
-      <c r="CD21" s="248"/>
-      <c r="CV21" s="30"/>
-      <c r="CW21" s="30"/>
-      <c r="CX21" s="30"/>
+      <c r="BK21" s="144"/>
+      <c r="BL21" s="144"/>
+      <c r="BM21" s="144"/>
+      <c r="BN21" s="144"/>
+      <c r="BO21" s="144"/>
+      <c r="BP21" s="144"/>
+      <c r="BQ21" s="146"/>
+      <c r="BS21" s="74"/>
+      <c r="BT21" s="75"/>
+      <c r="BU21" s="75"/>
+      <c r="BV21" s="75"/>
+      <c r="BW21" s="75"/>
+      <c r="BX21" s="75"/>
+      <c r="BY21" s="75"/>
+      <c r="BZ21" s="75"/>
+      <c r="CA21" s="75"/>
+      <c r="CB21" s="75"/>
+      <c r="CC21" s="75"/>
+      <c r="CD21" s="76"/>
+      <c r="CV21" s="155"/>
+      <c r="CW21" s="155"/>
+      <c r="CX21" s="155"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="176"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="176"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="222"/>
-      <c r="AF22" s="223"/>
-      <c r="AG22" s="223"/>
-      <c r="AH22" s="224"/>
-      <c r="AI22" s="265"/>
-      <c r="AJ22" s="237"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="237"/>
-      <c r="AM22" s="263"/>
-      <c r="AN22" s="237"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="237"/>
-      <c r="AQ22" s="263"/>
-      <c r="AR22" s="237"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="237"/>
-      <c r="AU22" s="270"/>
-      <c r="AV22" s="271"/>
-      <c r="AW22" s="274"/>
-      <c r="AX22" s="274"/>
-      <c r="AY22" s="275"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="274"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="274"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="274"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="96"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="96"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="96"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="112"/>
+      <c r="AW22" s="115"/>
+      <c r="AX22" s="115"/>
+      <c r="AY22" s="116"/>
       <c r="AZ22" s="5"/>
       <c r="BA22" s="6"/>
-      <c r="BB22" s="153"/>
-      <c r="BC22" s="153"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="153"/>
+      <c r="BB22" s="145"/>
+      <c r="BC22" s="145"/>
+      <c r="BD22" s="145"/>
+      <c r="BE22" s="145"/>
+      <c r="BF22" s="145"/>
+      <c r="BG22" s="145"/>
+      <c r="BH22" s="145"/>
       <c r="BI22" s="5"/>
       <c r="BJ22" s="6"/>
-      <c r="BK22" s="153"/>
-      <c r="BL22" s="153"/>
-      <c r="BM22" s="153"/>
-      <c r="BN22" s="153"/>
-      <c r="BO22" s="153"/>
-      <c r="BP22" s="153"/>
-      <c r="BQ22" s="238"/>
-      <c r="CV22" s="30"/>
-      <c r="CW22" s="30"/>
-      <c r="CX22" s="30"/>
+      <c r="BK22" s="145"/>
+      <c r="BL22" s="145"/>
+      <c r="BM22" s="145"/>
+      <c r="BN22" s="145"/>
+      <c r="BO22" s="145"/>
+      <c r="BP22" s="145"/>
+      <c r="BQ22" s="147"/>
+      <c r="CV22" s="155"/>
+      <c r="CW22" s="155"/>
+      <c r="CX22" s="155"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="140" t="s">
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="141"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="134" t="s">
+      <c r="H23" s="166"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="135"/>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="136"/>
-      <c r="X23" s="134" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="135"/>
-      <c r="AF23" s="135"/>
-      <c r="AG23" s="135"/>
-      <c r="AH23" s="135"/>
-      <c r="AI23" s="135"/>
-      <c r="AJ23" s="135"/>
-      <c r="AK23" s="135"/>
-      <c r="AL23" s="135"/>
-      <c r="AM23" s="135"/>
-      <c r="AN23" s="135"/>
-      <c r="AO23" s="135"/>
-      <c r="AP23" s="135"/>
-      <c r="AQ23" s="135"/>
-      <c r="AR23" s="135"/>
-      <c r="AS23" s="135"/>
-      <c r="AT23" s="135"/>
-      <c r="AU23" s="135"/>
-      <c r="AV23" s="135"/>
-      <c r="AW23" s="135"/>
-      <c r="AX23" s="135"/>
-      <c r="AY23" s="135"/>
-      <c r="AZ23" s="135"/>
-      <c r="BA23" s="135"/>
-      <c r="BB23" s="135"/>
-      <c r="BC23" s="135"/>
-      <c r="BD23" s="135"/>
-      <c r="BE23" s="135"/>
-      <c r="BF23" s="135"/>
-      <c r="BG23" s="135"/>
-      <c r="BH23" s="135"/>
-      <c r="BI23" s="135"/>
-      <c r="BJ23" s="135"/>
-      <c r="BK23" s="135"/>
-      <c r="BL23" s="135"/>
-      <c r="BM23" s="135"/>
-      <c r="BN23" s="135"/>
-      <c r="BO23" s="135"/>
-      <c r="BP23" s="136"/>
-      <c r="BQ23" s="134" t="s">
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="32"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="32"/>
+      <c r="BH23" s="32"/>
+      <c r="BI23" s="32"/>
+      <c r="BJ23" s="32"/>
+      <c r="BK23" s="32"/>
+      <c r="BL23" s="32"/>
+      <c r="BM23" s="32"/>
+      <c r="BN23" s="32"/>
+      <c r="BO23" s="32"/>
+      <c r="BP23" s="33"/>
+      <c r="BQ23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="BR23" s="135"/>
-      <c r="BS23" s="135"/>
-      <c r="BT23" s="135"/>
-      <c r="BU23" s="135"/>
-      <c r="BV23" s="135"/>
-      <c r="BW23" s="135"/>
-      <c r="BX23" s="135"/>
-      <c r="BY23" s="135"/>
-      <c r="BZ23" s="135"/>
-      <c r="CA23" s="135"/>
-      <c r="CB23" s="135"/>
-      <c r="CC23" s="135"/>
-      <c r="CD23" s="136"/>
-      <c r="CE23" s="212"/>
-      <c r="CF23" s="212"/>
+      <c r="BR23" s="32"/>
+      <c r="BS23" s="32"/>
+      <c r="BT23" s="32"/>
+      <c r="BU23" s="32"/>
+      <c r="BV23" s="32"/>
+      <c r="BW23" s="32"/>
+      <c r="BX23" s="32"/>
+      <c r="BY23" s="32"/>
+      <c r="BZ23" s="32"/>
+      <c r="CA23" s="32"/>
+      <c r="CB23" s="32"/>
+      <c r="CC23" s="32"/>
+      <c r="CD23" s="33"/>
+      <c r="CE23" s="125"/>
+      <c r="CF23" s="125"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="30"/>
-      <c r="CW23" s="30"/>
-      <c r="CX23" s="30"/>
+      <c r="CV23" s="155"/>
+      <c r="CW23" s="155"/>
+      <c r="CX23" s="155"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="209"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="225" t="s">
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="192"/>
+      <c r="X24" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="226"/>
-      <c r="Z24" s="226"/>
-      <c r="AA24" s="226"/>
-      <c r="AB24" s="226"/>
-      <c r="AC24" s="226"/>
-      <c r="AD24" s="226"/>
-      <c r="AE24" s="226"/>
-      <c r="AF24" s="226"/>
-      <c r="AG24" s="227"/>
-      <c r="AH24" s="167" t="s">
+      <c r="Y24" s="133"/>
+      <c r="Z24" s="133"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="133"/>
+      <c r="AC24" s="133"/>
+      <c r="AD24" s="133"/>
+      <c r="AE24" s="133"/>
+      <c r="AF24" s="133"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="167"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="167"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="46"/>
-      <c r="AS24" s="46"/>
-      <c r="AT24" s="46"/>
-      <c r="AU24" s="46"/>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="46"/>
-      <c r="AX24" s="46"/>
-      <c r="AY24" s="46"/>
-      <c r="AZ24" s="46"/>
-      <c r="BA24" s="46"/>
-      <c r="BB24" s="46"/>
-      <c r="BC24" s="46"/>
-      <c r="BD24" s="46"/>
-      <c r="BE24" s="46"/>
-      <c r="BF24" s="46"/>
-      <c r="BG24" s="46"/>
-      <c r="BH24" s="46"/>
-      <c r="BI24" s="46"/>
-      <c r="BJ24" s="46"/>
-      <c r="BK24" s="46"/>
-      <c r="BL24" s="46"/>
-      <c r="BM24" s="46"/>
-      <c r="BN24" s="46"/>
-      <c r="BO24" s="46"/>
-      <c r="BP24" s="47"/>
-      <c r="BQ24" s="171" t="s">
+      <c r="AI24" s="224"/>
+      <c r="AJ24" s="224"/>
+      <c r="AK24" s="224"/>
+      <c r="AL24" s="225"/>
+      <c r="AM24" s="225"/>
+      <c r="AN24" s="225"/>
+      <c r="AO24" s="225"/>
+      <c r="AP24" s="225"/>
+      <c r="AQ24" s="225"/>
+      <c r="AR24" s="225"/>
+      <c r="AS24" s="225"/>
+      <c r="AT24" s="225"/>
+      <c r="AU24" s="225"/>
+      <c r="AV24" s="225"/>
+      <c r="AW24" s="225"/>
+      <c r="AX24" s="225"/>
+      <c r="AY24" s="225"/>
+      <c r="AZ24" s="225"/>
+      <c r="BA24" s="225"/>
+      <c r="BB24" s="225"/>
+      <c r="BC24" s="225"/>
+      <c r="BD24" s="225"/>
+      <c r="BE24" s="225"/>
+      <c r="BF24" s="225"/>
+      <c r="BG24" s="225"/>
+      <c r="BH24" s="225"/>
+      <c r="BI24" s="225"/>
+      <c r="BJ24" s="225"/>
+      <c r="BK24" s="225"/>
+      <c r="BL24" s="225"/>
+      <c r="BM24" s="225"/>
+      <c r="BN24" s="225"/>
+      <c r="BO24" s="225"/>
+      <c r="BP24" s="226"/>
+      <c r="BQ24" s="230" t="s">
         <v>64</v>
       </c>
-      <c r="BR24" s="172"/>
-      <c r="BS24" s="132"/>
+      <c r="BR24" s="231"/>
+      <c r="BS24" s="128"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="56"/>
-      <c r="BV24" s="216"/>
-      <c r="BW24" s="132"/>
+      <c r="BU24" s="126"/>
+      <c r="BV24" s="38"/>
+      <c r="BW24" s="128"/>
       <c r="BX24" s="41"/>
-      <c r="BY24" s="56"/>
-      <c r="BZ24" s="216"/>
-      <c r="CA24" s="132"/>
+      <c r="BY24" s="126"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="128"/>
       <c r="CB24" s="41"/>
-      <c r="CC24" s="56"/>
-      <c r="CD24" s="216"/>
-      <c r="CE24" s="212"/>
-      <c r="CF24" s="212"/>
+      <c r="CC24" s="126"/>
+      <c r="CD24" s="38"/>
+      <c r="CE24" s="125"/>
+      <c r="CF24" s="125"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="230"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="190"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="155"/>
-      <c r="AI25" s="156"/>
-      <c r="AJ25" s="156"/>
-      <c r="AK25" s="156"/>
-      <c r="AL25" s="156"/>
-      <c r="AM25" s="156"/>
-      <c r="AN25" s="156"/>
-      <c r="AO25" s="156"/>
-      <c r="AP25" s="156"/>
-      <c r="AQ25" s="156"/>
-      <c r="AR25" s="156"/>
-      <c r="AS25" s="156"/>
-      <c r="AT25" s="156"/>
-      <c r="AU25" s="156"/>
-      <c r="AV25" s="156"/>
-      <c r="AW25" s="156"/>
-      <c r="AX25" s="156"/>
-      <c r="AY25" s="156"/>
-      <c r="AZ25" s="156"/>
-      <c r="BA25" s="156"/>
-      <c r="BB25" s="156"/>
-      <c r="BC25" s="156"/>
-      <c r="BD25" s="156"/>
-      <c r="BE25" s="156"/>
-      <c r="BF25" s="156"/>
-      <c r="BG25" s="156"/>
-      <c r="BH25" s="156"/>
-      <c r="BI25" s="156"/>
-      <c r="BJ25" s="156"/>
-      <c r="BK25" s="156"/>
-      <c r="BL25" s="156"/>
-      <c r="BM25" s="156"/>
-      <c r="BN25" s="156"/>
-      <c r="BO25" s="156"/>
-      <c r="BP25" s="157"/>
-      <c r="BQ25" s="173"/>
-      <c r="BR25" s="174"/>
-      <c r="BS25" s="218"/>
-      <c r="BT25" s="43"/>
-      <c r="BU25" s="42"/>
-      <c r="BV25" s="217"/>
-      <c r="BW25" s="218"/>
-      <c r="BX25" s="43"/>
-      <c r="BY25" s="42"/>
-      <c r="BZ25" s="217"/>
-      <c r="CA25" s="218"/>
-      <c r="CB25" s="43"/>
-      <c r="CC25" s="42"/>
-      <c r="CD25" s="217"/>
-      <c r="CE25" s="212"/>
-      <c r="CF25" s="212"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="176"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="176"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="176"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="176"/>
+      <c r="AF25" s="126"/>
+      <c r="AG25" s="192"/>
+      <c r="AH25" s="214"/>
+      <c r="AI25" s="144"/>
+      <c r="AJ25" s="144"/>
+      <c r="AK25" s="144"/>
+      <c r="AL25" s="144"/>
+      <c r="AM25" s="144"/>
+      <c r="AN25" s="144"/>
+      <c r="AO25" s="144"/>
+      <c r="AP25" s="144"/>
+      <c r="AQ25" s="144"/>
+      <c r="AR25" s="144"/>
+      <c r="AS25" s="144"/>
+      <c r="AT25" s="144"/>
+      <c r="AU25" s="144"/>
+      <c r="AV25" s="144"/>
+      <c r="AW25" s="144"/>
+      <c r="AX25" s="144"/>
+      <c r="AY25" s="144"/>
+      <c r="AZ25" s="144"/>
+      <c r="BA25" s="144"/>
+      <c r="BB25" s="144"/>
+      <c r="BC25" s="144"/>
+      <c r="BD25" s="144"/>
+      <c r="BE25" s="144"/>
+      <c r="BF25" s="144"/>
+      <c r="BG25" s="144"/>
+      <c r="BH25" s="144"/>
+      <c r="BI25" s="144"/>
+      <c r="BJ25" s="144"/>
+      <c r="BK25" s="144"/>
+      <c r="BL25" s="144"/>
+      <c r="BM25" s="144"/>
+      <c r="BN25" s="144"/>
+      <c r="BO25" s="144"/>
+      <c r="BP25" s="146"/>
+      <c r="BQ25" s="232"/>
+      <c r="BR25" s="233"/>
+      <c r="BS25" s="129"/>
+      <c r="BT25" s="121"/>
+      <c r="BU25" s="120"/>
+      <c r="BV25" s="127"/>
+      <c r="BW25" s="129"/>
+      <c r="BX25" s="121"/>
+      <c r="BY25" s="120"/>
+      <c r="BZ25" s="127"/>
+      <c r="CA25" s="129"/>
+      <c r="CB25" s="121"/>
+      <c r="CC25" s="120"/>
+      <c r="CD25" s="127"/>
+      <c r="CE25" s="125"/>
+      <c r="CF25" s="125"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="209"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="133"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="159"/>
-      <c r="AJ26" s="159"/>
-      <c r="AK26" s="159"/>
-      <c r="AL26" s="159"/>
-      <c r="AM26" s="159"/>
-      <c r="AN26" s="159"/>
-      <c r="AO26" s="159"/>
-      <c r="AP26" s="159"/>
-      <c r="AQ26" s="159"/>
-      <c r="AR26" s="159"/>
-      <c r="AS26" s="159"/>
-      <c r="AT26" s="159"/>
-      <c r="AU26" s="159"/>
-      <c r="AV26" s="159"/>
-      <c r="AW26" s="159"/>
-      <c r="AX26" s="159"/>
-      <c r="AY26" s="159"/>
-      <c r="AZ26" s="159"/>
-      <c r="BA26" s="159"/>
-      <c r="BB26" s="159"/>
-      <c r="BC26" s="159"/>
-      <c r="BD26" s="159"/>
-      <c r="BE26" s="159"/>
-      <c r="BF26" s="159"/>
-      <c r="BG26" s="159"/>
-      <c r="BH26" s="159"/>
-      <c r="BI26" s="159"/>
-      <c r="BJ26" s="159"/>
-      <c r="BK26" s="159"/>
-      <c r="BL26" s="159"/>
-      <c r="BM26" s="159"/>
-      <c r="BN26" s="159"/>
-      <c r="BO26" s="159"/>
-      <c r="BP26" s="160"/>
-      <c r="BQ26" s="173"/>
-      <c r="BR26" s="174"/>
-      <c r="BS26" s="218"/>
-      <c r="BT26" s="43"/>
-      <c r="BU26" s="42"/>
-      <c r="BV26" s="217"/>
-      <c r="BW26" s="218"/>
-      <c r="BX26" s="43"/>
-      <c r="BY26" s="42"/>
-      <c r="BZ26" s="217"/>
-      <c r="CA26" s="218"/>
-      <c r="CB26" s="43"/>
-      <c r="CC26" s="42"/>
-      <c r="CD26" s="217"/>
-      <c r="CE26" s="212"/>
-      <c r="CF26" s="212"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="179"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="179"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="179"/>
+      <c r="R26" s="174"/>
+      <c r="S26" s="179"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="179"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="207"/>
+      <c r="Y26" s="179"/>
+      <c r="Z26" s="174"/>
+      <c r="AA26" s="179"/>
+      <c r="AB26" s="174"/>
+      <c r="AC26" s="179"/>
+      <c r="AD26" s="174"/>
+      <c r="AE26" s="179"/>
+      <c r="AF26" s="174"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="215"/>
+      <c r="AI26" s="216"/>
+      <c r="AJ26" s="216"/>
+      <c r="AK26" s="216"/>
+      <c r="AL26" s="216"/>
+      <c r="AM26" s="216"/>
+      <c r="AN26" s="216"/>
+      <c r="AO26" s="216"/>
+      <c r="AP26" s="216"/>
+      <c r="AQ26" s="216"/>
+      <c r="AR26" s="216"/>
+      <c r="AS26" s="216"/>
+      <c r="AT26" s="216"/>
+      <c r="AU26" s="216"/>
+      <c r="AV26" s="216"/>
+      <c r="AW26" s="216"/>
+      <c r="AX26" s="216"/>
+      <c r="AY26" s="216"/>
+      <c r="AZ26" s="216"/>
+      <c r="BA26" s="216"/>
+      <c r="BB26" s="216"/>
+      <c r="BC26" s="216"/>
+      <c r="BD26" s="216"/>
+      <c r="BE26" s="216"/>
+      <c r="BF26" s="216"/>
+      <c r="BG26" s="216"/>
+      <c r="BH26" s="216"/>
+      <c r="BI26" s="216"/>
+      <c r="BJ26" s="216"/>
+      <c r="BK26" s="216"/>
+      <c r="BL26" s="216"/>
+      <c r="BM26" s="216"/>
+      <c r="BN26" s="216"/>
+      <c r="BO26" s="216"/>
+      <c r="BP26" s="217"/>
+      <c r="BQ26" s="232"/>
+      <c r="BR26" s="233"/>
+      <c r="BS26" s="129"/>
+      <c r="BT26" s="121"/>
+      <c r="BU26" s="120"/>
+      <c r="BV26" s="127"/>
+      <c r="BW26" s="129"/>
+      <c r="BX26" s="121"/>
+      <c r="BY26" s="120"/>
+      <c r="BZ26" s="127"/>
+      <c r="CA26" s="129"/>
+      <c r="CB26" s="121"/>
+      <c r="CC26" s="120"/>
+      <c r="CD26" s="127"/>
+      <c r="CE26" s="125"/>
+      <c r="CF26" s="125"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C27" s="209"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="230"/>
-      <c r="G27" s="60" t="s">
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="129" t="s">
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="149"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="150"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="150"/>
-      <c r="U27" s="150"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="150"/>
-      <c r="X27" s="150"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="150"/>
-      <c r="AA27" s="150"/>
-      <c r="AB27" s="150"/>
-      <c r="AC27" s="150"/>
-      <c r="AD27" s="150"/>
-      <c r="AE27" s="150"/>
-      <c r="AF27" s="150"/>
-      <c r="AG27" s="150"/>
-      <c r="AH27" s="150"/>
-      <c r="AI27" s="150"/>
-      <c r="AJ27" s="150"/>
-      <c r="AK27" s="150"/>
-      <c r="AL27" s="150"/>
-      <c r="AM27" s="150"/>
-      <c r="AN27" s="150"/>
-      <c r="AO27" s="150"/>
-      <c r="AP27" s="150"/>
-      <c r="AQ27" s="150"/>
-      <c r="AR27" s="150"/>
-      <c r="AS27" s="150"/>
-      <c r="AT27" s="150"/>
-      <c r="AU27" s="150"/>
-      <c r="AV27" s="150"/>
-      <c r="AW27" s="150"/>
-      <c r="AX27" s="150"/>
-      <c r="AY27" s="150"/>
-      <c r="AZ27" s="150"/>
-      <c r="BA27" s="150"/>
-      <c r="BB27" s="150"/>
-      <c r="BC27" s="150"/>
-      <c r="BD27" s="150"/>
-      <c r="BE27" s="150"/>
-      <c r="BF27" s="150"/>
-      <c r="BG27" s="150"/>
-      <c r="BH27" s="150"/>
-      <c r="BI27" s="151"/>
-      <c r="BJ27" s="161" t="s">
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="206"/>
+      <c r="P27" s="209"/>
+      <c r="Q27" s="210"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="210"/>
+      <c r="T27" s="210"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
+      <c r="AC27" s="210"/>
+      <c r="AD27" s="210"/>
+      <c r="AE27" s="210"/>
+      <c r="AF27" s="210"/>
+      <c r="AG27" s="210"/>
+      <c r="AH27" s="210"/>
+      <c r="AI27" s="210"/>
+      <c r="AJ27" s="210"/>
+      <c r="AK27" s="210"/>
+      <c r="AL27" s="210"/>
+      <c r="AM27" s="210"/>
+      <c r="AN27" s="210"/>
+      <c r="AO27" s="210"/>
+      <c r="AP27" s="210"/>
+      <c r="AQ27" s="210"/>
+      <c r="AR27" s="210"/>
+      <c r="AS27" s="210"/>
+      <c r="AT27" s="210"/>
+      <c r="AU27" s="210"/>
+      <c r="AV27" s="210"/>
+      <c r="AW27" s="210"/>
+      <c r="AX27" s="210"/>
+      <c r="AY27" s="210"/>
+      <c r="AZ27" s="210"/>
+      <c r="BA27" s="210"/>
+      <c r="BB27" s="210"/>
+      <c r="BC27" s="210"/>
+      <c r="BD27" s="210"/>
+      <c r="BE27" s="210"/>
+      <c r="BF27" s="210"/>
+      <c r="BG27" s="210"/>
+      <c r="BH27" s="210"/>
+      <c r="BI27" s="211"/>
+      <c r="BJ27" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="BK27" s="162"/>
-      <c r="BL27" s="163"/>
-      <c r="BM27" s="168" t="s">
+      <c r="BK27" s="219"/>
+      <c r="BL27" s="220"/>
+      <c r="BM27" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="BN27" s="169"/>
-      <c r="BO27" s="169"/>
-      <c r="BP27" s="169"/>
-      <c r="BQ27" s="169"/>
-      <c r="BR27" s="169"/>
-      <c r="BS27" s="169"/>
-      <c r="BT27" s="169"/>
-      <c r="BU27" s="169"/>
-      <c r="BV27" s="169"/>
-      <c r="BW27" s="169"/>
-      <c r="BX27" s="169"/>
-      <c r="BY27" s="169"/>
-      <c r="BZ27" s="169"/>
-      <c r="CA27" s="169"/>
-      <c r="CB27" s="169"/>
-      <c r="CC27" s="169"/>
-      <c r="CD27" s="169"/>
-      <c r="CE27" s="169"/>
-      <c r="CF27" s="170"/>
+      <c r="BN27" s="228"/>
+      <c r="BO27" s="228"/>
+      <c r="BP27" s="228"/>
+      <c r="BQ27" s="228"/>
+      <c r="BR27" s="228"/>
+      <c r="BS27" s="228"/>
+      <c r="BT27" s="228"/>
+      <c r="BU27" s="228"/>
+      <c r="BV27" s="228"/>
+      <c r="BW27" s="228"/>
+      <c r="BX27" s="228"/>
+      <c r="BY27" s="228"/>
+      <c r="BZ27" s="228"/>
+      <c r="CA27" s="228"/>
+      <c r="CB27" s="228"/>
+      <c r="CC27" s="228"/>
+      <c r="CD27" s="228"/>
+      <c r="CE27" s="228"/>
+      <c r="CF27" s="229"/>
     </row>
     <row r="28" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="231"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="126" t="s">
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="153"/>
-      <c r="AK28" s="153"/>
-      <c r="AL28" s="153"/>
-      <c r="AM28" s="153"/>
-      <c r="AN28" s="153"/>
-      <c r="AO28" s="153"/>
-      <c r="AP28" s="153"/>
-      <c r="AQ28" s="153"/>
-      <c r="AR28" s="153"/>
-      <c r="AS28" s="153"/>
-      <c r="AT28" s="153"/>
-      <c r="AU28" s="153"/>
-      <c r="AV28" s="153"/>
-      <c r="AW28" s="153"/>
-      <c r="AX28" s="153"/>
-      <c r="AY28" s="153"/>
-      <c r="AZ28" s="153"/>
-      <c r="BA28" s="153"/>
-      <c r="BB28" s="153"/>
-      <c r="BC28" s="153"/>
-      <c r="BD28" s="153"/>
-      <c r="BE28" s="153"/>
-      <c r="BF28" s="153"/>
-      <c r="BG28" s="153"/>
-      <c r="BH28" s="153"/>
-      <c r="BI28" s="154"/>
-      <c r="BJ28" s="164"/>
-      <c r="BK28" s="165"/>
-      <c r="BL28" s="166"/>
-      <c r="BM28" s="232" t="s">
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="203"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="145"/>
+      <c r="AN28" s="145"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="145"/>
+      <c r="AQ28" s="145"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="145"/>
+      <c r="AT28" s="145"/>
+      <c r="AU28" s="145"/>
+      <c r="AV28" s="145"/>
+      <c r="AW28" s="145"/>
+      <c r="AX28" s="145"/>
+      <c r="AY28" s="145"/>
+      <c r="AZ28" s="145"/>
+      <c r="BA28" s="145"/>
+      <c r="BB28" s="145"/>
+      <c r="BC28" s="145"/>
+      <c r="BD28" s="145"/>
+      <c r="BE28" s="145"/>
+      <c r="BF28" s="145"/>
+      <c r="BG28" s="145"/>
+      <c r="BH28" s="145"/>
+      <c r="BI28" s="213"/>
+      <c r="BJ28" s="221"/>
+      <c r="BK28" s="222"/>
+      <c r="BL28" s="223"/>
+      <c r="BM28" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="BN28" s="233"/>
-      <c r="BO28" s="233"/>
-      <c r="BP28" s="233"/>
-      <c r="BQ28" s="233"/>
-      <c r="BR28" s="233"/>
-      <c r="BS28" s="233"/>
-      <c r="BT28" s="233"/>
-      <c r="BU28" s="233"/>
-      <c r="BV28" s="233"/>
-      <c r="BW28" s="233"/>
-      <c r="BX28" s="233"/>
-      <c r="BY28" s="233"/>
-      <c r="BZ28" s="233"/>
-      <c r="CA28" s="233"/>
-      <c r="CB28" s="233"/>
-      <c r="CC28" s="233"/>
-      <c r="CD28" s="233"/>
-      <c r="CE28" s="233"/>
-      <c r="CF28" s="234"/>
+      <c r="BN28" s="142"/>
+      <c r="BO28" s="142"/>
+      <c r="BP28" s="142"/>
+      <c r="BQ28" s="142"/>
+      <c r="BR28" s="142"/>
+      <c r="BS28" s="142"/>
+      <c r="BT28" s="142"/>
+      <c r="BU28" s="142"/>
+      <c r="BV28" s="142"/>
+      <c r="BW28" s="142"/>
+      <c r="BX28" s="142"/>
+      <c r="BY28" s="142"/>
+      <c r="BZ28" s="142"/>
+      <c r="CA28" s="142"/>
+      <c r="CB28" s="142"/>
+      <c r="CC28" s="142"/>
+      <c r="CD28" s="142"/>
+      <c r="CE28" s="142"/>
+      <c r="CF28" s="143"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="21"/>
@@ -11088,247 +11092,247 @@
       <c r="CF30" s="6"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="105"/>
-      <c r="AD31" s="107" t="s">
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="243"/>
+      <c r="I31" s="243"/>
+      <c r="J31" s="243"/>
+      <c r="K31" s="243"/>
+      <c r="L31" s="243"/>
+      <c r="M31" s="243"/>
+      <c r="N31" s="243"/>
+      <c r="O31" s="243"/>
+      <c r="P31" s="243"/>
+      <c r="Q31" s="243"/>
+      <c r="R31" s="243"/>
+      <c r="S31" s="243"/>
+      <c r="T31" s="243"/>
+      <c r="U31" s="243"/>
+      <c r="V31" s="243"/>
+      <c r="W31" s="243"/>
+      <c r="X31" s="243"/>
+      <c r="Y31" s="243"/>
+      <c r="Z31" s="243"/>
+      <c r="AA31" s="243"/>
+      <c r="AB31" s="244"/>
+      <c r="AD31" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="108"/>
-      <c r="AJ31" s="108"/>
-      <c r="AK31" s="108"/>
-      <c r="AL31" s="108"/>
-      <c r="AM31" s="108"/>
-      <c r="AN31" s="108"/>
-      <c r="AO31" s="108"/>
-      <c r="AP31" s="108"/>
-      <c r="AQ31" s="108"/>
-      <c r="AR31" s="108"/>
-      <c r="AS31" s="108"/>
-      <c r="AT31" s="108"/>
-      <c r="AU31" s="108"/>
-      <c r="AV31" s="108"/>
-      <c r="AW31" s="108"/>
-      <c r="AX31" s="108"/>
-      <c r="AY31" s="108"/>
-      <c r="AZ31" s="108"/>
-      <c r="BA31" s="108"/>
-      <c r="BB31" s="108"/>
-      <c r="BC31" s="109"/>
-      <c r="BE31" s="101" t="s">
+      <c r="AE31" s="247"/>
+      <c r="AF31" s="247"/>
+      <c r="AG31" s="247"/>
+      <c r="AH31" s="247"/>
+      <c r="AI31" s="247"/>
+      <c r="AJ31" s="247"/>
+      <c r="AK31" s="247"/>
+      <c r="AL31" s="247"/>
+      <c r="AM31" s="247"/>
+      <c r="AN31" s="247"/>
+      <c r="AO31" s="247"/>
+      <c r="AP31" s="247"/>
+      <c r="AQ31" s="247"/>
+      <c r="AR31" s="247"/>
+      <c r="AS31" s="247"/>
+      <c r="AT31" s="247"/>
+      <c r="AU31" s="247"/>
+      <c r="AV31" s="247"/>
+      <c r="AW31" s="247"/>
+      <c r="AX31" s="247"/>
+      <c r="AY31" s="247"/>
+      <c r="AZ31" s="247"/>
+      <c r="BA31" s="247"/>
+      <c r="BB31" s="247"/>
+      <c r="BC31" s="248"/>
+      <c r="BE31" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="BF31" s="102"/>
-      <c r="BG31" s="102"/>
-      <c r="BH31" s="102"/>
-      <c r="BI31" s="102"/>
-      <c r="BJ31" s="102"/>
-      <c r="BK31" s="102"/>
-      <c r="BL31" s="102"/>
-      <c r="BM31" s="102"/>
-      <c r="BN31" s="102"/>
-      <c r="BO31" s="102"/>
-      <c r="BP31" s="102"/>
-      <c r="BQ31" s="102"/>
-      <c r="BR31" s="102"/>
-      <c r="BS31" s="102"/>
-      <c r="BT31" s="102"/>
-      <c r="BU31" s="102"/>
-      <c r="BV31" s="102"/>
-      <c r="BW31" s="102"/>
-      <c r="BX31" s="102"/>
-      <c r="BY31" s="102"/>
-      <c r="BZ31" s="102"/>
-      <c r="CA31" s="102"/>
-      <c r="CB31" s="102"/>
-      <c r="CC31" s="102"/>
-      <c r="CD31" s="102"/>
-      <c r="CE31" s="102"/>
-      <c r="CF31" s="102"/>
+      <c r="BF31" s="241"/>
+      <c r="BG31" s="241"/>
+      <c r="BH31" s="241"/>
+      <c r="BI31" s="241"/>
+      <c r="BJ31" s="241"/>
+      <c r="BK31" s="241"/>
+      <c r="BL31" s="241"/>
+      <c r="BM31" s="241"/>
+      <c r="BN31" s="241"/>
+      <c r="BO31" s="241"/>
+      <c r="BP31" s="241"/>
+      <c r="BQ31" s="241"/>
+      <c r="BR31" s="241"/>
+      <c r="BS31" s="241"/>
+      <c r="BT31" s="241"/>
+      <c r="BU31" s="241"/>
+      <c r="BV31" s="241"/>
+      <c r="BW31" s="241"/>
+      <c r="BX31" s="241"/>
+      <c r="BY31" s="241"/>
+      <c r="BZ31" s="241"/>
+      <c r="CA31" s="241"/>
+      <c r="CB31" s="241"/>
+      <c r="CC31" s="241"/>
+      <c r="CD31" s="241"/>
+      <c r="CE31" s="241"/>
+      <c r="CF31" s="241"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="22"/>
       <c r="D32" s="12"/>
-      <c r="L32" s="124" t="s">
+      <c r="L32" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="124"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="124"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="124"/>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="124"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="125"/>
+      <c r="M32" s="262"/>
+      <c r="N32" s="262"/>
+      <c r="O32" s="262"/>
+      <c r="P32" s="262"/>
+      <c r="Q32" s="262"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="262"/>
+      <c r="T32" s="262"/>
+      <c r="U32" s="262"/>
+      <c r="V32" s="262"/>
+      <c r="W32" s="262"/>
+      <c r="X32" s="262"/>
+      <c r="Y32" s="262"/>
+      <c r="Z32" s="262"/>
+      <c r="AA32" s="262"/>
+      <c r="AB32" s="263"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="106" t="s">
+      <c r="AR32" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="AS32" s="106"/>
-      <c r="AT32" s="106"/>
-      <c r="AU32" s="106"/>
-      <c r="AV32" s="106"/>
-      <c r="AW32" s="106"/>
-      <c r="AX32" s="106"/>
-      <c r="AY32" s="106"/>
-      <c r="AZ32" s="106"/>
-      <c r="BA32" s="106"/>
-      <c r="BB32" s="106"/>
-      <c r="BC32" s="121"/>
-      <c r="BE32" s="98" t="s">
+      <c r="AS32" s="245"/>
+      <c r="AT32" s="245"/>
+      <c r="AU32" s="245"/>
+      <c r="AV32" s="245"/>
+      <c r="AW32" s="245"/>
+      <c r="AX32" s="245"/>
+      <c r="AY32" s="245"/>
+      <c r="AZ32" s="245"/>
+      <c r="BA32" s="245"/>
+      <c r="BB32" s="245"/>
+      <c r="BC32" s="258"/>
+      <c r="BE32" s="237" t="s">
         <v>61</v>
       </c>
-      <c r="BF32" s="99"/>
-      <c r="BG32" s="99"/>
-      <c r="BH32" s="99"/>
-      <c r="BI32" s="99"/>
-      <c r="BJ32" s="99"/>
-      <c r="BK32" s="99"/>
-      <c r="BL32" s="99"/>
-      <c r="BM32" s="99"/>
-      <c r="BN32" s="99"/>
-      <c r="BO32" s="99"/>
-      <c r="BP32" s="99"/>
-      <c r="BQ32" s="99"/>
-      <c r="BR32" s="99"/>
-      <c r="BS32" s="99"/>
-      <c r="BT32" s="99"/>
-      <c r="BU32" s="99"/>
-      <c r="BV32" s="99"/>
-      <c r="BW32" s="99"/>
-      <c r="BX32" s="99"/>
-      <c r="BY32" s="99"/>
-      <c r="BZ32" s="99"/>
-      <c r="CA32" s="99"/>
-      <c r="CB32" s="99"/>
-      <c r="CC32" s="99"/>
-      <c r="CD32" s="99"/>
-      <c r="CE32" s="99"/>
-      <c r="CF32" s="100"/>
+      <c r="BF32" s="238"/>
+      <c r="BG32" s="238"/>
+      <c r="BH32" s="238"/>
+      <c r="BI32" s="238"/>
+      <c r="BJ32" s="238"/>
+      <c r="BK32" s="238"/>
+      <c r="BL32" s="238"/>
+      <c r="BM32" s="238"/>
+      <c r="BN32" s="238"/>
+      <c r="BO32" s="238"/>
+      <c r="BP32" s="238"/>
+      <c r="BQ32" s="238"/>
+      <c r="BR32" s="238"/>
+      <c r="BS32" s="238"/>
+      <c r="BT32" s="238"/>
+      <c r="BU32" s="238"/>
+      <c r="BV32" s="238"/>
+      <c r="BW32" s="238"/>
+      <c r="BX32" s="238"/>
+      <c r="BY32" s="238"/>
+      <c r="BZ32" s="238"/>
+      <c r="CA32" s="238"/>
+      <c r="CB32" s="238"/>
+      <c r="CC32" s="238"/>
+      <c r="CD32" s="238"/>
+      <c r="CE32" s="238"/>
+      <c r="CF32" s="239"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="249"/>
       <c r="E33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="123"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="111"/>
+      <c r="L33" s="259"/>
+      <c r="M33" s="259"/>
+      <c r="N33" s="259"/>
+      <c r="O33" s="259"/>
+      <c r="P33" s="259"/>
+      <c r="Q33" s="259"/>
+      <c r="R33" s="259"/>
+      <c r="S33" s="259"/>
+      <c r="T33" s="259"/>
+      <c r="U33" s="259"/>
+      <c r="V33" s="259"/>
+      <c r="W33" s="259"/>
+      <c r="X33" s="259"/>
+      <c r="Y33" s="259"/>
+      <c r="Z33" s="259"/>
+      <c r="AA33" s="259"/>
+      <c r="AB33" s="260"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="249"/>
       <c r="AF33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AJ33" s="114"/>
-      <c r="AK33" s="114"/>
-      <c r="AL33" s="114"/>
-      <c r="AM33" s="114"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="114"/>
-      <c r="AP33" s="114"/>
-      <c r="AQ33" s="114"/>
-      <c r="AR33" s="114"/>
-      <c r="AS33" s="114"/>
-      <c r="AT33" s="114"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="114"/>
-      <c r="AX33" s="114"/>
-      <c r="AY33" s="114"/>
-      <c r="AZ33" s="114"/>
-      <c r="BA33" s="114"/>
-      <c r="BB33" s="114"/>
-      <c r="BC33" s="115"/>
-      <c r="BE33" s="117" t="s">
+      <c r="AJ33" s="251"/>
+      <c r="AK33" s="251"/>
+      <c r="AL33" s="251"/>
+      <c r="AM33" s="251"/>
+      <c r="AN33" s="251"/>
+      <c r="AO33" s="251"/>
+      <c r="AP33" s="251"/>
+      <c r="AQ33" s="251"/>
+      <c r="AR33" s="251"/>
+      <c r="AS33" s="251"/>
+      <c r="AT33" s="251"/>
+      <c r="AU33" s="251"/>
+      <c r="AV33" s="251"/>
+      <c r="AW33" s="251"/>
+      <c r="AX33" s="251"/>
+      <c r="AY33" s="251"/>
+      <c r="AZ33" s="251"/>
+      <c r="BA33" s="251"/>
+      <c r="BB33" s="251"/>
+      <c r="BC33" s="252"/>
+      <c r="BE33" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="BF33" s="118"/>
-      <c r="BG33" s="97" t="s">
+      <c r="BF33" s="255"/>
+      <c r="BG33" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="BH33" s="97"/>
-      <c r="BI33" s="97"/>
-      <c r="BJ33" s="97"/>
-      <c r="BK33" s="97"/>
-      <c r="BL33" s="97"/>
-      <c r="BM33" s="97"/>
-      <c r="BN33" s="97"/>
-      <c r="BO33" s="97"/>
-      <c r="BP33" s="97"/>
-      <c r="BQ33" s="97"/>
-      <c r="BT33" s="106" t="s">
+      <c r="BH33" s="236"/>
+      <c r="BI33" s="236"/>
+      <c r="BJ33" s="236"/>
+      <c r="BK33" s="236"/>
+      <c r="BL33" s="236"/>
+      <c r="BM33" s="236"/>
+      <c r="BN33" s="236"/>
+      <c r="BO33" s="236"/>
+      <c r="BP33" s="236"/>
+      <c r="BQ33" s="236"/>
+      <c r="BT33" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="BU33" s="106"/>
-      <c r="BV33" s="106"/>
-      <c r="BW33" s="106"/>
-      <c r="BX33" s="106"/>
-      <c r="BY33" s="106"/>
-      <c r="BZ33" s="106"/>
-      <c r="CA33" s="106"/>
-      <c r="CB33" s="106"/>
-      <c r="CC33" s="106"/>
-      <c r="CD33" s="106"/>
-      <c r="CE33" s="106"/>
+      <c r="BU33" s="245"/>
+      <c r="BV33" s="245"/>
+      <c r="BW33" s="245"/>
+      <c r="BX33" s="245"/>
+      <c r="BY33" s="245"/>
+      <c r="BZ33" s="245"/>
+      <c r="CA33" s="245"/>
+      <c r="CB33" s="245"/>
+      <c r="CC33" s="245"/>
+      <c r="CD33" s="245"/>
+      <c r="CE33" s="245"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="249"/>
       <c r="E34" s="23" t="s">
         <v>8</v>
       </c>
@@ -11349,139 +11353,139 @@
       <c r="Z34" s="296"/>
       <c r="AA34" s="296"/>
       <c r="AB34" s="297"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="111"/>
+      <c r="AD34" s="137"/>
+      <c r="AE34" s="249"/>
       <c r="AF34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ34" s="114"/>
-      <c r="AK34" s="114"/>
-      <c r="AL34" s="114"/>
-      <c r="AM34" s="114"/>
-      <c r="AN34" s="114"/>
-      <c r="AO34" s="114"/>
-      <c r="AP34" s="114"/>
-      <c r="AQ34" s="114"/>
-      <c r="AR34" s="114"/>
-      <c r="AS34" s="114"/>
-      <c r="AT34" s="114"/>
-      <c r="AU34" s="114"/>
-      <c r="AV34" s="114"/>
-      <c r="AW34" s="114"/>
-      <c r="AX34" s="114"/>
-      <c r="AY34" s="114"/>
-      <c r="AZ34" s="114"/>
-      <c r="BA34" s="114"/>
-      <c r="BB34" s="114"/>
-      <c r="BC34" s="115"/>
-      <c r="BE34" s="117"/>
-      <c r="BF34" s="118"/>
+      <c r="AJ34" s="251"/>
+      <c r="AK34" s="251"/>
+      <c r="AL34" s="251"/>
+      <c r="AM34" s="251"/>
+      <c r="AN34" s="251"/>
+      <c r="AO34" s="251"/>
+      <c r="AP34" s="251"/>
+      <c r="AQ34" s="251"/>
+      <c r="AR34" s="251"/>
+      <c r="AS34" s="251"/>
+      <c r="AT34" s="251"/>
+      <c r="AU34" s="251"/>
+      <c r="AV34" s="251"/>
+      <c r="AW34" s="251"/>
+      <c r="AX34" s="251"/>
+      <c r="AY34" s="251"/>
+      <c r="AZ34" s="251"/>
+      <c r="BA34" s="251"/>
+      <c r="BB34" s="251"/>
+      <c r="BC34" s="252"/>
+      <c r="BE34" s="254"/>
+      <c r="BF34" s="255"/>
       <c r="BG34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BL34" s="94"/>
-      <c r="BM34" s="94"/>
-      <c r="BN34" s="94"/>
-      <c r="BO34" s="94"/>
-      <c r="BP34" s="94"/>
-      <c r="BQ34" s="94"/>
-      <c r="BR34" s="94"/>
-      <c r="BS34" s="94"/>
-      <c r="BT34" s="94"/>
-      <c r="BU34" s="94"/>
-      <c r="BV34" s="94"/>
-      <c r="BW34" s="94"/>
-      <c r="BX34" s="94"/>
-      <c r="BY34" s="94"/>
-      <c r="BZ34" s="94"/>
-      <c r="CA34" s="94"/>
-      <c r="CB34" s="94"/>
-      <c r="CC34" s="94"/>
-      <c r="CD34" s="94"/>
+      <c r="BL34" s="153"/>
+      <c r="BM34" s="153"/>
+      <c r="BN34" s="153"/>
+      <c r="BO34" s="153"/>
+      <c r="BP34" s="153"/>
+      <c r="BQ34" s="153"/>
+      <c r="BR34" s="153"/>
+      <c r="BS34" s="153"/>
+      <c r="BT34" s="153"/>
+      <c r="BU34" s="153"/>
+      <c r="BV34" s="153"/>
+      <c r="BW34" s="153"/>
+      <c r="BX34" s="153"/>
+      <c r="BY34" s="153"/>
+      <c r="BZ34" s="153"/>
+      <c r="CA34" s="153"/>
+      <c r="CB34" s="153"/>
+      <c r="CC34" s="153"/>
+      <c r="CD34" s="153"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="249"/>
       <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="295"/>
-      <c r="M35" s="295"/>
-      <c r="N35" s="295"/>
-      <c r="O35" s="295"/>
-      <c r="P35" s="295"/>
-      <c r="Q35" s="295"/>
-      <c r="R35" s="295"/>
-      <c r="S35" s="295"/>
-      <c r="T35" s="295"/>
-      <c r="U35" s="295"/>
-      <c r="V35" s="295"/>
-      <c r="W35" s="295"/>
-      <c r="X35" s="295"/>
-      <c r="Y35" s="295"/>
-      <c r="Z35" s="295"/>
+      <c r="L35" s="261"/>
+      <c r="M35" s="261"/>
+      <c r="N35" s="261"/>
+      <c r="O35" s="261"/>
+      <c r="P35" s="261"/>
+      <c r="Q35" s="261"/>
+      <c r="R35" s="261"/>
+      <c r="S35" s="261"/>
+      <c r="T35" s="261"/>
+      <c r="U35" s="261"/>
+      <c r="V35" s="261"/>
+      <c r="W35" s="261"/>
+      <c r="X35" s="261"/>
+      <c r="Y35" s="261"/>
+      <c r="Z35" s="261"/>
       <c r="AA35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="AB35" s="25"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="111"/>
+      <c r="AD35" s="137"/>
+      <c r="AE35" s="249"/>
       <c r="AF35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AJ35" s="114"/>
-      <c r="AK35" s="114"/>
-      <c r="AL35" s="114"/>
-      <c r="AM35" s="114"/>
-      <c r="AN35" s="114"/>
-      <c r="AO35" s="114"/>
-      <c r="AP35" s="114"/>
-      <c r="AQ35" s="114"/>
-      <c r="AR35" s="114"/>
-      <c r="AS35" s="114"/>
-      <c r="AT35" s="114"/>
-      <c r="AU35" s="114"/>
-      <c r="AV35" s="114"/>
-      <c r="AW35" s="114"/>
-      <c r="AX35" s="114"/>
-      <c r="AY35" s="114"/>
-      <c r="AZ35" s="114"/>
-      <c r="BA35" s="114"/>
+      <c r="AJ35" s="251"/>
+      <c r="AK35" s="251"/>
+      <c r="AL35" s="251"/>
+      <c r="AM35" s="251"/>
+      <c r="AN35" s="251"/>
+      <c r="AO35" s="251"/>
+      <c r="AP35" s="251"/>
+      <c r="AQ35" s="251"/>
+      <c r="AR35" s="251"/>
+      <c r="AS35" s="251"/>
+      <c r="AT35" s="251"/>
+      <c r="AU35" s="251"/>
+      <c r="AV35" s="251"/>
+      <c r="AW35" s="251"/>
+      <c r="AX35" s="251"/>
+      <c r="AY35" s="251"/>
+      <c r="AZ35" s="251"/>
+      <c r="BA35" s="251"/>
       <c r="BB35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="BC35" s="25"/>
-      <c r="BE35" s="117"/>
-      <c r="BF35" s="118"/>
+      <c r="BE35" s="254"/>
+      <c r="BF35" s="255"/>
       <c r="BG35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="BL35" s="94"/>
-      <c r="BM35" s="94"/>
-      <c r="BN35" s="94"/>
-      <c r="BO35" s="94"/>
-      <c r="BP35" s="94"/>
-      <c r="BQ35" s="94"/>
-      <c r="BR35" s="94"/>
-      <c r="BS35" s="94"/>
-      <c r="BT35" s="94"/>
-      <c r="BU35" s="94"/>
-      <c r="BV35" s="94"/>
-      <c r="BW35" s="94"/>
-      <c r="BX35" s="94"/>
-      <c r="BY35" s="94"/>
-      <c r="BZ35" s="94"/>
-      <c r="CA35" s="94"/>
-      <c r="CB35" s="94"/>
+      <c r="BL35" s="153"/>
+      <c r="BM35" s="153"/>
+      <c r="BN35" s="153"/>
+      <c r="BO35" s="153"/>
+      <c r="BP35" s="153"/>
+      <c r="BQ35" s="153"/>
+      <c r="BR35" s="153"/>
+      <c r="BS35" s="153"/>
+      <c r="BT35" s="153"/>
+      <c r="BU35" s="153"/>
+      <c r="BV35" s="153"/>
+      <c r="BW35" s="153"/>
+      <c r="BX35" s="153"/>
+      <c r="BY35" s="153"/>
+      <c r="BZ35" s="153"/>
+      <c r="CA35" s="153"/>
+      <c r="CB35" s="153"/>
       <c r="CC35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="26" t="s">
         <v>63</v>
       </c>
@@ -11491,53 +11495,53 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="116"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="113"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="153"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="153"/>
+      <c r="AA36" s="153"/>
+      <c r="AB36" s="253"/>
+      <c r="AD36" s="139"/>
+      <c r="AE36" s="250"/>
       <c r="AF36" s="26" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="94"/>
-      <c r="AK36" s="94"/>
-      <c r="AL36" s="94"/>
-      <c r="AM36" s="94"/>
-      <c r="AN36" s="94"/>
-      <c r="AO36" s="94"/>
-      <c r="AP36" s="94"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="94"/>
-      <c r="AS36" s="94"/>
-      <c r="AT36" s="94"/>
-      <c r="AU36" s="94"/>
-      <c r="AV36" s="94"/>
-      <c r="AW36" s="94"/>
-      <c r="AX36" s="94"/>
-      <c r="AY36" s="94"/>
-      <c r="AZ36" s="94"/>
-      <c r="BA36" s="94"/>
-      <c r="BB36" s="94"/>
-      <c r="BC36" s="116"/>
-      <c r="BE36" s="119"/>
-      <c r="BF36" s="120"/>
+      <c r="AJ36" s="153"/>
+      <c r="AK36" s="153"/>
+      <c r="AL36" s="153"/>
+      <c r="AM36" s="153"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="153"/>
+      <c r="AP36" s="153"/>
+      <c r="AQ36" s="153"/>
+      <c r="AR36" s="153"/>
+      <c r="AS36" s="153"/>
+      <c r="AT36" s="153"/>
+      <c r="AU36" s="153"/>
+      <c r="AV36" s="153"/>
+      <c r="AW36" s="153"/>
+      <c r="AX36" s="153"/>
+      <c r="AY36" s="153"/>
+      <c r="AZ36" s="153"/>
+      <c r="BA36" s="153"/>
+      <c r="BB36" s="153"/>
+      <c r="BC36" s="253"/>
+      <c r="BE36" s="256"/>
+      <c r="BF36" s="257"/>
       <c r="BG36" s="27" t="s">
         <v>0</v>
       </c>
@@ -11545,27 +11549,27 @@
       <c r="BI36" s="6"/>
       <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
-      <c r="BL36" s="95" t="s">
+      <c r="BL36" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="BM36" s="96"/>
-      <c r="BN36" s="96"/>
-      <c r="BO36" s="96"/>
-      <c r="BP36" s="96"/>
-      <c r="BQ36" s="96"/>
-      <c r="BR36" s="96"/>
-      <c r="BS36" s="96"/>
-      <c r="BT36" s="96"/>
-      <c r="BU36" s="96"/>
-      <c r="BV36" s="96"/>
-      <c r="BW36" s="96"/>
-      <c r="BX36" s="96"/>
-      <c r="BY36" s="96"/>
-      <c r="BZ36" s="96"/>
-      <c r="CA36" s="96"/>
-      <c r="CB36" s="96"/>
-      <c r="CC36" s="96"/>
-      <c r="CD36" s="96"/>
+      <c r="BM36" s="235"/>
+      <c r="BN36" s="235"/>
+      <c r="BO36" s="235"/>
+      <c r="BP36" s="235"/>
+      <c r="BQ36" s="235"/>
+      <c r="BR36" s="235"/>
+      <c r="BS36" s="235"/>
+      <c r="BT36" s="235"/>
+      <c r="BU36" s="235"/>
+      <c r="BV36" s="235"/>
+      <c r="BW36" s="235"/>
+      <c r="BX36" s="235"/>
+      <c r="BY36" s="235"/>
+      <c r="BZ36" s="235"/>
+      <c r="CA36" s="235"/>
+      <c r="CB36" s="235"/>
+      <c r="CC36" s="235"/>
+      <c r="CD36" s="235"/>
       <c r="CE36" s="6"/>
       <c r="CF36" s="6"/>
       <c r="CG36" s="4"/>
@@ -11694,26 +11698,135 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AG10:CD11"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AW8:BC8"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="CV21:CX23"/>
+    <mergeCell ref="G20:AD20"/>
+    <mergeCell ref="AE20:AT20"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BI20:BQ20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AK9:CD9"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="G14:L15"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="J9:O11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="P12:CD13"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="AH25:BP26"/>
+    <mergeCell ref="BJ27:BL28"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="BM27:CF27"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC14:AE15"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="BM28:CF28"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AF14:AI15"/>
     <mergeCell ref="BS16:CD21"/>
     <mergeCell ref="E19:AJ19"/>
     <mergeCell ref="E6:F15"/>
@@ -11738,135 +11851,26 @@
     <mergeCell ref="AV6:BK6"/>
     <mergeCell ref="R9:S11"/>
     <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="BM28:CF28"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="P27:BI28"/>
-    <mergeCell ref="AH25:BP26"/>
-    <mergeCell ref="BJ27:BL28"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="BM27:CF27"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="CV21:CX23"/>
-    <mergeCell ref="G20:AD20"/>
-    <mergeCell ref="AE20:AT20"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BI20:BQ20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AK9:CD9"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="G14:L15"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="J9:O11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="P12:CD13"/>
-    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AW8:BC8"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -846,7 +846,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -942,10 +942,6 @@
       <sz val="7.5"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
-    <font>
-      <sz val="5.5"/>
-      <name val="ＭＳ Ｐ明朝"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1872,45 +1868,762 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1920,33 +2633,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1980,700 +2666,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2753,7 +2749,7 @@
         <xdr:cNvPr id="2" name="AutoShape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2819,7 @@
         <xdr:cNvPr id="3" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2889,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2944,7 @@
         <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,7 +2955,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="576629" y="205154"/>
-          <a:ext cx="2228117" cy="922257"/>
+          <a:ext cx="2180492" cy="922257"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="227" cy="85"/>
         </a:xfrm>
@@ -2969,7 +2965,7 @@
           <xdr:cNvPr id="7" name="AutoShape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3015,7 +3011,7 @@
           <xdr:cNvPr id="8" name="Rectangle 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3056,7 +3052,7 @@
           <xdr:cNvPr id="9" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3097,7 +3093,7 @@
           <xdr:cNvPr id="10" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3164,7 +3160,7 @@
           <xdr:cNvPr id="11" name="Rectangle 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3231,7 +3227,7 @@
           <xdr:cNvPr id="12" name="Rectangle 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3298,7 +3294,7 @@
           <xdr:cNvPr id="13" name="Rectangle 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3372,7 +3368,7 @@
           <xdr:cNvPr id="14" name="Rectangle 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3439,7 +3435,7 @@
           <xdr:cNvPr id="15" name="Rectangle 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3506,7 +3502,7 @@
           <xdr:cNvPr id="16" name="Rectangle 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3573,7 +3569,7 @@
           <xdr:cNvPr id="17" name="Rectangle 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3640,7 +3636,7 @@
           <xdr:cNvPr id="18" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3707,7 +3703,7 @@
           <xdr:cNvPr id="19" name="Rectangle 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3774,7 +3770,7 @@
           <xdr:cNvPr id="20" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3841,7 +3837,7 @@
           <xdr:cNvPr id="21" name="Rectangle 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3882,7 +3878,7 @@
           <xdr:cNvPr id="22" name="Line 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3922,7 +3918,7 @@
           <xdr:cNvPr id="23" name="Rectangle 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3963,7 +3959,7 @@
           <xdr:cNvPr id="24" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4004,7 +4000,7 @@
           <xdr:cNvPr id="25" name="Rectangle 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4045,7 +4041,7 @@
           <xdr:cNvPr id="26" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4086,7 +4082,7 @@
           <xdr:cNvPr id="27" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4127,7 +4123,7 @@
           <xdr:cNvPr id="28" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4168,7 +4164,7 @@
           <xdr:cNvPr id="29" name="Rectangle 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4209,7 +4205,7 @@
           <xdr:cNvPr id="30" name="Line 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4249,7 +4245,7 @@
           <xdr:cNvPr id="31" name="Rectangle 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4290,7 +4286,7 @@
           <xdr:cNvPr id="32" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4331,7 +4327,7 @@
           <xdr:cNvPr id="33" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4371,7 +4367,7 @@
           <xdr:cNvPr id="34" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4412,7 +4408,7 @@
           <xdr:cNvPr id="35" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4452,7 +4448,7 @@
           <xdr:cNvPr id="36" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4493,7 +4489,7 @@
           <xdr:cNvPr id="37" name="Rectangle 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4534,7 +4530,7 @@
           <xdr:cNvPr id="38" name="Line 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4574,7 +4570,7 @@
           <xdr:cNvPr id="39" name="Rectangle 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4615,7 +4611,7 @@
           <xdr:cNvPr id="40" name="Line 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4655,7 +4651,7 @@
           <xdr:cNvPr id="41" name="Rectangle 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4696,7 +4692,7 @@
           <xdr:cNvPr id="42" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4737,7 +4733,7 @@
           <xdr:cNvPr id="43" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4778,7 +4774,7 @@
           <xdr:cNvPr id="44" name="Line 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4818,7 +4814,7 @@
           <xdr:cNvPr id="45" name="Rectangle 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4859,7 +4855,7 @@
           <xdr:cNvPr id="46" name="Line 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4899,7 +4895,7 @@
           <xdr:cNvPr id="47" name="Rectangle 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4940,7 +4936,7 @@
           <xdr:cNvPr id="48" name="Line 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4980,7 +4976,7 @@
           <xdr:cNvPr id="49" name="Rectangle 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5021,7 +5017,7 @@
           <xdr:cNvPr id="50" name="Line 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5061,7 +5057,7 @@
           <xdr:cNvPr id="51" name="Rectangle 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5102,7 +5098,7 @@
           <xdr:cNvPr id="52" name="Line 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5142,7 +5138,7 @@
           <xdr:cNvPr id="53" name="Rectangle 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5183,7 +5179,7 @@
           <xdr:cNvPr id="54" name="Line 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5223,7 +5219,7 @@
           <xdr:cNvPr id="55" name="Rectangle 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5264,7 +5260,7 @@
           <xdr:cNvPr id="56" name="Line 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5304,7 +5300,7 @@
           <xdr:cNvPr id="57" name="Rectangle 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5345,7 +5341,7 @@
           <xdr:cNvPr id="58" name="Line 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5385,7 +5381,7 @@
           <xdr:cNvPr id="59" name="Rectangle 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5426,7 +5422,7 @@
           <xdr:cNvPr id="60" name="Line 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5466,7 +5462,7 @@
           <xdr:cNvPr id="61" name="Rectangle 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5507,7 +5503,7 @@
           <xdr:cNvPr id="62" name="Line 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5547,7 +5543,7 @@
           <xdr:cNvPr id="63" name="Rectangle 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5588,7 +5584,7 @@
           <xdr:cNvPr id="64" name="Line 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5628,7 +5624,7 @@
           <xdr:cNvPr id="65" name="Rectangle 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5669,7 +5665,7 @@
           <xdr:cNvPr id="66" name="Line 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5709,7 +5705,7 @@
           <xdr:cNvPr id="67" name="Rectangle 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5750,7 +5746,7 @@
           <xdr:cNvPr id="68" name="Line 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5790,7 +5786,7 @@
           <xdr:cNvPr id="69" name="Rectangle 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5831,7 +5827,7 @@
           <xdr:cNvPr id="70" name="Line 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5871,7 +5867,7 @@
           <xdr:cNvPr id="71" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5912,7 +5908,7 @@
           <xdr:cNvPr id="72" name="Line 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5952,7 +5948,7 @@
           <xdr:cNvPr id="73" name="Rectangle 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5993,7 +5989,7 @@
           <xdr:cNvPr id="74" name="Line 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6033,7 +6029,7 @@
           <xdr:cNvPr id="75" name="Rectangle 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6074,7 +6070,7 @@
           <xdr:cNvPr id="76" name="図 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6133,7 +6129,7 @@
           <xdr:cNvPr id="77" name="図 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6192,7 +6188,7 @@
           <xdr:cNvPr id="78" name="図 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6251,7 +6247,7 @@
           <xdr:cNvPr id="79" name="図 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6310,7 +6306,7 @@
           <xdr:cNvPr id="80" name="Oval 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6345,7 +6341,7 @@
           <xdr:cNvPr id="81" name="Rectangle 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6440,7 +6436,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6507,7 +6503,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6574,7 +6570,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6641,7 +6637,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6708,7 +6704,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6775,7 +6771,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6842,7 +6838,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6909,7 +6905,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6976,7 +6972,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7043,7 +7039,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7105,7 +7101,7 @@
         <xdr:cNvPr id="84" name="A2_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7171,7 +7167,7 @@
         <xdr:cNvPr id="96" name="A2_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000060000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7237,7 +7233,7 @@
         <xdr:cNvPr id="97" name="A2_41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7303,7 +7299,7 @@
         <xdr:cNvPr id="101" name="A1_15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7368,7 +7364,7 @@
         <xdr:cNvPr id="100" name="A1_51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7434,7 +7430,7 @@
         <xdr:cNvPr id="102" name="A1_52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000066000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7500,7 +7496,7 @@
         <xdr:cNvPr id="103" name="A1_53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7566,7 +7562,7 @@
         <xdr:cNvPr id="99" name="A4_111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7631,7 +7627,7 @@
         <xdr:cNvPr id="104" name="A4_113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7696,7 +7692,7 @@
         <xdr:cNvPr id="105" name="A4_112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000069000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7761,7 +7757,7 @@
         <xdr:cNvPr id="106" name="A4_114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7826,7 +7822,7 @@
         <xdr:cNvPr id="107" name="A4_221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7891,7 +7887,7 @@
         <xdr:cNvPr id="108" name="A4_222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7956,7 +7952,7 @@
         <xdr:cNvPr id="109" name="A4_223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8021,7 +8017,7 @@
         <xdr:cNvPr id="110" name="A4_224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8086,7 +8082,7 @@
         <xdr:cNvPr id="111" name="A4_1111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8151,7 +8147,7 @@
         <xdr:cNvPr id="118" name="A2_19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000076000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8233,7 +8229,7 @@
         <xdr:cNvPr id="120" name="Picture 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8277,7 +8273,7 @@
         <xdr:cNvPr id="112" name="TextBox 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000070000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8343,7 +8339,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000071000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8409,7 +8405,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8482,7 +8478,7 @@
         <xdr:cNvPr id="121" name="TextBox 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8561,7 +8557,7 @@
         <xdr:cNvPr id="123" name="TextBox 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8640,7 +8636,7 @@
         <xdr:cNvPr id="82" name="TextBox 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8718,7 +8714,7 @@
         <xdr:cNvPr id="115" name="TextBox 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000073000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9084,14 +9080,14 @@
   <dimension ref="C1:CX75"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:AB34"/>
+      <selection activeCell="L35" sqref="L35:Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="1.625" style="1"/>
-    <col min="5" max="5" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.875" style="1" customWidth="1"/>
     <col min="6" max="37" width="1.625" style="1"/>
     <col min="38" max="38" width="1.625" style="1" customWidth="1"/>
     <col min="39" max="67" width="1.625" style="1"/>
@@ -9105,1054 +9101,1054 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="BK2" s="58" t="s">
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="BK2" s="288" t="s">
         <v>50</v>
       </c>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="61" t="s">
+      <c r="BL2" s="279"/>
+      <c r="BM2" s="279"/>
+      <c r="BN2" s="279"/>
+      <c r="BO2" s="279"/>
+      <c r="BP2" s="291" t="s">
         <v>49</v>
       </c>
-      <c r="BQ2" s="62"/>
-      <c r="BR2" s="62"/>
-      <c r="BS2" s="62"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="30" t="s">
+      <c r="BQ2" s="292"/>
+      <c r="BR2" s="292"/>
+      <c r="BS2" s="292"/>
+      <c r="BT2" s="293"/>
+      <c r="BU2" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="55" t="s">
+      <c r="BV2" s="279"/>
+      <c r="BW2" s="279"/>
+      <c r="BX2" s="279"/>
+      <c r="BY2" s="279"/>
+      <c r="BZ2" s="285" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="56"/>
-      <c r="CC2" s="56"/>
-      <c r="CD2" s="57"/>
+      <c r="CA2" s="286"/>
+      <c r="CB2" s="286"/>
+      <c r="CC2" s="286"/>
+      <c r="CD2" s="287"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="Y3" s="156" t="s">
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="Y3" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="156"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="156"/>
-      <c r="AM3" s="156"/>
-      <c r="AN3" s="156"/>
-      <c r="AO3" s="156"/>
-      <c r="AP3" s="156"/>
-      <c r="AQ3" s="156"/>
-      <c r="AR3" s="156"/>
-      <c r="AS3" s="156"/>
-      <c r="AT3" s="156"/>
-      <c r="AU3" s="156"/>
-      <c r="AV3" s="156"/>
-      <c r="AW3" s="156"/>
-      <c r="AX3" s="156"/>
-      <c r="AY3" s="156"/>
-      <c r="AZ3" s="156"/>
-      <c r="BA3" s="156"/>
-      <c r="BB3" s="156"/>
-      <c r="BC3" s="156"/>
-      <c r="BD3" s="156"/>
-      <c r="BE3" s="156"/>
-      <c r="BF3" s="156"/>
-      <c r="BG3" s="156"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="208"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="208"/>
+      <c r="AE3" s="208"/>
+      <c r="AF3" s="208"/>
+      <c r="AG3" s="208"/>
+      <c r="AH3" s="208"/>
+      <c r="AI3" s="208"/>
+      <c r="AJ3" s="208"/>
+      <c r="AK3" s="208"/>
+      <c r="AL3" s="208"/>
+      <c r="AM3" s="208"/>
+      <c r="AN3" s="208"/>
+      <c r="AO3" s="208"/>
+      <c r="AP3" s="208"/>
+      <c r="AQ3" s="208"/>
+      <c r="AR3" s="208"/>
+      <c r="AS3" s="208"/>
+      <c r="AT3" s="208"/>
+      <c r="AU3" s="208"/>
+      <c r="AV3" s="208"/>
+      <c r="AW3" s="208"/>
+      <c r="AX3" s="208"/>
+      <c r="AY3" s="208"/>
+      <c r="AZ3" s="208"/>
+      <c r="BA3" s="208"/>
+      <c r="BB3" s="208"/>
+      <c r="BC3" s="208"/>
+      <c r="BD3" s="208"/>
+      <c r="BE3" s="208"/>
+      <c r="BF3" s="208"/>
+      <c r="BG3" s="208"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="33"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="32"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="33"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="32"/>
-      <c r="BX3" s="32"/>
-      <c r="BY3" s="33"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="32"/>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="32"/>
-      <c r="CD3" s="33"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="137"/>
+      <c r="BP3" s="135"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="137"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="137"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="137"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="156"/>
-      <c r="AC4" s="156"/>
-      <c r="AD4" s="156"/>
-      <c r="AE4" s="156"/>
-      <c r="AF4" s="156"/>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
-      <c r="AR4" s="156"/>
-      <c r="AS4" s="156"/>
-      <c r="AT4" s="156"/>
-      <c r="AU4" s="156"/>
-      <c r="AV4" s="156"/>
-      <c r="AW4" s="156"/>
-      <c r="AX4" s="156"/>
-      <c r="AY4" s="156"/>
-      <c r="AZ4" s="156"/>
-      <c r="BA4" s="156"/>
-      <c r="BB4" s="156"/>
-      <c r="BC4" s="156"/>
-      <c r="BD4" s="156"/>
-      <c r="BE4" s="156"/>
-      <c r="BF4" s="156"/>
-      <c r="BG4" s="156"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="208"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="208"/>
+      <c r="AG4" s="208"/>
+      <c r="AH4" s="208"/>
+      <c r="AI4" s="208"/>
+      <c r="AJ4" s="208"/>
+      <c r="AK4" s="208"/>
+      <c r="AL4" s="208"/>
+      <c r="AM4" s="208"/>
+      <c r="AN4" s="208"/>
+      <c r="AO4" s="208"/>
+      <c r="AP4" s="208"/>
+      <c r="AQ4" s="208"/>
+      <c r="AR4" s="208"/>
+      <c r="AS4" s="208"/>
+      <c r="AT4" s="208"/>
+      <c r="AU4" s="208"/>
+      <c r="AV4" s="208"/>
+      <c r="AW4" s="208"/>
+      <c r="AX4" s="208"/>
+      <c r="AY4" s="208"/>
+      <c r="AZ4" s="208"/>
+      <c r="BA4" s="208"/>
+      <c r="BB4" s="208"/>
+      <c r="BC4" s="208"/>
+      <c r="BD4" s="208"/>
+      <c r="BE4" s="208"/>
+      <c r="BF4" s="208"/>
+      <c r="BG4" s="208"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="36"/>
+      <c r="BK4" s="194"/>
+      <c r="BL4" s="189"/>
+      <c r="BM4" s="189"/>
+      <c r="BN4" s="189"/>
+      <c r="BO4" s="280"/>
+      <c r="BP4" s="194"/>
+      <c r="BQ4" s="189"/>
+      <c r="BR4" s="189"/>
+      <c r="BS4" s="189"/>
+      <c r="BT4" s="280"/>
+      <c r="BU4" s="194"/>
+      <c r="BV4" s="189"/>
+      <c r="BW4" s="189"/>
+      <c r="BX4" s="189"/>
+      <c r="BY4" s="280"/>
+      <c r="BZ4" s="194"/>
+      <c r="CA4" s="189"/>
+      <c r="CB4" s="189"/>
+      <c r="CC4" s="189"/>
+      <c r="CD4" s="280"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="78" t="s">
+      <c r="D6" s="210"/>
+      <c r="E6" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="159" t="s">
+      <c r="F6" s="143"/>
+      <c r="G6" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="157" t="s">
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="164" t="s">
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="118"/>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="118"/>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="119"/>
-      <c r="AV6" s="118" t="s">
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="33"/>
+      <c r="AV6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AW6" s="118"/>
-      <c r="AX6" s="118"/>
-      <c r="AY6" s="118"/>
-      <c r="AZ6" s="118"/>
-      <c r="BA6" s="118"/>
-      <c r="BB6" s="118"/>
-      <c r="BC6" s="118"/>
-      <c r="BD6" s="118"/>
-      <c r="BE6" s="118"/>
-      <c r="BF6" s="118"/>
-      <c r="BG6" s="118"/>
-      <c r="BH6" s="118"/>
-      <c r="BI6" s="118"/>
-      <c r="BJ6" s="118"/>
-      <c r="BK6" s="119"/>
-      <c r="BL6" s="31" t="s">
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BW6" s="32"/>
-      <c r="BX6" s="32"/>
-      <c r="BY6" s="32"/>
-      <c r="BZ6" s="32"/>
-      <c r="CA6" s="33"/>
+      <c r="BM6" s="136"/>
+      <c r="BN6" s="136"/>
+      <c r="BO6" s="136"/>
+      <c r="BP6" s="136"/>
+      <c r="BQ6" s="136"/>
+      <c r="BR6" s="136"/>
+      <c r="BS6" s="136"/>
+      <c r="BT6" s="136"/>
+      <c r="BU6" s="136"/>
+      <c r="BV6" s="136"/>
+      <c r="BW6" s="136"/>
+      <c r="BX6" s="136"/>
+      <c r="BY6" s="136"/>
+      <c r="BZ6" s="136"/>
+      <c r="CA6" s="137"/>
       <c r="CD6" s="3"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="130"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="202"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="37"/>
+      <c r="Z7" s="40"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="37"/>
+      <c r="AB7" s="40"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="130"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="202"/>
       <c r="AG7" s="41"/>
-      <c r="AH7" s="37"/>
+      <c r="AH7" s="40"/>
       <c r="AI7" s="41"/>
-      <c r="AJ7" s="37"/>
+      <c r="AJ7" s="40"/>
       <c r="AK7" s="41"/>
-      <c r="AL7" s="165"/>
-      <c r="AM7" s="121"/>
-      <c r="AN7" s="130"/>
+      <c r="AL7" s="200"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="202"/>
       <c r="AO7" s="41"/>
-      <c r="AP7" s="37"/>
+      <c r="AP7" s="40"/>
       <c r="AQ7" s="41"/>
-      <c r="AR7" s="37"/>
+      <c r="AR7" s="40"/>
       <c r="AS7" s="41"/>
-      <c r="AT7" s="165"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="64" t="s">
+      <c r="AT7" s="200"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="294" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="117"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="66"/>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="99" t="s">
+      <c r="AW7" s="295"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="278"/>
+      <c r="BD7" s="277"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="278"/>
+      <c r="BL7" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="BM7" s="100"/>
-      <c r="BN7" s="100"/>
-      <c r="BO7" s="101"/>
-      <c r="BP7" s="51"/>
+      <c r="BM7" s="221"/>
+      <c r="BN7" s="221"/>
+      <c r="BO7" s="222"/>
+      <c r="BP7" s="251"/>
       <c r="BQ7" s="41"/>
-      <c r="BR7" s="49"/>
+      <c r="BR7" s="252"/>
       <c r="BS7" s="41"/>
-      <c r="BT7" s="51"/>
+      <c r="BT7" s="251"/>
       <c r="BU7" s="41"/>
-      <c r="BV7" s="49"/>
+      <c r="BV7" s="252"/>
       <c r="BW7" s="41"/>
-      <c r="BX7" s="51"/>
-      <c r="BY7" s="49"/>
-      <c r="BZ7" s="37"/>
-      <c r="CA7" s="38"/>
+      <c r="BX7" s="251"/>
+      <c r="BY7" s="252"/>
+      <c r="BZ7" s="40"/>
+      <c r="CA7" s="217"/>
       <c r="CB7" s="4"/>
       <c r="CD7" s="3"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="131"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="42"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="189"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="189"/>
+      <c r="W8" s="189"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="201"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="201"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="203"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="201"/>
+      <c r="AU8" s="45"/>
       <c r="AV8" s="29"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="54"/>
+      <c r="AW8" s="254"/>
+      <c r="AX8" s="254"/>
+      <c r="AY8" s="254"/>
+      <c r="AZ8" s="254"/>
+      <c r="BA8" s="254"/>
+      <c r="BB8" s="254"/>
+      <c r="BC8" s="255"/>
       <c r="BD8" s="29"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="53"/>
-      <c r="BH8" s="53"/>
-      <c r="BI8" s="53"/>
-      <c r="BJ8" s="53"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="102"/>
-      <c r="BM8" s="103"/>
-      <c r="BN8" s="103"/>
-      <c r="BO8" s="104"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="42"/>
-      <c r="BR8" s="50"/>
-      <c r="BS8" s="42"/>
-      <c r="BT8" s="52"/>
-      <c r="BU8" s="42"/>
-      <c r="BV8" s="50"/>
-      <c r="BW8" s="42"/>
-      <c r="BX8" s="52"/>
-      <c r="BY8" s="50"/>
-      <c r="BZ8" s="39"/>
-      <c r="CA8" s="40"/>
+      <c r="BE8" s="254"/>
+      <c r="BF8" s="254"/>
+      <c r="BG8" s="254"/>
+      <c r="BH8" s="254"/>
+      <c r="BI8" s="254"/>
+      <c r="BJ8" s="254"/>
+      <c r="BK8" s="255"/>
+      <c r="BL8" s="223"/>
+      <c r="BM8" s="224"/>
+      <c r="BN8" s="224"/>
+      <c r="BO8" s="225"/>
+      <c r="BP8" s="253"/>
+      <c r="BQ8" s="45"/>
+      <c r="BR8" s="201"/>
+      <c r="BS8" s="45"/>
+      <c r="BT8" s="253"/>
+      <c r="BU8" s="45"/>
+      <c r="BV8" s="201"/>
+      <c r="BW8" s="45"/>
+      <c r="BX8" s="253"/>
+      <c r="BY8" s="201"/>
+      <c r="BZ8" s="44"/>
+      <c r="CA8" s="281"/>
       <c r="CB8" s="5"/>
       <c r="CC8" s="6"/>
       <c r="CD8" s="3"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="275" t="s">
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="276"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="284" t="s">
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="285"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="286"/>
-      <c r="P9" s="37"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="41"/>
-      <c r="R9" s="37"/>
+      <c r="R9" s="40"/>
       <c r="S9" s="41"/>
-      <c r="T9" s="37"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="37"/>
+      <c r="V9" s="40"/>
       <c r="W9" s="41"/>
-      <c r="X9" s="37"/>
+      <c r="X9" s="40"/>
       <c r="Y9" s="41"/>
-      <c r="Z9" s="37"/>
+      <c r="Z9" s="40"/>
       <c r="AA9" s="41"/>
-      <c r="AB9" s="37"/>
+      <c r="AB9" s="40"/>
       <c r="AC9" s="41"/>
-      <c r="AD9" s="78" t="s">
+      <c r="AD9" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="166"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="59" t="s">
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="204"/>
+      <c r="AG9" s="289" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="225"/>
-      <c r="AL9" s="225"/>
-      <c r="AM9" s="225"/>
-      <c r="AN9" s="225"/>
-      <c r="AO9" s="225"/>
-      <c r="AP9" s="225"/>
-      <c r="AQ9" s="225"/>
-      <c r="AR9" s="225"/>
-      <c r="AS9" s="225"/>
-      <c r="AT9" s="225"/>
-      <c r="AU9" s="225"/>
-      <c r="AV9" s="225"/>
-      <c r="AW9" s="225"/>
-      <c r="AX9" s="225"/>
-      <c r="AY9" s="225"/>
-      <c r="AZ9" s="225"/>
-      <c r="BA9" s="225"/>
-      <c r="BB9" s="225"/>
-      <c r="BC9" s="225"/>
-      <c r="BD9" s="225"/>
-      <c r="BE9" s="225"/>
-      <c r="BF9" s="225"/>
-      <c r="BG9" s="225"/>
-      <c r="BH9" s="225"/>
-      <c r="BI9" s="225"/>
-      <c r="BJ9" s="225"/>
-      <c r="BK9" s="225"/>
-      <c r="BL9" s="225"/>
-      <c r="BM9" s="225"/>
-      <c r="BN9" s="225"/>
-      <c r="BO9" s="225"/>
-      <c r="BP9" s="225"/>
-      <c r="BQ9" s="225"/>
-      <c r="BR9" s="225"/>
-      <c r="BS9" s="225"/>
-      <c r="BT9" s="225"/>
-      <c r="BU9" s="225"/>
-      <c r="BV9" s="225"/>
-      <c r="BW9" s="225"/>
-      <c r="BX9" s="225"/>
-      <c r="BY9" s="225"/>
-      <c r="BZ9" s="225"/>
-      <c r="CA9" s="225"/>
-      <c r="CB9" s="225"/>
-      <c r="CC9" s="225"/>
-      <c r="CD9" s="226"/>
+      <c r="AH9" s="290"/>
+      <c r="AI9" s="290"/>
+      <c r="AJ9" s="290"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="46"/>
+      <c r="BK9" s="46"/>
+      <c r="BL9" s="46"/>
+      <c r="BM9" s="46"/>
+      <c r="BN9" s="46"/>
+      <c r="BO9" s="46"/>
+      <c r="BP9" s="46"/>
+      <c r="BQ9" s="46"/>
+      <c r="BR9" s="46"/>
+      <c r="BS9" s="46"/>
+      <c r="BT9" s="46"/>
+      <c r="BU9" s="46"/>
+      <c r="BV9" s="46"/>
+      <c r="BW9" s="46"/>
+      <c r="BX9" s="46"/>
+      <c r="BY9" s="46"/>
+      <c r="BZ9" s="46"/>
+      <c r="CA9" s="46"/>
+      <c r="CB9" s="46"/>
+      <c r="CC9" s="46"/>
+      <c r="CD9" s="47"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="287"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="288"/>
-      <c r="O10" s="289"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="168"/>
-      <c r="AF10" s="169"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
-      <c r="BM10" s="44"/>
-      <c r="BN10" s="44"/>
-      <c r="BO10" s="44"/>
-      <c r="BP10" s="44"/>
-      <c r="BQ10" s="44"/>
-      <c r="BR10" s="44"/>
-      <c r="BS10" s="44"/>
-      <c r="BT10" s="44"/>
-      <c r="BU10" s="44"/>
-      <c r="BV10" s="44"/>
-      <c r="BW10" s="44"/>
-      <c r="BX10" s="44"/>
-      <c r="BY10" s="44"/>
-      <c r="BZ10" s="44"/>
-      <c r="CA10" s="44"/>
-      <c r="CB10" s="44"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="45"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="282"/>
+      <c r="AH10" s="283"/>
+      <c r="AI10" s="283"/>
+      <c r="AJ10" s="283"/>
+      <c r="AK10" s="283"/>
+      <c r="AL10" s="283"/>
+      <c r="AM10" s="283"/>
+      <c r="AN10" s="283"/>
+      <c r="AO10" s="283"/>
+      <c r="AP10" s="283"/>
+      <c r="AQ10" s="283"/>
+      <c r="AR10" s="283"/>
+      <c r="AS10" s="283"/>
+      <c r="AT10" s="283"/>
+      <c r="AU10" s="283"/>
+      <c r="AV10" s="283"/>
+      <c r="AW10" s="283"/>
+      <c r="AX10" s="283"/>
+      <c r="AY10" s="283"/>
+      <c r="AZ10" s="283"/>
+      <c r="BA10" s="283"/>
+      <c r="BB10" s="283"/>
+      <c r="BC10" s="283"/>
+      <c r="BD10" s="283"/>
+      <c r="BE10" s="283"/>
+      <c r="BF10" s="283"/>
+      <c r="BG10" s="283"/>
+      <c r="BH10" s="283"/>
+      <c r="BI10" s="283"/>
+      <c r="BJ10" s="283"/>
+      <c r="BK10" s="283"/>
+      <c r="BL10" s="283"/>
+      <c r="BM10" s="283"/>
+      <c r="BN10" s="283"/>
+      <c r="BO10" s="283"/>
+      <c r="BP10" s="283"/>
+      <c r="BQ10" s="283"/>
+      <c r="BR10" s="283"/>
+      <c r="BS10" s="283"/>
+      <c r="BT10" s="283"/>
+      <c r="BU10" s="283"/>
+      <c r="BV10" s="283"/>
+      <c r="BW10" s="283"/>
+      <c r="BX10" s="283"/>
+      <c r="BY10" s="283"/>
+      <c r="BZ10" s="283"/>
+      <c r="CA10" s="283"/>
+      <c r="CB10" s="283"/>
+      <c r="CC10" s="283"/>
+      <c r="CD10" s="284"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="282"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="291"/>
-      <c r="L11" s="291"/>
-      <c r="M11" s="291"/>
-      <c r="N11" s="291"/>
-      <c r="O11" s="292"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="170"/>
-      <c r="AF11" s="171"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="47"/>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="47"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="47"/>
-      <c r="BE11" s="47"/>
-      <c r="BF11" s="47"/>
-      <c r="BG11" s="47"/>
-      <c r="BH11" s="47"/>
-      <c r="BI11" s="47"/>
-      <c r="BJ11" s="47"/>
-      <c r="BK11" s="47"/>
-      <c r="BL11" s="47"/>
-      <c r="BM11" s="47"/>
-      <c r="BN11" s="47"/>
-      <c r="BO11" s="47"/>
-      <c r="BP11" s="47"/>
-      <c r="BQ11" s="47"/>
-      <c r="BR11" s="47"/>
-      <c r="BS11" s="47"/>
-      <c r="BT11" s="47"/>
-      <c r="BU11" s="47"/>
-      <c r="BV11" s="47"/>
-      <c r="BW11" s="47"/>
-      <c r="BX11" s="47"/>
-      <c r="BY11" s="47"/>
-      <c r="BZ11" s="47"/>
-      <c r="CA11" s="47"/>
-      <c r="CB11" s="47"/>
-      <c r="CC11" s="47"/>
-      <c r="CD11" s="48"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="206"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
+      <c r="BM11" s="92"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="92"/>
+      <c r="BP11" s="92"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="92"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="92"/>
+      <c r="BX11" s="92"/>
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="92"/>
+      <c r="CB11" s="92"/>
+      <c r="CC11" s="92"/>
+      <c r="CD11" s="93"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="195" t="s">
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="196"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="284" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="285"/>
-      <c r="L12" s="285"/>
-      <c r="M12" s="285"/>
-      <c r="N12" s="285"/>
-      <c r="O12" s="286"/>
-      <c r="P12" s="293"/>
-      <c r="Q12" s="294"/>
-      <c r="R12" s="294"/>
-      <c r="S12" s="294"/>
-      <c r="T12" s="294"/>
-      <c r="U12" s="294"/>
-      <c r="V12" s="294"/>
-      <c r="W12" s="294"/>
-      <c r="X12" s="294"/>
-      <c r="Y12" s="294"/>
-      <c r="Z12" s="294"/>
-      <c r="AA12" s="294"/>
-      <c r="AB12" s="294"/>
-      <c r="AC12" s="294"/>
-      <c r="AD12" s="294"/>
-      <c r="AE12" s="294"/>
-      <c r="AF12" s="294"/>
-      <c r="AG12" s="294"/>
-      <c r="AH12" s="294"/>
-      <c r="AI12" s="294"/>
-      <c r="AJ12" s="294"/>
-      <c r="AK12" s="294"/>
-      <c r="AL12" s="294"/>
-      <c r="AM12" s="294"/>
-      <c r="AN12" s="294"/>
-      <c r="AO12" s="294"/>
-      <c r="AP12" s="294"/>
-      <c r="AQ12" s="294"/>
-      <c r="AR12" s="294"/>
-      <c r="AS12" s="294"/>
-      <c r="AT12" s="294"/>
-      <c r="AU12" s="294"/>
-      <c r="AV12" s="294"/>
-      <c r="AW12" s="294"/>
-      <c r="AX12" s="294"/>
-      <c r="AY12" s="294"/>
-      <c r="AZ12" s="294"/>
-      <c r="BA12" s="294"/>
-      <c r="BB12" s="294"/>
-      <c r="BC12" s="294"/>
-      <c r="BD12" s="294"/>
-      <c r="BE12" s="294"/>
-      <c r="BF12" s="294"/>
-      <c r="BG12" s="294"/>
-      <c r="BH12" s="294"/>
-      <c r="BI12" s="294"/>
-      <c r="BJ12" s="294"/>
-      <c r="BK12" s="294"/>
-      <c r="BL12" s="294"/>
-      <c r="BM12" s="294"/>
-      <c r="BN12" s="294"/>
-      <c r="BO12" s="294"/>
-      <c r="BP12" s="294"/>
-      <c r="BQ12" s="294"/>
-      <c r="BR12" s="294"/>
-      <c r="BS12" s="294"/>
-      <c r="BT12" s="294"/>
-      <c r="BU12" s="294"/>
-      <c r="BV12" s="294"/>
-      <c r="BW12" s="294"/>
-      <c r="BX12" s="294"/>
-      <c r="BY12" s="294"/>
-      <c r="BZ12" s="294"/>
-      <c r="CA12" s="294"/>
-      <c r="CB12" s="294"/>
-      <c r="CC12" s="294"/>
-      <c r="CD12" s="295"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
+      <c r="BH12" s="89"/>
+      <c r="BI12" s="89"/>
+      <c r="BJ12" s="89"/>
+      <c r="BK12" s="89"/>
+      <c r="BL12" s="89"/>
+      <c r="BM12" s="89"/>
+      <c r="BN12" s="89"/>
+      <c r="BO12" s="89"/>
+      <c r="BP12" s="89"/>
+      <c r="BQ12" s="89"/>
+      <c r="BR12" s="89"/>
+      <c r="BS12" s="89"/>
+      <c r="BT12" s="89"/>
+      <c r="BU12" s="89"/>
+      <c r="BV12" s="89"/>
+      <c r="BW12" s="89"/>
+      <c r="BX12" s="89"/>
+      <c r="BY12" s="89"/>
+      <c r="BZ12" s="89"/>
+      <c r="CA12" s="89"/>
+      <c r="CB12" s="89"/>
+      <c r="CC12" s="89"/>
+      <c r="CD12" s="90"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="291"/>
-      <c r="M13" s="291"/>
-      <c r="N13" s="291"/>
-      <c r="O13" s="292"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BI13" s="47"/>
-      <c r="BJ13" s="47"/>
-      <c r="BK13" s="47"/>
-      <c r="BL13" s="47"/>
-      <c r="BM13" s="47"/>
-      <c r="BN13" s="47"/>
-      <c r="BO13" s="47"/>
-      <c r="BP13" s="47"/>
-      <c r="BQ13" s="47"/>
-      <c r="BR13" s="47"/>
-      <c r="BS13" s="47"/>
-      <c r="BT13" s="47"/>
-      <c r="BU13" s="47"/>
-      <c r="BV13" s="47"/>
-      <c r="BW13" s="47"/>
-      <c r="BX13" s="47"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="47"/>
-      <c r="CA13" s="47"/>
-      <c r="CB13" s="47"/>
-      <c r="CC13" s="47"/>
-      <c r="CD13" s="48"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="92"/>
+      <c r="BG13" s="92"/>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="92"/>
+      <c r="BL13" s="92"/>
+      <c r="BM13" s="92"/>
+      <c r="BN13" s="92"/>
+      <c r="BO13" s="92"/>
+      <c r="BP13" s="92"/>
+      <c r="BQ13" s="92"/>
+      <c r="BR13" s="92"/>
+      <c r="BS13" s="92"/>
+      <c r="BT13" s="92"/>
+      <c r="BU13" s="92"/>
+      <c r="BV13" s="92"/>
+      <c r="BW13" s="92"/>
+      <c r="BX13" s="92"/>
+      <c r="BY13" s="92"/>
+      <c r="BZ13" s="92"/>
+      <c r="CA13" s="92"/>
+      <c r="CB13" s="92"/>
+      <c r="CC13" s="92"/>
+      <c r="CD13" s="93"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="267" t="s">
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="188" t="s">
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="176"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="176"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="186"/>
-      <c r="Z14" s="176"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="192"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="178"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="57"/>
       <c r="AC14" s="180"/>
       <c r="AD14" s="181"/>
       <c r="AE14" s="182"/>
-      <c r="AF14" s="150" t="s">
+      <c r="AF14" s="242" t="s">
         <v>58</v>
       </c>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="151"/>
-      <c r="AJ14" s="87" t="s">
+      <c r="AG14" s="243"/>
+      <c r="AH14" s="243"/>
+      <c r="AI14" s="243"/>
+      <c r="AJ14" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="88"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="88"/>
-      <c r="AY14" s="88"/>
-      <c r="AZ14" s="88"/>
-      <c r="BA14" s="88"/>
-      <c r="BB14" s="88"/>
-      <c r="BC14" s="88"/>
-      <c r="BD14" s="88"/>
-      <c r="BE14" s="88"/>
-      <c r="BF14" s="88"/>
-      <c r="BG14" s="88"/>
-      <c r="BH14" s="88"/>
-      <c r="BI14" s="88"/>
-      <c r="BJ14" s="88"/>
-      <c r="BK14" s="88"/>
-      <c r="BL14" s="88"/>
-      <c r="BM14" s="88"/>
-      <c r="BN14" s="88"/>
-      <c r="BO14" s="89"/>
+      <c r="AK14" s="257"/>
+      <c r="AL14" s="257"/>
+      <c r="AM14" s="257"/>
+      <c r="AN14" s="257"/>
+      <c r="AO14" s="257"/>
+      <c r="AP14" s="257"/>
+      <c r="AQ14" s="257"/>
+      <c r="AR14" s="257"/>
+      <c r="AS14" s="257"/>
+      <c r="AT14" s="257"/>
+      <c r="AU14" s="257"/>
+      <c r="AV14" s="257"/>
+      <c r="AW14" s="257"/>
+      <c r="AX14" s="257"/>
+      <c r="AY14" s="257"/>
+      <c r="AZ14" s="257"/>
+      <c r="BA14" s="257"/>
+      <c r="BB14" s="257"/>
+      <c r="BC14" s="257"/>
+      <c r="BD14" s="257"/>
+      <c r="BE14" s="257"/>
+      <c r="BF14" s="257"/>
+      <c r="BG14" s="257"/>
+      <c r="BH14" s="257"/>
+      <c r="BI14" s="257"/>
+      <c r="BJ14" s="257"/>
+      <c r="BK14" s="257"/>
+      <c r="BL14" s="257"/>
+      <c r="BM14" s="257"/>
+      <c r="BN14" s="257"/>
+      <c r="BO14" s="258"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="271"/>
-      <c r="L15" s="272"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="179"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="179"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="179"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="194"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="179"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
       <c r="AC15" s="183"/>
       <c r="AD15" s="184"/>
       <c r="AE15" s="185"/>
-      <c r="AF15" s="152"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="153"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="91"/>
-      <c r="AL15" s="91"/>
-      <c r="AM15" s="91"/>
-      <c r="AN15" s="91"/>
-      <c r="AO15" s="91"/>
-      <c r="AP15" s="91"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="91"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="91"/>
-      <c r="BG15" s="91"/>
-      <c r="BH15" s="91"/>
-      <c r="BI15" s="91"/>
-      <c r="BJ15" s="91"/>
-      <c r="BK15" s="91"/>
-      <c r="BL15" s="91"/>
-      <c r="BM15" s="91"/>
-      <c r="BN15" s="91"/>
-      <c r="BO15" s="92"/>
-      <c r="BS15" s="68" t="s">
+      <c r="AF15" s="244"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="259"/>
+      <c r="AK15" s="260"/>
+      <c r="AL15" s="260"/>
+      <c r="AM15" s="260"/>
+      <c r="AN15" s="260"/>
+      <c r="AO15" s="260"/>
+      <c r="AP15" s="260"/>
+      <c r="AQ15" s="260"/>
+      <c r="AR15" s="260"/>
+      <c r="AS15" s="260"/>
+      <c r="AT15" s="260"/>
+      <c r="AU15" s="260"/>
+      <c r="AV15" s="260"/>
+      <c r="AW15" s="260"/>
+      <c r="AX15" s="260"/>
+      <c r="AY15" s="260"/>
+      <c r="AZ15" s="260"/>
+      <c r="BA15" s="260"/>
+      <c r="BB15" s="260"/>
+      <c r="BC15" s="260"/>
+      <c r="BD15" s="260"/>
+      <c r="BE15" s="260"/>
+      <c r="BF15" s="260"/>
+      <c r="BG15" s="260"/>
+      <c r="BH15" s="260"/>
+      <c r="BI15" s="260"/>
+      <c r="BJ15" s="260"/>
+      <c r="BK15" s="260"/>
+      <c r="BL15" s="260"/>
+      <c r="BM15" s="260"/>
+      <c r="BN15" s="260"/>
+      <c r="BO15" s="261"/>
+      <c r="BS15" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="BT15" s="69"/>
-      <c r="BU15" s="69"/>
-      <c r="BV15" s="69"/>
-      <c r="BW15" s="69"/>
-      <c r="BX15" s="69"/>
-      <c r="BY15" s="69"/>
-      <c r="BZ15" s="69"/>
-      <c r="CA15" s="69"/>
-      <c r="CB15" s="69"/>
-      <c r="CC15" s="69"/>
-      <c r="CD15" s="70"/>
+      <c r="BT15" s="215"/>
+      <c r="BU15" s="215"/>
+      <c r="BV15" s="215"/>
+      <c r="BW15" s="215"/>
+      <c r="BX15" s="215"/>
+      <c r="BY15" s="215"/>
+      <c r="BZ15" s="215"/>
+      <c r="CA15" s="215"/>
+      <c r="CB15" s="215"/>
+      <c r="CC15" s="215"/>
+      <c r="CD15" s="216"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10181,22 +10177,22 @@
       <c r="AO16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BS16" s="68"/>
-      <c r="BT16" s="69"/>
-      <c r="BU16" s="69"/>
-      <c r="BV16" s="69"/>
-      <c r="BW16" s="69"/>
-      <c r="BX16" s="69"/>
-      <c r="BY16" s="69"/>
-      <c r="BZ16" s="69"/>
-      <c r="CA16" s="69"/>
-      <c r="CB16" s="69"/>
-      <c r="CC16" s="69"/>
-      <c r="CD16" s="70"/>
+      <c r="BS16" s="214"/>
+      <c r="BT16" s="215"/>
+      <c r="BU16" s="215"/>
+      <c r="BV16" s="215"/>
+      <c r="BW16" s="215"/>
+      <c r="BX16" s="215"/>
+      <c r="BY16" s="215"/>
+      <c r="BZ16" s="215"/>
+      <c r="CA16" s="215"/>
+      <c r="CB16" s="215"/>
+      <c r="CC16" s="215"/>
+      <c r="CD16" s="216"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="H17" s="13" t="s">
@@ -10205,882 +10201,882 @@
       <c r="AO17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BS17" s="71"/>
-      <c r="BT17" s="72"/>
-      <c r="BU17" s="72"/>
-      <c r="BV17" s="72"/>
-      <c r="BW17" s="72"/>
-      <c r="BX17" s="72"/>
-      <c r="BY17" s="72"/>
-      <c r="BZ17" s="72"/>
-      <c r="CA17" s="72"/>
-      <c r="CB17" s="72"/>
-      <c r="CC17" s="72"/>
-      <c r="CD17" s="73"/>
+      <c r="BS17" s="245"/>
+      <c r="BT17" s="209"/>
+      <c r="BU17" s="209"/>
+      <c r="BV17" s="209"/>
+      <c r="BW17" s="209"/>
+      <c r="BX17" s="209"/>
+      <c r="BY17" s="209"/>
+      <c r="BZ17" s="209"/>
+      <c r="CA17" s="209"/>
+      <c r="CB17" s="209"/>
+      <c r="CC17" s="209"/>
+      <c r="CD17" s="246"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BS18" s="71"/>
-      <c r="BT18" s="72"/>
-      <c r="BU18" s="72"/>
-      <c r="BV18" s="72"/>
-      <c r="BW18" s="72"/>
-      <c r="BX18" s="72"/>
-      <c r="BY18" s="72"/>
-      <c r="BZ18" s="72"/>
-      <c r="CA18" s="72"/>
-      <c r="CB18" s="72"/>
-      <c r="CC18" s="72"/>
-      <c r="CD18" s="73"/>
+      <c r="BS18" s="245"/>
+      <c r="BT18" s="209"/>
+      <c r="BU18" s="209"/>
+      <c r="BV18" s="209"/>
+      <c r="BW18" s="209"/>
+      <c r="BX18" s="209"/>
+      <c r="BY18" s="209"/>
+      <c r="BZ18" s="209"/>
+      <c r="CA18" s="209"/>
+      <c r="CB18" s="209"/>
+      <c r="CC18" s="209"/>
+      <c r="CD18" s="246"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="77" t="s">
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="250" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="250"/>
+      <c r="N19" s="250"/>
+      <c r="O19" s="250"/>
+      <c r="P19" s="250"/>
+      <c r="Q19" s="250"/>
+      <c r="R19" s="250"/>
+      <c r="S19" s="250"/>
+      <c r="T19" s="250"/>
+      <c r="U19" s="250"/>
+      <c r="V19" s="250"/>
+      <c r="W19" s="250"/>
+      <c r="X19" s="250"/>
+      <c r="Y19" s="250"/>
+      <c r="Z19" s="250"/>
+      <c r="AA19" s="250"/>
+      <c r="AB19" s="250"/>
+      <c r="AC19" s="250"/>
+      <c r="AD19" s="250"/>
+      <c r="AE19" s="250"/>
+      <c r="AF19" s="250"/>
+      <c r="AG19" s="250"/>
+      <c r="AH19" s="250"/>
+      <c r="AI19" s="250"/>
+      <c r="AJ19" s="250"/>
       <c r="AV19" s="15"/>
-      <c r="BS19" s="71"/>
-      <c r="BT19" s="72"/>
-      <c r="BU19" s="72"/>
-      <c r="BV19" s="72"/>
-      <c r="BW19" s="72"/>
-      <c r="BX19" s="72"/>
-      <c r="BY19" s="72"/>
-      <c r="BZ19" s="72"/>
-      <c r="CA19" s="72"/>
-      <c r="CB19" s="72"/>
-      <c r="CC19" s="72"/>
-      <c r="CD19" s="73"/>
+      <c r="BS19" s="245"/>
+      <c r="BT19" s="209"/>
+      <c r="BU19" s="209"/>
+      <c r="BV19" s="209"/>
+      <c r="BW19" s="209"/>
+      <c r="BX19" s="209"/>
+      <c r="BY19" s="209"/>
+      <c r="BZ19" s="209"/>
+      <c r="CA19" s="209"/>
+      <c r="CB19" s="209"/>
+      <c r="CC19" s="209"/>
+      <c r="CD19" s="246"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="135" t="s">
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="164" t="s">
+      <c r="F20" s="230"/>
+      <c r="G20" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="164" t="s">
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AF20" s="118"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="119"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="108"/>
-      <c r="AW20" s="148" t="s">
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="33"/>
+      <c r="AU20" s="267"/>
+      <c r="AV20" s="268"/>
+      <c r="AW20" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="AX20" s="149"/>
+      <c r="AX20" s="241"/>
       <c r="AY20" s="16"/>
       <c r="AZ20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="BA20" s="18"/>
       <c r="BB20" s="18"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
-      <c r="BI20" s="264"/>
-      <c r="BJ20" s="265"/>
-      <c r="BK20" s="265"/>
-      <c r="BL20" s="265"/>
-      <c r="BM20" s="265"/>
-      <c r="BN20" s="265"/>
-      <c r="BO20" s="265"/>
-      <c r="BP20" s="265"/>
-      <c r="BQ20" s="266"/>
-      <c r="BS20" s="71"/>
-      <c r="BT20" s="72"/>
-      <c r="BU20" s="72"/>
-      <c r="BV20" s="72"/>
-      <c r="BW20" s="72"/>
-      <c r="BX20" s="72"/>
-      <c r="BY20" s="72"/>
-      <c r="BZ20" s="72"/>
-      <c r="CA20" s="72"/>
-      <c r="CB20" s="72"/>
-      <c r="CC20" s="72"/>
-      <c r="CD20" s="73"/>
+      <c r="BC20" s="34"/>
+      <c r="BD20" s="34"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="34"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="35"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="37"/>
+      <c r="BS20" s="245"/>
+      <c r="BT20" s="209"/>
+      <c r="BU20" s="209"/>
+      <c r="BV20" s="209"/>
+      <c r="BW20" s="209"/>
+      <c r="BX20" s="209"/>
+      <c r="BY20" s="209"/>
+      <c r="BZ20" s="209"/>
+      <c r="CA20" s="209"/>
+      <c r="CB20" s="209"/>
+      <c r="CC20" s="209"/>
+      <c r="CD20" s="246"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="273"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="273"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="273"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="172"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="172"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="99" t="s">
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="176"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="105"/>
-      <c r="AJ21" s="94"/>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="94"/>
-      <c r="AO21" s="97"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="93"/>
-      <c r="AR21" s="94"/>
-      <c r="AS21" s="97"/>
-      <c r="AT21" s="98"/>
-      <c r="AU21" s="109"/>
-      <c r="AV21" s="110"/>
-      <c r="AW21" s="113" t="s">
+      <c r="AF21" s="221"/>
+      <c r="AG21" s="221"/>
+      <c r="AH21" s="222"/>
+      <c r="AI21" s="265"/>
+      <c r="AJ21" s="263"/>
+      <c r="AK21" s="236"/>
+      <c r="AL21" s="237"/>
+      <c r="AM21" s="262"/>
+      <c r="AN21" s="263"/>
+      <c r="AO21" s="236"/>
+      <c r="AP21" s="237"/>
+      <c r="AQ21" s="262"/>
+      <c r="AR21" s="263"/>
+      <c r="AS21" s="236"/>
+      <c r="AT21" s="237"/>
+      <c r="AU21" s="269"/>
+      <c r="AV21" s="270"/>
+      <c r="AW21" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="114"/>
+      <c r="AX21" s="273"/>
+      <c r="AY21" s="274"/>
       <c r="AZ21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="BA21" s="20"/>
-      <c r="BB21" s="144"/>
-      <c r="BC21" s="144"/>
-      <c r="BD21" s="144"/>
-      <c r="BE21" s="144"/>
-      <c r="BF21" s="144"/>
-      <c r="BG21" s="144"/>
-      <c r="BH21" s="144"/>
+      <c r="BB21" s="157"/>
+      <c r="BC21" s="157"/>
+      <c r="BD21" s="157"/>
+      <c r="BE21" s="157"/>
+      <c r="BF21" s="157"/>
+      <c r="BG21" s="157"/>
+      <c r="BH21" s="157"/>
       <c r="BI21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="BJ21" s="20"/>
-      <c r="BK21" s="144"/>
-      <c r="BL21" s="144"/>
-      <c r="BM21" s="144"/>
-      <c r="BN21" s="144"/>
-      <c r="BO21" s="144"/>
-      <c r="BP21" s="144"/>
-      <c r="BQ21" s="146"/>
-      <c r="BS21" s="74"/>
-      <c r="BT21" s="75"/>
-      <c r="BU21" s="75"/>
-      <c r="BV21" s="75"/>
-      <c r="BW21" s="75"/>
-      <c r="BX21" s="75"/>
-      <c r="BY21" s="75"/>
-      <c r="BZ21" s="75"/>
-      <c r="CA21" s="75"/>
-      <c r="CB21" s="75"/>
-      <c r="CC21" s="75"/>
-      <c r="CD21" s="76"/>
-      <c r="CV21" s="155"/>
-      <c r="CW21" s="155"/>
-      <c r="CX21" s="155"/>
+      <c r="BK21" s="157"/>
+      <c r="BL21" s="157"/>
+      <c r="BM21" s="157"/>
+      <c r="BN21" s="157"/>
+      <c r="BO21" s="157"/>
+      <c r="BP21" s="157"/>
+      <c r="BQ21" s="158"/>
+      <c r="BS21" s="247"/>
+      <c r="BT21" s="248"/>
+      <c r="BU21" s="248"/>
+      <c r="BV21" s="248"/>
+      <c r="BW21" s="248"/>
+      <c r="BX21" s="248"/>
+      <c r="BY21" s="248"/>
+      <c r="BZ21" s="248"/>
+      <c r="CA21" s="248"/>
+      <c r="CB21" s="248"/>
+      <c r="CC21" s="248"/>
+      <c r="CD21" s="249"/>
+      <c r="CV21" s="30"/>
+      <c r="CW21" s="30"/>
+      <c r="CX21" s="30"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="274"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="274"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="274"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="111"/>
-      <c r="AV22" s="112"/>
-      <c r="AW22" s="115"/>
-      <c r="AX22" s="115"/>
-      <c r="AY22" s="116"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="224"/>
+      <c r="AG22" s="224"/>
+      <c r="AH22" s="225"/>
+      <c r="AI22" s="266"/>
+      <c r="AJ22" s="238"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="238"/>
+      <c r="AM22" s="264"/>
+      <c r="AN22" s="238"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="238"/>
+      <c r="AQ22" s="264"/>
+      <c r="AR22" s="238"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="238"/>
+      <c r="AU22" s="271"/>
+      <c r="AV22" s="272"/>
+      <c r="AW22" s="275"/>
+      <c r="AX22" s="275"/>
+      <c r="AY22" s="276"/>
       <c r="AZ22" s="5"/>
       <c r="BA22" s="6"/>
-      <c r="BB22" s="145"/>
-      <c r="BC22" s="145"/>
-      <c r="BD22" s="145"/>
-      <c r="BE22" s="145"/>
-      <c r="BF22" s="145"/>
-      <c r="BG22" s="145"/>
-      <c r="BH22" s="145"/>
+      <c r="BB22" s="154"/>
+      <c r="BC22" s="154"/>
+      <c r="BD22" s="154"/>
+      <c r="BE22" s="154"/>
+      <c r="BF22" s="154"/>
+      <c r="BG22" s="154"/>
+      <c r="BH22" s="154"/>
       <c r="BI22" s="5"/>
       <c r="BJ22" s="6"/>
-      <c r="BK22" s="145"/>
-      <c r="BL22" s="145"/>
-      <c r="BM22" s="145"/>
-      <c r="BN22" s="145"/>
-      <c r="BO22" s="145"/>
-      <c r="BP22" s="145"/>
-      <c r="BQ22" s="147"/>
-      <c r="CV22" s="155"/>
-      <c r="CW22" s="155"/>
-      <c r="CX22" s="155"/>
+      <c r="BK22" s="154"/>
+      <c r="BL22" s="154"/>
+      <c r="BM22" s="154"/>
+      <c r="BN22" s="154"/>
+      <c r="BO22" s="154"/>
+      <c r="BP22" s="154"/>
+      <c r="BQ22" s="239"/>
+      <c r="CV22" s="30"/>
+      <c r="CW22" s="30"/>
+      <c r="CX22" s="30"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="78" t="s">
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="166"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="31" t="s">
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="31" t="s">
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="136"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="136"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="32"/>
-      <c r="BG23" s="32"/>
-      <c r="BH23" s="32"/>
-      <c r="BI23" s="32"/>
-      <c r="BJ23" s="32"/>
-      <c r="BK23" s="32"/>
-      <c r="BL23" s="32"/>
-      <c r="BM23" s="32"/>
-      <c r="BN23" s="32"/>
-      <c r="BO23" s="32"/>
-      <c r="BP23" s="33"/>
-      <c r="BQ23" s="31" t="s">
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="136"/>
+      <c r="AB23" s="136"/>
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="136"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="136"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="136"/>
+      <c r="AJ23" s="136"/>
+      <c r="AK23" s="136"/>
+      <c r="AL23" s="136"/>
+      <c r="AM23" s="136"/>
+      <c r="AN23" s="136"/>
+      <c r="AO23" s="136"/>
+      <c r="AP23" s="136"/>
+      <c r="AQ23" s="136"/>
+      <c r="AR23" s="136"/>
+      <c r="AS23" s="136"/>
+      <c r="AT23" s="136"/>
+      <c r="AU23" s="136"/>
+      <c r="AV23" s="136"/>
+      <c r="AW23" s="136"/>
+      <c r="AX23" s="136"/>
+      <c r="AY23" s="136"/>
+      <c r="AZ23" s="136"/>
+      <c r="BA23" s="136"/>
+      <c r="BB23" s="136"/>
+      <c r="BC23" s="136"/>
+      <c r="BD23" s="136"/>
+      <c r="BE23" s="136"/>
+      <c r="BF23" s="136"/>
+      <c r="BG23" s="136"/>
+      <c r="BH23" s="136"/>
+      <c r="BI23" s="136"/>
+      <c r="BJ23" s="136"/>
+      <c r="BK23" s="136"/>
+      <c r="BL23" s="136"/>
+      <c r="BM23" s="136"/>
+      <c r="BN23" s="136"/>
+      <c r="BO23" s="136"/>
+      <c r="BP23" s="137"/>
+      <c r="BQ23" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="BR23" s="32"/>
-      <c r="BS23" s="32"/>
-      <c r="BT23" s="32"/>
-      <c r="BU23" s="32"/>
-      <c r="BV23" s="32"/>
-      <c r="BW23" s="32"/>
-      <c r="BX23" s="32"/>
-      <c r="BY23" s="32"/>
-      <c r="BZ23" s="32"/>
-      <c r="CA23" s="32"/>
-      <c r="CB23" s="32"/>
-      <c r="CC23" s="32"/>
-      <c r="CD23" s="33"/>
-      <c r="CE23" s="125"/>
-      <c r="CF23" s="125"/>
+      <c r="BR23" s="136"/>
+      <c r="BS23" s="136"/>
+      <c r="BT23" s="136"/>
+      <c r="BU23" s="136"/>
+      <c r="BV23" s="136"/>
+      <c r="BW23" s="136"/>
+      <c r="BX23" s="136"/>
+      <c r="BY23" s="136"/>
+      <c r="BZ23" s="136"/>
+      <c r="CA23" s="136"/>
+      <c r="CB23" s="136"/>
+      <c r="CC23" s="136"/>
+      <c r="CD23" s="137"/>
+      <c r="CE23" s="213"/>
+      <c r="CF23" s="213"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="155"/>
-      <c r="CW23" s="155"/>
-      <c r="CX23" s="155"/>
+      <c r="CV23" s="30"/>
+      <c r="CW23" s="30"/>
+      <c r="CX23" s="30"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="176"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="192"/>
-      <c r="X24" s="132" t="s">
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="231"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="133"/>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="133"/>
-      <c r="AG24" s="134"/>
-      <c r="AH24" s="224" t="s">
+      <c r="Y24" s="227"/>
+      <c r="Z24" s="227"/>
+      <c r="AA24" s="227"/>
+      <c r="AB24" s="227"/>
+      <c r="AC24" s="227"/>
+      <c r="AD24" s="227"/>
+      <c r="AE24" s="227"/>
+      <c r="AF24" s="227"/>
+      <c r="AG24" s="228"/>
+      <c r="AH24" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="224"/>
-      <c r="AJ24" s="224"/>
-      <c r="AK24" s="224"/>
-      <c r="AL24" s="225"/>
-      <c r="AM24" s="225"/>
-      <c r="AN24" s="225"/>
-      <c r="AO24" s="225"/>
-      <c r="AP24" s="225"/>
-      <c r="AQ24" s="225"/>
-      <c r="AR24" s="225"/>
-      <c r="AS24" s="225"/>
-      <c r="AT24" s="225"/>
-      <c r="AU24" s="225"/>
-      <c r="AV24" s="225"/>
-      <c r="AW24" s="225"/>
-      <c r="AX24" s="225"/>
-      <c r="AY24" s="225"/>
-      <c r="AZ24" s="225"/>
-      <c r="BA24" s="225"/>
-      <c r="BB24" s="225"/>
-      <c r="BC24" s="225"/>
-      <c r="BD24" s="225"/>
-      <c r="BE24" s="225"/>
-      <c r="BF24" s="225"/>
-      <c r="BG24" s="225"/>
-      <c r="BH24" s="225"/>
-      <c r="BI24" s="225"/>
-      <c r="BJ24" s="225"/>
-      <c r="BK24" s="225"/>
-      <c r="BL24" s="225"/>
-      <c r="BM24" s="225"/>
-      <c r="BN24" s="225"/>
-      <c r="BO24" s="225"/>
-      <c r="BP24" s="226"/>
-      <c r="BQ24" s="230" t="s">
+      <c r="AI24" s="168"/>
+      <c r="AJ24" s="168"/>
+      <c r="AK24" s="168"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
+      <c r="AS24" s="46"/>
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="46"/>
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46"/>
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="46"/>
+      <c r="AZ24" s="46"/>
+      <c r="BA24" s="46"/>
+      <c r="BB24" s="46"/>
+      <c r="BC24" s="46"/>
+      <c r="BD24" s="46"/>
+      <c r="BE24" s="46"/>
+      <c r="BF24" s="46"/>
+      <c r="BG24" s="46"/>
+      <c r="BH24" s="46"/>
+      <c r="BI24" s="46"/>
+      <c r="BJ24" s="46"/>
+      <c r="BK24" s="46"/>
+      <c r="BL24" s="46"/>
+      <c r="BM24" s="46"/>
+      <c r="BN24" s="46"/>
+      <c r="BO24" s="46"/>
+      <c r="BP24" s="47"/>
+      <c r="BQ24" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="BR24" s="231"/>
-      <c r="BS24" s="128"/>
+      <c r="BR24" s="173"/>
+      <c r="BS24" s="133"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="126"/>
-      <c r="BV24" s="38"/>
-      <c r="BW24" s="128"/>
+      <c r="BU24" s="56"/>
+      <c r="BV24" s="217"/>
+      <c r="BW24" s="133"/>
       <c r="BX24" s="41"/>
-      <c r="BY24" s="126"/>
-      <c r="BZ24" s="38"/>
-      <c r="CA24" s="128"/>
+      <c r="BY24" s="56"/>
+      <c r="BZ24" s="217"/>
+      <c r="CA24" s="133"/>
       <c r="CB24" s="41"/>
-      <c r="CC24" s="126"/>
-      <c r="CD24" s="38"/>
-      <c r="CE24" s="125"/>
-      <c r="CF24" s="125"/>
+      <c r="CC24" s="56"/>
+      <c r="CD24" s="217"/>
+      <c r="CE24" s="213"/>
+      <c r="CF24" s="213"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="177"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="177"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="177"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="176"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="176"/>
-      <c r="AB25" s="126"/>
-      <c r="AC25" s="176"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="176"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="192"/>
-      <c r="AH25" s="214"/>
-      <c r="AI25" s="144"/>
-      <c r="AJ25" s="144"/>
-      <c r="AK25" s="144"/>
-      <c r="AL25" s="144"/>
-      <c r="AM25" s="144"/>
-      <c r="AN25" s="144"/>
-      <c r="AO25" s="144"/>
-      <c r="AP25" s="144"/>
-      <c r="AQ25" s="144"/>
-      <c r="AR25" s="144"/>
-      <c r="AS25" s="144"/>
-      <c r="AT25" s="144"/>
-      <c r="AU25" s="144"/>
-      <c r="AV25" s="144"/>
-      <c r="AW25" s="144"/>
-      <c r="AX25" s="144"/>
-      <c r="AY25" s="144"/>
-      <c r="AZ25" s="144"/>
-      <c r="BA25" s="144"/>
-      <c r="BB25" s="144"/>
-      <c r="BC25" s="144"/>
-      <c r="BD25" s="144"/>
-      <c r="BE25" s="144"/>
-      <c r="BF25" s="144"/>
-      <c r="BG25" s="144"/>
-      <c r="BH25" s="144"/>
-      <c r="BI25" s="144"/>
-      <c r="BJ25" s="144"/>
-      <c r="BK25" s="144"/>
-      <c r="BL25" s="144"/>
-      <c r="BM25" s="144"/>
-      <c r="BN25" s="144"/>
-      <c r="BO25" s="144"/>
-      <c r="BP25" s="146"/>
-      <c r="BQ25" s="232"/>
-      <c r="BR25" s="233"/>
-      <c r="BS25" s="129"/>
-      <c r="BT25" s="121"/>
-      <c r="BU25" s="120"/>
-      <c r="BV25" s="127"/>
-      <c r="BW25" s="129"/>
-      <c r="BX25" s="121"/>
-      <c r="BY25" s="120"/>
-      <c r="BZ25" s="127"/>
-      <c r="CA25" s="129"/>
-      <c r="CB25" s="121"/>
-      <c r="CC25" s="120"/>
-      <c r="CD25" s="127"/>
-      <c r="CE25" s="125"/>
-      <c r="CF25" s="125"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="139"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="133"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="156"/>
+      <c r="AI25" s="157"/>
+      <c r="AJ25" s="157"/>
+      <c r="AK25" s="157"/>
+      <c r="AL25" s="157"/>
+      <c r="AM25" s="157"/>
+      <c r="AN25" s="157"/>
+      <c r="AO25" s="157"/>
+      <c r="AP25" s="157"/>
+      <c r="AQ25" s="157"/>
+      <c r="AR25" s="157"/>
+      <c r="AS25" s="157"/>
+      <c r="AT25" s="157"/>
+      <c r="AU25" s="157"/>
+      <c r="AV25" s="157"/>
+      <c r="AW25" s="157"/>
+      <c r="AX25" s="157"/>
+      <c r="AY25" s="157"/>
+      <c r="AZ25" s="157"/>
+      <c r="BA25" s="157"/>
+      <c r="BB25" s="157"/>
+      <c r="BC25" s="157"/>
+      <c r="BD25" s="157"/>
+      <c r="BE25" s="157"/>
+      <c r="BF25" s="157"/>
+      <c r="BG25" s="157"/>
+      <c r="BH25" s="157"/>
+      <c r="BI25" s="157"/>
+      <c r="BJ25" s="157"/>
+      <c r="BK25" s="157"/>
+      <c r="BL25" s="157"/>
+      <c r="BM25" s="157"/>
+      <c r="BN25" s="157"/>
+      <c r="BO25" s="157"/>
+      <c r="BP25" s="158"/>
+      <c r="BQ25" s="174"/>
+      <c r="BR25" s="175"/>
+      <c r="BS25" s="219"/>
+      <c r="BT25" s="43"/>
+      <c r="BU25" s="42"/>
+      <c r="BV25" s="218"/>
+      <c r="BW25" s="219"/>
+      <c r="BX25" s="43"/>
+      <c r="BY25" s="42"/>
+      <c r="BZ25" s="218"/>
+      <c r="CA25" s="219"/>
+      <c r="CB25" s="43"/>
+      <c r="CC25" s="42"/>
+      <c r="CD25" s="218"/>
+      <c r="CE25" s="213"/>
+      <c r="CF25" s="213"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="207"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="179"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="179"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="179"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="194"/>
-      <c r="X26" s="207"/>
-      <c r="Y26" s="179"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="179"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="179"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="179"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="194"/>
-      <c r="AH26" s="215"/>
-      <c r="AI26" s="216"/>
-      <c r="AJ26" s="216"/>
-      <c r="AK26" s="216"/>
-      <c r="AL26" s="216"/>
-      <c r="AM26" s="216"/>
-      <c r="AN26" s="216"/>
-      <c r="AO26" s="216"/>
-      <c r="AP26" s="216"/>
-      <c r="AQ26" s="216"/>
-      <c r="AR26" s="216"/>
-      <c r="AS26" s="216"/>
-      <c r="AT26" s="216"/>
-      <c r="AU26" s="216"/>
-      <c r="AV26" s="216"/>
-      <c r="AW26" s="216"/>
-      <c r="AX26" s="216"/>
-      <c r="AY26" s="216"/>
-      <c r="AZ26" s="216"/>
-      <c r="BA26" s="216"/>
-      <c r="BB26" s="216"/>
-      <c r="BC26" s="216"/>
-      <c r="BD26" s="216"/>
-      <c r="BE26" s="216"/>
-      <c r="BF26" s="216"/>
-      <c r="BG26" s="216"/>
-      <c r="BH26" s="216"/>
-      <c r="BI26" s="216"/>
-      <c r="BJ26" s="216"/>
-      <c r="BK26" s="216"/>
-      <c r="BL26" s="216"/>
-      <c r="BM26" s="216"/>
-      <c r="BN26" s="216"/>
-      <c r="BO26" s="216"/>
-      <c r="BP26" s="217"/>
-      <c r="BQ26" s="232"/>
-      <c r="BR26" s="233"/>
-      <c r="BS26" s="129"/>
-      <c r="BT26" s="121"/>
-      <c r="BU26" s="120"/>
-      <c r="BV26" s="127"/>
-      <c r="BW26" s="129"/>
-      <c r="BX26" s="121"/>
-      <c r="BY26" s="120"/>
-      <c r="BZ26" s="127"/>
-      <c r="CA26" s="129"/>
-      <c r="CB26" s="121"/>
-      <c r="CC26" s="120"/>
-      <c r="CD26" s="127"/>
-      <c r="CE26" s="125"/>
-      <c r="CF26" s="125"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="160"/>
+      <c r="AN26" s="160"/>
+      <c r="AO26" s="160"/>
+      <c r="AP26" s="160"/>
+      <c r="AQ26" s="160"/>
+      <c r="AR26" s="160"/>
+      <c r="AS26" s="160"/>
+      <c r="AT26" s="160"/>
+      <c r="AU26" s="160"/>
+      <c r="AV26" s="160"/>
+      <c r="AW26" s="160"/>
+      <c r="AX26" s="160"/>
+      <c r="AY26" s="160"/>
+      <c r="AZ26" s="160"/>
+      <c r="BA26" s="160"/>
+      <c r="BB26" s="160"/>
+      <c r="BC26" s="160"/>
+      <c r="BD26" s="160"/>
+      <c r="BE26" s="160"/>
+      <c r="BF26" s="160"/>
+      <c r="BG26" s="160"/>
+      <c r="BH26" s="160"/>
+      <c r="BI26" s="160"/>
+      <c r="BJ26" s="160"/>
+      <c r="BK26" s="160"/>
+      <c r="BL26" s="160"/>
+      <c r="BM26" s="160"/>
+      <c r="BN26" s="160"/>
+      <c r="BO26" s="160"/>
+      <c r="BP26" s="161"/>
+      <c r="BQ26" s="174"/>
+      <c r="BR26" s="175"/>
+      <c r="BS26" s="219"/>
+      <c r="BT26" s="43"/>
+      <c r="BU26" s="42"/>
+      <c r="BV26" s="218"/>
+      <c r="BW26" s="219"/>
+      <c r="BX26" s="43"/>
+      <c r="BY26" s="42"/>
+      <c r="BZ26" s="218"/>
+      <c r="CA26" s="219"/>
+      <c r="CB26" s="43"/>
+      <c r="CC26" s="42"/>
+      <c r="CD26" s="218"/>
+      <c r="CE26" s="213"/>
+      <c r="CF26" s="213"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="195" t="s">
+      <c r="C27" s="210"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="196"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="204" t="s">
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="205"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="210"/>
-      <c r="R27" s="210"/>
-      <c r="S27" s="210"/>
-      <c r="T27" s="210"/>
-      <c r="U27" s="210"/>
-      <c r="V27" s="210"/>
-      <c r="W27" s="210"/>
-      <c r="X27" s="210"/>
-      <c r="Y27" s="210"/>
-      <c r="Z27" s="210"/>
-      <c r="AA27" s="210"/>
-      <c r="AB27" s="210"/>
-      <c r="AC27" s="210"/>
-      <c r="AD27" s="210"/>
-      <c r="AE27" s="210"/>
-      <c r="AF27" s="210"/>
-      <c r="AG27" s="210"/>
-      <c r="AH27" s="210"/>
-      <c r="AI27" s="210"/>
-      <c r="AJ27" s="210"/>
-      <c r="AK27" s="210"/>
-      <c r="AL27" s="210"/>
-      <c r="AM27" s="210"/>
-      <c r="AN27" s="210"/>
-      <c r="AO27" s="210"/>
-      <c r="AP27" s="210"/>
-      <c r="AQ27" s="210"/>
-      <c r="AR27" s="210"/>
-      <c r="AS27" s="210"/>
-      <c r="AT27" s="210"/>
-      <c r="AU27" s="210"/>
-      <c r="AV27" s="210"/>
-      <c r="AW27" s="210"/>
-      <c r="AX27" s="210"/>
-      <c r="AY27" s="210"/>
-      <c r="AZ27" s="210"/>
-      <c r="BA27" s="210"/>
-      <c r="BB27" s="210"/>
-      <c r="BC27" s="210"/>
-      <c r="BD27" s="210"/>
-      <c r="BE27" s="210"/>
-      <c r="BF27" s="210"/>
-      <c r="BG27" s="210"/>
-      <c r="BH27" s="210"/>
-      <c r="BI27" s="211"/>
-      <c r="BJ27" s="218" t="s">
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="151"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="151"/>
+      <c r="AE27" s="151"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="151"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="151"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
+      <c r="AQ27" s="151"/>
+      <c r="AR27" s="151"/>
+      <c r="AS27" s="151"/>
+      <c r="AT27" s="151"/>
+      <c r="AU27" s="151"/>
+      <c r="AV27" s="151"/>
+      <c r="AW27" s="151"/>
+      <c r="AX27" s="151"/>
+      <c r="AY27" s="151"/>
+      <c r="AZ27" s="151"/>
+      <c r="BA27" s="151"/>
+      <c r="BB27" s="151"/>
+      <c r="BC27" s="151"/>
+      <c r="BD27" s="151"/>
+      <c r="BE27" s="151"/>
+      <c r="BF27" s="151"/>
+      <c r="BG27" s="151"/>
+      <c r="BH27" s="151"/>
+      <c r="BI27" s="152"/>
+      <c r="BJ27" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="BK27" s="219"/>
-      <c r="BL27" s="220"/>
-      <c r="BM27" s="227" t="s">
+      <c r="BK27" s="163"/>
+      <c r="BL27" s="164"/>
+      <c r="BM27" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="BN27" s="228"/>
-      <c r="BO27" s="228"/>
-      <c r="BP27" s="228"/>
-      <c r="BQ27" s="228"/>
-      <c r="BR27" s="228"/>
-      <c r="BS27" s="228"/>
-      <c r="BT27" s="228"/>
-      <c r="BU27" s="228"/>
-      <c r="BV27" s="228"/>
-      <c r="BW27" s="228"/>
-      <c r="BX27" s="228"/>
-      <c r="BY27" s="228"/>
-      <c r="BZ27" s="228"/>
-      <c r="CA27" s="228"/>
-      <c r="CB27" s="228"/>
-      <c r="CC27" s="228"/>
-      <c r="CD27" s="228"/>
-      <c r="CE27" s="228"/>
-      <c r="CF27" s="229"/>
+      <c r="BN27" s="170"/>
+      <c r="BO27" s="170"/>
+      <c r="BP27" s="170"/>
+      <c r="BQ27" s="170"/>
+      <c r="BR27" s="170"/>
+      <c r="BS27" s="170"/>
+      <c r="BT27" s="170"/>
+      <c r="BU27" s="170"/>
+      <c r="BV27" s="170"/>
+      <c r="BW27" s="170"/>
+      <c r="BX27" s="170"/>
+      <c r="BY27" s="170"/>
+      <c r="BZ27" s="170"/>
+      <c r="CA27" s="170"/>
+      <c r="CB27" s="170"/>
+      <c r="CC27" s="170"/>
+      <c r="CD27" s="170"/>
+      <c r="CE27" s="170"/>
+      <c r="CF27" s="171"/>
     </row>
     <row r="28" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="201" t="s">
+      <c r="C28" s="210"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="203"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="145"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="145"/>
-      <c r="AM28" s="145"/>
-      <c r="AN28" s="145"/>
-      <c r="AO28" s="145"/>
-      <c r="AP28" s="145"/>
-      <c r="AQ28" s="145"/>
-      <c r="AR28" s="145"/>
-      <c r="AS28" s="145"/>
-      <c r="AT28" s="145"/>
-      <c r="AU28" s="145"/>
-      <c r="AV28" s="145"/>
-      <c r="AW28" s="145"/>
-      <c r="AX28" s="145"/>
-      <c r="AY28" s="145"/>
-      <c r="AZ28" s="145"/>
-      <c r="BA28" s="145"/>
-      <c r="BB28" s="145"/>
-      <c r="BC28" s="145"/>
-      <c r="BD28" s="145"/>
-      <c r="BE28" s="145"/>
-      <c r="BF28" s="145"/>
-      <c r="BG28" s="145"/>
-      <c r="BH28" s="145"/>
-      <c r="BI28" s="213"/>
-      <c r="BJ28" s="221"/>
-      <c r="BK28" s="222"/>
-      <c r="BL28" s="223"/>
-      <c r="BM28" s="141" t="s">
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="154"/>
+      <c r="AF28" s="154"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="154"/>
+      <c r="AJ28" s="154"/>
+      <c r="AK28" s="154"/>
+      <c r="AL28" s="154"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
+      <c r="AQ28" s="154"/>
+      <c r="AR28" s="154"/>
+      <c r="AS28" s="154"/>
+      <c r="AT28" s="154"/>
+      <c r="AU28" s="154"/>
+      <c r="AV28" s="154"/>
+      <c r="AW28" s="154"/>
+      <c r="AX28" s="154"/>
+      <c r="AY28" s="154"/>
+      <c r="AZ28" s="154"/>
+      <c r="BA28" s="154"/>
+      <c r="BB28" s="154"/>
+      <c r="BC28" s="154"/>
+      <c r="BD28" s="154"/>
+      <c r="BE28" s="154"/>
+      <c r="BF28" s="154"/>
+      <c r="BG28" s="154"/>
+      <c r="BH28" s="154"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="165"/>
+      <c r="BK28" s="166"/>
+      <c r="BL28" s="167"/>
+      <c r="BM28" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="BN28" s="142"/>
-      <c r="BO28" s="142"/>
-      <c r="BP28" s="142"/>
-      <c r="BQ28" s="142"/>
-      <c r="BR28" s="142"/>
-      <c r="BS28" s="142"/>
-      <c r="BT28" s="142"/>
-      <c r="BU28" s="142"/>
-      <c r="BV28" s="142"/>
-      <c r="BW28" s="142"/>
-      <c r="BX28" s="142"/>
-      <c r="BY28" s="142"/>
-      <c r="BZ28" s="142"/>
-      <c r="CA28" s="142"/>
-      <c r="CB28" s="142"/>
-      <c r="CC28" s="142"/>
-      <c r="CD28" s="142"/>
-      <c r="CE28" s="142"/>
-      <c r="CF28" s="143"/>
+      <c r="BN28" s="234"/>
+      <c r="BO28" s="234"/>
+      <c r="BP28" s="234"/>
+      <c r="BQ28" s="234"/>
+      <c r="BR28" s="234"/>
+      <c r="BS28" s="234"/>
+      <c r="BT28" s="234"/>
+      <c r="BU28" s="234"/>
+      <c r="BV28" s="234"/>
+      <c r="BW28" s="234"/>
+      <c r="BX28" s="234"/>
+      <c r="BY28" s="234"/>
+      <c r="BZ28" s="234"/>
+      <c r="CA28" s="234"/>
+      <c r="CB28" s="234"/>
+      <c r="CC28" s="234"/>
+      <c r="CD28" s="234"/>
+      <c r="CE28" s="234"/>
+      <c r="CF28" s="235"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="21"/>
@@ -11092,247 +11088,247 @@
       <c r="CF30" s="6"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="242" t="s">
+      <c r="C31" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="243"/>
-      <c r="I31" s="243"/>
-      <c r="J31" s="243"/>
-      <c r="K31" s="243"/>
-      <c r="L31" s="243"/>
-      <c r="M31" s="243"/>
-      <c r="N31" s="243"/>
-      <c r="O31" s="243"/>
-      <c r="P31" s="243"/>
-      <c r="Q31" s="243"/>
-      <c r="R31" s="243"/>
-      <c r="S31" s="243"/>
-      <c r="T31" s="243"/>
-      <c r="U31" s="243"/>
-      <c r="V31" s="243"/>
-      <c r="W31" s="243"/>
-      <c r="X31" s="243"/>
-      <c r="Y31" s="243"/>
-      <c r="Z31" s="243"/>
-      <c r="AA31" s="243"/>
-      <c r="AB31" s="244"/>
-      <c r="AD31" s="246" t="s">
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="105"/>
+      <c r="AD31" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AE31" s="247"/>
-      <c r="AF31" s="247"/>
-      <c r="AG31" s="247"/>
-      <c r="AH31" s="247"/>
-      <c r="AI31" s="247"/>
-      <c r="AJ31" s="247"/>
-      <c r="AK31" s="247"/>
-      <c r="AL31" s="247"/>
-      <c r="AM31" s="247"/>
-      <c r="AN31" s="247"/>
-      <c r="AO31" s="247"/>
-      <c r="AP31" s="247"/>
-      <c r="AQ31" s="247"/>
-      <c r="AR31" s="247"/>
-      <c r="AS31" s="247"/>
-      <c r="AT31" s="247"/>
-      <c r="AU31" s="247"/>
-      <c r="AV31" s="247"/>
-      <c r="AW31" s="247"/>
-      <c r="AX31" s="247"/>
-      <c r="AY31" s="247"/>
-      <c r="AZ31" s="247"/>
-      <c r="BA31" s="247"/>
-      <c r="BB31" s="247"/>
-      <c r="BC31" s="248"/>
-      <c r="BE31" s="240" t="s">
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="108"/>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="108"/>
+      <c r="AJ31" s="108"/>
+      <c r="AK31" s="108"/>
+      <c r="AL31" s="108"/>
+      <c r="AM31" s="108"/>
+      <c r="AN31" s="108"/>
+      <c r="AO31" s="108"/>
+      <c r="AP31" s="108"/>
+      <c r="AQ31" s="108"/>
+      <c r="AR31" s="108"/>
+      <c r="AS31" s="108"/>
+      <c r="AT31" s="108"/>
+      <c r="AU31" s="108"/>
+      <c r="AV31" s="108"/>
+      <c r="AW31" s="108"/>
+      <c r="AX31" s="108"/>
+      <c r="AY31" s="108"/>
+      <c r="AZ31" s="108"/>
+      <c r="BA31" s="108"/>
+      <c r="BB31" s="108"/>
+      <c r="BC31" s="109"/>
+      <c r="BE31" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="BF31" s="241"/>
-      <c r="BG31" s="241"/>
-      <c r="BH31" s="241"/>
-      <c r="BI31" s="241"/>
-      <c r="BJ31" s="241"/>
-      <c r="BK31" s="241"/>
-      <c r="BL31" s="241"/>
-      <c r="BM31" s="241"/>
-      <c r="BN31" s="241"/>
-      <c r="BO31" s="241"/>
-      <c r="BP31" s="241"/>
-      <c r="BQ31" s="241"/>
-      <c r="BR31" s="241"/>
-      <c r="BS31" s="241"/>
-      <c r="BT31" s="241"/>
-      <c r="BU31" s="241"/>
-      <c r="BV31" s="241"/>
-      <c r="BW31" s="241"/>
-      <c r="BX31" s="241"/>
-      <c r="BY31" s="241"/>
-      <c r="BZ31" s="241"/>
-      <c r="CA31" s="241"/>
-      <c r="CB31" s="241"/>
-      <c r="CC31" s="241"/>
-      <c r="CD31" s="241"/>
-      <c r="CE31" s="241"/>
-      <c r="CF31" s="241"/>
+      <c r="BF31" s="102"/>
+      <c r="BG31" s="102"/>
+      <c r="BH31" s="102"/>
+      <c r="BI31" s="102"/>
+      <c r="BJ31" s="102"/>
+      <c r="BK31" s="102"/>
+      <c r="BL31" s="102"/>
+      <c r="BM31" s="102"/>
+      <c r="BN31" s="102"/>
+      <c r="BO31" s="102"/>
+      <c r="BP31" s="102"/>
+      <c r="BQ31" s="102"/>
+      <c r="BR31" s="102"/>
+      <c r="BS31" s="102"/>
+      <c r="BT31" s="102"/>
+      <c r="BU31" s="102"/>
+      <c r="BV31" s="102"/>
+      <c r="BW31" s="102"/>
+      <c r="BX31" s="102"/>
+      <c r="BY31" s="102"/>
+      <c r="BZ31" s="102"/>
+      <c r="CA31" s="102"/>
+      <c r="CB31" s="102"/>
+      <c r="CC31" s="102"/>
+      <c r="CD31" s="102"/>
+      <c r="CE31" s="102"/>
+      <c r="CF31" s="102"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="22"/>
       <c r="D32" s="12"/>
-      <c r="L32" s="262" t="s">
+      <c r="L32" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="262"/>
-      <c r="N32" s="262"/>
-      <c r="O32" s="262"/>
-      <c r="P32" s="262"/>
-      <c r="Q32" s="262"/>
-      <c r="R32" s="262"/>
-      <c r="S32" s="262"/>
-      <c r="T32" s="262"/>
-      <c r="U32" s="262"/>
-      <c r="V32" s="262"/>
-      <c r="W32" s="262"/>
-      <c r="X32" s="262"/>
-      <c r="Y32" s="262"/>
-      <c r="Z32" s="262"/>
-      <c r="AA32" s="262"/>
-      <c r="AB32" s="263"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="125"/>
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="125"/>
+      <c r="AB32" s="126"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="245" t="s">
+      <c r="AR32" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="AS32" s="245"/>
-      <c r="AT32" s="245"/>
-      <c r="AU32" s="245"/>
-      <c r="AV32" s="245"/>
-      <c r="AW32" s="245"/>
-      <c r="AX32" s="245"/>
-      <c r="AY32" s="245"/>
-      <c r="AZ32" s="245"/>
-      <c r="BA32" s="245"/>
-      <c r="BB32" s="245"/>
-      <c r="BC32" s="258"/>
-      <c r="BE32" s="237" t="s">
+      <c r="AS32" s="106"/>
+      <c r="AT32" s="106"/>
+      <c r="AU32" s="106"/>
+      <c r="AV32" s="106"/>
+      <c r="AW32" s="106"/>
+      <c r="AX32" s="106"/>
+      <c r="AY32" s="106"/>
+      <c r="AZ32" s="106"/>
+      <c r="BA32" s="106"/>
+      <c r="BB32" s="106"/>
+      <c r="BC32" s="121"/>
+      <c r="BE32" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="BF32" s="238"/>
-      <c r="BG32" s="238"/>
-      <c r="BH32" s="238"/>
-      <c r="BI32" s="238"/>
-      <c r="BJ32" s="238"/>
-      <c r="BK32" s="238"/>
-      <c r="BL32" s="238"/>
-      <c r="BM32" s="238"/>
-      <c r="BN32" s="238"/>
-      <c r="BO32" s="238"/>
-      <c r="BP32" s="238"/>
-      <c r="BQ32" s="238"/>
-      <c r="BR32" s="238"/>
-      <c r="BS32" s="238"/>
-      <c r="BT32" s="238"/>
-      <c r="BU32" s="238"/>
-      <c r="BV32" s="238"/>
-      <c r="BW32" s="238"/>
-      <c r="BX32" s="238"/>
-      <c r="BY32" s="238"/>
-      <c r="BZ32" s="238"/>
-      <c r="CA32" s="238"/>
-      <c r="CB32" s="238"/>
-      <c r="CC32" s="238"/>
-      <c r="CD32" s="238"/>
-      <c r="CE32" s="238"/>
-      <c r="CF32" s="239"/>
+      <c r="BF32" s="99"/>
+      <c r="BG32" s="99"/>
+      <c r="BH32" s="99"/>
+      <c r="BI32" s="99"/>
+      <c r="BJ32" s="99"/>
+      <c r="BK32" s="99"/>
+      <c r="BL32" s="99"/>
+      <c r="BM32" s="99"/>
+      <c r="BN32" s="99"/>
+      <c r="BO32" s="99"/>
+      <c r="BP32" s="99"/>
+      <c r="BQ32" s="99"/>
+      <c r="BR32" s="99"/>
+      <c r="BS32" s="99"/>
+      <c r="BT32" s="99"/>
+      <c r="BU32" s="99"/>
+      <c r="BV32" s="99"/>
+      <c r="BW32" s="99"/>
+      <c r="BX32" s="99"/>
+      <c r="BY32" s="99"/>
+      <c r="BZ32" s="99"/>
+      <c r="CA32" s="99"/>
+      <c r="CB32" s="99"/>
+      <c r="CC32" s="99"/>
+      <c r="CD32" s="99"/>
+      <c r="CE32" s="99"/>
+      <c r="CF32" s="100"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="137"/>
-      <c r="D33" s="249"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="259"/>
-      <c r="M33" s="259"/>
-      <c r="N33" s="259"/>
-      <c r="O33" s="259"/>
-      <c r="P33" s="259"/>
-      <c r="Q33" s="259"/>
-      <c r="R33" s="259"/>
-      <c r="S33" s="259"/>
-      <c r="T33" s="259"/>
-      <c r="U33" s="259"/>
-      <c r="V33" s="259"/>
-      <c r="W33" s="259"/>
-      <c r="X33" s="259"/>
-      <c r="Y33" s="259"/>
-      <c r="Z33" s="259"/>
-      <c r="AA33" s="259"/>
-      <c r="AB33" s="260"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="249"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="123"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="111"/>
       <c r="AF33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AJ33" s="251"/>
-      <c r="AK33" s="251"/>
-      <c r="AL33" s="251"/>
-      <c r="AM33" s="251"/>
-      <c r="AN33" s="251"/>
-      <c r="AO33" s="251"/>
-      <c r="AP33" s="251"/>
-      <c r="AQ33" s="251"/>
-      <c r="AR33" s="251"/>
-      <c r="AS33" s="251"/>
-      <c r="AT33" s="251"/>
-      <c r="AU33" s="251"/>
-      <c r="AV33" s="251"/>
-      <c r="AW33" s="251"/>
-      <c r="AX33" s="251"/>
-      <c r="AY33" s="251"/>
-      <c r="AZ33" s="251"/>
-      <c r="BA33" s="251"/>
-      <c r="BB33" s="251"/>
-      <c r="BC33" s="252"/>
-      <c r="BE33" s="254" t="s">
+      <c r="AJ33" s="114"/>
+      <c r="AK33" s="114"/>
+      <c r="AL33" s="114"/>
+      <c r="AM33" s="114"/>
+      <c r="AN33" s="114"/>
+      <c r="AO33" s="114"/>
+      <c r="AP33" s="114"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
+      <c r="AX33" s="114"/>
+      <c r="AY33" s="114"/>
+      <c r="AZ33" s="114"/>
+      <c r="BA33" s="114"/>
+      <c r="BB33" s="114"/>
+      <c r="BC33" s="115"/>
+      <c r="BE33" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="BF33" s="255"/>
-      <c r="BG33" s="236" t="s">
+      <c r="BF33" s="118"/>
+      <c r="BG33" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="BH33" s="236"/>
-      <c r="BI33" s="236"/>
-      <c r="BJ33" s="236"/>
-      <c r="BK33" s="236"/>
-      <c r="BL33" s="236"/>
-      <c r="BM33" s="236"/>
-      <c r="BN33" s="236"/>
-      <c r="BO33" s="236"/>
-      <c r="BP33" s="236"/>
-      <c r="BQ33" s="236"/>
-      <c r="BT33" s="245" t="s">
+      <c r="BH33" s="97"/>
+      <c r="BI33" s="97"/>
+      <c r="BJ33" s="97"/>
+      <c r="BK33" s="97"/>
+      <c r="BL33" s="97"/>
+      <c r="BM33" s="97"/>
+      <c r="BN33" s="97"/>
+      <c r="BO33" s="97"/>
+      <c r="BP33" s="97"/>
+      <c r="BQ33" s="97"/>
+      <c r="BT33" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BU33" s="245"/>
-      <c r="BV33" s="245"/>
-      <c r="BW33" s="245"/>
-      <c r="BX33" s="245"/>
-      <c r="BY33" s="245"/>
-      <c r="BZ33" s="245"/>
-      <c r="CA33" s="245"/>
-      <c r="CB33" s="245"/>
-      <c r="CC33" s="245"/>
-      <c r="CD33" s="245"/>
-      <c r="CE33" s="245"/>
+      <c r="BU33" s="106"/>
+      <c r="BV33" s="106"/>
+      <c r="BW33" s="106"/>
+      <c r="BX33" s="106"/>
+      <c r="BY33" s="106"/>
+      <c r="BZ33" s="106"/>
+      <c r="CA33" s="106"/>
+      <c r="CB33" s="106"/>
+      <c r="CC33" s="106"/>
+      <c r="CD33" s="106"/>
+      <c r="CE33" s="106"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="137"/>
-      <c r="D34" s="249"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="23" t="s">
         <v>8</v>
       </c>
@@ -11353,139 +11349,139 @@
       <c r="Z34" s="296"/>
       <c r="AA34" s="296"/>
       <c r="AB34" s="297"/>
-      <c r="AD34" s="137"/>
-      <c r="AE34" s="249"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="111"/>
       <c r="AF34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ34" s="251"/>
-      <c r="AK34" s="251"/>
-      <c r="AL34" s="251"/>
-      <c r="AM34" s="251"/>
-      <c r="AN34" s="251"/>
-      <c r="AO34" s="251"/>
-      <c r="AP34" s="251"/>
-      <c r="AQ34" s="251"/>
-      <c r="AR34" s="251"/>
-      <c r="AS34" s="251"/>
-      <c r="AT34" s="251"/>
-      <c r="AU34" s="251"/>
-      <c r="AV34" s="251"/>
-      <c r="AW34" s="251"/>
-      <c r="AX34" s="251"/>
-      <c r="AY34" s="251"/>
-      <c r="AZ34" s="251"/>
-      <c r="BA34" s="251"/>
-      <c r="BB34" s="251"/>
-      <c r="BC34" s="252"/>
-      <c r="BE34" s="254"/>
-      <c r="BF34" s="255"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="114"/>
+      <c r="AM34" s="114"/>
+      <c r="AN34" s="114"/>
+      <c r="AO34" s="114"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
+      <c r="AX34" s="114"/>
+      <c r="AY34" s="114"/>
+      <c r="AZ34" s="114"/>
+      <c r="BA34" s="114"/>
+      <c r="BB34" s="114"/>
+      <c r="BC34" s="115"/>
+      <c r="BE34" s="117"/>
+      <c r="BF34" s="118"/>
       <c r="BG34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BL34" s="153"/>
-      <c r="BM34" s="153"/>
-      <c r="BN34" s="153"/>
-      <c r="BO34" s="153"/>
-      <c r="BP34" s="153"/>
-      <c r="BQ34" s="153"/>
-      <c r="BR34" s="153"/>
-      <c r="BS34" s="153"/>
-      <c r="BT34" s="153"/>
-      <c r="BU34" s="153"/>
-      <c r="BV34" s="153"/>
-      <c r="BW34" s="153"/>
-      <c r="BX34" s="153"/>
-      <c r="BY34" s="153"/>
-      <c r="BZ34" s="153"/>
-      <c r="CA34" s="153"/>
-      <c r="CB34" s="153"/>
-      <c r="CC34" s="153"/>
-      <c r="CD34" s="153"/>
+      <c r="BL34" s="94"/>
+      <c r="BM34" s="94"/>
+      <c r="BN34" s="94"/>
+      <c r="BO34" s="94"/>
+      <c r="BP34" s="94"/>
+      <c r="BQ34" s="94"/>
+      <c r="BR34" s="94"/>
+      <c r="BS34" s="94"/>
+      <c r="BT34" s="94"/>
+      <c r="BU34" s="94"/>
+      <c r="BV34" s="94"/>
+      <c r="BW34" s="94"/>
+      <c r="BX34" s="94"/>
+      <c r="BY34" s="94"/>
+      <c r="BZ34" s="94"/>
+      <c r="CA34" s="94"/>
+      <c r="CB34" s="94"/>
+      <c r="CC34" s="94"/>
+      <c r="CD34" s="94"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="137"/>
-      <c r="D35" s="249"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="261"/>
-      <c r="M35" s="261"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
-      <c r="P35" s="261"/>
-      <c r="Q35" s="261"/>
-      <c r="R35" s="261"/>
-      <c r="S35" s="261"/>
-      <c r="T35" s="261"/>
-      <c r="U35" s="261"/>
-      <c r="V35" s="261"/>
-      <c r="W35" s="261"/>
-      <c r="X35" s="261"/>
-      <c r="Y35" s="261"/>
-      <c r="Z35" s="261"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="124"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="124"/>
+      <c r="S35" s="124"/>
+      <c r="T35" s="124"/>
+      <c r="U35" s="124"/>
+      <c r="V35" s="124"/>
+      <c r="W35" s="124"/>
+      <c r="X35" s="124"/>
+      <c r="Y35" s="124"/>
+      <c r="Z35" s="124"/>
       <c r="AA35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="AB35" s="25"/>
-      <c r="AD35" s="137"/>
-      <c r="AE35" s="249"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="111"/>
       <c r="AF35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AJ35" s="251"/>
-      <c r="AK35" s="251"/>
-      <c r="AL35" s="251"/>
-      <c r="AM35" s="251"/>
-      <c r="AN35" s="251"/>
-      <c r="AO35" s="251"/>
-      <c r="AP35" s="251"/>
-      <c r="AQ35" s="251"/>
-      <c r="AR35" s="251"/>
-      <c r="AS35" s="251"/>
-      <c r="AT35" s="251"/>
-      <c r="AU35" s="251"/>
-      <c r="AV35" s="251"/>
-      <c r="AW35" s="251"/>
-      <c r="AX35" s="251"/>
-      <c r="AY35" s="251"/>
-      <c r="AZ35" s="251"/>
-      <c r="BA35" s="251"/>
+      <c r="AJ35" s="114"/>
+      <c r="AK35" s="114"/>
+      <c r="AL35" s="114"/>
+      <c r="AM35" s="114"/>
+      <c r="AN35" s="114"/>
+      <c r="AO35" s="114"/>
+      <c r="AP35" s="114"/>
+      <c r="AQ35" s="114"/>
+      <c r="AR35" s="114"/>
+      <c r="AS35" s="114"/>
+      <c r="AT35" s="114"/>
+      <c r="AU35" s="114"/>
+      <c r="AV35" s="114"/>
+      <c r="AW35" s="114"/>
+      <c r="AX35" s="114"/>
+      <c r="AY35" s="114"/>
+      <c r="AZ35" s="114"/>
+      <c r="BA35" s="114"/>
       <c r="BB35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="BC35" s="25"/>
-      <c r="BE35" s="254"/>
-      <c r="BF35" s="255"/>
+      <c r="BE35" s="117"/>
+      <c r="BF35" s="118"/>
       <c r="BG35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="BL35" s="153"/>
-      <c r="BM35" s="153"/>
-      <c r="BN35" s="153"/>
-      <c r="BO35" s="153"/>
-      <c r="BP35" s="153"/>
-      <c r="BQ35" s="153"/>
-      <c r="BR35" s="153"/>
-      <c r="BS35" s="153"/>
-      <c r="BT35" s="153"/>
-      <c r="BU35" s="153"/>
-      <c r="BV35" s="153"/>
-      <c r="BW35" s="153"/>
-      <c r="BX35" s="153"/>
-      <c r="BY35" s="153"/>
-      <c r="BZ35" s="153"/>
-      <c r="CA35" s="153"/>
-      <c r="CB35" s="153"/>
+      <c r="BL35" s="94"/>
+      <c r="BM35" s="94"/>
+      <c r="BN35" s="94"/>
+      <c r="BO35" s="94"/>
+      <c r="BP35" s="94"/>
+      <c r="BQ35" s="94"/>
+      <c r="BR35" s="94"/>
+      <c r="BS35" s="94"/>
+      <c r="BT35" s="94"/>
+      <c r="BU35" s="94"/>
+      <c r="BV35" s="94"/>
+      <c r="BW35" s="94"/>
+      <c r="BX35" s="94"/>
+      <c r="BY35" s="94"/>
+      <c r="BZ35" s="94"/>
+      <c r="CA35" s="94"/>
+      <c r="CB35" s="94"/>
       <c r="CC35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="139"/>
-      <c r="D36" s="250"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="26" t="s">
         <v>63</v>
       </c>
@@ -11495,53 +11491,53 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="153"/>
-      <c r="W36" s="153"/>
-      <c r="X36" s="153"/>
-      <c r="Y36" s="153"/>
-      <c r="Z36" s="153"/>
-      <c r="AA36" s="153"/>
-      <c r="AB36" s="253"/>
-      <c r="AD36" s="139"/>
-      <c r="AE36" s="250"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="116"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="113"/>
       <c r="AF36" s="26" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="153"/>
-      <c r="AK36" s="153"/>
-      <c r="AL36" s="153"/>
-      <c r="AM36" s="153"/>
-      <c r="AN36" s="153"/>
-      <c r="AO36" s="153"/>
-      <c r="AP36" s="153"/>
-      <c r="AQ36" s="153"/>
-      <c r="AR36" s="153"/>
-      <c r="AS36" s="153"/>
-      <c r="AT36" s="153"/>
-      <c r="AU36" s="153"/>
-      <c r="AV36" s="153"/>
-      <c r="AW36" s="153"/>
-      <c r="AX36" s="153"/>
-      <c r="AY36" s="153"/>
-      <c r="AZ36" s="153"/>
-      <c r="BA36" s="153"/>
-      <c r="BB36" s="153"/>
-      <c r="BC36" s="253"/>
-      <c r="BE36" s="256"/>
-      <c r="BF36" s="257"/>
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="94"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="94"/>
+      <c r="AP36" s="94"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="94"/>
+      <c r="AS36" s="94"/>
+      <c r="AT36" s="94"/>
+      <c r="AU36" s="94"/>
+      <c r="AV36" s="94"/>
+      <c r="AW36" s="94"/>
+      <c r="AX36" s="94"/>
+      <c r="AY36" s="94"/>
+      <c r="AZ36" s="94"/>
+      <c r="BA36" s="94"/>
+      <c r="BB36" s="94"/>
+      <c r="BC36" s="116"/>
+      <c r="BE36" s="119"/>
+      <c r="BF36" s="120"/>
       <c r="BG36" s="27" t="s">
         <v>0</v>
       </c>
@@ -11549,27 +11545,27 @@
       <c r="BI36" s="6"/>
       <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
-      <c r="BL36" s="234" t="s">
+      <c r="BL36" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BM36" s="235"/>
-      <c r="BN36" s="235"/>
-      <c r="BO36" s="235"/>
-      <c r="BP36" s="235"/>
-      <c r="BQ36" s="235"/>
-      <c r="BR36" s="235"/>
-      <c r="BS36" s="235"/>
-      <c r="BT36" s="235"/>
-      <c r="BU36" s="235"/>
-      <c r="BV36" s="235"/>
-      <c r="BW36" s="235"/>
-      <c r="BX36" s="235"/>
-      <c r="BY36" s="235"/>
-      <c r="BZ36" s="235"/>
-      <c r="CA36" s="235"/>
-      <c r="CB36" s="235"/>
-      <c r="CC36" s="235"/>
-      <c r="CD36" s="235"/>
+      <c r="BM36" s="96"/>
+      <c r="BN36" s="96"/>
+      <c r="BO36" s="96"/>
+      <c r="BP36" s="96"/>
+      <c r="BQ36" s="96"/>
+      <c r="BR36" s="96"/>
+      <c r="BS36" s="96"/>
+      <c r="BT36" s="96"/>
+      <c r="BU36" s="96"/>
+      <c r="BV36" s="96"/>
+      <c r="BW36" s="96"/>
+      <c r="BX36" s="96"/>
+      <c r="BY36" s="96"/>
+      <c r="BZ36" s="96"/>
+      <c r="CA36" s="96"/>
+      <c r="CB36" s="96"/>
+      <c r="CC36" s="96"/>
+      <c r="CD36" s="96"/>
       <c r="CE36" s="6"/>
       <c r="CF36" s="6"/>
       <c r="CG36" s="4"/>
@@ -11698,6 +11694,155 @@
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AW8:BC8"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="BS16:CD21"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="E6:F15"/>
+    <mergeCell ref="BX7:BY8"/>
+    <mergeCell ref="BP7:BQ8"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="BE8:BK8"/>
+    <mergeCell ref="AJ14:BO15"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AE21:AH22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="AU20:AV22"/>
+    <mergeCell ref="AW21:AY22"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="AV6:BK6"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="BM28:CF28"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AF14:AI15"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC14:AE15"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="AH25:BP26"/>
+    <mergeCell ref="BJ27:BL28"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="BM27:CF27"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="L32:AB32"/>
     <mergeCell ref="CV21:CX23"/>
     <mergeCell ref="G20:AD20"/>
     <mergeCell ref="AE20:AT20"/>
@@ -11722,159 +11867,10 @@
     <mergeCell ref="J12:O13"/>
     <mergeCell ref="P12:CD13"/>
     <mergeCell ref="O21:P22"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="P27:BI28"/>
-    <mergeCell ref="AH25:BP26"/>
-    <mergeCell ref="BJ27:BL28"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="BM27:CF27"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="BM28:CF28"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="BS16:CD21"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="E6:F15"/>
-    <mergeCell ref="BX7:BY8"/>
-    <mergeCell ref="BP7:BQ8"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="BE8:BK8"/>
-    <mergeCell ref="AJ14:BO15"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AE21:AH22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="AU20:AV22"/>
-    <mergeCell ref="AW21:AY22"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="BD7:BK7"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="AV6:BK6"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AG10:CD11"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AW8:BC8"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -1868,20 +1868,704 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1892,36 +2576,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1946,36 +2600,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2030,18 +2654,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2051,625 +2663,13 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2749,7 +2749,7 @@
         <xdr:cNvPr id="2" name="AutoShape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2819,7 @@
         <xdr:cNvPr id="3" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2889,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2944,7 @@
         <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2955,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="576629" y="205154"/>
-          <a:ext cx="2180492" cy="922257"/>
+          <a:ext cx="2161442" cy="922257"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="227" cy="85"/>
         </a:xfrm>
@@ -2965,7 +2965,7 @@
           <xdr:cNvPr id="7" name="AutoShape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3011,7 +3011,7 @@
           <xdr:cNvPr id="8" name="Rectangle 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3052,7 +3052,7 @@
           <xdr:cNvPr id="9" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3093,7 +3093,7 @@
           <xdr:cNvPr id="10" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
           <xdr:cNvPr id="11" name="Rectangle 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3227,7 +3227,7 @@
           <xdr:cNvPr id="12" name="Rectangle 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3294,7 +3294,7 @@
           <xdr:cNvPr id="13" name="Rectangle 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3368,7 +3368,7 @@
           <xdr:cNvPr id="14" name="Rectangle 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3435,7 +3435,7 @@
           <xdr:cNvPr id="15" name="Rectangle 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3502,7 +3502,7 @@
           <xdr:cNvPr id="16" name="Rectangle 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3569,7 +3569,7 @@
           <xdr:cNvPr id="17" name="Rectangle 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3636,7 +3636,7 @@
           <xdr:cNvPr id="18" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3703,7 +3703,7 @@
           <xdr:cNvPr id="19" name="Rectangle 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3770,7 +3770,7 @@
           <xdr:cNvPr id="20" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3837,7 +3837,7 @@
           <xdr:cNvPr id="21" name="Rectangle 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3878,7 +3878,7 @@
           <xdr:cNvPr id="22" name="Line 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3918,7 +3918,7 @@
           <xdr:cNvPr id="23" name="Rectangle 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3959,7 +3959,7 @@
           <xdr:cNvPr id="24" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4000,7 +4000,7 @@
           <xdr:cNvPr id="25" name="Rectangle 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4041,7 +4041,7 @@
           <xdr:cNvPr id="26" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4082,7 +4082,7 @@
           <xdr:cNvPr id="27" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4123,7 +4123,7 @@
           <xdr:cNvPr id="28" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4164,7 +4164,7 @@
           <xdr:cNvPr id="29" name="Rectangle 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4205,7 +4205,7 @@
           <xdr:cNvPr id="30" name="Line 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4245,7 +4245,7 @@
           <xdr:cNvPr id="31" name="Rectangle 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4286,7 +4286,7 @@
           <xdr:cNvPr id="32" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4327,7 +4327,7 @@
           <xdr:cNvPr id="33" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4367,7 +4367,7 @@
           <xdr:cNvPr id="34" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4408,7 +4408,7 @@
           <xdr:cNvPr id="35" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4448,7 +4448,7 @@
           <xdr:cNvPr id="36" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4489,7 +4489,7 @@
           <xdr:cNvPr id="37" name="Rectangle 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4530,7 +4530,7 @@
           <xdr:cNvPr id="38" name="Line 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4570,7 +4570,7 @@
           <xdr:cNvPr id="39" name="Rectangle 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4611,7 +4611,7 @@
           <xdr:cNvPr id="40" name="Line 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4651,7 +4651,7 @@
           <xdr:cNvPr id="41" name="Rectangle 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4692,7 +4692,7 @@
           <xdr:cNvPr id="42" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4733,7 +4733,7 @@
           <xdr:cNvPr id="43" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4774,7 +4774,7 @@
           <xdr:cNvPr id="44" name="Line 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4814,7 +4814,7 @@
           <xdr:cNvPr id="45" name="Rectangle 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4855,7 +4855,7 @@
           <xdr:cNvPr id="46" name="Line 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4895,7 +4895,7 @@
           <xdr:cNvPr id="47" name="Rectangle 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4936,7 +4936,7 @@
           <xdr:cNvPr id="48" name="Line 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4976,7 +4976,7 @@
           <xdr:cNvPr id="49" name="Rectangle 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5017,7 +5017,7 @@
           <xdr:cNvPr id="50" name="Line 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5057,7 +5057,7 @@
           <xdr:cNvPr id="51" name="Rectangle 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5098,7 +5098,7 @@
           <xdr:cNvPr id="52" name="Line 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5138,7 +5138,7 @@
           <xdr:cNvPr id="53" name="Rectangle 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5179,7 +5179,7 @@
           <xdr:cNvPr id="54" name="Line 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5219,7 +5219,7 @@
           <xdr:cNvPr id="55" name="Rectangle 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5260,7 +5260,7 @@
           <xdr:cNvPr id="56" name="Line 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5300,7 +5300,7 @@
           <xdr:cNvPr id="57" name="Rectangle 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5341,7 +5341,7 @@
           <xdr:cNvPr id="58" name="Line 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5381,7 +5381,7 @@
           <xdr:cNvPr id="59" name="Rectangle 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5422,7 +5422,7 @@
           <xdr:cNvPr id="60" name="Line 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5462,7 +5462,7 @@
           <xdr:cNvPr id="61" name="Rectangle 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5503,7 +5503,7 @@
           <xdr:cNvPr id="62" name="Line 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5543,7 +5543,7 @@
           <xdr:cNvPr id="63" name="Rectangle 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5584,7 +5584,7 @@
           <xdr:cNvPr id="64" name="Line 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5624,7 +5624,7 @@
           <xdr:cNvPr id="65" name="Rectangle 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5665,7 +5665,7 @@
           <xdr:cNvPr id="66" name="Line 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5705,7 +5705,7 @@
           <xdr:cNvPr id="67" name="Rectangle 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5746,7 +5746,7 @@
           <xdr:cNvPr id="68" name="Line 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5786,7 +5786,7 @@
           <xdr:cNvPr id="69" name="Rectangle 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5827,7 +5827,7 @@
           <xdr:cNvPr id="70" name="Line 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5867,7 +5867,7 @@
           <xdr:cNvPr id="71" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5908,7 +5908,7 @@
           <xdr:cNvPr id="72" name="Line 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5948,7 +5948,7 @@
           <xdr:cNvPr id="73" name="Rectangle 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5989,7 +5989,7 @@
           <xdr:cNvPr id="74" name="Line 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6029,7 +6029,7 @@
           <xdr:cNvPr id="75" name="Rectangle 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6070,7 +6070,7 @@
           <xdr:cNvPr id="76" name="図 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6129,7 +6129,7 @@
           <xdr:cNvPr id="77" name="図 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6188,7 +6188,7 @@
           <xdr:cNvPr id="78" name="図 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6247,7 +6247,7 @@
           <xdr:cNvPr id="79" name="図 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6306,7 +6306,7 @@
           <xdr:cNvPr id="80" name="Oval 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6341,7 +6341,7 @@
           <xdr:cNvPr id="81" name="Rectangle 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6436,7 +6436,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6503,7 +6503,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6570,7 +6570,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6637,7 +6637,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6704,7 +6704,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6771,7 +6771,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6838,7 +6838,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6905,7 +6905,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6972,7 +6972,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7039,7 +7039,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7101,7 +7101,7 @@
         <xdr:cNvPr id="84" name="A2_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7167,7 +7167,7 @@
         <xdr:cNvPr id="96" name="A2_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7233,7 +7233,7 @@
         <xdr:cNvPr id="97" name="A2_41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7299,7 +7299,7 @@
         <xdr:cNvPr id="101" name="A1_15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7364,7 +7364,7 @@
         <xdr:cNvPr id="100" name="A1_51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7430,7 +7430,7 @@
         <xdr:cNvPr id="102" name="A1_52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7496,7 +7496,7 @@
         <xdr:cNvPr id="103" name="A1_53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7562,7 +7562,7 @@
         <xdr:cNvPr id="99" name="A4_111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7627,7 +7627,7 @@
         <xdr:cNvPr id="104" name="A4_113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7692,7 +7692,7 @@
         <xdr:cNvPr id="105" name="A4_112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7757,7 +7757,7 @@
         <xdr:cNvPr id="106" name="A4_114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7822,7 +7822,7 @@
         <xdr:cNvPr id="107" name="A4_221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7887,7 +7887,7 @@
         <xdr:cNvPr id="108" name="A4_222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7952,7 +7952,7 @@
         <xdr:cNvPr id="109" name="A4_223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8017,7 +8017,7 @@
         <xdr:cNvPr id="110" name="A4_224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8082,7 +8082,7 @@
         <xdr:cNvPr id="111" name="A4_1111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8147,7 +8147,7 @@
         <xdr:cNvPr id="118" name="A2_19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8229,7 +8229,7 @@
         <xdr:cNvPr id="120" name="Picture 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8273,7 +8273,7 @@
         <xdr:cNvPr id="112" name="TextBox 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8339,7 +8339,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8405,7 +8405,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,7 +8478,7 @@
         <xdr:cNvPr id="121" name="TextBox 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8557,7 +8557,7 @@
         <xdr:cNvPr id="123" name="TextBox 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8636,7 +8636,7 @@
         <xdr:cNvPr id="82" name="TextBox 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8714,7 +8714,7 @@
         <xdr:cNvPr id="115" name="TextBox 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9079,7 +9079,7 @@
   </sheetPr>
   <dimension ref="C1:CX75"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="L35" sqref="L35:Z35"/>
     </sheetView>
   </sheetViews>
@@ -9087,8 +9087,10 @@
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="1.625" style="1"/>
-    <col min="5" max="5" width="1.875" style="1" customWidth="1"/>
-    <col min="6" max="37" width="1.625" style="1"/>
+    <col min="5" max="5" width="1.625" style="1" customWidth="1"/>
+    <col min="6" max="14" width="1.625" style="1"/>
+    <col min="15" max="15" width="1.625" style="1" customWidth="1"/>
+    <col min="16" max="37" width="1.625" style="1"/>
     <col min="38" max="38" width="1.625" style="1" customWidth="1"/>
     <col min="39" max="67" width="1.625" style="1"/>
     <col min="68" max="68" width="1.875" style="1" customWidth="1"/>
@@ -9101,1054 +9103,1054 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="BK2" s="288" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="BK2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="BL2" s="279"/>
-      <c r="BM2" s="279"/>
-      <c r="BN2" s="279"/>
-      <c r="BO2" s="279"/>
-      <c r="BP2" s="291" t="s">
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BO2" s="30"/>
+      <c r="BP2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="BQ2" s="292"/>
-      <c r="BR2" s="292"/>
-      <c r="BS2" s="292"/>
-      <c r="BT2" s="293"/>
-      <c r="BU2" s="279" t="s">
+      <c r="BQ2" s="62"/>
+      <c r="BR2" s="62"/>
+      <c r="BS2" s="62"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="BV2" s="279"/>
-      <c r="BW2" s="279"/>
-      <c r="BX2" s="279"/>
-      <c r="BY2" s="279"/>
-      <c r="BZ2" s="285" t="s">
+      <c r="BV2" s="30"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="286"/>
-      <c r="CB2" s="286"/>
-      <c r="CC2" s="286"/>
-      <c r="CD2" s="287"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="57"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="Y3" s="208" t="s">
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="Y3" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="208"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="208"/>
-      <c r="AG3" s="208"/>
-      <c r="AH3" s="208"/>
-      <c r="AI3" s="208"/>
-      <c r="AJ3" s="208"/>
-      <c r="AK3" s="208"/>
-      <c r="AL3" s="208"/>
-      <c r="AM3" s="208"/>
-      <c r="AN3" s="208"/>
-      <c r="AO3" s="208"/>
-      <c r="AP3" s="208"/>
-      <c r="AQ3" s="208"/>
-      <c r="AR3" s="208"/>
-      <c r="AS3" s="208"/>
-      <c r="AT3" s="208"/>
-      <c r="AU3" s="208"/>
-      <c r="AV3" s="208"/>
-      <c r="AW3" s="208"/>
-      <c r="AX3" s="208"/>
-      <c r="AY3" s="208"/>
-      <c r="AZ3" s="208"/>
-      <c r="BA3" s="208"/>
-      <c r="BB3" s="208"/>
-      <c r="BC3" s="208"/>
-      <c r="BD3" s="208"/>
-      <c r="BE3" s="208"/>
-      <c r="BF3" s="208"/>
-      <c r="BG3" s="208"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="156"/>
+      <c r="AL3" s="156"/>
+      <c r="AM3" s="156"/>
+      <c r="AN3" s="156"/>
+      <c r="AO3" s="156"/>
+      <c r="AP3" s="156"/>
+      <c r="AQ3" s="156"/>
+      <c r="AR3" s="156"/>
+      <c r="AS3" s="156"/>
+      <c r="AT3" s="156"/>
+      <c r="AU3" s="156"/>
+      <c r="AV3" s="156"/>
+      <c r="AW3" s="156"/>
+      <c r="AX3" s="156"/>
+      <c r="AY3" s="156"/>
+      <c r="AZ3" s="156"/>
+      <c r="BA3" s="156"/>
+      <c r="BB3" s="156"/>
+      <c r="BC3" s="156"/>
+      <c r="BD3" s="156"/>
+      <c r="BE3" s="156"/>
+      <c r="BF3" s="156"/>
+      <c r="BG3" s="156"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="137"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="136"/>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="137"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="137"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="137"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="33"/>
+      <c r="BU3" s="31"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="33"/>
+      <c r="BZ3" s="31"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="33"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="209"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="208"/>
-      <c r="AG4" s="208"/>
-      <c r="AH4" s="208"/>
-      <c r="AI4" s="208"/>
-      <c r="AJ4" s="208"/>
-      <c r="AK4" s="208"/>
-      <c r="AL4" s="208"/>
-      <c r="AM4" s="208"/>
-      <c r="AN4" s="208"/>
-      <c r="AO4" s="208"/>
-      <c r="AP4" s="208"/>
-      <c r="AQ4" s="208"/>
-      <c r="AR4" s="208"/>
-      <c r="AS4" s="208"/>
-      <c r="AT4" s="208"/>
-      <c r="AU4" s="208"/>
-      <c r="AV4" s="208"/>
-      <c r="AW4" s="208"/>
-      <c r="AX4" s="208"/>
-      <c r="AY4" s="208"/>
-      <c r="AZ4" s="208"/>
-      <c r="BA4" s="208"/>
-      <c r="BB4" s="208"/>
-      <c r="BC4" s="208"/>
-      <c r="BD4" s="208"/>
-      <c r="BE4" s="208"/>
-      <c r="BF4" s="208"/>
-      <c r="BG4" s="208"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="Y4" s="156"/>
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="156"/>
+      <c r="AD4" s="156"/>
+      <c r="AE4" s="156"/>
+      <c r="AF4" s="156"/>
+      <c r="AG4" s="156"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="156"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="156"/>
+      <c r="AM4" s="156"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="156"/>
+      <c r="AR4" s="156"/>
+      <c r="AS4" s="156"/>
+      <c r="AT4" s="156"/>
+      <c r="AU4" s="156"/>
+      <c r="AV4" s="156"/>
+      <c r="AW4" s="156"/>
+      <c r="AX4" s="156"/>
+      <c r="AY4" s="156"/>
+      <c r="AZ4" s="156"/>
+      <c r="BA4" s="156"/>
+      <c r="BB4" s="156"/>
+      <c r="BC4" s="156"/>
+      <c r="BD4" s="156"/>
+      <c r="BE4" s="156"/>
+      <c r="BF4" s="156"/>
+      <c r="BG4" s="156"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
-      <c r="BK4" s="194"/>
-      <c r="BL4" s="189"/>
-      <c r="BM4" s="189"/>
-      <c r="BN4" s="189"/>
-      <c r="BO4" s="280"/>
-      <c r="BP4" s="194"/>
-      <c r="BQ4" s="189"/>
-      <c r="BR4" s="189"/>
-      <c r="BS4" s="189"/>
-      <c r="BT4" s="280"/>
-      <c r="BU4" s="194"/>
-      <c r="BV4" s="189"/>
-      <c r="BW4" s="189"/>
-      <c r="BX4" s="189"/>
-      <c r="BY4" s="280"/>
-      <c r="BZ4" s="194"/>
-      <c r="CA4" s="189"/>
-      <c r="CB4" s="189"/>
-      <c r="CC4" s="189"/>
-      <c r="CD4" s="280"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="36"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="210" t="s">
+      <c r="C6" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="141" t="s">
+      <c r="D6" s="122"/>
+      <c r="E6" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="195" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="192" t="s">
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="31" t="s">
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="32" t="s">
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="118"/>
+      <c r="AN6" s="118"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="118"/>
+      <c r="AT6" s="118"/>
+      <c r="AU6" s="119"/>
+      <c r="AV6" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="135" t="s">
+      <c r="AW6" s="118"/>
+      <c r="AX6" s="118"/>
+      <c r="AY6" s="118"/>
+      <c r="AZ6" s="118"/>
+      <c r="BA6" s="118"/>
+      <c r="BB6" s="118"/>
+      <c r="BC6" s="118"/>
+      <c r="BD6" s="118"/>
+      <c r="BE6" s="118"/>
+      <c r="BF6" s="118"/>
+      <c r="BG6" s="118"/>
+      <c r="BH6" s="118"/>
+      <c r="BI6" s="118"/>
+      <c r="BJ6" s="118"/>
+      <c r="BK6" s="119"/>
+      <c r="BL6" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="BM6" s="136"/>
-      <c r="BN6" s="136"/>
-      <c r="BO6" s="136"/>
-      <c r="BP6" s="136"/>
-      <c r="BQ6" s="136"/>
-      <c r="BR6" s="136"/>
-      <c r="BS6" s="136"/>
-      <c r="BT6" s="136"/>
-      <c r="BU6" s="136"/>
-      <c r="BV6" s="136"/>
-      <c r="BW6" s="136"/>
-      <c r="BX6" s="136"/>
-      <c r="BY6" s="136"/>
-      <c r="BZ6" s="136"/>
-      <c r="CA6" s="137"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="32"/>
+      <c r="BY6" s="32"/>
+      <c r="BZ6" s="32"/>
+      <c r="CA6" s="33"/>
       <c r="CD6" s="3"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="202"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="130"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="40"/>
+      <c r="Z7" s="37"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="40"/>
+      <c r="AB7" s="37"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="202"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="130"/>
       <c r="AG7" s="41"/>
-      <c r="AH7" s="40"/>
+      <c r="AH7" s="37"/>
       <c r="AI7" s="41"/>
-      <c r="AJ7" s="40"/>
+      <c r="AJ7" s="37"/>
       <c r="AK7" s="41"/>
-      <c r="AL7" s="200"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="202"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="130"/>
       <c r="AO7" s="41"/>
-      <c r="AP7" s="40"/>
+      <c r="AP7" s="37"/>
       <c r="AQ7" s="41"/>
-      <c r="AR7" s="40"/>
+      <c r="AR7" s="37"/>
       <c r="AS7" s="41"/>
-      <c r="AT7" s="200"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="294" t="s">
+      <c r="AT7" s="165"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="295"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
-      <c r="BB7" s="34"/>
-      <c r="BC7" s="278"/>
-      <c r="BD7" s="277"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="278"/>
-      <c r="BL7" s="220" t="s">
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="66"/>
+      <c r="AZ7" s="66"/>
+      <c r="BA7" s="66"/>
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="117"/>
+      <c r="BE7" s="66"/>
+      <c r="BF7" s="66"/>
+      <c r="BG7" s="66"/>
+      <c r="BH7" s="66"/>
+      <c r="BI7" s="66"/>
+      <c r="BJ7" s="66"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="BM7" s="221"/>
-      <c r="BN7" s="221"/>
-      <c r="BO7" s="222"/>
-      <c r="BP7" s="251"/>
+      <c r="BM7" s="100"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="101"/>
+      <c r="BP7" s="51"/>
       <c r="BQ7" s="41"/>
-      <c r="BR7" s="252"/>
+      <c r="BR7" s="49"/>
       <c r="BS7" s="41"/>
-      <c r="BT7" s="251"/>
+      <c r="BT7" s="51"/>
       <c r="BU7" s="41"/>
-      <c r="BV7" s="252"/>
+      <c r="BV7" s="49"/>
       <c r="BW7" s="41"/>
-      <c r="BX7" s="251"/>
-      <c r="BY7" s="252"/>
-      <c r="BZ7" s="40"/>
-      <c r="CA7" s="217"/>
+      <c r="BX7" s="51"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="37"/>
+      <c r="CA7" s="38"/>
       <c r="CB7" s="4"/>
       <c r="CD7" s="3"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="189"/>
-      <c r="U8" s="189"/>
-      <c r="V8" s="189"/>
-      <c r="W8" s="189"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="201"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="203"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="201"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="203"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="201"/>
-      <c r="AU8" s="45"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="131"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="131"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="42"/>
       <c r="AV8" s="29"/>
-      <c r="AW8" s="254"/>
-      <c r="AX8" s="254"/>
-      <c r="AY8" s="254"/>
-      <c r="AZ8" s="254"/>
-      <c r="BA8" s="254"/>
-      <c r="BB8" s="254"/>
-      <c r="BC8" s="255"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="54"/>
       <c r="BD8" s="29"/>
-      <c r="BE8" s="254"/>
-      <c r="BF8" s="254"/>
-      <c r="BG8" s="254"/>
-      <c r="BH8" s="254"/>
-      <c r="BI8" s="254"/>
-      <c r="BJ8" s="254"/>
-      <c r="BK8" s="255"/>
-      <c r="BL8" s="223"/>
-      <c r="BM8" s="224"/>
-      <c r="BN8" s="224"/>
-      <c r="BO8" s="225"/>
-      <c r="BP8" s="253"/>
-      <c r="BQ8" s="45"/>
-      <c r="BR8" s="201"/>
-      <c r="BS8" s="45"/>
-      <c r="BT8" s="253"/>
-      <c r="BU8" s="45"/>
-      <c r="BV8" s="201"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="253"/>
-      <c r="BY8" s="201"/>
-      <c r="BZ8" s="44"/>
-      <c r="CA8" s="281"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="53"/>
+      <c r="BG8" s="53"/>
+      <c r="BH8" s="53"/>
+      <c r="BI8" s="53"/>
+      <c r="BJ8" s="53"/>
+      <c r="BK8" s="54"/>
+      <c r="BL8" s="102"/>
+      <c r="BM8" s="103"/>
+      <c r="BN8" s="103"/>
+      <c r="BO8" s="104"/>
+      <c r="BP8" s="52"/>
+      <c r="BQ8" s="42"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="42"/>
+      <c r="BT8" s="52"/>
+      <c r="BU8" s="42"/>
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="42"/>
+      <c r="BX8" s="52"/>
+      <c r="BY8" s="50"/>
+      <c r="BZ8" s="39"/>
+      <c r="CA8" s="40"/>
       <c r="CB8" s="5"/>
       <c r="CC8" s="6"/>
       <c r="CD8" s="3"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="66" t="s">
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="75" t="s">
+      <c r="H9" s="275"/>
+      <c r="I9" s="276"/>
+      <c r="J9" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="40"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="284"/>
+      <c r="N9" s="284"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="37"/>
       <c r="Q9" s="41"/>
-      <c r="R9" s="40"/>
+      <c r="R9" s="37"/>
       <c r="S9" s="41"/>
-      <c r="T9" s="40"/>
+      <c r="T9" s="37"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="40"/>
+      <c r="V9" s="37"/>
       <c r="W9" s="41"/>
-      <c r="X9" s="40"/>
+      <c r="X9" s="37"/>
       <c r="Y9" s="41"/>
-      <c r="Z9" s="40"/>
+      <c r="Z9" s="37"/>
       <c r="AA9" s="41"/>
-      <c r="AB9" s="40"/>
+      <c r="AB9" s="37"/>
       <c r="AC9" s="41"/>
-      <c r="AD9" s="141" t="s">
+      <c r="AD9" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="204"/>
-      <c r="AG9" s="289" t="s">
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="290"/>
-      <c r="AI9" s="290"/>
-      <c r="AJ9" s="290"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="46"/>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="46"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="46"/>
-      <c r="BF9" s="46"/>
-      <c r="BG9" s="46"/>
-      <c r="BH9" s="46"/>
-      <c r="BI9" s="46"/>
-      <c r="BJ9" s="46"/>
-      <c r="BK9" s="46"/>
-      <c r="BL9" s="46"/>
-      <c r="BM9" s="46"/>
-      <c r="BN9" s="46"/>
-      <c r="BO9" s="46"/>
-      <c r="BP9" s="46"/>
-      <c r="BQ9" s="46"/>
-      <c r="BR9" s="46"/>
-      <c r="BS9" s="46"/>
-      <c r="BT9" s="46"/>
-      <c r="BU9" s="46"/>
-      <c r="BV9" s="46"/>
-      <c r="BW9" s="46"/>
-      <c r="BX9" s="46"/>
-      <c r="BY9" s="46"/>
-      <c r="BZ9" s="46"/>
-      <c r="CA9" s="46"/>
-      <c r="CB9" s="46"/>
-      <c r="CC9" s="46"/>
-      <c r="CD9" s="47"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="225"/>
+      <c r="AL9" s="225"/>
+      <c r="AM9" s="225"/>
+      <c r="AN9" s="225"/>
+      <c r="AO9" s="225"/>
+      <c r="AP9" s="225"/>
+      <c r="AQ9" s="225"/>
+      <c r="AR9" s="225"/>
+      <c r="AS9" s="225"/>
+      <c r="AT9" s="225"/>
+      <c r="AU9" s="225"/>
+      <c r="AV9" s="225"/>
+      <c r="AW9" s="225"/>
+      <c r="AX9" s="225"/>
+      <c r="AY9" s="225"/>
+      <c r="AZ9" s="225"/>
+      <c r="BA9" s="225"/>
+      <c r="BB9" s="225"/>
+      <c r="BC9" s="225"/>
+      <c r="BD9" s="225"/>
+      <c r="BE9" s="225"/>
+      <c r="BF9" s="225"/>
+      <c r="BG9" s="225"/>
+      <c r="BH9" s="225"/>
+      <c r="BI9" s="225"/>
+      <c r="BJ9" s="225"/>
+      <c r="BK9" s="225"/>
+      <c r="BL9" s="225"/>
+      <c r="BM9" s="225"/>
+      <c r="BN9" s="225"/>
+      <c r="BO9" s="225"/>
+      <c r="BP9" s="225"/>
+      <c r="BQ9" s="225"/>
+      <c r="BR9" s="225"/>
+      <c r="BS9" s="225"/>
+      <c r="BT9" s="225"/>
+      <c r="BU9" s="225"/>
+      <c r="BV9" s="225"/>
+      <c r="BW9" s="225"/>
+      <c r="BX9" s="225"/>
+      <c r="BY9" s="225"/>
+      <c r="BZ9" s="225"/>
+      <c r="CA9" s="225"/>
+      <c r="CB9" s="225"/>
+      <c r="CC9" s="225"/>
+      <c r="CD9" s="226"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="282"/>
-      <c r="AH10" s="283"/>
-      <c r="AI10" s="283"/>
-      <c r="AJ10" s="283"/>
-      <c r="AK10" s="283"/>
-      <c r="AL10" s="283"/>
-      <c r="AM10" s="283"/>
-      <c r="AN10" s="283"/>
-      <c r="AO10" s="283"/>
-      <c r="AP10" s="283"/>
-      <c r="AQ10" s="283"/>
-      <c r="AR10" s="283"/>
-      <c r="AS10" s="283"/>
-      <c r="AT10" s="283"/>
-      <c r="AU10" s="283"/>
-      <c r="AV10" s="283"/>
-      <c r="AW10" s="283"/>
-      <c r="AX10" s="283"/>
-      <c r="AY10" s="283"/>
-      <c r="AZ10" s="283"/>
-      <c r="BA10" s="283"/>
-      <c r="BB10" s="283"/>
-      <c r="BC10" s="283"/>
-      <c r="BD10" s="283"/>
-      <c r="BE10" s="283"/>
-      <c r="BF10" s="283"/>
-      <c r="BG10" s="283"/>
-      <c r="BH10" s="283"/>
-      <c r="BI10" s="283"/>
-      <c r="BJ10" s="283"/>
-      <c r="BK10" s="283"/>
-      <c r="BL10" s="283"/>
-      <c r="BM10" s="283"/>
-      <c r="BN10" s="283"/>
-      <c r="BO10" s="283"/>
-      <c r="BP10" s="283"/>
-      <c r="BQ10" s="283"/>
-      <c r="BR10" s="283"/>
-      <c r="BS10" s="283"/>
-      <c r="BT10" s="283"/>
-      <c r="BU10" s="283"/>
-      <c r="BV10" s="283"/>
-      <c r="BW10" s="283"/>
-      <c r="BX10" s="283"/>
-      <c r="BY10" s="283"/>
-      <c r="BZ10" s="283"/>
-      <c r="CA10" s="283"/>
-      <c r="CB10" s="283"/>
-      <c r="CC10" s="283"/>
-      <c r="CD10" s="284"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="279"/>
+      <c r="J10" s="286"/>
+      <c r="K10" s="287"/>
+      <c r="L10" s="287"/>
+      <c r="M10" s="287"/>
+      <c r="N10" s="287"/>
+      <c r="O10" s="288"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="168"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44"/>
+      <c r="BD10" s="44"/>
+      <c r="BE10" s="44"/>
+      <c r="BF10" s="44"/>
+      <c r="BG10" s="44"/>
+      <c r="BH10" s="44"/>
+      <c r="BI10" s="44"/>
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="44"/>
+      <c r="BM10" s="44"/>
+      <c r="BN10" s="44"/>
+      <c r="BO10" s="44"/>
+      <c r="BP10" s="44"/>
+      <c r="BQ10" s="44"/>
+      <c r="BR10" s="44"/>
+      <c r="BS10" s="44"/>
+      <c r="BT10" s="44"/>
+      <c r="BU10" s="44"/>
+      <c r="BV10" s="44"/>
+      <c r="BW10" s="44"/>
+      <c r="BX10" s="44"/>
+      <c r="BY10" s="44"/>
+      <c r="BZ10" s="44"/>
+      <c r="CA10" s="44"/>
+      <c r="CB10" s="44"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="45"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="206"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="92"/>
-      <c r="CC11" s="92"/>
-      <c r="CD11" s="93"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="280"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="282"/>
+      <c r="J11" s="289"/>
+      <c r="K11" s="290"/>
+      <c r="L11" s="290"/>
+      <c r="M11" s="290"/>
+      <c r="N11" s="290"/>
+      <c r="O11" s="291"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="170"/>
+      <c r="AF11" s="171"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="47"/>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="47"/>
+      <c r="BE11" s="47"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="47"/>
+      <c r="BH11" s="47"/>
+      <c r="BI11" s="47"/>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="47"/>
+      <c r="BL11" s="47"/>
+      <c r="BM11" s="47"/>
+      <c r="BN11" s="47"/>
+      <c r="BO11" s="47"/>
+      <c r="BP11" s="47"/>
+      <c r="BQ11" s="47"/>
+      <c r="BR11" s="47"/>
+      <c r="BS11" s="47"/>
+      <c r="BT11" s="47"/>
+      <c r="BU11" s="47"/>
+      <c r="BV11" s="47"/>
+      <c r="BW11" s="47"/>
+      <c r="BX11" s="47"/>
+      <c r="BY11" s="47"/>
+      <c r="BZ11" s="47"/>
+      <c r="CA11" s="47"/>
+      <c r="CB11" s="47"/>
+      <c r="CC11" s="47"/>
+      <c r="CD11" s="48"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="60" t="s">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="75" t="s">
+      <c r="H12" s="196"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="283" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="89"/>
-      <c r="AP12" s="89"/>
-      <c r="AQ12" s="89"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="89"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="89"/>
-      <c r="AV12" s="89"/>
-      <c r="AW12" s="89"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="89"/>
-      <c r="BB12" s="89"/>
-      <c r="BC12" s="89"/>
-      <c r="BD12" s="89"/>
-      <c r="BE12" s="89"/>
-      <c r="BF12" s="89"/>
-      <c r="BG12" s="89"/>
-      <c r="BH12" s="89"/>
-      <c r="BI12" s="89"/>
-      <c r="BJ12" s="89"/>
-      <c r="BK12" s="89"/>
-      <c r="BL12" s="89"/>
-      <c r="BM12" s="89"/>
-      <c r="BN12" s="89"/>
-      <c r="BO12" s="89"/>
-      <c r="BP12" s="89"/>
-      <c r="BQ12" s="89"/>
-      <c r="BR12" s="89"/>
-      <c r="BS12" s="89"/>
-      <c r="BT12" s="89"/>
-      <c r="BU12" s="89"/>
-      <c r="BV12" s="89"/>
-      <c r="BW12" s="89"/>
-      <c r="BX12" s="89"/>
-      <c r="BY12" s="89"/>
-      <c r="BZ12" s="89"/>
-      <c r="CA12" s="89"/>
-      <c r="CB12" s="89"/>
-      <c r="CC12" s="89"/>
-      <c r="CD12" s="90"/>
+      <c r="K12" s="284"/>
+      <c r="L12" s="284"/>
+      <c r="M12" s="284"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="285"/>
+      <c r="P12" s="292"/>
+      <c r="Q12" s="293"/>
+      <c r="R12" s="293"/>
+      <c r="S12" s="293"/>
+      <c r="T12" s="293"/>
+      <c r="U12" s="293"/>
+      <c r="V12" s="293"/>
+      <c r="W12" s="293"/>
+      <c r="X12" s="293"/>
+      <c r="Y12" s="293"/>
+      <c r="Z12" s="293"/>
+      <c r="AA12" s="293"/>
+      <c r="AB12" s="293"/>
+      <c r="AC12" s="293"/>
+      <c r="AD12" s="293"/>
+      <c r="AE12" s="293"/>
+      <c r="AF12" s="293"/>
+      <c r="AG12" s="293"/>
+      <c r="AH12" s="293"/>
+      <c r="AI12" s="293"/>
+      <c r="AJ12" s="293"/>
+      <c r="AK12" s="293"/>
+      <c r="AL12" s="293"/>
+      <c r="AM12" s="293"/>
+      <c r="AN12" s="293"/>
+      <c r="AO12" s="293"/>
+      <c r="AP12" s="293"/>
+      <c r="AQ12" s="293"/>
+      <c r="AR12" s="293"/>
+      <c r="AS12" s="293"/>
+      <c r="AT12" s="293"/>
+      <c r="AU12" s="293"/>
+      <c r="AV12" s="293"/>
+      <c r="AW12" s="293"/>
+      <c r="AX12" s="293"/>
+      <c r="AY12" s="293"/>
+      <c r="AZ12" s="293"/>
+      <c r="BA12" s="293"/>
+      <c r="BB12" s="293"/>
+      <c r="BC12" s="293"/>
+      <c r="BD12" s="293"/>
+      <c r="BE12" s="293"/>
+      <c r="BF12" s="293"/>
+      <c r="BG12" s="293"/>
+      <c r="BH12" s="293"/>
+      <c r="BI12" s="293"/>
+      <c r="BJ12" s="293"/>
+      <c r="BK12" s="293"/>
+      <c r="BL12" s="293"/>
+      <c r="BM12" s="293"/>
+      <c r="BN12" s="293"/>
+      <c r="BO12" s="293"/>
+      <c r="BP12" s="293"/>
+      <c r="BQ12" s="293"/>
+      <c r="BR12" s="293"/>
+      <c r="BS12" s="293"/>
+      <c r="BT12" s="293"/>
+      <c r="BU12" s="293"/>
+      <c r="BV12" s="293"/>
+      <c r="BW12" s="293"/>
+      <c r="BX12" s="293"/>
+      <c r="BY12" s="293"/>
+      <c r="BZ12" s="293"/>
+      <c r="CA12" s="293"/>
+      <c r="CB12" s="293"/>
+      <c r="CC12" s="293"/>
+      <c r="CD12" s="294"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="92"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="92"/>
-      <c r="BE13" s="92"/>
-      <c r="BF13" s="92"/>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="92"/>
-      <c r="BJ13" s="92"/>
-      <c r="BK13" s="92"/>
-      <c r="BL13" s="92"/>
-      <c r="BM13" s="92"/>
-      <c r="BN13" s="92"/>
-      <c r="BO13" s="92"/>
-      <c r="BP13" s="92"/>
-      <c r="BQ13" s="92"/>
-      <c r="BR13" s="92"/>
-      <c r="BS13" s="92"/>
-      <c r="BT13" s="92"/>
-      <c r="BU13" s="92"/>
-      <c r="BV13" s="92"/>
-      <c r="BW13" s="92"/>
-      <c r="BX13" s="92"/>
-      <c r="BY13" s="92"/>
-      <c r="BZ13" s="92"/>
-      <c r="CA13" s="92"/>
-      <c r="CB13" s="92"/>
-      <c r="CC13" s="92"/>
-      <c r="CD13" s="93"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="289"/>
+      <c r="K13" s="290"/>
+      <c r="L13" s="290"/>
+      <c r="M13" s="290"/>
+      <c r="N13" s="290"/>
+      <c r="O13" s="291"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="47"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
+      <c r="AX13" s="47"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="47"/>
+      <c r="BA13" s="47"/>
+      <c r="BB13" s="47"/>
+      <c r="BC13" s="47"/>
+      <c r="BD13" s="47"/>
+      <c r="BE13" s="47"/>
+      <c r="BF13" s="47"/>
+      <c r="BG13" s="47"/>
+      <c r="BH13" s="47"/>
+      <c r="BI13" s="47"/>
+      <c r="BJ13" s="47"/>
+      <c r="BK13" s="47"/>
+      <c r="BL13" s="47"/>
+      <c r="BM13" s="47"/>
+      <c r="BN13" s="47"/>
+      <c r="BO13" s="47"/>
+      <c r="BP13" s="47"/>
+      <c r="BQ13" s="47"/>
+      <c r="BR13" s="47"/>
+      <c r="BS13" s="47"/>
+      <c r="BT13" s="47"/>
+      <c r="BU13" s="47"/>
+      <c r="BV13" s="47"/>
+      <c r="BW13" s="47"/>
+      <c r="BX13" s="47"/>
+      <c r="BY13" s="47"/>
+      <c r="BZ13" s="47"/>
+      <c r="CA13" s="47"/>
+      <c r="CB13" s="47"/>
+      <c r="CC13" s="47"/>
+      <c r="CD13" s="48"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="48" t="s">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="186" t="s">
+      <c r="H14" s="267"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="267"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="178"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="57"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="173"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="173"/>
+      <c r="Y14" s="186"/>
+      <c r="Z14" s="176"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="192"/>
       <c r="AC14" s="180"/>
       <c r="AD14" s="181"/>
       <c r="AE14" s="182"/>
-      <c r="AF14" s="242" t="s">
+      <c r="AF14" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="AG14" s="243"/>
-      <c r="AH14" s="243"/>
-      <c r="AI14" s="243"/>
-      <c r="AJ14" s="256" t="s">
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="151"/>
+      <c r="AJ14" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="AK14" s="257"/>
-      <c r="AL14" s="257"/>
-      <c r="AM14" s="257"/>
-      <c r="AN14" s="257"/>
-      <c r="AO14" s="257"/>
-      <c r="AP14" s="257"/>
-      <c r="AQ14" s="257"/>
-      <c r="AR14" s="257"/>
-      <c r="AS14" s="257"/>
-      <c r="AT14" s="257"/>
-      <c r="AU14" s="257"/>
-      <c r="AV14" s="257"/>
-      <c r="AW14" s="257"/>
-      <c r="AX14" s="257"/>
-      <c r="AY14" s="257"/>
-      <c r="AZ14" s="257"/>
-      <c r="BA14" s="257"/>
-      <c r="BB14" s="257"/>
-      <c r="BC14" s="257"/>
-      <c r="BD14" s="257"/>
-      <c r="BE14" s="257"/>
-      <c r="BF14" s="257"/>
-      <c r="BG14" s="257"/>
-      <c r="BH14" s="257"/>
-      <c r="BI14" s="257"/>
-      <c r="BJ14" s="257"/>
-      <c r="BK14" s="257"/>
-      <c r="BL14" s="257"/>
-      <c r="BM14" s="257"/>
-      <c r="BN14" s="257"/>
-      <c r="BO14" s="258"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="88"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="88"/>
+      <c r="AQ14" s="88"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="88"/>
+      <c r="AU14" s="88"/>
+      <c r="AV14" s="88"/>
+      <c r="AW14" s="88"/>
+      <c r="AX14" s="88"/>
+      <c r="AY14" s="88"/>
+      <c r="AZ14" s="88"/>
+      <c r="BA14" s="88"/>
+      <c r="BB14" s="88"/>
+      <c r="BC14" s="88"/>
+      <c r="BD14" s="88"/>
+      <c r="BE14" s="88"/>
+      <c r="BF14" s="88"/>
+      <c r="BG14" s="88"/>
+      <c r="BH14" s="88"/>
+      <c r="BI14" s="88"/>
+      <c r="BJ14" s="88"/>
+      <c r="BK14" s="88"/>
+      <c r="BL14" s="88"/>
+      <c r="BM14" s="88"/>
+      <c r="BN14" s="88"/>
+      <c r="BO14" s="89"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="190"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="179"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="179"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="59"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="269"/>
+      <c r="H15" s="270"/>
+      <c r="I15" s="270"/>
+      <c r="J15" s="270"/>
+      <c r="K15" s="270"/>
+      <c r="L15" s="271"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="179"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="179"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="179"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="194"/>
       <c r="AC15" s="183"/>
       <c r="AD15" s="184"/>
       <c r="AE15" s="185"/>
-      <c r="AF15" s="244"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="94"/>
-      <c r="AJ15" s="259"/>
-      <c r="AK15" s="260"/>
-      <c r="AL15" s="260"/>
-      <c r="AM15" s="260"/>
-      <c r="AN15" s="260"/>
-      <c r="AO15" s="260"/>
-      <c r="AP15" s="260"/>
-      <c r="AQ15" s="260"/>
-      <c r="AR15" s="260"/>
-      <c r="AS15" s="260"/>
-      <c r="AT15" s="260"/>
-      <c r="AU15" s="260"/>
-      <c r="AV15" s="260"/>
-      <c r="AW15" s="260"/>
-      <c r="AX15" s="260"/>
-      <c r="AY15" s="260"/>
-      <c r="AZ15" s="260"/>
-      <c r="BA15" s="260"/>
-      <c r="BB15" s="260"/>
-      <c r="BC15" s="260"/>
-      <c r="BD15" s="260"/>
-      <c r="BE15" s="260"/>
-      <c r="BF15" s="260"/>
-      <c r="BG15" s="260"/>
-      <c r="BH15" s="260"/>
-      <c r="BI15" s="260"/>
-      <c r="BJ15" s="260"/>
-      <c r="BK15" s="260"/>
-      <c r="BL15" s="260"/>
-      <c r="BM15" s="260"/>
-      <c r="BN15" s="260"/>
-      <c r="BO15" s="261"/>
-      <c r="BS15" s="214" t="s">
+      <c r="AF15" s="152"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="153"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="91"/>
+      <c r="AO15" s="91"/>
+      <c r="AP15" s="91"/>
+      <c r="AQ15" s="91"/>
+      <c r="AR15" s="91"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="91"/>
+      <c r="BD15" s="91"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="91"/>
+      <c r="BG15" s="91"/>
+      <c r="BH15" s="91"/>
+      <c r="BI15" s="91"/>
+      <c r="BJ15" s="91"/>
+      <c r="BK15" s="91"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="91"/>
+      <c r="BN15" s="91"/>
+      <c r="BO15" s="92"/>
+      <c r="BS15" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="BT15" s="215"/>
-      <c r="BU15" s="215"/>
-      <c r="BV15" s="215"/>
-      <c r="BW15" s="215"/>
-      <c r="BX15" s="215"/>
-      <c r="BY15" s="215"/>
-      <c r="BZ15" s="215"/>
-      <c r="CA15" s="215"/>
-      <c r="CB15" s="215"/>
-      <c r="CC15" s="215"/>
-      <c r="CD15" s="216"/>
+      <c r="BT15" s="69"/>
+      <c r="BU15" s="69"/>
+      <c r="BV15" s="69"/>
+      <c r="BW15" s="69"/>
+      <c r="BX15" s="69"/>
+      <c r="BY15" s="69"/>
+      <c r="BZ15" s="69"/>
+      <c r="CA15" s="69"/>
+      <c r="CB15" s="69"/>
+      <c r="CC15" s="69"/>
+      <c r="CD15" s="70"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10177,22 +10179,22 @@
       <c r="AO16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BS16" s="214"/>
-      <c r="BT16" s="215"/>
-      <c r="BU16" s="215"/>
-      <c r="BV16" s="215"/>
-      <c r="BW16" s="215"/>
-      <c r="BX16" s="215"/>
-      <c r="BY16" s="215"/>
-      <c r="BZ16" s="215"/>
-      <c r="CA16" s="215"/>
-      <c r="CB16" s="215"/>
-      <c r="CC16" s="215"/>
-      <c r="CD16" s="216"/>
+      <c r="BS16" s="68"/>
+      <c r="BT16" s="69"/>
+      <c r="BU16" s="69"/>
+      <c r="BV16" s="69"/>
+      <c r="BW16" s="69"/>
+      <c r="BX16" s="69"/>
+      <c r="BY16" s="69"/>
+      <c r="BZ16" s="69"/>
+      <c r="CA16" s="69"/>
+      <c r="CB16" s="69"/>
+      <c r="CC16" s="69"/>
+      <c r="CD16" s="70"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="H17" s="13" t="s">
@@ -10201,882 +10203,882 @@
       <c r="AO17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BS17" s="245"/>
-      <c r="BT17" s="209"/>
-      <c r="BU17" s="209"/>
-      <c r="BV17" s="209"/>
-      <c r="BW17" s="209"/>
-      <c r="BX17" s="209"/>
-      <c r="BY17" s="209"/>
-      <c r="BZ17" s="209"/>
-      <c r="CA17" s="209"/>
-      <c r="CB17" s="209"/>
-      <c r="CC17" s="209"/>
-      <c r="CD17" s="246"/>
+      <c r="BS17" s="71"/>
+      <c r="BT17" s="72"/>
+      <c r="BU17" s="72"/>
+      <c r="BV17" s="72"/>
+      <c r="BW17" s="72"/>
+      <c r="BX17" s="72"/>
+      <c r="BY17" s="72"/>
+      <c r="BZ17" s="72"/>
+      <c r="CA17" s="72"/>
+      <c r="CB17" s="72"/>
+      <c r="CC17" s="72"/>
+      <c r="CD17" s="73"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BS18" s="245"/>
-      <c r="BT18" s="209"/>
-      <c r="BU18" s="209"/>
-      <c r="BV18" s="209"/>
-      <c r="BW18" s="209"/>
-      <c r="BX18" s="209"/>
-      <c r="BY18" s="209"/>
-      <c r="BZ18" s="209"/>
-      <c r="CA18" s="209"/>
-      <c r="CB18" s="209"/>
-      <c r="CC18" s="209"/>
-      <c r="CD18" s="246"/>
+      <c r="BS18" s="71"/>
+      <c r="BT18" s="72"/>
+      <c r="BU18" s="72"/>
+      <c r="BV18" s="72"/>
+      <c r="BW18" s="72"/>
+      <c r="BX18" s="72"/>
+      <c r="BY18" s="72"/>
+      <c r="BZ18" s="72"/>
+      <c r="CA18" s="72"/>
+      <c r="CB18" s="72"/>
+      <c r="CC18" s="72"/>
+      <c r="CD18" s="73"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="250" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="250"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="250"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="250"/>
-      <c r="N19" s="250"/>
-      <c r="O19" s="250"/>
-      <c r="P19" s="250"/>
-      <c r="Q19" s="250"/>
-      <c r="R19" s="250"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="250"/>
-      <c r="V19" s="250"/>
-      <c r="W19" s="250"/>
-      <c r="X19" s="250"/>
-      <c r="Y19" s="250"/>
-      <c r="Z19" s="250"/>
-      <c r="AA19" s="250"/>
-      <c r="AB19" s="250"/>
-      <c r="AC19" s="250"/>
-      <c r="AD19" s="250"/>
-      <c r="AE19" s="250"/>
-      <c r="AF19" s="250"/>
-      <c r="AG19" s="250"/>
-      <c r="AH19" s="250"/>
-      <c r="AI19" s="250"/>
-      <c r="AJ19" s="250"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
       <c r="AV19" s="15"/>
-      <c r="BS19" s="245"/>
-      <c r="BT19" s="209"/>
-      <c r="BU19" s="209"/>
-      <c r="BV19" s="209"/>
-      <c r="BW19" s="209"/>
-      <c r="BX19" s="209"/>
-      <c r="BY19" s="209"/>
-      <c r="BZ19" s="209"/>
-      <c r="CA19" s="209"/>
-      <c r="CB19" s="209"/>
-      <c r="CC19" s="209"/>
-      <c r="CD19" s="246"/>
+      <c r="BS19" s="71"/>
+      <c r="BT19" s="72"/>
+      <c r="BU19" s="72"/>
+      <c r="BV19" s="72"/>
+      <c r="BW19" s="72"/>
+      <c r="BX19" s="72"/>
+      <c r="BY19" s="72"/>
+      <c r="BZ19" s="72"/>
+      <c r="CA19" s="72"/>
+      <c r="CB19" s="72"/>
+      <c r="CC19" s="72"/>
+      <c r="CD19" s="73"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="229" t="s">
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="230"/>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="136"/>
+      <c r="G20" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="31" t="s">
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="267"/>
-      <c r="AV20" s="268"/>
-      <c r="AW20" s="240" t="s">
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="119"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="108"/>
+      <c r="AW20" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="AX20" s="241"/>
+      <c r="AX20" s="149"/>
       <c r="AY20" s="16"/>
       <c r="AZ20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="BA20" s="18"/>
       <c r="BB20" s="18"/>
-      <c r="BC20" s="34"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="35"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="37"/>
-      <c r="BS20" s="245"/>
-      <c r="BT20" s="209"/>
-      <c r="BU20" s="209"/>
-      <c r="BV20" s="209"/>
-      <c r="BW20" s="209"/>
-      <c r="BX20" s="209"/>
-      <c r="BY20" s="209"/>
-      <c r="BZ20" s="209"/>
-      <c r="CA20" s="209"/>
-      <c r="CB20" s="209"/>
-      <c r="CC20" s="209"/>
-      <c r="CD20" s="246"/>
+      <c r="BC20" s="66"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="263"/>
+      <c r="BJ20" s="264"/>
+      <c r="BK20" s="264"/>
+      <c r="BL20" s="264"/>
+      <c r="BM20" s="264"/>
+      <c r="BN20" s="264"/>
+      <c r="BO20" s="264"/>
+      <c r="BP20" s="264"/>
+      <c r="BQ20" s="265"/>
+      <c r="BS20" s="71"/>
+      <c r="BT20" s="72"/>
+      <c r="BU20" s="72"/>
+      <c r="BV20" s="72"/>
+      <c r="BW20" s="72"/>
+      <c r="BX20" s="72"/>
+      <c r="BY20" s="72"/>
+      <c r="BZ20" s="72"/>
+      <c r="CA20" s="72"/>
+      <c r="CB20" s="72"/>
+      <c r="CC20" s="72"/>
+      <c r="CD20" s="73"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="176"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="176"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="220" t="s">
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="272"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="272"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="272"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="172"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="AF21" s="221"/>
-      <c r="AG21" s="221"/>
-      <c r="AH21" s="222"/>
-      <c r="AI21" s="265"/>
-      <c r="AJ21" s="263"/>
-      <c r="AK21" s="236"/>
-      <c r="AL21" s="237"/>
-      <c r="AM21" s="262"/>
-      <c r="AN21" s="263"/>
-      <c r="AO21" s="236"/>
-      <c r="AP21" s="237"/>
-      <c r="AQ21" s="262"/>
-      <c r="AR21" s="263"/>
-      <c r="AS21" s="236"/>
-      <c r="AT21" s="237"/>
-      <c r="AU21" s="269"/>
-      <c r="AV21" s="270"/>
-      <c r="AW21" s="273" t="s">
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="97"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="93"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="97"/>
+      <c r="AT21" s="98"/>
+      <c r="AU21" s="109"/>
+      <c r="AV21" s="110"/>
+      <c r="AW21" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="AX21" s="273"/>
-      <c r="AY21" s="274"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="114"/>
       <c r="AZ21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="BA21" s="20"/>
-      <c r="BB21" s="157"/>
-      <c r="BC21" s="157"/>
-      <c r="BD21" s="157"/>
-      <c r="BE21" s="157"/>
-      <c r="BF21" s="157"/>
-      <c r="BG21" s="157"/>
-      <c r="BH21" s="157"/>
+      <c r="BB21" s="144"/>
+      <c r="BC21" s="144"/>
+      <c r="BD21" s="144"/>
+      <c r="BE21" s="144"/>
+      <c r="BF21" s="144"/>
+      <c r="BG21" s="144"/>
+      <c r="BH21" s="144"/>
       <c r="BI21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="BJ21" s="20"/>
-      <c r="BK21" s="157"/>
-      <c r="BL21" s="157"/>
-      <c r="BM21" s="157"/>
-      <c r="BN21" s="157"/>
-      <c r="BO21" s="157"/>
-      <c r="BP21" s="157"/>
-      <c r="BQ21" s="158"/>
-      <c r="BS21" s="247"/>
-      <c r="BT21" s="248"/>
-      <c r="BU21" s="248"/>
-      <c r="BV21" s="248"/>
-      <c r="BW21" s="248"/>
-      <c r="BX21" s="248"/>
-      <c r="BY21" s="248"/>
-      <c r="BZ21" s="248"/>
-      <c r="CA21" s="248"/>
-      <c r="CB21" s="248"/>
-      <c r="CC21" s="248"/>
-      <c r="CD21" s="249"/>
-      <c r="CV21" s="30"/>
-      <c r="CW21" s="30"/>
-      <c r="CX21" s="30"/>
+      <c r="BK21" s="144"/>
+      <c r="BL21" s="144"/>
+      <c r="BM21" s="144"/>
+      <c r="BN21" s="144"/>
+      <c r="BO21" s="144"/>
+      <c r="BP21" s="144"/>
+      <c r="BQ21" s="146"/>
+      <c r="BS21" s="74"/>
+      <c r="BT21" s="75"/>
+      <c r="BU21" s="75"/>
+      <c r="BV21" s="75"/>
+      <c r="BW21" s="75"/>
+      <c r="BX21" s="75"/>
+      <c r="BY21" s="75"/>
+      <c r="BZ21" s="75"/>
+      <c r="CA21" s="75"/>
+      <c r="CB21" s="75"/>
+      <c r="CC21" s="75"/>
+      <c r="CD21" s="76"/>
+      <c r="CV21" s="155"/>
+      <c r="CW21" s="155"/>
+      <c r="CX21" s="155"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="177"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="177"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="223"/>
-      <c r="AF22" s="224"/>
-      <c r="AG22" s="224"/>
-      <c r="AH22" s="225"/>
-      <c r="AI22" s="266"/>
-      <c r="AJ22" s="238"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="238"/>
-      <c r="AM22" s="264"/>
-      <c r="AN22" s="238"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="238"/>
-      <c r="AQ22" s="264"/>
-      <c r="AR22" s="238"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="238"/>
-      <c r="AU22" s="271"/>
-      <c r="AV22" s="272"/>
-      <c r="AW22" s="275"/>
-      <c r="AX22" s="275"/>
-      <c r="AY22" s="276"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="273"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="273"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="273"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="96"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="96"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="96"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="112"/>
+      <c r="AW22" s="115"/>
+      <c r="AX22" s="115"/>
+      <c r="AY22" s="116"/>
       <c r="AZ22" s="5"/>
       <c r="BA22" s="6"/>
-      <c r="BB22" s="154"/>
-      <c r="BC22" s="154"/>
-      <c r="BD22" s="154"/>
-      <c r="BE22" s="154"/>
-      <c r="BF22" s="154"/>
-      <c r="BG22" s="154"/>
-      <c r="BH22" s="154"/>
+      <c r="BB22" s="145"/>
+      <c r="BC22" s="145"/>
+      <c r="BD22" s="145"/>
+      <c r="BE22" s="145"/>
+      <c r="BF22" s="145"/>
+      <c r="BG22" s="145"/>
+      <c r="BH22" s="145"/>
       <c r="BI22" s="5"/>
       <c r="BJ22" s="6"/>
-      <c r="BK22" s="154"/>
-      <c r="BL22" s="154"/>
-      <c r="BM22" s="154"/>
-      <c r="BN22" s="154"/>
-      <c r="BO22" s="154"/>
-      <c r="BP22" s="154"/>
-      <c r="BQ22" s="239"/>
-      <c r="CV22" s="30"/>
-      <c r="CW22" s="30"/>
-      <c r="CX22" s="30"/>
+      <c r="BK22" s="145"/>
+      <c r="BL22" s="145"/>
+      <c r="BM22" s="145"/>
+      <c r="BN22" s="145"/>
+      <c r="BO22" s="145"/>
+      <c r="BP22" s="145"/>
+      <c r="BQ22" s="147"/>
+      <c r="CV22" s="155"/>
+      <c r="CW22" s="155"/>
+      <c r="CX22" s="155"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="141" t="s">
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="142"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="135" t="s">
+      <c r="H23" s="166"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="136"/>
-      <c r="T23" s="136"/>
-      <c r="U23" s="136"/>
-      <c r="V23" s="136"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="135" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="136"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="136"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="136"/>
-      <c r="AJ23" s="136"/>
-      <c r="AK23" s="136"/>
-      <c r="AL23" s="136"/>
-      <c r="AM23" s="136"/>
-      <c r="AN23" s="136"/>
-      <c r="AO23" s="136"/>
-      <c r="AP23" s="136"/>
-      <c r="AQ23" s="136"/>
-      <c r="AR23" s="136"/>
-      <c r="AS23" s="136"/>
-      <c r="AT23" s="136"/>
-      <c r="AU23" s="136"/>
-      <c r="AV23" s="136"/>
-      <c r="AW23" s="136"/>
-      <c r="AX23" s="136"/>
-      <c r="AY23" s="136"/>
-      <c r="AZ23" s="136"/>
-      <c r="BA23" s="136"/>
-      <c r="BB23" s="136"/>
-      <c r="BC23" s="136"/>
-      <c r="BD23" s="136"/>
-      <c r="BE23" s="136"/>
-      <c r="BF23" s="136"/>
-      <c r="BG23" s="136"/>
-      <c r="BH23" s="136"/>
-      <c r="BI23" s="136"/>
-      <c r="BJ23" s="136"/>
-      <c r="BK23" s="136"/>
-      <c r="BL23" s="136"/>
-      <c r="BM23" s="136"/>
-      <c r="BN23" s="136"/>
-      <c r="BO23" s="136"/>
-      <c r="BP23" s="137"/>
-      <c r="BQ23" s="135" t="s">
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="32"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="32"/>
+      <c r="BH23" s="32"/>
+      <c r="BI23" s="32"/>
+      <c r="BJ23" s="32"/>
+      <c r="BK23" s="32"/>
+      <c r="BL23" s="32"/>
+      <c r="BM23" s="32"/>
+      <c r="BN23" s="32"/>
+      <c r="BO23" s="32"/>
+      <c r="BP23" s="33"/>
+      <c r="BQ23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="BR23" s="136"/>
-      <c r="BS23" s="136"/>
-      <c r="BT23" s="136"/>
-      <c r="BU23" s="136"/>
-      <c r="BV23" s="136"/>
-      <c r="BW23" s="136"/>
-      <c r="BX23" s="136"/>
-      <c r="BY23" s="136"/>
-      <c r="BZ23" s="136"/>
-      <c r="CA23" s="136"/>
-      <c r="CB23" s="136"/>
-      <c r="CC23" s="136"/>
-      <c r="CD23" s="137"/>
-      <c r="CE23" s="213"/>
-      <c r="CF23" s="213"/>
+      <c r="BR23" s="32"/>
+      <c r="BS23" s="32"/>
+      <c r="BT23" s="32"/>
+      <c r="BU23" s="32"/>
+      <c r="BV23" s="32"/>
+      <c r="BW23" s="32"/>
+      <c r="BX23" s="32"/>
+      <c r="BY23" s="32"/>
+      <c r="BZ23" s="32"/>
+      <c r="CA23" s="32"/>
+      <c r="CB23" s="32"/>
+      <c r="CC23" s="32"/>
+      <c r="CD23" s="33"/>
+      <c r="CE23" s="125"/>
+      <c r="CF23" s="125"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="30"/>
-      <c r="CW23" s="30"/>
-      <c r="CX23" s="30"/>
+      <c r="CV23" s="155"/>
+      <c r="CW23" s="155"/>
+      <c r="CX23" s="155"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="226" t="s">
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="192"/>
+      <c r="X24" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="227"/>
-      <c r="Z24" s="227"/>
-      <c r="AA24" s="227"/>
-      <c r="AB24" s="227"/>
-      <c r="AC24" s="227"/>
-      <c r="AD24" s="227"/>
-      <c r="AE24" s="227"/>
-      <c r="AF24" s="227"/>
-      <c r="AG24" s="228"/>
-      <c r="AH24" s="168" t="s">
+      <c r="Y24" s="133"/>
+      <c r="Z24" s="133"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="133"/>
+      <c r="AC24" s="133"/>
+      <c r="AD24" s="133"/>
+      <c r="AE24" s="133"/>
+      <c r="AF24" s="133"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="168"/>
-      <c r="AJ24" s="168"/>
-      <c r="AK24" s="168"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="46"/>
-      <c r="AS24" s="46"/>
-      <c r="AT24" s="46"/>
-      <c r="AU24" s="46"/>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="46"/>
-      <c r="AX24" s="46"/>
-      <c r="AY24" s="46"/>
-      <c r="AZ24" s="46"/>
-      <c r="BA24" s="46"/>
-      <c r="BB24" s="46"/>
-      <c r="BC24" s="46"/>
-      <c r="BD24" s="46"/>
-      <c r="BE24" s="46"/>
-      <c r="BF24" s="46"/>
-      <c r="BG24" s="46"/>
-      <c r="BH24" s="46"/>
-      <c r="BI24" s="46"/>
-      <c r="BJ24" s="46"/>
-      <c r="BK24" s="46"/>
-      <c r="BL24" s="46"/>
-      <c r="BM24" s="46"/>
-      <c r="BN24" s="46"/>
-      <c r="BO24" s="46"/>
-      <c r="BP24" s="47"/>
-      <c r="BQ24" s="172" t="s">
+      <c r="AI24" s="224"/>
+      <c r="AJ24" s="224"/>
+      <c r="AK24" s="224"/>
+      <c r="AL24" s="225"/>
+      <c r="AM24" s="225"/>
+      <c r="AN24" s="225"/>
+      <c r="AO24" s="225"/>
+      <c r="AP24" s="225"/>
+      <c r="AQ24" s="225"/>
+      <c r="AR24" s="225"/>
+      <c r="AS24" s="225"/>
+      <c r="AT24" s="225"/>
+      <c r="AU24" s="225"/>
+      <c r="AV24" s="225"/>
+      <c r="AW24" s="225"/>
+      <c r="AX24" s="225"/>
+      <c r="AY24" s="225"/>
+      <c r="AZ24" s="225"/>
+      <c r="BA24" s="225"/>
+      <c r="BB24" s="225"/>
+      <c r="BC24" s="225"/>
+      <c r="BD24" s="225"/>
+      <c r="BE24" s="225"/>
+      <c r="BF24" s="225"/>
+      <c r="BG24" s="225"/>
+      <c r="BH24" s="225"/>
+      <c r="BI24" s="225"/>
+      <c r="BJ24" s="225"/>
+      <c r="BK24" s="225"/>
+      <c r="BL24" s="225"/>
+      <c r="BM24" s="225"/>
+      <c r="BN24" s="225"/>
+      <c r="BO24" s="225"/>
+      <c r="BP24" s="226"/>
+      <c r="BQ24" s="230" t="s">
         <v>64</v>
       </c>
-      <c r="BR24" s="173"/>
-      <c r="BS24" s="133"/>
+      <c r="BR24" s="231"/>
+      <c r="BS24" s="128"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="56"/>
-      <c r="BV24" s="217"/>
-      <c r="BW24" s="133"/>
+      <c r="BU24" s="126"/>
+      <c r="BV24" s="38"/>
+      <c r="BW24" s="128"/>
       <c r="BX24" s="41"/>
-      <c r="BY24" s="56"/>
-      <c r="BZ24" s="217"/>
-      <c r="CA24" s="133"/>
+      <c r="BY24" s="126"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="128"/>
       <c r="CB24" s="41"/>
-      <c r="CC24" s="56"/>
-      <c r="CD24" s="217"/>
-      <c r="CE24" s="213"/>
-      <c r="CF24" s="213"/>
+      <c r="CC24" s="126"/>
+      <c r="CD24" s="38"/>
+      <c r="CE24" s="125"/>
+      <c r="CF24" s="125"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="139"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="191"/>
-      <c r="X25" s="133"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="157"/>
-      <c r="AJ25" s="157"/>
-      <c r="AK25" s="157"/>
-      <c r="AL25" s="157"/>
-      <c r="AM25" s="157"/>
-      <c r="AN25" s="157"/>
-      <c r="AO25" s="157"/>
-      <c r="AP25" s="157"/>
-      <c r="AQ25" s="157"/>
-      <c r="AR25" s="157"/>
-      <c r="AS25" s="157"/>
-      <c r="AT25" s="157"/>
-      <c r="AU25" s="157"/>
-      <c r="AV25" s="157"/>
-      <c r="AW25" s="157"/>
-      <c r="AX25" s="157"/>
-      <c r="AY25" s="157"/>
-      <c r="AZ25" s="157"/>
-      <c r="BA25" s="157"/>
-      <c r="BB25" s="157"/>
-      <c r="BC25" s="157"/>
-      <c r="BD25" s="157"/>
-      <c r="BE25" s="157"/>
-      <c r="BF25" s="157"/>
-      <c r="BG25" s="157"/>
-      <c r="BH25" s="157"/>
-      <c r="BI25" s="157"/>
-      <c r="BJ25" s="157"/>
-      <c r="BK25" s="157"/>
-      <c r="BL25" s="157"/>
-      <c r="BM25" s="157"/>
-      <c r="BN25" s="157"/>
-      <c r="BO25" s="157"/>
-      <c r="BP25" s="158"/>
-      <c r="BQ25" s="174"/>
-      <c r="BR25" s="175"/>
-      <c r="BS25" s="219"/>
-      <c r="BT25" s="43"/>
-      <c r="BU25" s="42"/>
-      <c r="BV25" s="218"/>
-      <c r="BW25" s="219"/>
-      <c r="BX25" s="43"/>
-      <c r="BY25" s="42"/>
-      <c r="BZ25" s="218"/>
-      <c r="CA25" s="219"/>
-      <c r="CB25" s="43"/>
-      <c r="CC25" s="42"/>
-      <c r="CD25" s="218"/>
-      <c r="CE25" s="213"/>
-      <c r="CF25" s="213"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="176"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="176"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="176"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="176"/>
+      <c r="AF25" s="126"/>
+      <c r="AG25" s="192"/>
+      <c r="AH25" s="214"/>
+      <c r="AI25" s="144"/>
+      <c r="AJ25" s="144"/>
+      <c r="AK25" s="144"/>
+      <c r="AL25" s="144"/>
+      <c r="AM25" s="144"/>
+      <c r="AN25" s="144"/>
+      <c r="AO25" s="144"/>
+      <c r="AP25" s="144"/>
+      <c r="AQ25" s="144"/>
+      <c r="AR25" s="144"/>
+      <c r="AS25" s="144"/>
+      <c r="AT25" s="144"/>
+      <c r="AU25" s="144"/>
+      <c r="AV25" s="144"/>
+      <c r="AW25" s="144"/>
+      <c r="AX25" s="144"/>
+      <c r="AY25" s="144"/>
+      <c r="AZ25" s="144"/>
+      <c r="BA25" s="144"/>
+      <c r="BB25" s="144"/>
+      <c r="BC25" s="144"/>
+      <c r="BD25" s="144"/>
+      <c r="BE25" s="144"/>
+      <c r="BF25" s="144"/>
+      <c r="BG25" s="144"/>
+      <c r="BH25" s="144"/>
+      <c r="BI25" s="144"/>
+      <c r="BJ25" s="144"/>
+      <c r="BK25" s="144"/>
+      <c r="BL25" s="144"/>
+      <c r="BM25" s="144"/>
+      <c r="BN25" s="144"/>
+      <c r="BO25" s="144"/>
+      <c r="BP25" s="146"/>
+      <c r="BQ25" s="232"/>
+      <c r="BR25" s="233"/>
+      <c r="BS25" s="129"/>
+      <c r="BT25" s="121"/>
+      <c r="BU25" s="120"/>
+      <c r="BV25" s="127"/>
+      <c r="BW25" s="129"/>
+      <c r="BX25" s="121"/>
+      <c r="BY25" s="120"/>
+      <c r="BZ25" s="127"/>
+      <c r="CA25" s="129"/>
+      <c r="CB25" s="121"/>
+      <c r="CC25" s="120"/>
+      <c r="CD25" s="127"/>
+      <c r="CE25" s="125"/>
+      <c r="CF25" s="125"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="134"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="160"/>
-      <c r="AN26" s="160"/>
-      <c r="AO26" s="160"/>
-      <c r="AP26" s="160"/>
-      <c r="AQ26" s="160"/>
-      <c r="AR26" s="160"/>
-      <c r="AS26" s="160"/>
-      <c r="AT26" s="160"/>
-      <c r="AU26" s="160"/>
-      <c r="AV26" s="160"/>
-      <c r="AW26" s="160"/>
-      <c r="AX26" s="160"/>
-      <c r="AY26" s="160"/>
-      <c r="AZ26" s="160"/>
-      <c r="BA26" s="160"/>
-      <c r="BB26" s="160"/>
-      <c r="BC26" s="160"/>
-      <c r="BD26" s="160"/>
-      <c r="BE26" s="160"/>
-      <c r="BF26" s="160"/>
-      <c r="BG26" s="160"/>
-      <c r="BH26" s="160"/>
-      <c r="BI26" s="160"/>
-      <c r="BJ26" s="160"/>
-      <c r="BK26" s="160"/>
-      <c r="BL26" s="160"/>
-      <c r="BM26" s="160"/>
-      <c r="BN26" s="160"/>
-      <c r="BO26" s="160"/>
-      <c r="BP26" s="161"/>
-      <c r="BQ26" s="174"/>
-      <c r="BR26" s="175"/>
-      <c r="BS26" s="219"/>
-      <c r="BT26" s="43"/>
-      <c r="BU26" s="42"/>
-      <c r="BV26" s="218"/>
-      <c r="BW26" s="219"/>
-      <c r="BX26" s="43"/>
-      <c r="BY26" s="42"/>
-      <c r="BZ26" s="218"/>
-      <c r="CA26" s="219"/>
-      <c r="CB26" s="43"/>
-      <c r="CC26" s="42"/>
-      <c r="CD26" s="218"/>
-      <c r="CE26" s="213"/>
-      <c r="CF26" s="213"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="179"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="179"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="179"/>
+      <c r="R26" s="174"/>
+      <c r="S26" s="179"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="179"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="207"/>
+      <c r="Y26" s="179"/>
+      <c r="Z26" s="174"/>
+      <c r="AA26" s="179"/>
+      <c r="AB26" s="174"/>
+      <c r="AC26" s="179"/>
+      <c r="AD26" s="174"/>
+      <c r="AE26" s="179"/>
+      <c r="AF26" s="174"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="215"/>
+      <c r="AI26" s="216"/>
+      <c r="AJ26" s="216"/>
+      <c r="AK26" s="216"/>
+      <c r="AL26" s="216"/>
+      <c r="AM26" s="216"/>
+      <c r="AN26" s="216"/>
+      <c r="AO26" s="216"/>
+      <c r="AP26" s="216"/>
+      <c r="AQ26" s="216"/>
+      <c r="AR26" s="216"/>
+      <c r="AS26" s="216"/>
+      <c r="AT26" s="216"/>
+      <c r="AU26" s="216"/>
+      <c r="AV26" s="216"/>
+      <c r="AW26" s="216"/>
+      <c r="AX26" s="216"/>
+      <c r="AY26" s="216"/>
+      <c r="AZ26" s="216"/>
+      <c r="BA26" s="216"/>
+      <c r="BB26" s="216"/>
+      <c r="BC26" s="216"/>
+      <c r="BD26" s="216"/>
+      <c r="BE26" s="216"/>
+      <c r="BF26" s="216"/>
+      <c r="BG26" s="216"/>
+      <c r="BH26" s="216"/>
+      <c r="BI26" s="216"/>
+      <c r="BJ26" s="216"/>
+      <c r="BK26" s="216"/>
+      <c r="BL26" s="216"/>
+      <c r="BM26" s="216"/>
+      <c r="BN26" s="216"/>
+      <c r="BO26" s="216"/>
+      <c r="BP26" s="217"/>
+      <c r="BQ26" s="232"/>
+      <c r="BR26" s="233"/>
+      <c r="BS26" s="129"/>
+      <c r="BT26" s="121"/>
+      <c r="BU26" s="120"/>
+      <c r="BV26" s="127"/>
+      <c r="BW26" s="129"/>
+      <c r="BX26" s="121"/>
+      <c r="BY26" s="120"/>
+      <c r="BZ26" s="127"/>
+      <c r="CA26" s="129"/>
+      <c r="CB26" s="121"/>
+      <c r="CC26" s="120"/>
+      <c r="CD26" s="127"/>
+      <c r="CE26" s="125"/>
+      <c r="CF26" s="125"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="60" t="s">
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="130" t="s">
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="151"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="151"/>
-      <c r="AP27" s="151"/>
-      <c r="AQ27" s="151"/>
-      <c r="AR27" s="151"/>
-      <c r="AS27" s="151"/>
-      <c r="AT27" s="151"/>
-      <c r="AU27" s="151"/>
-      <c r="AV27" s="151"/>
-      <c r="AW27" s="151"/>
-      <c r="AX27" s="151"/>
-      <c r="AY27" s="151"/>
-      <c r="AZ27" s="151"/>
-      <c r="BA27" s="151"/>
-      <c r="BB27" s="151"/>
-      <c r="BC27" s="151"/>
-      <c r="BD27" s="151"/>
-      <c r="BE27" s="151"/>
-      <c r="BF27" s="151"/>
-      <c r="BG27" s="151"/>
-      <c r="BH27" s="151"/>
-      <c r="BI27" s="152"/>
-      <c r="BJ27" s="162" t="s">
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="206"/>
+      <c r="P27" s="209"/>
+      <c r="Q27" s="210"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="210"/>
+      <c r="T27" s="210"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
+      <c r="AC27" s="210"/>
+      <c r="AD27" s="210"/>
+      <c r="AE27" s="210"/>
+      <c r="AF27" s="210"/>
+      <c r="AG27" s="210"/>
+      <c r="AH27" s="210"/>
+      <c r="AI27" s="210"/>
+      <c r="AJ27" s="210"/>
+      <c r="AK27" s="210"/>
+      <c r="AL27" s="210"/>
+      <c r="AM27" s="210"/>
+      <c r="AN27" s="210"/>
+      <c r="AO27" s="210"/>
+      <c r="AP27" s="210"/>
+      <c r="AQ27" s="210"/>
+      <c r="AR27" s="210"/>
+      <c r="AS27" s="210"/>
+      <c r="AT27" s="210"/>
+      <c r="AU27" s="210"/>
+      <c r="AV27" s="210"/>
+      <c r="AW27" s="210"/>
+      <c r="AX27" s="210"/>
+      <c r="AY27" s="210"/>
+      <c r="AZ27" s="210"/>
+      <c r="BA27" s="210"/>
+      <c r="BB27" s="210"/>
+      <c r="BC27" s="210"/>
+      <c r="BD27" s="210"/>
+      <c r="BE27" s="210"/>
+      <c r="BF27" s="210"/>
+      <c r="BG27" s="210"/>
+      <c r="BH27" s="210"/>
+      <c r="BI27" s="211"/>
+      <c r="BJ27" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="BK27" s="163"/>
-      <c r="BL27" s="164"/>
-      <c r="BM27" s="169" t="s">
+      <c r="BK27" s="219"/>
+      <c r="BL27" s="220"/>
+      <c r="BM27" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="BN27" s="170"/>
-      <c r="BO27" s="170"/>
-      <c r="BP27" s="170"/>
-      <c r="BQ27" s="170"/>
-      <c r="BR27" s="170"/>
-      <c r="BS27" s="170"/>
-      <c r="BT27" s="170"/>
-      <c r="BU27" s="170"/>
-      <c r="BV27" s="170"/>
-      <c r="BW27" s="170"/>
-      <c r="BX27" s="170"/>
-      <c r="BY27" s="170"/>
-      <c r="BZ27" s="170"/>
-      <c r="CA27" s="170"/>
-      <c r="CB27" s="170"/>
-      <c r="CC27" s="170"/>
-      <c r="CD27" s="170"/>
-      <c r="CE27" s="170"/>
-      <c r="CF27" s="171"/>
+      <c r="BN27" s="228"/>
+      <c r="BO27" s="228"/>
+      <c r="BP27" s="228"/>
+      <c r="BQ27" s="228"/>
+      <c r="BR27" s="228"/>
+      <c r="BS27" s="228"/>
+      <c r="BT27" s="228"/>
+      <c r="BU27" s="228"/>
+      <c r="BV27" s="228"/>
+      <c r="BW27" s="228"/>
+      <c r="BX27" s="228"/>
+      <c r="BY27" s="228"/>
+      <c r="BZ27" s="228"/>
+      <c r="CA27" s="228"/>
+      <c r="CB27" s="228"/>
+      <c r="CC27" s="228"/>
+      <c r="CD27" s="228"/>
+      <c r="CE27" s="228"/>
+      <c r="CF27" s="229"/>
     </row>
     <row r="28" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C28" s="210"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="232"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="127" t="s">
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="154"/>
-      <c r="AF28" s="154"/>
-      <c r="AG28" s="154"/>
-      <c r="AH28" s="154"/>
-      <c r="AI28" s="154"/>
-      <c r="AJ28" s="154"/>
-      <c r="AK28" s="154"/>
-      <c r="AL28" s="154"/>
-      <c r="AM28" s="154"/>
-      <c r="AN28" s="154"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
-      <c r="AQ28" s="154"/>
-      <c r="AR28" s="154"/>
-      <c r="AS28" s="154"/>
-      <c r="AT28" s="154"/>
-      <c r="AU28" s="154"/>
-      <c r="AV28" s="154"/>
-      <c r="AW28" s="154"/>
-      <c r="AX28" s="154"/>
-      <c r="AY28" s="154"/>
-      <c r="AZ28" s="154"/>
-      <c r="BA28" s="154"/>
-      <c r="BB28" s="154"/>
-      <c r="BC28" s="154"/>
-      <c r="BD28" s="154"/>
-      <c r="BE28" s="154"/>
-      <c r="BF28" s="154"/>
-      <c r="BG28" s="154"/>
-      <c r="BH28" s="154"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="165"/>
-      <c r="BK28" s="166"/>
-      <c r="BL28" s="167"/>
-      <c r="BM28" s="233" t="s">
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="203"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="145"/>
+      <c r="AN28" s="145"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="145"/>
+      <c r="AQ28" s="145"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="145"/>
+      <c r="AT28" s="145"/>
+      <c r="AU28" s="145"/>
+      <c r="AV28" s="145"/>
+      <c r="AW28" s="145"/>
+      <c r="AX28" s="145"/>
+      <c r="AY28" s="145"/>
+      <c r="AZ28" s="145"/>
+      <c r="BA28" s="145"/>
+      <c r="BB28" s="145"/>
+      <c r="BC28" s="145"/>
+      <c r="BD28" s="145"/>
+      <c r="BE28" s="145"/>
+      <c r="BF28" s="145"/>
+      <c r="BG28" s="145"/>
+      <c r="BH28" s="145"/>
+      <c r="BI28" s="213"/>
+      <c r="BJ28" s="221"/>
+      <c r="BK28" s="222"/>
+      <c r="BL28" s="223"/>
+      <c r="BM28" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="BN28" s="234"/>
-      <c r="BO28" s="234"/>
-      <c r="BP28" s="234"/>
-      <c r="BQ28" s="234"/>
-      <c r="BR28" s="234"/>
-      <c r="BS28" s="234"/>
-      <c r="BT28" s="234"/>
-      <c r="BU28" s="234"/>
-      <c r="BV28" s="234"/>
-      <c r="BW28" s="234"/>
-      <c r="BX28" s="234"/>
-      <c r="BY28" s="234"/>
-      <c r="BZ28" s="234"/>
-      <c r="CA28" s="234"/>
-      <c r="CB28" s="234"/>
-      <c r="CC28" s="234"/>
-      <c r="CD28" s="234"/>
-      <c r="CE28" s="234"/>
-      <c r="CF28" s="235"/>
+      <c r="BN28" s="142"/>
+      <c r="BO28" s="142"/>
+      <c r="BP28" s="142"/>
+      <c r="BQ28" s="142"/>
+      <c r="BR28" s="142"/>
+      <c r="BS28" s="142"/>
+      <c r="BT28" s="142"/>
+      <c r="BU28" s="142"/>
+      <c r="BV28" s="142"/>
+      <c r="BW28" s="142"/>
+      <c r="BX28" s="142"/>
+      <c r="BY28" s="142"/>
+      <c r="BZ28" s="142"/>
+      <c r="CA28" s="142"/>
+      <c r="CB28" s="142"/>
+      <c r="CC28" s="142"/>
+      <c r="CD28" s="142"/>
+      <c r="CE28" s="142"/>
+      <c r="CF28" s="143"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="21"/>
@@ -11088,400 +11090,400 @@
       <c r="CF30" s="6"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="105"/>
-      <c r="AD31" s="107" t="s">
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="243"/>
+      <c r="I31" s="243"/>
+      <c r="J31" s="243"/>
+      <c r="K31" s="243"/>
+      <c r="L31" s="243"/>
+      <c r="M31" s="243"/>
+      <c r="N31" s="243"/>
+      <c r="O31" s="243"/>
+      <c r="P31" s="243"/>
+      <c r="Q31" s="243"/>
+      <c r="R31" s="243"/>
+      <c r="S31" s="243"/>
+      <c r="T31" s="243"/>
+      <c r="U31" s="243"/>
+      <c r="V31" s="243"/>
+      <c r="W31" s="243"/>
+      <c r="X31" s="243"/>
+      <c r="Y31" s="243"/>
+      <c r="Z31" s="243"/>
+      <c r="AA31" s="243"/>
+      <c r="AB31" s="244"/>
+      <c r="AD31" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="108"/>
-      <c r="AJ31" s="108"/>
-      <c r="AK31" s="108"/>
-      <c r="AL31" s="108"/>
-      <c r="AM31" s="108"/>
-      <c r="AN31" s="108"/>
-      <c r="AO31" s="108"/>
-      <c r="AP31" s="108"/>
-      <c r="AQ31" s="108"/>
-      <c r="AR31" s="108"/>
-      <c r="AS31" s="108"/>
-      <c r="AT31" s="108"/>
-      <c r="AU31" s="108"/>
-      <c r="AV31" s="108"/>
-      <c r="AW31" s="108"/>
-      <c r="AX31" s="108"/>
-      <c r="AY31" s="108"/>
-      <c r="AZ31" s="108"/>
-      <c r="BA31" s="108"/>
-      <c r="BB31" s="108"/>
-      <c r="BC31" s="109"/>
-      <c r="BE31" s="101" t="s">
+      <c r="AE31" s="247"/>
+      <c r="AF31" s="247"/>
+      <c r="AG31" s="247"/>
+      <c r="AH31" s="247"/>
+      <c r="AI31" s="247"/>
+      <c r="AJ31" s="247"/>
+      <c r="AK31" s="247"/>
+      <c r="AL31" s="247"/>
+      <c r="AM31" s="247"/>
+      <c r="AN31" s="247"/>
+      <c r="AO31" s="247"/>
+      <c r="AP31" s="247"/>
+      <c r="AQ31" s="247"/>
+      <c r="AR31" s="247"/>
+      <c r="AS31" s="247"/>
+      <c r="AT31" s="247"/>
+      <c r="AU31" s="247"/>
+      <c r="AV31" s="247"/>
+      <c r="AW31" s="247"/>
+      <c r="AX31" s="247"/>
+      <c r="AY31" s="247"/>
+      <c r="AZ31" s="247"/>
+      <c r="BA31" s="247"/>
+      <c r="BB31" s="247"/>
+      <c r="BC31" s="248"/>
+      <c r="BE31" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="BF31" s="102"/>
-      <c r="BG31" s="102"/>
-      <c r="BH31" s="102"/>
-      <c r="BI31" s="102"/>
-      <c r="BJ31" s="102"/>
-      <c r="BK31" s="102"/>
-      <c r="BL31" s="102"/>
-      <c r="BM31" s="102"/>
-      <c r="BN31" s="102"/>
-      <c r="BO31" s="102"/>
-      <c r="BP31" s="102"/>
-      <c r="BQ31" s="102"/>
-      <c r="BR31" s="102"/>
-      <c r="BS31" s="102"/>
-      <c r="BT31" s="102"/>
-      <c r="BU31" s="102"/>
-      <c r="BV31" s="102"/>
-      <c r="BW31" s="102"/>
-      <c r="BX31" s="102"/>
-      <c r="BY31" s="102"/>
-      <c r="BZ31" s="102"/>
-      <c r="CA31" s="102"/>
-      <c r="CB31" s="102"/>
-      <c r="CC31" s="102"/>
-      <c r="CD31" s="102"/>
-      <c r="CE31" s="102"/>
-      <c r="CF31" s="102"/>
+      <c r="BF31" s="241"/>
+      <c r="BG31" s="241"/>
+      <c r="BH31" s="241"/>
+      <c r="BI31" s="241"/>
+      <c r="BJ31" s="241"/>
+      <c r="BK31" s="241"/>
+      <c r="BL31" s="241"/>
+      <c r="BM31" s="241"/>
+      <c r="BN31" s="241"/>
+      <c r="BO31" s="241"/>
+      <c r="BP31" s="241"/>
+      <c r="BQ31" s="241"/>
+      <c r="BR31" s="241"/>
+      <c r="BS31" s="241"/>
+      <c r="BT31" s="241"/>
+      <c r="BU31" s="241"/>
+      <c r="BV31" s="241"/>
+      <c r="BW31" s="241"/>
+      <c r="BX31" s="241"/>
+      <c r="BY31" s="241"/>
+      <c r="BZ31" s="241"/>
+      <c r="CA31" s="241"/>
+      <c r="CB31" s="241"/>
+      <c r="CC31" s="241"/>
+      <c r="CD31" s="241"/>
+      <c r="CE31" s="241"/>
+      <c r="CF31" s="241"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="22"/>
       <c r="D32" s="12"/>
-      <c r="L32" s="125" t="s">
+      <c r="L32" s="261" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="125"/>
-      <c r="R32" s="125"/>
-      <c r="S32" s="125"/>
-      <c r="T32" s="125"/>
-      <c r="U32" s="125"/>
-      <c r="V32" s="125"/>
-      <c r="W32" s="125"/>
-      <c r="X32" s="125"/>
-      <c r="Y32" s="125"/>
-      <c r="Z32" s="125"/>
-      <c r="AA32" s="125"/>
-      <c r="AB32" s="126"/>
+      <c r="M32" s="261"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="261"/>
+      <c r="S32" s="261"/>
+      <c r="T32" s="261"/>
+      <c r="U32" s="261"/>
+      <c r="V32" s="261"/>
+      <c r="W32" s="261"/>
+      <c r="X32" s="261"/>
+      <c r="Y32" s="261"/>
+      <c r="Z32" s="261"/>
+      <c r="AA32" s="261"/>
+      <c r="AB32" s="262"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="106" t="s">
+      <c r="AR32" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="AS32" s="106"/>
-      <c r="AT32" s="106"/>
-      <c r="AU32" s="106"/>
-      <c r="AV32" s="106"/>
-      <c r="AW32" s="106"/>
-      <c r="AX32" s="106"/>
-      <c r="AY32" s="106"/>
-      <c r="AZ32" s="106"/>
-      <c r="BA32" s="106"/>
-      <c r="BB32" s="106"/>
-      <c r="BC32" s="121"/>
-      <c r="BE32" s="98" t="s">
+      <c r="AS32" s="245"/>
+      <c r="AT32" s="245"/>
+      <c r="AU32" s="245"/>
+      <c r="AV32" s="245"/>
+      <c r="AW32" s="245"/>
+      <c r="AX32" s="245"/>
+      <c r="AY32" s="245"/>
+      <c r="AZ32" s="245"/>
+      <c r="BA32" s="245"/>
+      <c r="BB32" s="245"/>
+      <c r="BC32" s="258"/>
+      <c r="BE32" s="237" t="s">
         <v>61</v>
       </c>
-      <c r="BF32" s="99"/>
-      <c r="BG32" s="99"/>
-      <c r="BH32" s="99"/>
-      <c r="BI32" s="99"/>
-      <c r="BJ32" s="99"/>
-      <c r="BK32" s="99"/>
-      <c r="BL32" s="99"/>
-      <c r="BM32" s="99"/>
-      <c r="BN32" s="99"/>
-      <c r="BO32" s="99"/>
-      <c r="BP32" s="99"/>
-      <c r="BQ32" s="99"/>
-      <c r="BR32" s="99"/>
-      <c r="BS32" s="99"/>
-      <c r="BT32" s="99"/>
-      <c r="BU32" s="99"/>
-      <c r="BV32" s="99"/>
-      <c r="BW32" s="99"/>
-      <c r="BX32" s="99"/>
-      <c r="BY32" s="99"/>
-      <c r="BZ32" s="99"/>
-      <c r="CA32" s="99"/>
-      <c r="CB32" s="99"/>
-      <c r="CC32" s="99"/>
-      <c r="CD32" s="99"/>
-      <c r="CE32" s="99"/>
-      <c r="CF32" s="100"/>
+      <c r="BF32" s="238"/>
+      <c r="BG32" s="238"/>
+      <c r="BH32" s="238"/>
+      <c r="BI32" s="238"/>
+      <c r="BJ32" s="238"/>
+      <c r="BK32" s="238"/>
+      <c r="BL32" s="238"/>
+      <c r="BM32" s="238"/>
+      <c r="BN32" s="238"/>
+      <c r="BO32" s="238"/>
+      <c r="BP32" s="238"/>
+      <c r="BQ32" s="238"/>
+      <c r="BR32" s="238"/>
+      <c r="BS32" s="238"/>
+      <c r="BT32" s="238"/>
+      <c r="BU32" s="238"/>
+      <c r="BV32" s="238"/>
+      <c r="BW32" s="238"/>
+      <c r="BX32" s="238"/>
+      <c r="BY32" s="238"/>
+      <c r="BZ32" s="238"/>
+      <c r="CA32" s="238"/>
+      <c r="CB32" s="238"/>
+      <c r="CC32" s="238"/>
+      <c r="CD32" s="238"/>
+      <c r="CE32" s="238"/>
+      <c r="CF32" s="239"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="249"/>
       <c r="E33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="123"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="111"/>
+      <c r="L33" s="259"/>
+      <c r="M33" s="259"/>
+      <c r="N33" s="259"/>
+      <c r="O33" s="259"/>
+      <c r="P33" s="259"/>
+      <c r="Q33" s="259"/>
+      <c r="R33" s="259"/>
+      <c r="S33" s="259"/>
+      <c r="T33" s="259"/>
+      <c r="U33" s="259"/>
+      <c r="V33" s="259"/>
+      <c r="W33" s="259"/>
+      <c r="X33" s="259"/>
+      <c r="Y33" s="259"/>
+      <c r="Z33" s="259"/>
+      <c r="AA33" s="259"/>
+      <c r="AB33" s="260"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="249"/>
       <c r="AF33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AJ33" s="114"/>
-      <c r="AK33" s="114"/>
-      <c r="AL33" s="114"/>
-      <c r="AM33" s="114"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="114"/>
-      <c r="AP33" s="114"/>
-      <c r="AQ33" s="114"/>
-      <c r="AR33" s="114"/>
-      <c r="AS33" s="114"/>
-      <c r="AT33" s="114"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="114"/>
-      <c r="AX33" s="114"/>
-      <c r="AY33" s="114"/>
-      <c r="AZ33" s="114"/>
-      <c r="BA33" s="114"/>
-      <c r="BB33" s="114"/>
-      <c r="BC33" s="115"/>
-      <c r="BE33" s="117" t="s">
+      <c r="AJ33" s="251"/>
+      <c r="AK33" s="251"/>
+      <c r="AL33" s="251"/>
+      <c r="AM33" s="251"/>
+      <c r="AN33" s="251"/>
+      <c r="AO33" s="251"/>
+      <c r="AP33" s="251"/>
+      <c r="AQ33" s="251"/>
+      <c r="AR33" s="251"/>
+      <c r="AS33" s="251"/>
+      <c r="AT33" s="251"/>
+      <c r="AU33" s="251"/>
+      <c r="AV33" s="251"/>
+      <c r="AW33" s="251"/>
+      <c r="AX33" s="251"/>
+      <c r="AY33" s="251"/>
+      <c r="AZ33" s="251"/>
+      <c r="BA33" s="251"/>
+      <c r="BB33" s="251"/>
+      <c r="BC33" s="252"/>
+      <c r="BE33" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="BF33" s="118"/>
-      <c r="BG33" s="97" t="s">
+      <c r="BF33" s="255"/>
+      <c r="BG33" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="BH33" s="97"/>
-      <c r="BI33" s="97"/>
-      <c r="BJ33" s="97"/>
-      <c r="BK33" s="97"/>
-      <c r="BL33" s="97"/>
-      <c r="BM33" s="97"/>
-      <c r="BN33" s="97"/>
-      <c r="BO33" s="97"/>
-      <c r="BP33" s="97"/>
-      <c r="BQ33" s="97"/>
-      <c r="BT33" s="106" t="s">
+      <c r="BH33" s="236"/>
+      <c r="BI33" s="236"/>
+      <c r="BJ33" s="236"/>
+      <c r="BK33" s="236"/>
+      <c r="BL33" s="236"/>
+      <c r="BM33" s="236"/>
+      <c r="BN33" s="236"/>
+      <c r="BO33" s="236"/>
+      <c r="BP33" s="236"/>
+      <c r="BQ33" s="236"/>
+      <c r="BT33" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="BU33" s="106"/>
-      <c r="BV33" s="106"/>
-      <c r="BW33" s="106"/>
-      <c r="BX33" s="106"/>
-      <c r="BY33" s="106"/>
-      <c r="BZ33" s="106"/>
-      <c r="CA33" s="106"/>
-      <c r="CB33" s="106"/>
-      <c r="CC33" s="106"/>
-      <c r="CD33" s="106"/>
-      <c r="CE33" s="106"/>
+      <c r="BU33" s="245"/>
+      <c r="BV33" s="245"/>
+      <c r="BW33" s="245"/>
+      <c r="BX33" s="245"/>
+      <c r="BY33" s="245"/>
+      <c r="BZ33" s="245"/>
+      <c r="CA33" s="245"/>
+      <c r="CB33" s="245"/>
+      <c r="CC33" s="245"/>
+      <c r="CD33" s="245"/>
+      <c r="CE33" s="245"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="249"/>
       <c r="E34" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="296"/>
-      <c r="M34" s="296"/>
-      <c r="N34" s="296"/>
-      <c r="O34" s="296"/>
-      <c r="P34" s="296"/>
-      <c r="Q34" s="296"/>
-      <c r="R34" s="296"/>
-      <c r="S34" s="296"/>
-      <c r="T34" s="296"/>
-      <c r="U34" s="296"/>
-      <c r="V34" s="296"/>
-      <c r="W34" s="296"/>
-      <c r="X34" s="296"/>
-      <c r="Y34" s="296"/>
-      <c r="Z34" s="296"/>
-      <c r="AA34" s="296"/>
-      <c r="AB34" s="297"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="111"/>
+      <c r="L34" s="295"/>
+      <c r="M34" s="295"/>
+      <c r="N34" s="295"/>
+      <c r="O34" s="295"/>
+      <c r="P34" s="295"/>
+      <c r="Q34" s="295"/>
+      <c r="R34" s="295"/>
+      <c r="S34" s="295"/>
+      <c r="T34" s="295"/>
+      <c r="U34" s="295"/>
+      <c r="V34" s="295"/>
+      <c r="W34" s="295"/>
+      <c r="X34" s="295"/>
+      <c r="Y34" s="295"/>
+      <c r="Z34" s="295"/>
+      <c r="AA34" s="295"/>
+      <c r="AB34" s="296"/>
+      <c r="AD34" s="137"/>
+      <c r="AE34" s="249"/>
       <c r="AF34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ34" s="114"/>
-      <c r="AK34" s="114"/>
-      <c r="AL34" s="114"/>
-      <c r="AM34" s="114"/>
-      <c r="AN34" s="114"/>
-      <c r="AO34" s="114"/>
-      <c r="AP34" s="114"/>
-      <c r="AQ34" s="114"/>
-      <c r="AR34" s="114"/>
-      <c r="AS34" s="114"/>
-      <c r="AT34" s="114"/>
-      <c r="AU34" s="114"/>
-      <c r="AV34" s="114"/>
-      <c r="AW34" s="114"/>
-      <c r="AX34" s="114"/>
-      <c r="AY34" s="114"/>
-      <c r="AZ34" s="114"/>
-      <c r="BA34" s="114"/>
-      <c r="BB34" s="114"/>
-      <c r="BC34" s="115"/>
-      <c r="BE34" s="117"/>
-      <c r="BF34" s="118"/>
+      <c r="AJ34" s="251"/>
+      <c r="AK34" s="251"/>
+      <c r="AL34" s="251"/>
+      <c r="AM34" s="251"/>
+      <c r="AN34" s="251"/>
+      <c r="AO34" s="251"/>
+      <c r="AP34" s="251"/>
+      <c r="AQ34" s="251"/>
+      <c r="AR34" s="251"/>
+      <c r="AS34" s="251"/>
+      <c r="AT34" s="251"/>
+      <c r="AU34" s="251"/>
+      <c r="AV34" s="251"/>
+      <c r="AW34" s="251"/>
+      <c r="AX34" s="251"/>
+      <c r="AY34" s="251"/>
+      <c r="AZ34" s="251"/>
+      <c r="BA34" s="251"/>
+      <c r="BB34" s="251"/>
+      <c r="BC34" s="252"/>
+      <c r="BE34" s="254"/>
+      <c r="BF34" s="255"/>
       <c r="BG34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BL34" s="94"/>
-      <c r="BM34" s="94"/>
-      <c r="BN34" s="94"/>
-      <c r="BO34" s="94"/>
-      <c r="BP34" s="94"/>
-      <c r="BQ34" s="94"/>
-      <c r="BR34" s="94"/>
-      <c r="BS34" s="94"/>
-      <c r="BT34" s="94"/>
-      <c r="BU34" s="94"/>
-      <c r="BV34" s="94"/>
-      <c r="BW34" s="94"/>
-      <c r="BX34" s="94"/>
-      <c r="BY34" s="94"/>
-      <c r="BZ34" s="94"/>
-      <c r="CA34" s="94"/>
-      <c r="CB34" s="94"/>
-      <c r="CC34" s="94"/>
-      <c r="CD34" s="94"/>
+      <c r="BL34" s="153"/>
+      <c r="BM34" s="153"/>
+      <c r="BN34" s="153"/>
+      <c r="BO34" s="153"/>
+      <c r="BP34" s="153"/>
+      <c r="BQ34" s="153"/>
+      <c r="BR34" s="153"/>
+      <c r="BS34" s="153"/>
+      <c r="BT34" s="153"/>
+      <c r="BU34" s="153"/>
+      <c r="BV34" s="153"/>
+      <c r="BW34" s="153"/>
+      <c r="BX34" s="153"/>
+      <c r="BY34" s="153"/>
+      <c r="BZ34" s="153"/>
+      <c r="CA34" s="153"/>
+      <c r="CB34" s="153"/>
+      <c r="CC34" s="153"/>
+      <c r="CD34" s="153"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="249"/>
       <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="124"/>
-      <c r="U35" s="124"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="124"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="124"/>
+      <c r="L35" s="297"/>
+      <c r="M35" s="297"/>
+      <c r="N35" s="297"/>
+      <c r="O35" s="297"/>
+      <c r="P35" s="297"/>
+      <c r="Q35" s="297"/>
+      <c r="R35" s="297"/>
+      <c r="S35" s="297"/>
+      <c r="T35" s="297"/>
+      <c r="U35" s="297"/>
+      <c r="V35" s="297"/>
+      <c r="W35" s="297"/>
+      <c r="X35" s="297"/>
+      <c r="Y35" s="297"/>
+      <c r="Z35" s="297"/>
       <c r="AA35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="AB35" s="25"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="111"/>
+      <c r="AD35" s="137"/>
+      <c r="AE35" s="249"/>
       <c r="AF35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AJ35" s="114"/>
-      <c r="AK35" s="114"/>
-      <c r="AL35" s="114"/>
-      <c r="AM35" s="114"/>
-      <c r="AN35" s="114"/>
-      <c r="AO35" s="114"/>
-      <c r="AP35" s="114"/>
-      <c r="AQ35" s="114"/>
-      <c r="AR35" s="114"/>
-      <c r="AS35" s="114"/>
-      <c r="AT35" s="114"/>
-      <c r="AU35" s="114"/>
-      <c r="AV35" s="114"/>
-      <c r="AW35" s="114"/>
-      <c r="AX35" s="114"/>
-      <c r="AY35" s="114"/>
-      <c r="AZ35" s="114"/>
-      <c r="BA35" s="114"/>
+      <c r="AJ35" s="251"/>
+      <c r="AK35" s="251"/>
+      <c r="AL35" s="251"/>
+      <c r="AM35" s="251"/>
+      <c r="AN35" s="251"/>
+      <c r="AO35" s="251"/>
+      <c r="AP35" s="251"/>
+      <c r="AQ35" s="251"/>
+      <c r="AR35" s="251"/>
+      <c r="AS35" s="251"/>
+      <c r="AT35" s="251"/>
+      <c r="AU35" s="251"/>
+      <c r="AV35" s="251"/>
+      <c r="AW35" s="251"/>
+      <c r="AX35" s="251"/>
+      <c r="AY35" s="251"/>
+      <c r="AZ35" s="251"/>
+      <c r="BA35" s="251"/>
       <c r="BB35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="BC35" s="25"/>
-      <c r="BE35" s="117"/>
-      <c r="BF35" s="118"/>
+      <c r="BE35" s="254"/>
+      <c r="BF35" s="255"/>
       <c r="BG35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="BL35" s="94"/>
-      <c r="BM35" s="94"/>
-      <c r="BN35" s="94"/>
-      <c r="BO35" s="94"/>
-      <c r="BP35" s="94"/>
-      <c r="BQ35" s="94"/>
-      <c r="BR35" s="94"/>
-      <c r="BS35" s="94"/>
-      <c r="BT35" s="94"/>
-      <c r="BU35" s="94"/>
-      <c r="BV35" s="94"/>
-      <c r="BW35" s="94"/>
-      <c r="BX35" s="94"/>
-      <c r="BY35" s="94"/>
-      <c r="BZ35" s="94"/>
-      <c r="CA35" s="94"/>
-      <c r="CB35" s="94"/>
+      <c r="BL35" s="153"/>
+      <c r="BM35" s="153"/>
+      <c r="BN35" s="153"/>
+      <c r="BO35" s="153"/>
+      <c r="BP35" s="153"/>
+      <c r="BQ35" s="153"/>
+      <c r="BR35" s="153"/>
+      <c r="BS35" s="153"/>
+      <c r="BT35" s="153"/>
+      <c r="BU35" s="153"/>
+      <c r="BV35" s="153"/>
+      <c r="BW35" s="153"/>
+      <c r="BX35" s="153"/>
+      <c r="BY35" s="153"/>
+      <c r="BZ35" s="153"/>
+      <c r="CA35" s="153"/>
+      <c r="CB35" s="153"/>
       <c r="CC35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="26" t="s">
         <v>63</v>
       </c>
@@ -11491,53 +11493,53 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="116"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="113"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="153"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="153"/>
+      <c r="AA36" s="153"/>
+      <c r="AB36" s="253"/>
+      <c r="AD36" s="139"/>
+      <c r="AE36" s="250"/>
       <c r="AF36" s="26" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="94"/>
-      <c r="AK36" s="94"/>
-      <c r="AL36" s="94"/>
-      <c r="AM36" s="94"/>
-      <c r="AN36" s="94"/>
-      <c r="AO36" s="94"/>
-      <c r="AP36" s="94"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="94"/>
-      <c r="AS36" s="94"/>
-      <c r="AT36" s="94"/>
-      <c r="AU36" s="94"/>
-      <c r="AV36" s="94"/>
-      <c r="AW36" s="94"/>
-      <c r="AX36" s="94"/>
-      <c r="AY36" s="94"/>
-      <c r="AZ36" s="94"/>
-      <c r="BA36" s="94"/>
-      <c r="BB36" s="94"/>
-      <c r="BC36" s="116"/>
-      <c r="BE36" s="119"/>
-      <c r="BF36" s="120"/>
+      <c r="AJ36" s="153"/>
+      <c r="AK36" s="153"/>
+      <c r="AL36" s="153"/>
+      <c r="AM36" s="153"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="153"/>
+      <c r="AP36" s="153"/>
+      <c r="AQ36" s="153"/>
+      <c r="AR36" s="153"/>
+      <c r="AS36" s="153"/>
+      <c r="AT36" s="153"/>
+      <c r="AU36" s="153"/>
+      <c r="AV36" s="153"/>
+      <c r="AW36" s="153"/>
+      <c r="AX36" s="153"/>
+      <c r="AY36" s="153"/>
+      <c r="AZ36" s="153"/>
+      <c r="BA36" s="153"/>
+      <c r="BB36" s="153"/>
+      <c r="BC36" s="253"/>
+      <c r="BE36" s="256"/>
+      <c r="BF36" s="257"/>
       <c r="BG36" s="27" t="s">
         <v>0</v>
       </c>
@@ -11545,27 +11547,27 @@
       <c r="BI36" s="6"/>
       <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
-      <c r="BL36" s="95" t="s">
+      <c r="BL36" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="BM36" s="96"/>
-      <c r="BN36" s="96"/>
-      <c r="BO36" s="96"/>
-      <c r="BP36" s="96"/>
-      <c r="BQ36" s="96"/>
-      <c r="BR36" s="96"/>
-      <c r="BS36" s="96"/>
-      <c r="BT36" s="96"/>
-      <c r="BU36" s="96"/>
-      <c r="BV36" s="96"/>
-      <c r="BW36" s="96"/>
-      <c r="BX36" s="96"/>
-      <c r="BY36" s="96"/>
-      <c r="BZ36" s="96"/>
-      <c r="CA36" s="96"/>
-      <c r="CB36" s="96"/>
-      <c r="CC36" s="96"/>
-      <c r="CD36" s="96"/>
+      <c r="BM36" s="235"/>
+      <c r="BN36" s="235"/>
+      <c r="BO36" s="235"/>
+      <c r="BP36" s="235"/>
+      <c r="BQ36" s="235"/>
+      <c r="BR36" s="235"/>
+      <c r="BS36" s="235"/>
+      <c r="BT36" s="235"/>
+      <c r="BU36" s="235"/>
+      <c r="BV36" s="235"/>
+      <c r="BW36" s="235"/>
+      <c r="BX36" s="235"/>
+      <c r="BY36" s="235"/>
+      <c r="BZ36" s="235"/>
+      <c r="CA36" s="235"/>
+      <c r="CB36" s="235"/>
+      <c r="CC36" s="235"/>
+      <c r="CD36" s="235"/>
       <c r="CE36" s="6"/>
       <c r="CF36" s="6"/>
       <c r="CG36" s="4"/>
@@ -11694,26 +11696,135 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AG10:CD11"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AW8:BC8"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="CV21:CX23"/>
+    <mergeCell ref="G20:AD20"/>
+    <mergeCell ref="AE20:AT20"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BI20:BQ20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AK9:CD9"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="G14:L15"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="J9:O11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="P12:CD13"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="AH25:BP26"/>
+    <mergeCell ref="BJ27:BL28"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="BM27:CF27"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC14:AE15"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="BM28:CF28"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AF14:AI15"/>
     <mergeCell ref="BS16:CD21"/>
     <mergeCell ref="E19:AJ19"/>
     <mergeCell ref="E6:F15"/>
@@ -11738,139 +11849,30 @@
     <mergeCell ref="AV6:BK6"/>
     <mergeCell ref="R9:S11"/>
     <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="BM28:CF28"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="P27:BI28"/>
-    <mergeCell ref="AH25:BP26"/>
-    <mergeCell ref="BJ27:BL28"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="BM27:CF27"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="CV21:CX23"/>
-    <mergeCell ref="G20:AD20"/>
-    <mergeCell ref="AE20:AT20"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BI20:BQ20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AK9:CD9"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="G14:L15"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="J9:O11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="P12:CD13"/>
-    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AW8:BC8"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -846,7 +846,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -942,6 +942,10 @@
       <sz val="7.5"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
+    <font>
+      <sz val="4.5"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1868,45 +1872,762 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1916,33 +2637,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1976,700 +2670,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2749,7 +2753,7 @@
         <xdr:cNvPr id="2" name="AutoShape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2823,7 @@
         <xdr:cNvPr id="3" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2893,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2948,7 @@
         <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2969,7 @@
           <xdr:cNvPr id="7" name="AutoShape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3011,7 +3015,7 @@
           <xdr:cNvPr id="8" name="Rectangle 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3052,7 +3056,7 @@
           <xdr:cNvPr id="9" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3093,7 +3097,7 @@
           <xdr:cNvPr id="10" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3160,7 +3164,7 @@
           <xdr:cNvPr id="11" name="Rectangle 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3227,7 +3231,7 @@
           <xdr:cNvPr id="12" name="Rectangle 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3294,7 +3298,7 @@
           <xdr:cNvPr id="13" name="Rectangle 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3368,7 +3372,7 @@
           <xdr:cNvPr id="14" name="Rectangle 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3435,7 +3439,7 @@
           <xdr:cNvPr id="15" name="Rectangle 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3502,7 +3506,7 @@
           <xdr:cNvPr id="16" name="Rectangle 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3569,7 +3573,7 @@
           <xdr:cNvPr id="17" name="Rectangle 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3636,7 +3640,7 @@
           <xdr:cNvPr id="18" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3703,7 +3707,7 @@
           <xdr:cNvPr id="19" name="Rectangle 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3770,7 +3774,7 @@
           <xdr:cNvPr id="20" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3837,7 +3841,7 @@
           <xdr:cNvPr id="21" name="Rectangle 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3878,7 +3882,7 @@
           <xdr:cNvPr id="22" name="Line 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3918,7 +3922,7 @@
           <xdr:cNvPr id="23" name="Rectangle 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3959,7 +3963,7 @@
           <xdr:cNvPr id="24" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4000,7 +4004,7 @@
           <xdr:cNvPr id="25" name="Rectangle 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4041,7 +4045,7 @@
           <xdr:cNvPr id="26" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4082,7 +4086,7 @@
           <xdr:cNvPr id="27" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4123,7 +4127,7 @@
           <xdr:cNvPr id="28" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4164,7 +4168,7 @@
           <xdr:cNvPr id="29" name="Rectangle 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4205,7 +4209,7 @@
           <xdr:cNvPr id="30" name="Line 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4245,7 +4249,7 @@
           <xdr:cNvPr id="31" name="Rectangle 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4286,7 +4290,7 @@
           <xdr:cNvPr id="32" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4327,7 +4331,7 @@
           <xdr:cNvPr id="33" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4367,7 +4371,7 @@
           <xdr:cNvPr id="34" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4408,7 +4412,7 @@
           <xdr:cNvPr id="35" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4448,7 +4452,7 @@
           <xdr:cNvPr id="36" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4489,7 +4493,7 @@
           <xdr:cNvPr id="37" name="Rectangle 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4530,7 +4534,7 @@
           <xdr:cNvPr id="38" name="Line 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4570,7 +4574,7 @@
           <xdr:cNvPr id="39" name="Rectangle 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4611,7 +4615,7 @@
           <xdr:cNvPr id="40" name="Line 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4651,7 +4655,7 @@
           <xdr:cNvPr id="41" name="Rectangle 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4692,7 +4696,7 @@
           <xdr:cNvPr id="42" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4733,7 +4737,7 @@
           <xdr:cNvPr id="43" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4774,7 +4778,7 @@
           <xdr:cNvPr id="44" name="Line 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4814,7 +4818,7 @@
           <xdr:cNvPr id="45" name="Rectangle 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4855,7 +4859,7 @@
           <xdr:cNvPr id="46" name="Line 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4895,7 +4899,7 @@
           <xdr:cNvPr id="47" name="Rectangle 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4936,7 +4940,7 @@
           <xdr:cNvPr id="48" name="Line 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4976,7 +4980,7 @@
           <xdr:cNvPr id="49" name="Rectangle 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5017,7 +5021,7 @@
           <xdr:cNvPr id="50" name="Line 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5057,7 +5061,7 @@
           <xdr:cNvPr id="51" name="Rectangle 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5098,7 +5102,7 @@
           <xdr:cNvPr id="52" name="Line 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5138,7 +5142,7 @@
           <xdr:cNvPr id="53" name="Rectangle 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5179,7 +5183,7 @@
           <xdr:cNvPr id="54" name="Line 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5219,7 +5223,7 @@
           <xdr:cNvPr id="55" name="Rectangle 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5260,7 +5264,7 @@
           <xdr:cNvPr id="56" name="Line 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5300,7 +5304,7 @@
           <xdr:cNvPr id="57" name="Rectangle 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5341,7 +5345,7 @@
           <xdr:cNvPr id="58" name="Line 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5381,7 +5385,7 @@
           <xdr:cNvPr id="59" name="Rectangle 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5422,7 +5426,7 @@
           <xdr:cNvPr id="60" name="Line 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5462,7 +5466,7 @@
           <xdr:cNvPr id="61" name="Rectangle 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5503,7 +5507,7 @@
           <xdr:cNvPr id="62" name="Line 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5543,7 +5547,7 @@
           <xdr:cNvPr id="63" name="Rectangle 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5584,7 +5588,7 @@
           <xdr:cNvPr id="64" name="Line 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5624,7 +5628,7 @@
           <xdr:cNvPr id="65" name="Rectangle 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5665,7 +5669,7 @@
           <xdr:cNvPr id="66" name="Line 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5705,7 +5709,7 @@
           <xdr:cNvPr id="67" name="Rectangle 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5746,7 +5750,7 @@
           <xdr:cNvPr id="68" name="Line 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5786,7 +5790,7 @@
           <xdr:cNvPr id="69" name="Rectangle 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5827,7 +5831,7 @@
           <xdr:cNvPr id="70" name="Line 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5867,7 +5871,7 @@
           <xdr:cNvPr id="71" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5908,7 +5912,7 @@
           <xdr:cNvPr id="72" name="Line 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5948,7 +5952,7 @@
           <xdr:cNvPr id="73" name="Rectangle 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5989,7 +5993,7 @@
           <xdr:cNvPr id="74" name="Line 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6029,7 +6033,7 @@
           <xdr:cNvPr id="75" name="Rectangle 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6070,7 +6074,7 @@
           <xdr:cNvPr id="76" name="図 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6129,7 +6133,7 @@
           <xdr:cNvPr id="77" name="図 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6188,7 +6192,7 @@
           <xdr:cNvPr id="78" name="図 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6247,7 +6251,7 @@
           <xdr:cNvPr id="79" name="図 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6306,7 +6310,7 @@
           <xdr:cNvPr id="80" name="Oval 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6341,7 +6345,7 @@
           <xdr:cNvPr id="81" name="Rectangle 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6436,7 +6440,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6503,7 +6507,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6570,7 +6574,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6637,7 +6641,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6704,7 +6708,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6771,7 +6775,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6838,7 +6842,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6905,7 +6909,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6972,7 +6976,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7039,7 +7043,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7101,7 +7105,7 @@
         <xdr:cNvPr id="84" name="A2_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7167,7 +7171,7 @@
         <xdr:cNvPr id="96" name="A2_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000060000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7233,7 +7237,7 @@
         <xdr:cNvPr id="97" name="A2_41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7299,7 +7303,7 @@
         <xdr:cNvPr id="101" name="A1_15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7364,7 +7368,7 @@
         <xdr:cNvPr id="100" name="A1_51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7430,7 +7434,7 @@
         <xdr:cNvPr id="102" name="A1_52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000066000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7496,7 +7500,7 @@
         <xdr:cNvPr id="103" name="A1_53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7562,7 +7566,7 @@
         <xdr:cNvPr id="99" name="A4_111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7627,7 +7631,7 @@
         <xdr:cNvPr id="104" name="A4_113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7692,7 +7696,7 @@
         <xdr:cNvPr id="105" name="A4_112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000069000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7757,7 +7761,7 @@
         <xdr:cNvPr id="106" name="A4_114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7822,7 +7826,7 @@
         <xdr:cNvPr id="107" name="A4_221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7887,7 +7891,7 @@
         <xdr:cNvPr id="108" name="A4_222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7952,7 +7956,7 @@
         <xdr:cNvPr id="109" name="A4_223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8017,7 +8021,7 @@
         <xdr:cNvPr id="110" name="A4_224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8082,7 +8086,7 @@
         <xdr:cNvPr id="111" name="A4_1111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8147,7 +8151,7 @@
         <xdr:cNvPr id="118" name="A2_19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000076000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8229,7 +8233,7 @@
         <xdr:cNvPr id="120" name="Picture 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8273,7 +8277,7 @@
         <xdr:cNvPr id="112" name="TextBox 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000070000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8339,7 +8343,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000071000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8405,7 +8409,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,7 +8482,7 @@
         <xdr:cNvPr id="121" name="TextBox 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8557,7 +8561,7 @@
         <xdr:cNvPr id="123" name="TextBox 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8636,7 +8640,7 @@
         <xdr:cNvPr id="82" name="TextBox 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8714,7 +8718,7 @@
         <xdr:cNvPr id="115" name="TextBox 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000073000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9080,7 +9084,7 @@
   <dimension ref="C1:CX75"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35:Z35"/>
+      <selection activeCell="L33" sqref="L33:AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -9103,1054 +9107,1054 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="BK2" s="58" t="s">
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="BK2" s="288" t="s">
         <v>50</v>
       </c>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="61" t="s">
+      <c r="BL2" s="279"/>
+      <c r="BM2" s="279"/>
+      <c r="BN2" s="279"/>
+      <c r="BO2" s="279"/>
+      <c r="BP2" s="291" t="s">
         <v>49</v>
       </c>
-      <c r="BQ2" s="62"/>
-      <c r="BR2" s="62"/>
-      <c r="BS2" s="62"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="30" t="s">
+      <c r="BQ2" s="292"/>
+      <c r="BR2" s="292"/>
+      <c r="BS2" s="292"/>
+      <c r="BT2" s="293"/>
+      <c r="BU2" s="279" t="s">
         <v>48</v>
       </c>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="55" t="s">
+      <c r="BV2" s="279"/>
+      <c r="BW2" s="279"/>
+      <c r="BX2" s="279"/>
+      <c r="BY2" s="279"/>
+      <c r="BZ2" s="285" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="56"/>
-      <c r="CC2" s="56"/>
-      <c r="CD2" s="57"/>
+      <c r="CA2" s="286"/>
+      <c r="CB2" s="286"/>
+      <c r="CC2" s="286"/>
+      <c r="CD2" s="287"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="Y3" s="156" t="s">
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="Y3" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="156"/>
-      <c r="AH3" s="156"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="156"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="156"/>
-      <c r="AM3" s="156"/>
-      <c r="AN3" s="156"/>
-      <c r="AO3" s="156"/>
-      <c r="AP3" s="156"/>
-      <c r="AQ3" s="156"/>
-      <c r="AR3" s="156"/>
-      <c r="AS3" s="156"/>
-      <c r="AT3" s="156"/>
-      <c r="AU3" s="156"/>
-      <c r="AV3" s="156"/>
-      <c r="AW3" s="156"/>
-      <c r="AX3" s="156"/>
-      <c r="AY3" s="156"/>
-      <c r="AZ3" s="156"/>
-      <c r="BA3" s="156"/>
-      <c r="BB3" s="156"/>
-      <c r="BC3" s="156"/>
-      <c r="BD3" s="156"/>
-      <c r="BE3" s="156"/>
-      <c r="BF3" s="156"/>
-      <c r="BG3" s="156"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="208"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="208"/>
+      <c r="AE3" s="208"/>
+      <c r="AF3" s="208"/>
+      <c r="AG3" s="208"/>
+      <c r="AH3" s="208"/>
+      <c r="AI3" s="208"/>
+      <c r="AJ3" s="208"/>
+      <c r="AK3" s="208"/>
+      <c r="AL3" s="208"/>
+      <c r="AM3" s="208"/>
+      <c r="AN3" s="208"/>
+      <c r="AO3" s="208"/>
+      <c r="AP3" s="208"/>
+      <c r="AQ3" s="208"/>
+      <c r="AR3" s="208"/>
+      <c r="AS3" s="208"/>
+      <c r="AT3" s="208"/>
+      <c r="AU3" s="208"/>
+      <c r="AV3" s="208"/>
+      <c r="AW3" s="208"/>
+      <c r="AX3" s="208"/>
+      <c r="AY3" s="208"/>
+      <c r="AZ3" s="208"/>
+      <c r="BA3" s="208"/>
+      <c r="BB3" s="208"/>
+      <c r="BC3" s="208"/>
+      <c r="BD3" s="208"/>
+      <c r="BE3" s="208"/>
+      <c r="BF3" s="208"/>
+      <c r="BG3" s="208"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="33"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="32"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="33"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="32"/>
-      <c r="BX3" s="32"/>
-      <c r="BY3" s="33"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="32"/>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="32"/>
-      <c r="CD3" s="33"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="137"/>
+      <c r="BP3" s="135"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="137"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="137"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="137"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="156"/>
-      <c r="AC4" s="156"/>
-      <c r="AD4" s="156"/>
-      <c r="AE4" s="156"/>
-      <c r="AF4" s="156"/>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
-      <c r="AR4" s="156"/>
-      <c r="AS4" s="156"/>
-      <c r="AT4" s="156"/>
-      <c r="AU4" s="156"/>
-      <c r="AV4" s="156"/>
-      <c r="AW4" s="156"/>
-      <c r="AX4" s="156"/>
-      <c r="AY4" s="156"/>
-      <c r="AZ4" s="156"/>
-      <c r="BA4" s="156"/>
-      <c r="BB4" s="156"/>
-      <c r="BC4" s="156"/>
-      <c r="BD4" s="156"/>
-      <c r="BE4" s="156"/>
-      <c r="BF4" s="156"/>
-      <c r="BG4" s="156"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="209"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="208"/>
+      <c r="AC4" s="208"/>
+      <c r="AD4" s="208"/>
+      <c r="AE4" s="208"/>
+      <c r="AF4" s="208"/>
+      <c r="AG4" s="208"/>
+      <c r="AH4" s="208"/>
+      <c r="AI4" s="208"/>
+      <c r="AJ4" s="208"/>
+      <c r="AK4" s="208"/>
+      <c r="AL4" s="208"/>
+      <c r="AM4" s="208"/>
+      <c r="AN4" s="208"/>
+      <c r="AO4" s="208"/>
+      <c r="AP4" s="208"/>
+      <c r="AQ4" s="208"/>
+      <c r="AR4" s="208"/>
+      <c r="AS4" s="208"/>
+      <c r="AT4" s="208"/>
+      <c r="AU4" s="208"/>
+      <c r="AV4" s="208"/>
+      <c r="AW4" s="208"/>
+      <c r="AX4" s="208"/>
+      <c r="AY4" s="208"/>
+      <c r="AZ4" s="208"/>
+      <c r="BA4" s="208"/>
+      <c r="BB4" s="208"/>
+      <c r="BC4" s="208"/>
+      <c r="BD4" s="208"/>
+      <c r="BE4" s="208"/>
+      <c r="BF4" s="208"/>
+      <c r="BG4" s="208"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="36"/>
+      <c r="BK4" s="194"/>
+      <c r="BL4" s="189"/>
+      <c r="BM4" s="189"/>
+      <c r="BN4" s="189"/>
+      <c r="BO4" s="280"/>
+      <c r="BP4" s="194"/>
+      <c r="BQ4" s="189"/>
+      <c r="BR4" s="189"/>
+      <c r="BS4" s="189"/>
+      <c r="BT4" s="280"/>
+      <c r="BU4" s="194"/>
+      <c r="BV4" s="189"/>
+      <c r="BW4" s="189"/>
+      <c r="BX4" s="189"/>
+      <c r="BY4" s="280"/>
+      <c r="BZ4" s="194"/>
+      <c r="CA4" s="189"/>
+      <c r="CB4" s="189"/>
+      <c r="CC4" s="189"/>
+      <c r="CD4" s="280"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="78" t="s">
+      <c r="D6" s="210"/>
+      <c r="E6" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="159" t="s">
+      <c r="F6" s="143"/>
+      <c r="G6" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="157" t="s">
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158"/>
-      <c r="X6" s="164" t="s">
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="118"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="118"/>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="118"/>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="119"/>
-      <c r="AV6" s="118" t="s">
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="33"/>
+      <c r="AV6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AW6" s="118"/>
-      <c r="AX6" s="118"/>
-      <c r="AY6" s="118"/>
-      <c r="AZ6" s="118"/>
-      <c r="BA6" s="118"/>
-      <c r="BB6" s="118"/>
-      <c r="BC6" s="118"/>
-      <c r="BD6" s="118"/>
-      <c r="BE6" s="118"/>
-      <c r="BF6" s="118"/>
-      <c r="BG6" s="118"/>
-      <c r="BH6" s="118"/>
-      <c r="BI6" s="118"/>
-      <c r="BJ6" s="118"/>
-      <c r="BK6" s="119"/>
-      <c r="BL6" s="31" t="s">
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="32"/>
-      <c r="BV6" s="32"/>
-      <c r="BW6" s="32"/>
-      <c r="BX6" s="32"/>
-      <c r="BY6" s="32"/>
-      <c r="BZ6" s="32"/>
-      <c r="CA6" s="33"/>
+      <c r="BM6" s="136"/>
+      <c r="BN6" s="136"/>
+      <c r="BO6" s="136"/>
+      <c r="BP6" s="136"/>
+      <c r="BQ6" s="136"/>
+      <c r="BR6" s="136"/>
+      <c r="BS6" s="136"/>
+      <c r="BT6" s="136"/>
+      <c r="BU6" s="136"/>
+      <c r="BV6" s="136"/>
+      <c r="BW6" s="136"/>
+      <c r="BX6" s="136"/>
+      <c r="BY6" s="136"/>
+      <c r="BZ6" s="136"/>
+      <c r="CA6" s="137"/>
       <c r="CD6" s="3"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="130"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="202"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="37"/>
+      <c r="Z7" s="40"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="37"/>
+      <c r="AB7" s="40"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="130"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="202"/>
       <c r="AG7" s="41"/>
-      <c r="AH7" s="37"/>
+      <c r="AH7" s="40"/>
       <c r="AI7" s="41"/>
-      <c r="AJ7" s="37"/>
+      <c r="AJ7" s="40"/>
       <c r="AK7" s="41"/>
-      <c r="AL7" s="165"/>
-      <c r="AM7" s="121"/>
-      <c r="AN7" s="130"/>
+      <c r="AL7" s="200"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="202"/>
       <c r="AO7" s="41"/>
-      <c r="AP7" s="37"/>
+      <c r="AP7" s="40"/>
       <c r="AQ7" s="41"/>
-      <c r="AR7" s="37"/>
+      <c r="AR7" s="40"/>
       <c r="AS7" s="41"/>
-      <c r="AT7" s="165"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="64" t="s">
+      <c r="AT7" s="200"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="294" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="117"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="66"/>
-      <c r="BI7" s="66"/>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="99" t="s">
+      <c r="AW7" s="295"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="278"/>
+      <c r="BD7" s="277"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="34"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="278"/>
+      <c r="BL7" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="BM7" s="100"/>
-      <c r="BN7" s="100"/>
-      <c r="BO7" s="101"/>
-      <c r="BP7" s="51"/>
+      <c r="BM7" s="221"/>
+      <c r="BN7" s="221"/>
+      <c r="BO7" s="222"/>
+      <c r="BP7" s="251"/>
       <c r="BQ7" s="41"/>
-      <c r="BR7" s="49"/>
+      <c r="BR7" s="252"/>
       <c r="BS7" s="41"/>
-      <c r="BT7" s="51"/>
+      <c r="BT7" s="251"/>
       <c r="BU7" s="41"/>
-      <c r="BV7" s="49"/>
+      <c r="BV7" s="252"/>
       <c r="BW7" s="41"/>
-      <c r="BX7" s="51"/>
-      <c r="BY7" s="49"/>
-      <c r="BZ7" s="37"/>
-      <c r="CA7" s="38"/>
+      <c r="BX7" s="251"/>
+      <c r="BY7" s="252"/>
+      <c r="BZ7" s="40"/>
+      <c r="CA7" s="217"/>
       <c r="CB7" s="4"/>
       <c r="CD7" s="3"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="131"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="42"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="189"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="189"/>
+      <c r="W8" s="189"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="201"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="201"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="203"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="201"/>
+      <c r="AU8" s="45"/>
       <c r="AV8" s="29"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="54"/>
+      <c r="AW8" s="254"/>
+      <c r="AX8" s="254"/>
+      <c r="AY8" s="254"/>
+      <c r="AZ8" s="254"/>
+      <c r="BA8" s="254"/>
+      <c r="BB8" s="254"/>
+      <c r="BC8" s="255"/>
       <c r="BD8" s="29"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="53"/>
-      <c r="BH8" s="53"/>
-      <c r="BI8" s="53"/>
-      <c r="BJ8" s="53"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="102"/>
-      <c r="BM8" s="103"/>
-      <c r="BN8" s="103"/>
-      <c r="BO8" s="104"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="42"/>
-      <c r="BR8" s="50"/>
-      <c r="BS8" s="42"/>
-      <c r="BT8" s="52"/>
-      <c r="BU8" s="42"/>
-      <c r="BV8" s="50"/>
-      <c r="BW8" s="42"/>
-      <c r="BX8" s="52"/>
-      <c r="BY8" s="50"/>
-      <c r="BZ8" s="39"/>
-      <c r="CA8" s="40"/>
+      <c r="BE8" s="254"/>
+      <c r="BF8" s="254"/>
+      <c r="BG8" s="254"/>
+      <c r="BH8" s="254"/>
+      <c r="BI8" s="254"/>
+      <c r="BJ8" s="254"/>
+      <c r="BK8" s="255"/>
+      <c r="BL8" s="223"/>
+      <c r="BM8" s="224"/>
+      <c r="BN8" s="224"/>
+      <c r="BO8" s="225"/>
+      <c r="BP8" s="253"/>
+      <c r="BQ8" s="45"/>
+      <c r="BR8" s="201"/>
+      <c r="BS8" s="45"/>
+      <c r="BT8" s="253"/>
+      <c r="BU8" s="45"/>
+      <c r="BV8" s="201"/>
+      <c r="BW8" s="45"/>
+      <c r="BX8" s="253"/>
+      <c r="BY8" s="201"/>
+      <c r="BZ8" s="44"/>
+      <c r="CA8" s="281"/>
       <c r="CB8" s="5"/>
       <c r="CC8" s="6"/>
       <c r="CD8" s="3"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="274" t="s">
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="275"/>
-      <c r="I9" s="276"/>
-      <c r="J9" s="283" t="s">
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="284"/>
-      <c r="L9" s="284"/>
-      <c r="M9" s="284"/>
-      <c r="N9" s="284"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="37"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="41"/>
-      <c r="R9" s="37"/>
+      <c r="R9" s="40"/>
       <c r="S9" s="41"/>
-      <c r="T9" s="37"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="37"/>
+      <c r="V9" s="40"/>
       <c r="W9" s="41"/>
-      <c r="X9" s="37"/>
+      <c r="X9" s="40"/>
       <c r="Y9" s="41"/>
-      <c r="Z9" s="37"/>
+      <c r="Z9" s="40"/>
       <c r="AA9" s="41"/>
-      <c r="AB9" s="37"/>
+      <c r="AB9" s="40"/>
       <c r="AC9" s="41"/>
-      <c r="AD9" s="78" t="s">
+      <c r="AD9" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="166"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="59" t="s">
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="204"/>
+      <c r="AG9" s="289" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="225"/>
-      <c r="AL9" s="225"/>
-      <c r="AM9" s="225"/>
-      <c r="AN9" s="225"/>
-      <c r="AO9" s="225"/>
-      <c r="AP9" s="225"/>
-      <c r="AQ9" s="225"/>
-      <c r="AR9" s="225"/>
-      <c r="AS9" s="225"/>
-      <c r="AT9" s="225"/>
-      <c r="AU9" s="225"/>
-      <c r="AV9" s="225"/>
-      <c r="AW9" s="225"/>
-      <c r="AX9" s="225"/>
-      <c r="AY9" s="225"/>
-      <c r="AZ9" s="225"/>
-      <c r="BA9" s="225"/>
-      <c r="BB9" s="225"/>
-      <c r="BC9" s="225"/>
-      <c r="BD9" s="225"/>
-      <c r="BE9" s="225"/>
-      <c r="BF9" s="225"/>
-      <c r="BG9" s="225"/>
-      <c r="BH9" s="225"/>
-      <c r="BI9" s="225"/>
-      <c r="BJ9" s="225"/>
-      <c r="BK9" s="225"/>
-      <c r="BL9" s="225"/>
-      <c r="BM9" s="225"/>
-      <c r="BN9" s="225"/>
-      <c r="BO9" s="225"/>
-      <c r="BP9" s="225"/>
-      <c r="BQ9" s="225"/>
-      <c r="BR9" s="225"/>
-      <c r="BS9" s="225"/>
-      <c r="BT9" s="225"/>
-      <c r="BU9" s="225"/>
-      <c r="BV9" s="225"/>
-      <c r="BW9" s="225"/>
-      <c r="BX9" s="225"/>
-      <c r="BY9" s="225"/>
-      <c r="BZ9" s="225"/>
-      <c r="CA9" s="225"/>
-      <c r="CB9" s="225"/>
-      <c r="CC9" s="225"/>
-      <c r="CD9" s="226"/>
+      <c r="AH9" s="290"/>
+      <c r="AI9" s="290"/>
+      <c r="AJ9" s="290"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="46"/>
+      <c r="BI9" s="46"/>
+      <c r="BJ9" s="46"/>
+      <c r="BK9" s="46"/>
+      <c r="BL9" s="46"/>
+      <c r="BM9" s="46"/>
+      <c r="BN9" s="46"/>
+      <c r="BO9" s="46"/>
+      <c r="BP9" s="46"/>
+      <c r="BQ9" s="46"/>
+      <c r="BR9" s="46"/>
+      <c r="BS9" s="46"/>
+      <c r="BT9" s="46"/>
+      <c r="BU9" s="46"/>
+      <c r="BV9" s="46"/>
+      <c r="BW9" s="46"/>
+      <c r="BX9" s="46"/>
+      <c r="BY9" s="46"/>
+      <c r="BZ9" s="46"/>
+      <c r="CA9" s="46"/>
+      <c r="CB9" s="46"/>
+      <c r="CC9" s="46"/>
+      <c r="CD9" s="47"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="279"/>
-      <c r="J10" s="286"/>
-      <c r="K10" s="287"/>
-      <c r="L10" s="287"/>
-      <c r="M10" s="287"/>
-      <c r="N10" s="287"/>
-      <c r="O10" s="288"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="168"/>
-      <c r="AF10" s="169"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
-      <c r="BM10" s="44"/>
-      <c r="BN10" s="44"/>
-      <c r="BO10" s="44"/>
-      <c r="BP10" s="44"/>
-      <c r="BQ10" s="44"/>
-      <c r="BR10" s="44"/>
-      <c r="BS10" s="44"/>
-      <c r="BT10" s="44"/>
-      <c r="BU10" s="44"/>
-      <c r="BV10" s="44"/>
-      <c r="BW10" s="44"/>
-      <c r="BX10" s="44"/>
-      <c r="BY10" s="44"/>
-      <c r="BZ10" s="44"/>
-      <c r="CA10" s="44"/>
-      <c r="CB10" s="44"/>
-      <c r="CC10" s="44"/>
-      <c r="CD10" s="45"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="205"/>
+      <c r="AG10" s="282"/>
+      <c r="AH10" s="283"/>
+      <c r="AI10" s="283"/>
+      <c r="AJ10" s="283"/>
+      <c r="AK10" s="283"/>
+      <c r="AL10" s="283"/>
+      <c r="AM10" s="283"/>
+      <c r="AN10" s="283"/>
+      <c r="AO10" s="283"/>
+      <c r="AP10" s="283"/>
+      <c r="AQ10" s="283"/>
+      <c r="AR10" s="283"/>
+      <c r="AS10" s="283"/>
+      <c r="AT10" s="283"/>
+      <c r="AU10" s="283"/>
+      <c r="AV10" s="283"/>
+      <c r="AW10" s="283"/>
+      <c r="AX10" s="283"/>
+      <c r="AY10" s="283"/>
+      <c r="AZ10" s="283"/>
+      <c r="BA10" s="283"/>
+      <c r="BB10" s="283"/>
+      <c r="BC10" s="283"/>
+      <c r="BD10" s="283"/>
+      <c r="BE10" s="283"/>
+      <c r="BF10" s="283"/>
+      <c r="BG10" s="283"/>
+      <c r="BH10" s="283"/>
+      <c r="BI10" s="283"/>
+      <c r="BJ10" s="283"/>
+      <c r="BK10" s="283"/>
+      <c r="BL10" s="283"/>
+      <c r="BM10" s="283"/>
+      <c r="BN10" s="283"/>
+      <c r="BO10" s="283"/>
+      <c r="BP10" s="283"/>
+      <c r="BQ10" s="283"/>
+      <c r="BR10" s="283"/>
+      <c r="BS10" s="283"/>
+      <c r="BT10" s="283"/>
+      <c r="BU10" s="283"/>
+      <c r="BV10" s="283"/>
+      <c r="BW10" s="283"/>
+      <c r="BX10" s="283"/>
+      <c r="BY10" s="283"/>
+      <c r="BZ10" s="283"/>
+      <c r="CA10" s="283"/>
+      <c r="CB10" s="283"/>
+      <c r="CC10" s="283"/>
+      <c r="CD10" s="284"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="280"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="282"/>
-      <c r="J11" s="289"/>
-      <c r="K11" s="290"/>
-      <c r="L11" s="290"/>
-      <c r="M11" s="290"/>
-      <c r="N11" s="290"/>
-      <c r="O11" s="291"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="170"/>
-      <c r="AF11" s="171"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47"/>
-      <c r="AN11" s="47"/>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47"/>
-      <c r="AQ11" s="47"/>
-      <c r="AR11" s="47"/>
-      <c r="AS11" s="47"/>
-      <c r="AT11" s="47"/>
-      <c r="AU11" s="47"/>
-      <c r="AV11" s="47"/>
-      <c r="AW11" s="47"/>
-      <c r="AX11" s="47"/>
-      <c r="AY11" s="47"/>
-      <c r="AZ11" s="47"/>
-      <c r="BA11" s="47"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="47"/>
-      <c r="BE11" s="47"/>
-      <c r="BF11" s="47"/>
-      <c r="BG11" s="47"/>
-      <c r="BH11" s="47"/>
-      <c r="BI11" s="47"/>
-      <c r="BJ11" s="47"/>
-      <c r="BK11" s="47"/>
-      <c r="BL11" s="47"/>
-      <c r="BM11" s="47"/>
-      <c r="BN11" s="47"/>
-      <c r="BO11" s="47"/>
-      <c r="BP11" s="47"/>
-      <c r="BQ11" s="47"/>
-      <c r="BR11" s="47"/>
-      <c r="BS11" s="47"/>
-      <c r="BT11" s="47"/>
-      <c r="BU11" s="47"/>
-      <c r="BV11" s="47"/>
-      <c r="BW11" s="47"/>
-      <c r="BX11" s="47"/>
-      <c r="BY11" s="47"/>
-      <c r="BZ11" s="47"/>
-      <c r="CA11" s="47"/>
-      <c r="CB11" s="47"/>
-      <c r="CC11" s="47"/>
-      <c r="CD11" s="48"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="206"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
+      <c r="BM11" s="92"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="92"/>
+      <c r="BP11" s="92"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="92"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="92"/>
+      <c r="BX11" s="92"/>
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="92"/>
+      <c r="CB11" s="92"/>
+      <c r="CC11" s="92"/>
+      <c r="CD11" s="93"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="195" t="s">
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="196"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="283" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="284"/>
-      <c r="L12" s="284"/>
-      <c r="M12" s="284"/>
-      <c r="N12" s="284"/>
-      <c r="O12" s="285"/>
-      <c r="P12" s="292"/>
-      <c r="Q12" s="293"/>
-      <c r="R12" s="293"/>
-      <c r="S12" s="293"/>
-      <c r="T12" s="293"/>
-      <c r="U12" s="293"/>
-      <c r="V12" s="293"/>
-      <c r="W12" s="293"/>
-      <c r="X12" s="293"/>
-      <c r="Y12" s="293"/>
-      <c r="Z12" s="293"/>
-      <c r="AA12" s="293"/>
-      <c r="AB12" s="293"/>
-      <c r="AC12" s="293"/>
-      <c r="AD12" s="293"/>
-      <c r="AE12" s="293"/>
-      <c r="AF12" s="293"/>
-      <c r="AG12" s="293"/>
-      <c r="AH12" s="293"/>
-      <c r="AI12" s="293"/>
-      <c r="AJ12" s="293"/>
-      <c r="AK12" s="293"/>
-      <c r="AL12" s="293"/>
-      <c r="AM12" s="293"/>
-      <c r="AN12" s="293"/>
-      <c r="AO12" s="293"/>
-      <c r="AP12" s="293"/>
-      <c r="AQ12" s="293"/>
-      <c r="AR12" s="293"/>
-      <c r="AS12" s="293"/>
-      <c r="AT12" s="293"/>
-      <c r="AU12" s="293"/>
-      <c r="AV12" s="293"/>
-      <c r="AW12" s="293"/>
-      <c r="AX12" s="293"/>
-      <c r="AY12" s="293"/>
-      <c r="AZ12" s="293"/>
-      <c r="BA12" s="293"/>
-      <c r="BB12" s="293"/>
-      <c r="BC12" s="293"/>
-      <c r="BD12" s="293"/>
-      <c r="BE12" s="293"/>
-      <c r="BF12" s="293"/>
-      <c r="BG12" s="293"/>
-      <c r="BH12" s="293"/>
-      <c r="BI12" s="293"/>
-      <c r="BJ12" s="293"/>
-      <c r="BK12" s="293"/>
-      <c r="BL12" s="293"/>
-      <c r="BM12" s="293"/>
-      <c r="BN12" s="293"/>
-      <c r="BO12" s="293"/>
-      <c r="BP12" s="293"/>
-      <c r="BQ12" s="293"/>
-      <c r="BR12" s="293"/>
-      <c r="BS12" s="293"/>
-      <c r="BT12" s="293"/>
-      <c r="BU12" s="293"/>
-      <c r="BV12" s="293"/>
-      <c r="BW12" s="293"/>
-      <c r="BX12" s="293"/>
-      <c r="BY12" s="293"/>
-      <c r="BZ12" s="293"/>
-      <c r="CA12" s="293"/>
-      <c r="CB12" s="293"/>
-      <c r="CC12" s="293"/>
-      <c r="CD12" s="294"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="89"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="89"/>
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="89"/>
+      <c r="BE12" s="89"/>
+      <c r="BF12" s="89"/>
+      <c r="BG12" s="89"/>
+      <c r="BH12" s="89"/>
+      <c r="BI12" s="89"/>
+      <c r="BJ12" s="89"/>
+      <c r="BK12" s="89"/>
+      <c r="BL12" s="89"/>
+      <c r="BM12" s="89"/>
+      <c r="BN12" s="89"/>
+      <c r="BO12" s="89"/>
+      <c r="BP12" s="89"/>
+      <c r="BQ12" s="89"/>
+      <c r="BR12" s="89"/>
+      <c r="BS12" s="89"/>
+      <c r="BT12" s="89"/>
+      <c r="BU12" s="89"/>
+      <c r="BV12" s="89"/>
+      <c r="BW12" s="89"/>
+      <c r="BX12" s="89"/>
+      <c r="BY12" s="89"/>
+      <c r="BZ12" s="89"/>
+      <c r="CA12" s="89"/>
+      <c r="CB12" s="89"/>
+      <c r="CC12" s="89"/>
+      <c r="CD12" s="90"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="289"/>
-      <c r="K13" s="290"/>
-      <c r="L13" s="290"/>
-      <c r="M13" s="290"/>
-      <c r="N13" s="290"/>
-      <c r="O13" s="291"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BI13" s="47"/>
-      <c r="BJ13" s="47"/>
-      <c r="BK13" s="47"/>
-      <c r="BL13" s="47"/>
-      <c r="BM13" s="47"/>
-      <c r="BN13" s="47"/>
-      <c r="BO13" s="47"/>
-      <c r="BP13" s="47"/>
-      <c r="BQ13" s="47"/>
-      <c r="BR13" s="47"/>
-      <c r="BS13" s="47"/>
-      <c r="BT13" s="47"/>
-      <c r="BU13" s="47"/>
-      <c r="BV13" s="47"/>
-      <c r="BW13" s="47"/>
-      <c r="BX13" s="47"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="47"/>
-      <c r="CA13" s="47"/>
-      <c r="CB13" s="47"/>
-      <c r="CC13" s="47"/>
-      <c r="CD13" s="48"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="92"/>
+      <c r="BG13" s="92"/>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="92"/>
+      <c r="BL13" s="92"/>
+      <c r="BM13" s="92"/>
+      <c r="BN13" s="92"/>
+      <c r="BO13" s="92"/>
+      <c r="BP13" s="92"/>
+      <c r="BQ13" s="92"/>
+      <c r="BR13" s="92"/>
+      <c r="BS13" s="92"/>
+      <c r="BT13" s="92"/>
+      <c r="BU13" s="92"/>
+      <c r="BV13" s="92"/>
+      <c r="BW13" s="92"/>
+      <c r="BX13" s="92"/>
+      <c r="BY13" s="92"/>
+      <c r="BZ13" s="92"/>
+      <c r="CA13" s="92"/>
+      <c r="CB13" s="92"/>
+      <c r="CC13" s="92"/>
+      <c r="CD13" s="93"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="266" t="s">
+      <c r="C14" s="210"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="267"/>
-      <c r="I14" s="267"/>
-      <c r="J14" s="267"/>
-      <c r="K14" s="267"/>
-      <c r="L14" s="268"/>
-      <c r="M14" s="188" t="s">
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="189"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="176"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="176"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="186"/>
-      <c r="Z14" s="176"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="192"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="178"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="57"/>
       <c r="AC14" s="180"/>
       <c r="AD14" s="181"/>
       <c r="AE14" s="182"/>
-      <c r="AF14" s="150" t="s">
+      <c r="AF14" s="242" t="s">
         <v>58</v>
       </c>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="151"/>
-      <c r="AJ14" s="87" t="s">
+      <c r="AG14" s="243"/>
+      <c r="AH14" s="243"/>
+      <c r="AI14" s="243"/>
+      <c r="AJ14" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="88"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="88"/>
-      <c r="AY14" s="88"/>
-      <c r="AZ14" s="88"/>
-      <c r="BA14" s="88"/>
-      <c r="BB14" s="88"/>
-      <c r="BC14" s="88"/>
-      <c r="BD14" s="88"/>
-      <c r="BE14" s="88"/>
-      <c r="BF14" s="88"/>
-      <c r="BG14" s="88"/>
-      <c r="BH14" s="88"/>
-      <c r="BI14" s="88"/>
-      <c r="BJ14" s="88"/>
-      <c r="BK14" s="88"/>
-      <c r="BL14" s="88"/>
-      <c r="BM14" s="88"/>
-      <c r="BN14" s="88"/>
-      <c r="BO14" s="89"/>
+      <c r="AK14" s="257"/>
+      <c r="AL14" s="257"/>
+      <c r="AM14" s="257"/>
+      <c r="AN14" s="257"/>
+      <c r="AO14" s="257"/>
+      <c r="AP14" s="257"/>
+      <c r="AQ14" s="257"/>
+      <c r="AR14" s="257"/>
+      <c r="AS14" s="257"/>
+      <c r="AT14" s="257"/>
+      <c r="AU14" s="257"/>
+      <c r="AV14" s="257"/>
+      <c r="AW14" s="257"/>
+      <c r="AX14" s="257"/>
+      <c r="AY14" s="257"/>
+      <c r="AZ14" s="257"/>
+      <c r="BA14" s="257"/>
+      <c r="BB14" s="257"/>
+      <c r="BC14" s="257"/>
+      <c r="BD14" s="257"/>
+      <c r="BE14" s="257"/>
+      <c r="BF14" s="257"/>
+      <c r="BG14" s="257"/>
+      <c r="BH14" s="257"/>
+      <c r="BI14" s="257"/>
+      <c r="BJ14" s="257"/>
+      <c r="BK14" s="257"/>
+      <c r="BL14" s="257"/>
+      <c r="BM14" s="257"/>
+      <c r="BN14" s="257"/>
+      <c r="BO14" s="258"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="269"/>
-      <c r="H15" s="270"/>
-      <c r="I15" s="270"/>
-      <c r="J15" s="270"/>
-      <c r="K15" s="270"/>
-      <c r="L15" s="271"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="179"/>
-      <c r="S15" s="174"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="179"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="179"/>
-      <c r="AA15" s="174"/>
-      <c r="AB15" s="194"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="179"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="179"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
       <c r="AC15" s="183"/>
       <c r="AD15" s="184"/>
       <c r="AE15" s="185"/>
-      <c r="AF15" s="152"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="153"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="91"/>
-      <c r="AL15" s="91"/>
-      <c r="AM15" s="91"/>
-      <c r="AN15" s="91"/>
-      <c r="AO15" s="91"/>
-      <c r="AP15" s="91"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="91"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="91"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="91"/>
-      <c r="BC15" s="91"/>
-      <c r="BD15" s="91"/>
-      <c r="BE15" s="91"/>
-      <c r="BF15" s="91"/>
-      <c r="BG15" s="91"/>
-      <c r="BH15" s="91"/>
-      <c r="BI15" s="91"/>
-      <c r="BJ15" s="91"/>
-      <c r="BK15" s="91"/>
-      <c r="BL15" s="91"/>
-      <c r="BM15" s="91"/>
-      <c r="BN15" s="91"/>
-      <c r="BO15" s="92"/>
-      <c r="BS15" s="68" t="s">
+      <c r="AF15" s="244"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="259"/>
+      <c r="AK15" s="260"/>
+      <c r="AL15" s="260"/>
+      <c r="AM15" s="260"/>
+      <c r="AN15" s="260"/>
+      <c r="AO15" s="260"/>
+      <c r="AP15" s="260"/>
+      <c r="AQ15" s="260"/>
+      <c r="AR15" s="260"/>
+      <c r="AS15" s="260"/>
+      <c r="AT15" s="260"/>
+      <c r="AU15" s="260"/>
+      <c r="AV15" s="260"/>
+      <c r="AW15" s="260"/>
+      <c r="AX15" s="260"/>
+      <c r="AY15" s="260"/>
+      <c r="AZ15" s="260"/>
+      <c r="BA15" s="260"/>
+      <c r="BB15" s="260"/>
+      <c r="BC15" s="260"/>
+      <c r="BD15" s="260"/>
+      <c r="BE15" s="260"/>
+      <c r="BF15" s="260"/>
+      <c r="BG15" s="260"/>
+      <c r="BH15" s="260"/>
+      <c r="BI15" s="260"/>
+      <c r="BJ15" s="260"/>
+      <c r="BK15" s="260"/>
+      <c r="BL15" s="260"/>
+      <c r="BM15" s="260"/>
+      <c r="BN15" s="260"/>
+      <c r="BO15" s="261"/>
+      <c r="BS15" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="BT15" s="69"/>
-      <c r="BU15" s="69"/>
-      <c r="BV15" s="69"/>
-      <c r="BW15" s="69"/>
-      <c r="BX15" s="69"/>
-      <c r="BY15" s="69"/>
-      <c r="BZ15" s="69"/>
-      <c r="CA15" s="69"/>
-      <c r="CB15" s="69"/>
-      <c r="CC15" s="69"/>
-      <c r="CD15" s="70"/>
+      <c r="BT15" s="215"/>
+      <c r="BU15" s="215"/>
+      <c r="BV15" s="215"/>
+      <c r="BW15" s="215"/>
+      <c r="BX15" s="215"/>
+      <c r="BY15" s="215"/>
+      <c r="BZ15" s="215"/>
+      <c r="CA15" s="215"/>
+      <c r="CB15" s="215"/>
+      <c r="CC15" s="215"/>
+      <c r="CD15" s="216"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10179,22 +10183,22 @@
       <c r="AO16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BS16" s="68"/>
-      <c r="BT16" s="69"/>
-      <c r="BU16" s="69"/>
-      <c r="BV16" s="69"/>
-      <c r="BW16" s="69"/>
-      <c r="BX16" s="69"/>
-      <c r="BY16" s="69"/>
-      <c r="BZ16" s="69"/>
-      <c r="CA16" s="69"/>
-      <c r="CB16" s="69"/>
-      <c r="CC16" s="69"/>
-      <c r="CD16" s="70"/>
+      <c r="BS16" s="214"/>
+      <c r="BT16" s="215"/>
+      <c r="BU16" s="215"/>
+      <c r="BV16" s="215"/>
+      <c r="BW16" s="215"/>
+      <c r="BX16" s="215"/>
+      <c r="BY16" s="215"/>
+      <c r="BZ16" s="215"/>
+      <c r="CA16" s="215"/>
+      <c r="CB16" s="215"/>
+      <c r="CC16" s="215"/>
+      <c r="CD16" s="216"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="H17" s="13" t="s">
@@ -10203,882 +10207,882 @@
       <c r="AO17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BS17" s="71"/>
-      <c r="BT17" s="72"/>
-      <c r="BU17" s="72"/>
-      <c r="BV17" s="72"/>
-      <c r="BW17" s="72"/>
-      <c r="BX17" s="72"/>
-      <c r="BY17" s="72"/>
-      <c r="BZ17" s="72"/>
-      <c r="CA17" s="72"/>
-      <c r="CB17" s="72"/>
-      <c r="CC17" s="72"/>
-      <c r="CD17" s="73"/>
+      <c r="BS17" s="245"/>
+      <c r="BT17" s="209"/>
+      <c r="BU17" s="209"/>
+      <c r="BV17" s="209"/>
+      <c r="BW17" s="209"/>
+      <c r="BX17" s="209"/>
+      <c r="BY17" s="209"/>
+      <c r="BZ17" s="209"/>
+      <c r="CA17" s="209"/>
+      <c r="CB17" s="209"/>
+      <c r="CC17" s="209"/>
+      <c r="CD17" s="246"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BS18" s="71"/>
-      <c r="BT18" s="72"/>
-      <c r="BU18" s="72"/>
-      <c r="BV18" s="72"/>
-      <c r="BW18" s="72"/>
-      <c r="BX18" s="72"/>
-      <c r="BY18" s="72"/>
-      <c r="BZ18" s="72"/>
-      <c r="CA18" s="72"/>
-      <c r="CB18" s="72"/>
-      <c r="CC18" s="72"/>
-      <c r="CD18" s="73"/>
+      <c r="BS18" s="245"/>
+      <c r="BT18" s="209"/>
+      <c r="BU18" s="209"/>
+      <c r="BV18" s="209"/>
+      <c r="BW18" s="209"/>
+      <c r="BX18" s="209"/>
+      <c r="BY18" s="209"/>
+      <c r="BZ18" s="209"/>
+      <c r="CA18" s="209"/>
+      <c r="CB18" s="209"/>
+      <c r="CC18" s="209"/>
+      <c r="CD18" s="246"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="77" t="s">
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="250" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="77"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="77"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="77"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="250"/>
+      <c r="N19" s="250"/>
+      <c r="O19" s="250"/>
+      <c r="P19" s="250"/>
+      <c r="Q19" s="250"/>
+      <c r="R19" s="250"/>
+      <c r="S19" s="250"/>
+      <c r="T19" s="250"/>
+      <c r="U19" s="250"/>
+      <c r="V19" s="250"/>
+      <c r="W19" s="250"/>
+      <c r="X19" s="250"/>
+      <c r="Y19" s="250"/>
+      <c r="Z19" s="250"/>
+      <c r="AA19" s="250"/>
+      <c r="AB19" s="250"/>
+      <c r="AC19" s="250"/>
+      <c r="AD19" s="250"/>
+      <c r="AE19" s="250"/>
+      <c r="AF19" s="250"/>
+      <c r="AG19" s="250"/>
+      <c r="AH19" s="250"/>
+      <c r="AI19" s="250"/>
+      <c r="AJ19" s="250"/>
       <c r="AV19" s="15"/>
-      <c r="BS19" s="71"/>
-      <c r="BT19" s="72"/>
-      <c r="BU19" s="72"/>
-      <c r="BV19" s="72"/>
-      <c r="BW19" s="72"/>
-      <c r="BX19" s="72"/>
-      <c r="BY19" s="72"/>
-      <c r="BZ19" s="72"/>
-      <c r="CA19" s="72"/>
-      <c r="CB19" s="72"/>
-      <c r="CC19" s="72"/>
-      <c r="CD19" s="73"/>
+      <c r="BS19" s="245"/>
+      <c r="BT19" s="209"/>
+      <c r="BU19" s="209"/>
+      <c r="BV19" s="209"/>
+      <c r="BW19" s="209"/>
+      <c r="BX19" s="209"/>
+      <c r="BY19" s="209"/>
+      <c r="BZ19" s="209"/>
+      <c r="CA19" s="209"/>
+      <c r="CB19" s="209"/>
+      <c r="CC19" s="209"/>
+      <c r="CD19" s="246"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="135" t="s">
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="164" t="s">
+      <c r="F20" s="230"/>
+      <c r="G20" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="164" t="s">
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AF20" s="118"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="119"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="108"/>
-      <c r="AW20" s="148" t="s">
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="33"/>
+      <c r="AU20" s="267"/>
+      <c r="AV20" s="268"/>
+      <c r="AW20" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="AX20" s="149"/>
+      <c r="AX20" s="241"/>
       <c r="AY20" s="16"/>
       <c r="AZ20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="BA20" s="18"/>
       <c r="BB20" s="18"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BH20" s="66"/>
-      <c r="BI20" s="263"/>
-      <c r="BJ20" s="264"/>
-      <c r="BK20" s="264"/>
-      <c r="BL20" s="264"/>
-      <c r="BM20" s="264"/>
-      <c r="BN20" s="264"/>
-      <c r="BO20" s="264"/>
-      <c r="BP20" s="264"/>
-      <c r="BQ20" s="265"/>
-      <c r="BS20" s="71"/>
-      <c r="BT20" s="72"/>
-      <c r="BU20" s="72"/>
-      <c r="BV20" s="72"/>
-      <c r="BW20" s="72"/>
-      <c r="BX20" s="72"/>
-      <c r="BY20" s="72"/>
-      <c r="BZ20" s="72"/>
-      <c r="CA20" s="72"/>
-      <c r="CB20" s="72"/>
-      <c r="CC20" s="72"/>
-      <c r="CD20" s="73"/>
+      <c r="BC20" s="34"/>
+      <c r="BD20" s="34"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="34"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="35"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="37"/>
+      <c r="BS20" s="245"/>
+      <c r="BT20" s="209"/>
+      <c r="BU20" s="209"/>
+      <c r="BV20" s="209"/>
+      <c r="BW20" s="209"/>
+      <c r="BX20" s="209"/>
+      <c r="BY20" s="209"/>
+      <c r="BZ20" s="209"/>
+      <c r="CA20" s="209"/>
+      <c r="CB20" s="209"/>
+      <c r="CC20" s="209"/>
+      <c r="CD20" s="246"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="272"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="272"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="272"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="172"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="172"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="99" t="s">
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="176"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="AF21" s="100"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="105"/>
-      <c r="AJ21" s="94"/>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="94"/>
-      <c r="AO21" s="97"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="93"/>
-      <c r="AR21" s="94"/>
-      <c r="AS21" s="97"/>
-      <c r="AT21" s="98"/>
-      <c r="AU21" s="109"/>
-      <c r="AV21" s="110"/>
-      <c r="AW21" s="113" t="s">
+      <c r="AF21" s="221"/>
+      <c r="AG21" s="221"/>
+      <c r="AH21" s="222"/>
+      <c r="AI21" s="265"/>
+      <c r="AJ21" s="263"/>
+      <c r="AK21" s="236"/>
+      <c r="AL21" s="237"/>
+      <c r="AM21" s="262"/>
+      <c r="AN21" s="263"/>
+      <c r="AO21" s="236"/>
+      <c r="AP21" s="237"/>
+      <c r="AQ21" s="262"/>
+      <c r="AR21" s="263"/>
+      <c r="AS21" s="236"/>
+      <c r="AT21" s="237"/>
+      <c r="AU21" s="269"/>
+      <c r="AV21" s="270"/>
+      <c r="AW21" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="114"/>
+      <c r="AX21" s="273"/>
+      <c r="AY21" s="274"/>
       <c r="AZ21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="BA21" s="20"/>
-      <c r="BB21" s="144"/>
-      <c r="BC21" s="144"/>
-      <c r="BD21" s="144"/>
-      <c r="BE21" s="144"/>
-      <c r="BF21" s="144"/>
-      <c r="BG21" s="144"/>
-      <c r="BH21" s="144"/>
+      <c r="BB21" s="157"/>
+      <c r="BC21" s="157"/>
+      <c r="BD21" s="157"/>
+      <c r="BE21" s="157"/>
+      <c r="BF21" s="157"/>
+      <c r="BG21" s="157"/>
+      <c r="BH21" s="157"/>
       <c r="BI21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="BJ21" s="20"/>
-      <c r="BK21" s="144"/>
-      <c r="BL21" s="144"/>
-      <c r="BM21" s="144"/>
-      <c r="BN21" s="144"/>
-      <c r="BO21" s="144"/>
-      <c r="BP21" s="144"/>
-      <c r="BQ21" s="146"/>
-      <c r="BS21" s="74"/>
-      <c r="BT21" s="75"/>
-      <c r="BU21" s="75"/>
-      <c r="BV21" s="75"/>
-      <c r="BW21" s="75"/>
-      <c r="BX21" s="75"/>
-      <c r="BY21" s="75"/>
-      <c r="BZ21" s="75"/>
-      <c r="CA21" s="75"/>
-      <c r="CB21" s="75"/>
-      <c r="CC21" s="75"/>
-      <c r="CD21" s="76"/>
-      <c r="CV21" s="155"/>
-      <c r="CW21" s="155"/>
-      <c r="CX21" s="155"/>
+      <c r="BK21" s="157"/>
+      <c r="BL21" s="157"/>
+      <c r="BM21" s="157"/>
+      <c r="BN21" s="157"/>
+      <c r="BO21" s="157"/>
+      <c r="BP21" s="157"/>
+      <c r="BQ21" s="158"/>
+      <c r="BS21" s="247"/>
+      <c r="BT21" s="248"/>
+      <c r="BU21" s="248"/>
+      <c r="BV21" s="248"/>
+      <c r="BW21" s="248"/>
+      <c r="BX21" s="248"/>
+      <c r="BY21" s="248"/>
+      <c r="BZ21" s="248"/>
+      <c r="CA21" s="248"/>
+      <c r="CB21" s="248"/>
+      <c r="CC21" s="248"/>
+      <c r="CD21" s="249"/>
+      <c r="CV21" s="30"/>
+      <c r="CW21" s="30"/>
+      <c r="CX21" s="30"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="273"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="273"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="273"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="103"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="95"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="111"/>
-      <c r="AV22" s="112"/>
-      <c r="AW22" s="115"/>
-      <c r="AX22" s="115"/>
-      <c r="AY22" s="116"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="224"/>
+      <c r="AG22" s="224"/>
+      <c r="AH22" s="225"/>
+      <c r="AI22" s="266"/>
+      <c r="AJ22" s="238"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="238"/>
+      <c r="AM22" s="264"/>
+      <c r="AN22" s="238"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="238"/>
+      <c r="AQ22" s="264"/>
+      <c r="AR22" s="238"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="238"/>
+      <c r="AU22" s="271"/>
+      <c r="AV22" s="272"/>
+      <c r="AW22" s="275"/>
+      <c r="AX22" s="275"/>
+      <c r="AY22" s="276"/>
       <c r="AZ22" s="5"/>
       <c r="BA22" s="6"/>
-      <c r="BB22" s="145"/>
-      <c r="BC22" s="145"/>
-      <c r="BD22" s="145"/>
-      <c r="BE22" s="145"/>
-      <c r="BF22" s="145"/>
-      <c r="BG22" s="145"/>
-      <c r="BH22" s="145"/>
+      <c r="BB22" s="154"/>
+      <c r="BC22" s="154"/>
+      <c r="BD22" s="154"/>
+      <c r="BE22" s="154"/>
+      <c r="BF22" s="154"/>
+      <c r="BG22" s="154"/>
+      <c r="BH22" s="154"/>
       <c r="BI22" s="5"/>
       <c r="BJ22" s="6"/>
-      <c r="BK22" s="145"/>
-      <c r="BL22" s="145"/>
-      <c r="BM22" s="145"/>
-      <c r="BN22" s="145"/>
-      <c r="BO22" s="145"/>
-      <c r="BP22" s="145"/>
-      <c r="BQ22" s="147"/>
-      <c r="CV22" s="155"/>
-      <c r="CW22" s="155"/>
-      <c r="CX22" s="155"/>
+      <c r="BK22" s="154"/>
+      <c r="BL22" s="154"/>
+      <c r="BM22" s="154"/>
+      <c r="BN22" s="154"/>
+      <c r="BO22" s="154"/>
+      <c r="BP22" s="154"/>
+      <c r="BQ22" s="239"/>
+      <c r="CV22" s="30"/>
+      <c r="CW22" s="30"/>
+      <c r="CX22" s="30"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="78" t="s">
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="166"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="31" t="s">
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="31" t="s">
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="136"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="136"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="32"/>
-      <c r="BG23" s="32"/>
-      <c r="BH23" s="32"/>
-      <c r="BI23" s="32"/>
-      <c r="BJ23" s="32"/>
-      <c r="BK23" s="32"/>
-      <c r="BL23" s="32"/>
-      <c r="BM23" s="32"/>
-      <c r="BN23" s="32"/>
-      <c r="BO23" s="32"/>
-      <c r="BP23" s="33"/>
-      <c r="BQ23" s="31" t="s">
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="136"/>
+      <c r="AB23" s="136"/>
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="136"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="136"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="136"/>
+      <c r="AJ23" s="136"/>
+      <c r="AK23" s="136"/>
+      <c r="AL23" s="136"/>
+      <c r="AM23" s="136"/>
+      <c r="AN23" s="136"/>
+      <c r="AO23" s="136"/>
+      <c r="AP23" s="136"/>
+      <c r="AQ23" s="136"/>
+      <c r="AR23" s="136"/>
+      <c r="AS23" s="136"/>
+      <c r="AT23" s="136"/>
+      <c r="AU23" s="136"/>
+      <c r="AV23" s="136"/>
+      <c r="AW23" s="136"/>
+      <c r="AX23" s="136"/>
+      <c r="AY23" s="136"/>
+      <c r="AZ23" s="136"/>
+      <c r="BA23" s="136"/>
+      <c r="BB23" s="136"/>
+      <c r="BC23" s="136"/>
+      <c r="BD23" s="136"/>
+      <c r="BE23" s="136"/>
+      <c r="BF23" s="136"/>
+      <c r="BG23" s="136"/>
+      <c r="BH23" s="136"/>
+      <c r="BI23" s="136"/>
+      <c r="BJ23" s="136"/>
+      <c r="BK23" s="136"/>
+      <c r="BL23" s="136"/>
+      <c r="BM23" s="136"/>
+      <c r="BN23" s="136"/>
+      <c r="BO23" s="136"/>
+      <c r="BP23" s="137"/>
+      <c r="BQ23" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="BR23" s="32"/>
-      <c r="BS23" s="32"/>
-      <c r="BT23" s="32"/>
-      <c r="BU23" s="32"/>
-      <c r="BV23" s="32"/>
-      <c r="BW23" s="32"/>
-      <c r="BX23" s="32"/>
-      <c r="BY23" s="32"/>
-      <c r="BZ23" s="32"/>
-      <c r="CA23" s="32"/>
-      <c r="CB23" s="32"/>
-      <c r="CC23" s="32"/>
-      <c r="CD23" s="33"/>
-      <c r="CE23" s="125"/>
-      <c r="CF23" s="125"/>
+      <c r="BR23" s="136"/>
+      <c r="BS23" s="136"/>
+      <c r="BT23" s="136"/>
+      <c r="BU23" s="136"/>
+      <c r="BV23" s="136"/>
+      <c r="BW23" s="136"/>
+      <c r="BX23" s="136"/>
+      <c r="BY23" s="136"/>
+      <c r="BZ23" s="136"/>
+      <c r="CA23" s="136"/>
+      <c r="CB23" s="136"/>
+      <c r="CC23" s="136"/>
+      <c r="CD23" s="137"/>
+      <c r="CE23" s="213"/>
+      <c r="CF23" s="213"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="155"/>
-      <c r="CW23" s="155"/>
-      <c r="CX23" s="155"/>
+      <c r="CV23" s="30"/>
+      <c r="CW23" s="30"/>
+      <c r="CX23" s="30"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="126"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="176"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="192"/>
-      <c r="X24" s="132" t="s">
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="231"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="133"/>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="133"/>
-      <c r="AG24" s="134"/>
-      <c r="AH24" s="224" t="s">
+      <c r="Y24" s="227"/>
+      <c r="Z24" s="227"/>
+      <c r="AA24" s="227"/>
+      <c r="AB24" s="227"/>
+      <c r="AC24" s="227"/>
+      <c r="AD24" s="227"/>
+      <c r="AE24" s="227"/>
+      <c r="AF24" s="227"/>
+      <c r="AG24" s="228"/>
+      <c r="AH24" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="224"/>
-      <c r="AJ24" s="224"/>
-      <c r="AK24" s="224"/>
-      <c r="AL24" s="225"/>
-      <c r="AM24" s="225"/>
-      <c r="AN24" s="225"/>
-      <c r="AO24" s="225"/>
-      <c r="AP24" s="225"/>
-      <c r="AQ24" s="225"/>
-      <c r="AR24" s="225"/>
-      <c r="AS24" s="225"/>
-      <c r="AT24" s="225"/>
-      <c r="AU24" s="225"/>
-      <c r="AV24" s="225"/>
-      <c r="AW24" s="225"/>
-      <c r="AX24" s="225"/>
-      <c r="AY24" s="225"/>
-      <c r="AZ24" s="225"/>
-      <c r="BA24" s="225"/>
-      <c r="BB24" s="225"/>
-      <c r="BC24" s="225"/>
-      <c r="BD24" s="225"/>
-      <c r="BE24" s="225"/>
-      <c r="BF24" s="225"/>
-      <c r="BG24" s="225"/>
-      <c r="BH24" s="225"/>
-      <c r="BI24" s="225"/>
-      <c r="BJ24" s="225"/>
-      <c r="BK24" s="225"/>
-      <c r="BL24" s="225"/>
-      <c r="BM24" s="225"/>
-      <c r="BN24" s="225"/>
-      <c r="BO24" s="225"/>
-      <c r="BP24" s="226"/>
-      <c r="BQ24" s="230" t="s">
+      <c r="AI24" s="168"/>
+      <c r="AJ24" s="168"/>
+      <c r="AK24" s="168"/>
+      <c r="AL24" s="46"/>
+      <c r="AM24" s="46"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="46"/>
+      <c r="AP24" s="46"/>
+      <c r="AQ24" s="46"/>
+      <c r="AR24" s="46"/>
+      <c r="AS24" s="46"/>
+      <c r="AT24" s="46"/>
+      <c r="AU24" s="46"/>
+      <c r="AV24" s="46"/>
+      <c r="AW24" s="46"/>
+      <c r="AX24" s="46"/>
+      <c r="AY24" s="46"/>
+      <c r="AZ24" s="46"/>
+      <c r="BA24" s="46"/>
+      <c r="BB24" s="46"/>
+      <c r="BC24" s="46"/>
+      <c r="BD24" s="46"/>
+      <c r="BE24" s="46"/>
+      <c r="BF24" s="46"/>
+      <c r="BG24" s="46"/>
+      <c r="BH24" s="46"/>
+      <c r="BI24" s="46"/>
+      <c r="BJ24" s="46"/>
+      <c r="BK24" s="46"/>
+      <c r="BL24" s="46"/>
+      <c r="BM24" s="46"/>
+      <c r="BN24" s="46"/>
+      <c r="BO24" s="46"/>
+      <c r="BP24" s="47"/>
+      <c r="BQ24" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="BR24" s="231"/>
-      <c r="BS24" s="128"/>
+      <c r="BR24" s="173"/>
+      <c r="BS24" s="133"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="126"/>
-      <c r="BV24" s="38"/>
-      <c r="BW24" s="128"/>
+      <c r="BU24" s="56"/>
+      <c r="BV24" s="217"/>
+      <c r="BW24" s="133"/>
       <c r="BX24" s="41"/>
-      <c r="BY24" s="126"/>
-      <c r="BZ24" s="38"/>
-      <c r="CA24" s="128"/>
+      <c r="BY24" s="56"/>
+      <c r="BZ24" s="217"/>
+      <c r="CA24" s="133"/>
       <c r="CB24" s="41"/>
-      <c r="CC24" s="126"/>
-      <c r="CD24" s="38"/>
-      <c r="CE24" s="125"/>
-      <c r="CF24" s="125"/>
+      <c r="CC24" s="56"/>
+      <c r="CD24" s="217"/>
+      <c r="CE24" s="213"/>
+      <c r="CF24" s="213"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="177"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="177"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="177"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="176"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="176"/>
-      <c r="AB25" s="126"/>
-      <c r="AC25" s="176"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="176"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="192"/>
-      <c r="AH25" s="214"/>
-      <c r="AI25" s="144"/>
-      <c r="AJ25" s="144"/>
-      <c r="AK25" s="144"/>
-      <c r="AL25" s="144"/>
-      <c r="AM25" s="144"/>
-      <c r="AN25" s="144"/>
-      <c r="AO25" s="144"/>
-      <c r="AP25" s="144"/>
-      <c r="AQ25" s="144"/>
-      <c r="AR25" s="144"/>
-      <c r="AS25" s="144"/>
-      <c r="AT25" s="144"/>
-      <c r="AU25" s="144"/>
-      <c r="AV25" s="144"/>
-      <c r="AW25" s="144"/>
-      <c r="AX25" s="144"/>
-      <c r="AY25" s="144"/>
-      <c r="AZ25" s="144"/>
-      <c r="BA25" s="144"/>
-      <c r="BB25" s="144"/>
-      <c r="BC25" s="144"/>
-      <c r="BD25" s="144"/>
-      <c r="BE25" s="144"/>
-      <c r="BF25" s="144"/>
-      <c r="BG25" s="144"/>
-      <c r="BH25" s="144"/>
-      <c r="BI25" s="144"/>
-      <c r="BJ25" s="144"/>
-      <c r="BK25" s="144"/>
-      <c r="BL25" s="144"/>
-      <c r="BM25" s="144"/>
-      <c r="BN25" s="144"/>
-      <c r="BO25" s="144"/>
-      <c r="BP25" s="146"/>
-      <c r="BQ25" s="232"/>
-      <c r="BR25" s="233"/>
-      <c r="BS25" s="129"/>
-      <c r="BT25" s="121"/>
-      <c r="BU25" s="120"/>
-      <c r="BV25" s="127"/>
-      <c r="BW25" s="129"/>
-      <c r="BX25" s="121"/>
-      <c r="BY25" s="120"/>
-      <c r="BZ25" s="127"/>
-      <c r="CA25" s="129"/>
-      <c r="CB25" s="121"/>
-      <c r="CC25" s="120"/>
-      <c r="CD25" s="127"/>
-      <c r="CE25" s="125"/>
-      <c r="CF25" s="125"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="139"/>
+      <c r="R25" s="138"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="138"/>
+      <c r="W25" s="191"/>
+      <c r="X25" s="133"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="156"/>
+      <c r="AI25" s="157"/>
+      <c r="AJ25" s="157"/>
+      <c r="AK25" s="157"/>
+      <c r="AL25" s="157"/>
+      <c r="AM25" s="157"/>
+      <c r="AN25" s="157"/>
+      <c r="AO25" s="157"/>
+      <c r="AP25" s="157"/>
+      <c r="AQ25" s="157"/>
+      <c r="AR25" s="157"/>
+      <c r="AS25" s="157"/>
+      <c r="AT25" s="157"/>
+      <c r="AU25" s="157"/>
+      <c r="AV25" s="157"/>
+      <c r="AW25" s="157"/>
+      <c r="AX25" s="157"/>
+      <c r="AY25" s="157"/>
+      <c r="AZ25" s="157"/>
+      <c r="BA25" s="157"/>
+      <c r="BB25" s="157"/>
+      <c r="BC25" s="157"/>
+      <c r="BD25" s="157"/>
+      <c r="BE25" s="157"/>
+      <c r="BF25" s="157"/>
+      <c r="BG25" s="157"/>
+      <c r="BH25" s="157"/>
+      <c r="BI25" s="157"/>
+      <c r="BJ25" s="157"/>
+      <c r="BK25" s="157"/>
+      <c r="BL25" s="157"/>
+      <c r="BM25" s="157"/>
+      <c r="BN25" s="157"/>
+      <c r="BO25" s="157"/>
+      <c r="BP25" s="158"/>
+      <c r="BQ25" s="174"/>
+      <c r="BR25" s="175"/>
+      <c r="BS25" s="219"/>
+      <c r="BT25" s="43"/>
+      <c r="BU25" s="42"/>
+      <c r="BV25" s="218"/>
+      <c r="BW25" s="219"/>
+      <c r="BX25" s="43"/>
+      <c r="BY25" s="42"/>
+      <c r="BZ25" s="218"/>
+      <c r="CA25" s="219"/>
+      <c r="CB25" s="43"/>
+      <c r="CC25" s="42"/>
+      <c r="CD25" s="218"/>
+      <c r="CE25" s="213"/>
+      <c r="CF25" s="213"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="207"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="179"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="179"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="179"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="194"/>
-      <c r="X26" s="207"/>
-      <c r="Y26" s="179"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="179"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="179"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="179"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="194"/>
-      <c r="AH26" s="215"/>
-      <c r="AI26" s="216"/>
-      <c r="AJ26" s="216"/>
-      <c r="AK26" s="216"/>
-      <c r="AL26" s="216"/>
-      <c r="AM26" s="216"/>
-      <c r="AN26" s="216"/>
-      <c r="AO26" s="216"/>
-      <c r="AP26" s="216"/>
-      <c r="AQ26" s="216"/>
-      <c r="AR26" s="216"/>
-      <c r="AS26" s="216"/>
-      <c r="AT26" s="216"/>
-      <c r="AU26" s="216"/>
-      <c r="AV26" s="216"/>
-      <c r="AW26" s="216"/>
-      <c r="AX26" s="216"/>
-      <c r="AY26" s="216"/>
-      <c r="AZ26" s="216"/>
-      <c r="BA26" s="216"/>
-      <c r="BB26" s="216"/>
-      <c r="BC26" s="216"/>
-      <c r="BD26" s="216"/>
-      <c r="BE26" s="216"/>
-      <c r="BF26" s="216"/>
-      <c r="BG26" s="216"/>
-      <c r="BH26" s="216"/>
-      <c r="BI26" s="216"/>
-      <c r="BJ26" s="216"/>
-      <c r="BK26" s="216"/>
-      <c r="BL26" s="216"/>
-      <c r="BM26" s="216"/>
-      <c r="BN26" s="216"/>
-      <c r="BO26" s="216"/>
-      <c r="BP26" s="217"/>
-      <c r="BQ26" s="232"/>
-      <c r="BR26" s="233"/>
-      <c r="BS26" s="129"/>
-      <c r="BT26" s="121"/>
-      <c r="BU26" s="120"/>
-      <c r="BV26" s="127"/>
-      <c r="BW26" s="129"/>
-      <c r="BX26" s="121"/>
-      <c r="BY26" s="120"/>
-      <c r="BZ26" s="127"/>
-      <c r="CA26" s="129"/>
-      <c r="CB26" s="121"/>
-      <c r="CC26" s="120"/>
-      <c r="CD26" s="127"/>
-      <c r="CE26" s="125"/>
-      <c r="CF26" s="125"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="58"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="160"/>
+      <c r="AN26" s="160"/>
+      <c r="AO26" s="160"/>
+      <c r="AP26" s="160"/>
+      <c r="AQ26" s="160"/>
+      <c r="AR26" s="160"/>
+      <c r="AS26" s="160"/>
+      <c r="AT26" s="160"/>
+      <c r="AU26" s="160"/>
+      <c r="AV26" s="160"/>
+      <c r="AW26" s="160"/>
+      <c r="AX26" s="160"/>
+      <c r="AY26" s="160"/>
+      <c r="AZ26" s="160"/>
+      <c r="BA26" s="160"/>
+      <c r="BB26" s="160"/>
+      <c r="BC26" s="160"/>
+      <c r="BD26" s="160"/>
+      <c r="BE26" s="160"/>
+      <c r="BF26" s="160"/>
+      <c r="BG26" s="160"/>
+      <c r="BH26" s="160"/>
+      <c r="BI26" s="160"/>
+      <c r="BJ26" s="160"/>
+      <c r="BK26" s="160"/>
+      <c r="BL26" s="160"/>
+      <c r="BM26" s="160"/>
+      <c r="BN26" s="160"/>
+      <c r="BO26" s="160"/>
+      <c r="BP26" s="161"/>
+      <c r="BQ26" s="174"/>
+      <c r="BR26" s="175"/>
+      <c r="BS26" s="219"/>
+      <c r="BT26" s="43"/>
+      <c r="BU26" s="42"/>
+      <c r="BV26" s="218"/>
+      <c r="BW26" s="219"/>
+      <c r="BX26" s="43"/>
+      <c r="BY26" s="42"/>
+      <c r="BZ26" s="218"/>
+      <c r="CA26" s="219"/>
+      <c r="CB26" s="43"/>
+      <c r="CC26" s="42"/>
+      <c r="CD26" s="218"/>
+      <c r="CE26" s="213"/>
+      <c r="CF26" s="213"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="195" t="s">
+      <c r="C27" s="210"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="196"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="204" t="s">
+      <c r="H27" s="61"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="205"/>
-      <c r="L27" s="205"/>
-      <c r="M27" s="205"/>
-      <c r="N27" s="205"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="210"/>
-      <c r="R27" s="210"/>
-      <c r="S27" s="210"/>
-      <c r="T27" s="210"/>
-      <c r="U27" s="210"/>
-      <c r="V27" s="210"/>
-      <c r="W27" s="210"/>
-      <c r="X27" s="210"/>
-      <c r="Y27" s="210"/>
-      <c r="Z27" s="210"/>
-      <c r="AA27" s="210"/>
-      <c r="AB27" s="210"/>
-      <c r="AC27" s="210"/>
-      <c r="AD27" s="210"/>
-      <c r="AE27" s="210"/>
-      <c r="AF27" s="210"/>
-      <c r="AG27" s="210"/>
-      <c r="AH27" s="210"/>
-      <c r="AI27" s="210"/>
-      <c r="AJ27" s="210"/>
-      <c r="AK27" s="210"/>
-      <c r="AL27" s="210"/>
-      <c r="AM27" s="210"/>
-      <c r="AN27" s="210"/>
-      <c r="AO27" s="210"/>
-      <c r="AP27" s="210"/>
-      <c r="AQ27" s="210"/>
-      <c r="AR27" s="210"/>
-      <c r="AS27" s="210"/>
-      <c r="AT27" s="210"/>
-      <c r="AU27" s="210"/>
-      <c r="AV27" s="210"/>
-      <c r="AW27" s="210"/>
-      <c r="AX27" s="210"/>
-      <c r="AY27" s="210"/>
-      <c r="AZ27" s="210"/>
-      <c r="BA27" s="210"/>
-      <c r="BB27" s="210"/>
-      <c r="BC27" s="210"/>
-      <c r="BD27" s="210"/>
-      <c r="BE27" s="210"/>
-      <c r="BF27" s="210"/>
-      <c r="BG27" s="210"/>
-      <c r="BH27" s="210"/>
-      <c r="BI27" s="211"/>
-      <c r="BJ27" s="218" t="s">
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="151"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="151"/>
+      <c r="AE27" s="151"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="151"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="151"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
+      <c r="AQ27" s="151"/>
+      <c r="AR27" s="151"/>
+      <c r="AS27" s="151"/>
+      <c r="AT27" s="151"/>
+      <c r="AU27" s="151"/>
+      <c r="AV27" s="151"/>
+      <c r="AW27" s="151"/>
+      <c r="AX27" s="151"/>
+      <c r="AY27" s="151"/>
+      <c r="AZ27" s="151"/>
+      <c r="BA27" s="151"/>
+      <c r="BB27" s="151"/>
+      <c r="BC27" s="151"/>
+      <c r="BD27" s="151"/>
+      <c r="BE27" s="151"/>
+      <c r="BF27" s="151"/>
+      <c r="BG27" s="151"/>
+      <c r="BH27" s="151"/>
+      <c r="BI27" s="152"/>
+      <c r="BJ27" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="BK27" s="219"/>
-      <c r="BL27" s="220"/>
-      <c r="BM27" s="227" t="s">
+      <c r="BK27" s="163"/>
+      <c r="BL27" s="164"/>
+      <c r="BM27" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="BN27" s="228"/>
-      <c r="BO27" s="228"/>
-      <c r="BP27" s="228"/>
-      <c r="BQ27" s="228"/>
-      <c r="BR27" s="228"/>
-      <c r="BS27" s="228"/>
-      <c r="BT27" s="228"/>
-      <c r="BU27" s="228"/>
-      <c r="BV27" s="228"/>
-      <c r="BW27" s="228"/>
-      <c r="BX27" s="228"/>
-      <c r="BY27" s="228"/>
-      <c r="BZ27" s="228"/>
-      <c r="CA27" s="228"/>
-      <c r="CB27" s="228"/>
-      <c r="CC27" s="228"/>
-      <c r="CD27" s="228"/>
-      <c r="CE27" s="228"/>
-      <c r="CF27" s="229"/>
+      <c r="BN27" s="170"/>
+      <c r="BO27" s="170"/>
+      <c r="BP27" s="170"/>
+      <c r="BQ27" s="170"/>
+      <c r="BR27" s="170"/>
+      <c r="BS27" s="170"/>
+      <c r="BT27" s="170"/>
+      <c r="BU27" s="170"/>
+      <c r="BV27" s="170"/>
+      <c r="BW27" s="170"/>
+      <c r="BX27" s="170"/>
+      <c r="BY27" s="170"/>
+      <c r="BZ27" s="170"/>
+      <c r="CA27" s="170"/>
+      <c r="CB27" s="170"/>
+      <c r="CC27" s="170"/>
+      <c r="CD27" s="170"/>
+      <c r="CE27" s="170"/>
+      <c r="CF27" s="171"/>
     </row>
     <row r="28" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="201" t="s">
+      <c r="C28" s="210"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="202"/>
-      <c r="L28" s="202"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="202"/>
-      <c r="O28" s="203"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="145"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="145"/>
-      <c r="AM28" s="145"/>
-      <c r="AN28" s="145"/>
-      <c r="AO28" s="145"/>
-      <c r="AP28" s="145"/>
-      <c r="AQ28" s="145"/>
-      <c r="AR28" s="145"/>
-      <c r="AS28" s="145"/>
-      <c r="AT28" s="145"/>
-      <c r="AU28" s="145"/>
-      <c r="AV28" s="145"/>
-      <c r="AW28" s="145"/>
-      <c r="AX28" s="145"/>
-      <c r="AY28" s="145"/>
-      <c r="AZ28" s="145"/>
-      <c r="BA28" s="145"/>
-      <c r="BB28" s="145"/>
-      <c r="BC28" s="145"/>
-      <c r="BD28" s="145"/>
-      <c r="BE28" s="145"/>
-      <c r="BF28" s="145"/>
-      <c r="BG28" s="145"/>
-      <c r="BH28" s="145"/>
-      <c r="BI28" s="213"/>
-      <c r="BJ28" s="221"/>
-      <c r="BK28" s="222"/>
-      <c r="BL28" s="223"/>
-      <c r="BM28" s="141" t="s">
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="154"/>
+      <c r="AF28" s="154"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="154"/>
+      <c r="AJ28" s="154"/>
+      <c r="AK28" s="154"/>
+      <c r="AL28" s="154"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
+      <c r="AQ28" s="154"/>
+      <c r="AR28" s="154"/>
+      <c r="AS28" s="154"/>
+      <c r="AT28" s="154"/>
+      <c r="AU28" s="154"/>
+      <c r="AV28" s="154"/>
+      <c r="AW28" s="154"/>
+      <c r="AX28" s="154"/>
+      <c r="AY28" s="154"/>
+      <c r="AZ28" s="154"/>
+      <c r="BA28" s="154"/>
+      <c r="BB28" s="154"/>
+      <c r="BC28" s="154"/>
+      <c r="BD28" s="154"/>
+      <c r="BE28" s="154"/>
+      <c r="BF28" s="154"/>
+      <c r="BG28" s="154"/>
+      <c r="BH28" s="154"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="165"/>
+      <c r="BK28" s="166"/>
+      <c r="BL28" s="167"/>
+      <c r="BM28" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="BN28" s="142"/>
-      <c r="BO28" s="142"/>
-      <c r="BP28" s="142"/>
-      <c r="BQ28" s="142"/>
-      <c r="BR28" s="142"/>
-      <c r="BS28" s="142"/>
-      <c r="BT28" s="142"/>
-      <c r="BU28" s="142"/>
-      <c r="BV28" s="142"/>
-      <c r="BW28" s="142"/>
-      <c r="BX28" s="142"/>
-      <c r="BY28" s="142"/>
-      <c r="BZ28" s="142"/>
-      <c r="CA28" s="142"/>
-      <c r="CB28" s="142"/>
-      <c r="CC28" s="142"/>
-      <c r="CD28" s="142"/>
-      <c r="CE28" s="142"/>
-      <c r="CF28" s="143"/>
+      <c r="BN28" s="234"/>
+      <c r="BO28" s="234"/>
+      <c r="BP28" s="234"/>
+      <c r="BQ28" s="234"/>
+      <c r="BR28" s="234"/>
+      <c r="BS28" s="234"/>
+      <c r="BT28" s="234"/>
+      <c r="BU28" s="234"/>
+      <c r="BV28" s="234"/>
+      <c r="BW28" s="234"/>
+      <c r="BX28" s="234"/>
+      <c r="BY28" s="234"/>
+      <c r="BZ28" s="234"/>
+      <c r="CA28" s="234"/>
+      <c r="CB28" s="234"/>
+      <c r="CC28" s="234"/>
+      <c r="CD28" s="234"/>
+      <c r="CE28" s="234"/>
+      <c r="CF28" s="235"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="21"/>
@@ -11090,400 +11094,400 @@
       <c r="CF30" s="6"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="242" t="s">
+      <c r="C31" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="243"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="243"/>
-      <c r="G31" s="243"/>
-      <c r="H31" s="243"/>
-      <c r="I31" s="243"/>
-      <c r="J31" s="243"/>
-      <c r="K31" s="243"/>
-      <c r="L31" s="243"/>
-      <c r="M31" s="243"/>
-      <c r="N31" s="243"/>
-      <c r="O31" s="243"/>
-      <c r="P31" s="243"/>
-      <c r="Q31" s="243"/>
-      <c r="R31" s="243"/>
-      <c r="S31" s="243"/>
-      <c r="T31" s="243"/>
-      <c r="U31" s="243"/>
-      <c r="V31" s="243"/>
-      <c r="W31" s="243"/>
-      <c r="X31" s="243"/>
-      <c r="Y31" s="243"/>
-      <c r="Z31" s="243"/>
-      <c r="AA31" s="243"/>
-      <c r="AB31" s="244"/>
-      <c r="AD31" s="246" t="s">
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="105"/>
+      <c r="AD31" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="AE31" s="247"/>
-      <c r="AF31" s="247"/>
-      <c r="AG31" s="247"/>
-      <c r="AH31" s="247"/>
-      <c r="AI31" s="247"/>
-      <c r="AJ31" s="247"/>
-      <c r="AK31" s="247"/>
-      <c r="AL31" s="247"/>
-      <c r="AM31" s="247"/>
-      <c r="AN31" s="247"/>
-      <c r="AO31" s="247"/>
-      <c r="AP31" s="247"/>
-      <c r="AQ31" s="247"/>
-      <c r="AR31" s="247"/>
-      <c r="AS31" s="247"/>
-      <c r="AT31" s="247"/>
-      <c r="AU31" s="247"/>
-      <c r="AV31" s="247"/>
-      <c r="AW31" s="247"/>
-      <c r="AX31" s="247"/>
-      <c r="AY31" s="247"/>
-      <c r="AZ31" s="247"/>
-      <c r="BA31" s="247"/>
-      <c r="BB31" s="247"/>
-      <c r="BC31" s="248"/>
-      <c r="BE31" s="240" t="s">
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="108"/>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="108"/>
+      <c r="AJ31" s="108"/>
+      <c r="AK31" s="108"/>
+      <c r="AL31" s="108"/>
+      <c r="AM31" s="108"/>
+      <c r="AN31" s="108"/>
+      <c r="AO31" s="108"/>
+      <c r="AP31" s="108"/>
+      <c r="AQ31" s="108"/>
+      <c r="AR31" s="108"/>
+      <c r="AS31" s="108"/>
+      <c r="AT31" s="108"/>
+      <c r="AU31" s="108"/>
+      <c r="AV31" s="108"/>
+      <c r="AW31" s="108"/>
+      <c r="AX31" s="108"/>
+      <c r="AY31" s="108"/>
+      <c r="AZ31" s="108"/>
+      <c r="BA31" s="108"/>
+      <c r="BB31" s="108"/>
+      <c r="BC31" s="109"/>
+      <c r="BE31" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="BF31" s="241"/>
-      <c r="BG31" s="241"/>
-      <c r="BH31" s="241"/>
-      <c r="BI31" s="241"/>
-      <c r="BJ31" s="241"/>
-      <c r="BK31" s="241"/>
-      <c r="BL31" s="241"/>
-      <c r="BM31" s="241"/>
-      <c r="BN31" s="241"/>
-      <c r="BO31" s="241"/>
-      <c r="BP31" s="241"/>
-      <c r="BQ31" s="241"/>
-      <c r="BR31" s="241"/>
-      <c r="BS31" s="241"/>
-      <c r="BT31" s="241"/>
-      <c r="BU31" s="241"/>
-      <c r="BV31" s="241"/>
-      <c r="BW31" s="241"/>
-      <c r="BX31" s="241"/>
-      <c r="BY31" s="241"/>
-      <c r="BZ31" s="241"/>
-      <c r="CA31" s="241"/>
-      <c r="CB31" s="241"/>
-      <c r="CC31" s="241"/>
-      <c r="CD31" s="241"/>
-      <c r="CE31" s="241"/>
-      <c r="CF31" s="241"/>
+      <c r="BF31" s="102"/>
+      <c r="BG31" s="102"/>
+      <c r="BH31" s="102"/>
+      <c r="BI31" s="102"/>
+      <c r="BJ31" s="102"/>
+      <c r="BK31" s="102"/>
+      <c r="BL31" s="102"/>
+      <c r="BM31" s="102"/>
+      <c r="BN31" s="102"/>
+      <c r="BO31" s="102"/>
+      <c r="BP31" s="102"/>
+      <c r="BQ31" s="102"/>
+      <c r="BR31" s="102"/>
+      <c r="BS31" s="102"/>
+      <c r="BT31" s="102"/>
+      <c r="BU31" s="102"/>
+      <c r="BV31" s="102"/>
+      <c r="BW31" s="102"/>
+      <c r="BX31" s="102"/>
+      <c r="BY31" s="102"/>
+      <c r="BZ31" s="102"/>
+      <c r="CA31" s="102"/>
+      <c r="CB31" s="102"/>
+      <c r="CC31" s="102"/>
+      <c r="CD31" s="102"/>
+      <c r="CE31" s="102"/>
+      <c r="CF31" s="102"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="22"/>
       <c r="D32" s="12"/>
-      <c r="L32" s="261" t="s">
+      <c r="L32" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="261"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="261"/>
-      <c r="Q32" s="261"/>
-      <c r="R32" s="261"/>
-      <c r="S32" s="261"/>
-      <c r="T32" s="261"/>
-      <c r="U32" s="261"/>
-      <c r="V32" s="261"/>
-      <c r="W32" s="261"/>
-      <c r="X32" s="261"/>
-      <c r="Y32" s="261"/>
-      <c r="Z32" s="261"/>
-      <c r="AA32" s="261"/>
-      <c r="AB32" s="262"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="125"/>
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="125"/>
+      <c r="AB32" s="126"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="245" t="s">
+      <c r="AR32" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="AS32" s="245"/>
-      <c r="AT32" s="245"/>
-      <c r="AU32" s="245"/>
-      <c r="AV32" s="245"/>
-      <c r="AW32" s="245"/>
-      <c r="AX32" s="245"/>
-      <c r="AY32" s="245"/>
-      <c r="AZ32" s="245"/>
-      <c r="BA32" s="245"/>
-      <c r="BB32" s="245"/>
-      <c r="BC32" s="258"/>
-      <c r="BE32" s="237" t="s">
+      <c r="AS32" s="106"/>
+      <c r="AT32" s="106"/>
+      <c r="AU32" s="106"/>
+      <c r="AV32" s="106"/>
+      <c r="AW32" s="106"/>
+      <c r="AX32" s="106"/>
+      <c r="AY32" s="106"/>
+      <c r="AZ32" s="106"/>
+      <c r="BA32" s="106"/>
+      <c r="BB32" s="106"/>
+      <c r="BC32" s="121"/>
+      <c r="BE32" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="BF32" s="238"/>
-      <c r="BG32" s="238"/>
-      <c r="BH32" s="238"/>
-      <c r="BI32" s="238"/>
-      <c r="BJ32" s="238"/>
-      <c r="BK32" s="238"/>
-      <c r="BL32" s="238"/>
-      <c r="BM32" s="238"/>
-      <c r="BN32" s="238"/>
-      <c r="BO32" s="238"/>
-      <c r="BP32" s="238"/>
-      <c r="BQ32" s="238"/>
-      <c r="BR32" s="238"/>
-      <c r="BS32" s="238"/>
-      <c r="BT32" s="238"/>
-      <c r="BU32" s="238"/>
-      <c r="BV32" s="238"/>
-      <c r="BW32" s="238"/>
-      <c r="BX32" s="238"/>
-      <c r="BY32" s="238"/>
-      <c r="BZ32" s="238"/>
-      <c r="CA32" s="238"/>
-      <c r="CB32" s="238"/>
-      <c r="CC32" s="238"/>
-      <c r="CD32" s="238"/>
-      <c r="CE32" s="238"/>
-      <c r="CF32" s="239"/>
+      <c r="BF32" s="99"/>
+      <c r="BG32" s="99"/>
+      <c r="BH32" s="99"/>
+      <c r="BI32" s="99"/>
+      <c r="BJ32" s="99"/>
+      <c r="BK32" s="99"/>
+      <c r="BL32" s="99"/>
+      <c r="BM32" s="99"/>
+      <c r="BN32" s="99"/>
+      <c r="BO32" s="99"/>
+      <c r="BP32" s="99"/>
+      <c r="BQ32" s="99"/>
+      <c r="BR32" s="99"/>
+      <c r="BS32" s="99"/>
+      <c r="BT32" s="99"/>
+      <c r="BU32" s="99"/>
+      <c r="BV32" s="99"/>
+      <c r="BW32" s="99"/>
+      <c r="BX32" s="99"/>
+      <c r="BY32" s="99"/>
+      <c r="BZ32" s="99"/>
+      <c r="CA32" s="99"/>
+      <c r="CB32" s="99"/>
+      <c r="CC32" s="99"/>
+      <c r="CD32" s="99"/>
+      <c r="CE32" s="99"/>
+      <c r="CF32" s="100"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="137"/>
-      <c r="D33" s="249"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="259"/>
-      <c r="M33" s="259"/>
-      <c r="N33" s="259"/>
-      <c r="O33" s="259"/>
-      <c r="P33" s="259"/>
-      <c r="Q33" s="259"/>
-      <c r="R33" s="259"/>
-      <c r="S33" s="259"/>
-      <c r="T33" s="259"/>
-      <c r="U33" s="259"/>
-      <c r="V33" s="259"/>
-      <c r="W33" s="259"/>
-      <c r="X33" s="259"/>
-      <c r="Y33" s="259"/>
-      <c r="Z33" s="259"/>
-      <c r="AA33" s="259"/>
-      <c r="AB33" s="260"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="249"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="122"/>
+      <c r="X33" s="122"/>
+      <c r="Y33" s="122"/>
+      <c r="Z33" s="122"/>
+      <c r="AA33" s="122"/>
+      <c r="AB33" s="123"/>
+      <c r="AD33" s="110"/>
+      <c r="AE33" s="111"/>
       <c r="AF33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AJ33" s="251"/>
-      <c r="AK33" s="251"/>
-      <c r="AL33" s="251"/>
-      <c r="AM33" s="251"/>
-      <c r="AN33" s="251"/>
-      <c r="AO33" s="251"/>
-      <c r="AP33" s="251"/>
-      <c r="AQ33" s="251"/>
-      <c r="AR33" s="251"/>
-      <c r="AS33" s="251"/>
-      <c r="AT33" s="251"/>
-      <c r="AU33" s="251"/>
-      <c r="AV33" s="251"/>
-      <c r="AW33" s="251"/>
-      <c r="AX33" s="251"/>
-      <c r="AY33" s="251"/>
-      <c r="AZ33" s="251"/>
-      <c r="BA33" s="251"/>
-      <c r="BB33" s="251"/>
-      <c r="BC33" s="252"/>
-      <c r="BE33" s="254" t="s">
+      <c r="AJ33" s="114"/>
+      <c r="AK33" s="114"/>
+      <c r="AL33" s="114"/>
+      <c r="AM33" s="114"/>
+      <c r="AN33" s="114"/>
+      <c r="AO33" s="114"/>
+      <c r="AP33" s="114"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="114"/>
+      <c r="AS33" s="114"/>
+      <c r="AT33" s="114"/>
+      <c r="AU33" s="114"/>
+      <c r="AV33" s="114"/>
+      <c r="AW33" s="114"/>
+      <c r="AX33" s="114"/>
+      <c r="AY33" s="114"/>
+      <c r="AZ33" s="114"/>
+      <c r="BA33" s="114"/>
+      <c r="BB33" s="114"/>
+      <c r="BC33" s="115"/>
+      <c r="BE33" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="BF33" s="255"/>
-      <c r="BG33" s="236" t="s">
+      <c r="BF33" s="118"/>
+      <c r="BG33" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="BH33" s="236"/>
-      <c r="BI33" s="236"/>
-      <c r="BJ33" s="236"/>
-      <c r="BK33" s="236"/>
-      <c r="BL33" s="236"/>
-      <c r="BM33" s="236"/>
-      <c r="BN33" s="236"/>
-      <c r="BO33" s="236"/>
-      <c r="BP33" s="236"/>
-      <c r="BQ33" s="236"/>
-      <c r="BT33" s="245" t="s">
+      <c r="BH33" s="97"/>
+      <c r="BI33" s="97"/>
+      <c r="BJ33" s="97"/>
+      <c r="BK33" s="97"/>
+      <c r="BL33" s="97"/>
+      <c r="BM33" s="97"/>
+      <c r="BN33" s="97"/>
+      <c r="BO33" s="97"/>
+      <c r="BP33" s="97"/>
+      <c r="BQ33" s="97"/>
+      <c r="BT33" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="BU33" s="245"/>
-      <c r="BV33" s="245"/>
-      <c r="BW33" s="245"/>
-      <c r="BX33" s="245"/>
-      <c r="BY33" s="245"/>
-      <c r="BZ33" s="245"/>
-      <c r="CA33" s="245"/>
-      <c r="CB33" s="245"/>
-      <c r="CC33" s="245"/>
-      <c r="CD33" s="245"/>
-      <c r="CE33" s="245"/>
+      <c r="BU33" s="106"/>
+      <c r="BV33" s="106"/>
+      <c r="BW33" s="106"/>
+      <c r="BX33" s="106"/>
+      <c r="BY33" s="106"/>
+      <c r="BZ33" s="106"/>
+      <c r="CA33" s="106"/>
+      <c r="CB33" s="106"/>
+      <c r="CC33" s="106"/>
+      <c r="CD33" s="106"/>
+      <c r="CE33" s="106"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="137"/>
-      <c r="D34" s="249"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="295"/>
-      <c r="M34" s="295"/>
-      <c r="N34" s="295"/>
-      <c r="O34" s="295"/>
-      <c r="P34" s="295"/>
-      <c r="Q34" s="295"/>
-      <c r="R34" s="295"/>
-      <c r="S34" s="295"/>
-      <c r="T34" s="295"/>
-      <c r="U34" s="295"/>
-      <c r="V34" s="295"/>
-      <c r="W34" s="295"/>
-      <c r="X34" s="295"/>
-      <c r="Y34" s="295"/>
-      <c r="Z34" s="295"/>
-      <c r="AA34" s="295"/>
-      <c r="AB34" s="296"/>
-      <c r="AD34" s="137"/>
-      <c r="AE34" s="249"/>
+      <c r="L34" s="296"/>
+      <c r="M34" s="296"/>
+      <c r="N34" s="296"/>
+      <c r="O34" s="296"/>
+      <c r="P34" s="296"/>
+      <c r="Q34" s="296"/>
+      <c r="R34" s="296"/>
+      <c r="S34" s="296"/>
+      <c r="T34" s="296"/>
+      <c r="U34" s="296"/>
+      <c r="V34" s="296"/>
+      <c r="W34" s="296"/>
+      <c r="X34" s="296"/>
+      <c r="Y34" s="296"/>
+      <c r="Z34" s="296"/>
+      <c r="AA34" s="296"/>
+      <c r="AB34" s="297"/>
+      <c r="AD34" s="110"/>
+      <c r="AE34" s="111"/>
       <c r="AF34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ34" s="251"/>
-      <c r="AK34" s="251"/>
-      <c r="AL34" s="251"/>
-      <c r="AM34" s="251"/>
-      <c r="AN34" s="251"/>
-      <c r="AO34" s="251"/>
-      <c r="AP34" s="251"/>
-      <c r="AQ34" s="251"/>
-      <c r="AR34" s="251"/>
-      <c r="AS34" s="251"/>
-      <c r="AT34" s="251"/>
-      <c r="AU34" s="251"/>
-      <c r="AV34" s="251"/>
-      <c r="AW34" s="251"/>
-      <c r="AX34" s="251"/>
-      <c r="AY34" s="251"/>
-      <c r="AZ34" s="251"/>
-      <c r="BA34" s="251"/>
-      <c r="BB34" s="251"/>
-      <c r="BC34" s="252"/>
-      <c r="BE34" s="254"/>
-      <c r="BF34" s="255"/>
+      <c r="AJ34" s="114"/>
+      <c r="AK34" s="114"/>
+      <c r="AL34" s="114"/>
+      <c r="AM34" s="114"/>
+      <c r="AN34" s="114"/>
+      <c r="AO34" s="114"/>
+      <c r="AP34" s="114"/>
+      <c r="AQ34" s="114"/>
+      <c r="AR34" s="114"/>
+      <c r="AS34" s="114"/>
+      <c r="AT34" s="114"/>
+      <c r="AU34" s="114"/>
+      <c r="AV34" s="114"/>
+      <c r="AW34" s="114"/>
+      <c r="AX34" s="114"/>
+      <c r="AY34" s="114"/>
+      <c r="AZ34" s="114"/>
+      <c r="BA34" s="114"/>
+      <c r="BB34" s="114"/>
+      <c r="BC34" s="115"/>
+      <c r="BE34" s="117"/>
+      <c r="BF34" s="118"/>
       <c r="BG34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BL34" s="153"/>
-      <c r="BM34" s="153"/>
-      <c r="BN34" s="153"/>
-      <c r="BO34" s="153"/>
-      <c r="BP34" s="153"/>
-      <c r="BQ34" s="153"/>
-      <c r="BR34" s="153"/>
-      <c r="BS34" s="153"/>
-      <c r="BT34" s="153"/>
-      <c r="BU34" s="153"/>
-      <c r="BV34" s="153"/>
-      <c r="BW34" s="153"/>
-      <c r="BX34" s="153"/>
-      <c r="BY34" s="153"/>
-      <c r="BZ34" s="153"/>
-      <c r="CA34" s="153"/>
-      <c r="CB34" s="153"/>
-      <c r="CC34" s="153"/>
-      <c r="CD34" s="153"/>
+      <c r="BL34" s="94"/>
+      <c r="BM34" s="94"/>
+      <c r="BN34" s="94"/>
+      <c r="BO34" s="94"/>
+      <c r="BP34" s="94"/>
+      <c r="BQ34" s="94"/>
+      <c r="BR34" s="94"/>
+      <c r="BS34" s="94"/>
+      <c r="BT34" s="94"/>
+      <c r="BU34" s="94"/>
+      <c r="BV34" s="94"/>
+      <c r="BW34" s="94"/>
+      <c r="BX34" s="94"/>
+      <c r="BY34" s="94"/>
+      <c r="BZ34" s="94"/>
+      <c r="CA34" s="94"/>
+      <c r="CB34" s="94"/>
+      <c r="CC34" s="94"/>
+      <c r="CD34" s="94"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="137"/>
-      <c r="D35" s="249"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="297"/>
-      <c r="M35" s="297"/>
-      <c r="N35" s="297"/>
-      <c r="O35" s="297"/>
-      <c r="P35" s="297"/>
-      <c r="Q35" s="297"/>
-      <c r="R35" s="297"/>
-      <c r="S35" s="297"/>
-      <c r="T35" s="297"/>
-      <c r="U35" s="297"/>
-      <c r="V35" s="297"/>
-      <c r="W35" s="297"/>
-      <c r="X35" s="297"/>
-      <c r="Y35" s="297"/>
-      <c r="Z35" s="297"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="124"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="124"/>
+      <c r="S35" s="124"/>
+      <c r="T35" s="124"/>
+      <c r="U35" s="124"/>
+      <c r="V35" s="124"/>
+      <c r="W35" s="124"/>
+      <c r="X35" s="124"/>
+      <c r="Y35" s="124"/>
+      <c r="Z35" s="124"/>
       <c r="AA35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="AB35" s="25"/>
-      <c r="AD35" s="137"/>
-      <c r="AE35" s="249"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="111"/>
       <c r="AF35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AJ35" s="251"/>
-      <c r="AK35" s="251"/>
-      <c r="AL35" s="251"/>
-      <c r="AM35" s="251"/>
-      <c r="AN35" s="251"/>
-      <c r="AO35" s="251"/>
-      <c r="AP35" s="251"/>
-      <c r="AQ35" s="251"/>
-      <c r="AR35" s="251"/>
-      <c r="AS35" s="251"/>
-      <c r="AT35" s="251"/>
-      <c r="AU35" s="251"/>
-      <c r="AV35" s="251"/>
-      <c r="AW35" s="251"/>
-      <c r="AX35" s="251"/>
-      <c r="AY35" s="251"/>
-      <c r="AZ35" s="251"/>
-      <c r="BA35" s="251"/>
+      <c r="AJ35" s="114"/>
+      <c r="AK35" s="114"/>
+      <c r="AL35" s="114"/>
+      <c r="AM35" s="114"/>
+      <c r="AN35" s="114"/>
+      <c r="AO35" s="114"/>
+      <c r="AP35" s="114"/>
+      <c r="AQ35" s="114"/>
+      <c r="AR35" s="114"/>
+      <c r="AS35" s="114"/>
+      <c r="AT35" s="114"/>
+      <c r="AU35" s="114"/>
+      <c r="AV35" s="114"/>
+      <c r="AW35" s="114"/>
+      <c r="AX35" s="114"/>
+      <c r="AY35" s="114"/>
+      <c r="AZ35" s="114"/>
+      <c r="BA35" s="114"/>
       <c r="BB35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="BC35" s="25"/>
-      <c r="BE35" s="254"/>
-      <c r="BF35" s="255"/>
+      <c r="BE35" s="117"/>
+      <c r="BF35" s="118"/>
       <c r="BG35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="BL35" s="153"/>
-      <c r="BM35" s="153"/>
-      <c r="BN35" s="153"/>
-      <c r="BO35" s="153"/>
-      <c r="BP35" s="153"/>
-      <c r="BQ35" s="153"/>
-      <c r="BR35" s="153"/>
-      <c r="BS35" s="153"/>
-      <c r="BT35" s="153"/>
-      <c r="BU35" s="153"/>
-      <c r="BV35" s="153"/>
-      <c r="BW35" s="153"/>
-      <c r="BX35" s="153"/>
-      <c r="BY35" s="153"/>
-      <c r="BZ35" s="153"/>
-      <c r="CA35" s="153"/>
-      <c r="CB35" s="153"/>
+      <c r="BL35" s="94"/>
+      <c r="BM35" s="94"/>
+      <c r="BN35" s="94"/>
+      <c r="BO35" s="94"/>
+      <c r="BP35" s="94"/>
+      <c r="BQ35" s="94"/>
+      <c r="BR35" s="94"/>
+      <c r="BS35" s="94"/>
+      <c r="BT35" s="94"/>
+      <c r="BU35" s="94"/>
+      <c r="BV35" s="94"/>
+      <c r="BW35" s="94"/>
+      <c r="BX35" s="94"/>
+      <c r="BY35" s="94"/>
+      <c r="BZ35" s="94"/>
+      <c r="CA35" s="94"/>
+      <c r="CB35" s="94"/>
       <c r="CC35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="139"/>
-      <c r="D36" s="250"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="26" t="s">
         <v>63</v>
       </c>
@@ -11493,53 +11497,53 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="153"/>
-      <c r="W36" s="153"/>
-      <c r="X36" s="153"/>
-      <c r="Y36" s="153"/>
-      <c r="Z36" s="153"/>
-      <c r="AA36" s="153"/>
-      <c r="AB36" s="253"/>
-      <c r="AD36" s="139"/>
-      <c r="AE36" s="250"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="116"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="113"/>
       <c r="AF36" s="26" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="153"/>
-      <c r="AK36" s="153"/>
-      <c r="AL36" s="153"/>
-      <c r="AM36" s="153"/>
-      <c r="AN36" s="153"/>
-      <c r="AO36" s="153"/>
-      <c r="AP36" s="153"/>
-      <c r="AQ36" s="153"/>
-      <c r="AR36" s="153"/>
-      <c r="AS36" s="153"/>
-      <c r="AT36" s="153"/>
-      <c r="AU36" s="153"/>
-      <c r="AV36" s="153"/>
-      <c r="AW36" s="153"/>
-      <c r="AX36" s="153"/>
-      <c r="AY36" s="153"/>
-      <c r="AZ36" s="153"/>
-      <c r="BA36" s="153"/>
-      <c r="BB36" s="153"/>
-      <c r="BC36" s="253"/>
-      <c r="BE36" s="256"/>
-      <c r="BF36" s="257"/>
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="94"/>
+      <c r="AN36" s="94"/>
+      <c r="AO36" s="94"/>
+      <c r="AP36" s="94"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="94"/>
+      <c r="AS36" s="94"/>
+      <c r="AT36" s="94"/>
+      <c r="AU36" s="94"/>
+      <c r="AV36" s="94"/>
+      <c r="AW36" s="94"/>
+      <c r="AX36" s="94"/>
+      <c r="AY36" s="94"/>
+      <c r="AZ36" s="94"/>
+      <c r="BA36" s="94"/>
+      <c r="BB36" s="94"/>
+      <c r="BC36" s="116"/>
+      <c r="BE36" s="119"/>
+      <c r="BF36" s="120"/>
       <c r="BG36" s="27" t="s">
         <v>0</v>
       </c>
@@ -11547,27 +11551,27 @@
       <c r="BI36" s="6"/>
       <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
-      <c r="BL36" s="234" t="s">
+      <c r="BL36" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="BM36" s="235"/>
-      <c r="BN36" s="235"/>
-      <c r="BO36" s="235"/>
-      <c r="BP36" s="235"/>
-      <c r="BQ36" s="235"/>
-      <c r="BR36" s="235"/>
-      <c r="BS36" s="235"/>
-      <c r="BT36" s="235"/>
-      <c r="BU36" s="235"/>
-      <c r="BV36" s="235"/>
-      <c r="BW36" s="235"/>
-      <c r="BX36" s="235"/>
-      <c r="BY36" s="235"/>
-      <c r="BZ36" s="235"/>
-      <c r="CA36" s="235"/>
-      <c r="CB36" s="235"/>
-      <c r="CC36" s="235"/>
-      <c r="CD36" s="235"/>
+      <c r="BM36" s="96"/>
+      <c r="BN36" s="96"/>
+      <c r="BO36" s="96"/>
+      <c r="BP36" s="96"/>
+      <c r="BQ36" s="96"/>
+      <c r="BR36" s="96"/>
+      <c r="BS36" s="96"/>
+      <c r="BT36" s="96"/>
+      <c r="BU36" s="96"/>
+      <c r="BV36" s="96"/>
+      <c r="BW36" s="96"/>
+      <c r="BX36" s="96"/>
+      <c r="BY36" s="96"/>
+      <c r="BZ36" s="96"/>
+      <c r="CA36" s="96"/>
+      <c r="CB36" s="96"/>
+      <c r="CC36" s="96"/>
+      <c r="CD36" s="96"/>
       <c r="CE36" s="6"/>
       <c r="CF36" s="6"/>
       <c r="CG36" s="4"/>
@@ -11696,6 +11700,155 @@
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AW8:BC8"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="BS16:CD21"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="E6:F15"/>
+    <mergeCell ref="BX7:BY8"/>
+    <mergeCell ref="BP7:BQ8"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="BE8:BK8"/>
+    <mergeCell ref="AJ14:BO15"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AE21:AH22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="AU20:AV22"/>
+    <mergeCell ref="AW21:AY22"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="BD7:BK7"/>
+    <mergeCell ref="Q7:R8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="AV6:BK6"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="BM28:CF28"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AF14:AI15"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC14:AE15"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="AH25:BP26"/>
+    <mergeCell ref="BJ27:BL28"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="BM27:CF27"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="L32:AB32"/>
     <mergeCell ref="CV21:CX23"/>
     <mergeCell ref="G20:AD20"/>
     <mergeCell ref="AE20:AT20"/>
@@ -11720,155 +11873,6 @@
     <mergeCell ref="J12:O13"/>
     <mergeCell ref="P12:CD13"/>
     <mergeCell ref="O21:P22"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="P27:BI28"/>
-    <mergeCell ref="AH25:BP26"/>
-    <mergeCell ref="BJ27:BL28"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="BM27:CF27"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="BM28:CF28"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="BS16:CD21"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="E6:F15"/>
-    <mergeCell ref="BX7:BY8"/>
-    <mergeCell ref="BP7:BQ8"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="BE8:BK8"/>
-    <mergeCell ref="AJ14:BO15"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AE21:AH22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="AU20:AV22"/>
-    <mergeCell ref="AW21:AY22"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="BD7:BK7"/>
-    <mergeCell ref="Q7:R8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="AV6:BK6"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AG10:CD11"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AW8:BC8"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -846,7 +846,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -942,10 +942,6 @@
       <sz val="7.5"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
-    <font>
-      <sz val="4.5"/>
-      <name val="ＭＳ Ｐ明朝"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1872,20 +1868,707 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1896,36 +2579,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1950,36 +2603,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2034,18 +2657,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2055,625 +2666,10 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2753,7 +2749,7 @@
         <xdr:cNvPr id="2" name="AutoShape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2819,7 @@
         <xdr:cNvPr id="3" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2889,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2944,7 @@
         <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2969,7 +2965,7 @@
           <xdr:cNvPr id="7" name="AutoShape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3015,7 +3011,7 @@
           <xdr:cNvPr id="8" name="Rectangle 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3056,7 +3052,7 @@
           <xdr:cNvPr id="9" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3097,7 +3093,7 @@
           <xdr:cNvPr id="10" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3164,7 +3160,7 @@
           <xdr:cNvPr id="11" name="Rectangle 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3231,7 +3227,7 @@
           <xdr:cNvPr id="12" name="Rectangle 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3298,7 +3294,7 @@
           <xdr:cNvPr id="13" name="Rectangle 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3372,7 +3368,7 @@
           <xdr:cNvPr id="14" name="Rectangle 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3439,7 +3435,7 @@
           <xdr:cNvPr id="15" name="Rectangle 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3506,7 +3502,7 @@
           <xdr:cNvPr id="16" name="Rectangle 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3573,7 +3569,7 @@
           <xdr:cNvPr id="17" name="Rectangle 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3640,7 +3636,7 @@
           <xdr:cNvPr id="18" name="Rectangle 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3707,7 +3703,7 @@
           <xdr:cNvPr id="19" name="Rectangle 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3774,7 +3770,7 @@
           <xdr:cNvPr id="20" name="Rectangle 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3841,7 +3837,7 @@
           <xdr:cNvPr id="21" name="Rectangle 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3882,7 +3878,7 @@
           <xdr:cNvPr id="22" name="Line 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3922,7 +3918,7 @@
           <xdr:cNvPr id="23" name="Rectangle 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3963,7 +3959,7 @@
           <xdr:cNvPr id="24" name="Rectangle 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4004,7 +4000,7 @@
           <xdr:cNvPr id="25" name="Rectangle 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4045,7 +4041,7 @@
           <xdr:cNvPr id="26" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4086,7 +4082,7 @@
           <xdr:cNvPr id="27" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4127,7 +4123,7 @@
           <xdr:cNvPr id="28" name="Rectangle 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4168,7 +4164,7 @@
           <xdr:cNvPr id="29" name="Rectangle 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4209,7 +4205,7 @@
           <xdr:cNvPr id="30" name="Line 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4249,7 +4245,7 @@
           <xdr:cNvPr id="31" name="Rectangle 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4290,7 +4286,7 @@
           <xdr:cNvPr id="32" name="Rectangle 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4331,7 +4327,7 @@
           <xdr:cNvPr id="33" name="Line 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4371,7 +4367,7 @@
           <xdr:cNvPr id="34" name="Rectangle 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4412,7 +4408,7 @@
           <xdr:cNvPr id="35" name="Line 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4452,7 +4448,7 @@
           <xdr:cNvPr id="36" name="Rectangle 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4493,7 +4489,7 @@
           <xdr:cNvPr id="37" name="Rectangle 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4534,7 +4530,7 @@
           <xdr:cNvPr id="38" name="Line 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4574,7 +4570,7 @@
           <xdr:cNvPr id="39" name="Rectangle 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4615,7 +4611,7 @@
           <xdr:cNvPr id="40" name="Line 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4655,7 +4651,7 @@
           <xdr:cNvPr id="41" name="Rectangle 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4696,7 +4692,7 @@
           <xdr:cNvPr id="42" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4737,7 +4733,7 @@
           <xdr:cNvPr id="43" name="Rectangle 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4778,7 +4774,7 @@
           <xdr:cNvPr id="44" name="Line 42">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4818,7 +4814,7 @@
           <xdr:cNvPr id="45" name="Rectangle 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4859,7 +4855,7 @@
           <xdr:cNvPr id="46" name="Line 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4899,7 +4895,7 @@
           <xdr:cNvPr id="47" name="Rectangle 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4940,7 +4936,7 @@
           <xdr:cNvPr id="48" name="Line 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000030000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4980,7 +4976,7 @@
           <xdr:cNvPr id="49" name="Rectangle 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000031000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5021,7 +5017,7 @@
           <xdr:cNvPr id="50" name="Line 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000032000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5061,7 +5057,7 @@
           <xdr:cNvPr id="51" name="Rectangle 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5102,7 +5098,7 @@
           <xdr:cNvPr id="52" name="Line 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5142,7 +5138,7 @@
           <xdr:cNvPr id="53" name="Rectangle 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5183,7 +5179,7 @@
           <xdr:cNvPr id="54" name="Line 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5223,7 +5219,7 @@
           <xdr:cNvPr id="55" name="Rectangle 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5264,7 +5260,7 @@
           <xdr:cNvPr id="56" name="Line 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5304,7 +5300,7 @@
           <xdr:cNvPr id="57" name="Rectangle 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5345,7 +5341,7 @@
           <xdr:cNvPr id="58" name="Line 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5385,7 +5381,7 @@
           <xdr:cNvPr id="59" name="Rectangle 57">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5426,7 +5422,7 @@
           <xdr:cNvPr id="60" name="Line 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5466,7 +5462,7 @@
           <xdr:cNvPr id="61" name="Rectangle 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5507,7 +5503,7 @@
           <xdr:cNvPr id="62" name="Line 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5547,7 +5543,7 @@
           <xdr:cNvPr id="63" name="Rectangle 61">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5588,7 +5584,7 @@
           <xdr:cNvPr id="64" name="Line 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000040000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5628,7 +5624,7 @@
           <xdr:cNvPr id="65" name="Rectangle 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000041000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5669,7 +5665,7 @@
           <xdr:cNvPr id="66" name="Line 64">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5709,7 +5705,7 @@
           <xdr:cNvPr id="67" name="Rectangle 65">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000043000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5750,7 +5746,7 @@
           <xdr:cNvPr id="68" name="Line 66">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000044000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5790,7 +5786,7 @@
           <xdr:cNvPr id="69" name="Rectangle 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000045000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5831,7 +5827,7 @@
           <xdr:cNvPr id="70" name="Line 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000046000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5871,7 +5867,7 @@
           <xdr:cNvPr id="71" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000047000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5912,7 +5908,7 @@
           <xdr:cNvPr id="72" name="Line 70">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000048000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5952,7 +5948,7 @@
           <xdr:cNvPr id="73" name="Rectangle 71">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000049000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5993,7 +5989,7 @@
           <xdr:cNvPr id="74" name="Line 72">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6033,7 +6029,7 @@
           <xdr:cNvPr id="75" name="Rectangle 73">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6074,7 +6070,7 @@
           <xdr:cNvPr id="76" name="図 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6133,7 +6129,7 @@
           <xdr:cNvPr id="77" name="図 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6192,7 +6188,7 @@
           <xdr:cNvPr id="78" name="図 80">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6251,7 +6247,7 @@
           <xdr:cNvPr id="79" name="図 81">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00004F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6310,7 +6306,7 @@
           <xdr:cNvPr id="80" name="Oval 78">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000050000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6345,7 +6341,7 @@
           <xdr:cNvPr id="81" name="Rectangle 79">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000051000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6440,7 +6436,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6507,7 +6503,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6574,7 +6570,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6641,7 +6637,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6708,7 +6704,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6775,7 +6771,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6842,7 +6838,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6909,7 +6905,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6976,7 +6972,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7043,7 +7039,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7105,7 +7101,7 @@
         <xdr:cNvPr id="84" name="A2_3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7171,7 +7167,7 @@
         <xdr:cNvPr id="96" name="A2_4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7237,7 +7233,7 @@
         <xdr:cNvPr id="97" name="A2_41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7303,7 +7299,7 @@
         <xdr:cNvPr id="101" name="A1_15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7368,7 +7364,7 @@
         <xdr:cNvPr id="100" name="A1_51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7434,7 +7430,7 @@
         <xdr:cNvPr id="102" name="A1_52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7500,7 +7496,7 @@
         <xdr:cNvPr id="103" name="A1_53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7566,7 +7562,7 @@
         <xdr:cNvPr id="99" name="A4_111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7631,7 +7627,7 @@
         <xdr:cNvPr id="104" name="A4_113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7696,7 +7692,7 @@
         <xdr:cNvPr id="105" name="A4_112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7761,7 +7757,7 @@
         <xdr:cNvPr id="106" name="A4_114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7826,7 +7822,7 @@
         <xdr:cNvPr id="107" name="A4_221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7891,7 +7887,7 @@
         <xdr:cNvPr id="108" name="A4_222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7956,7 +7952,7 @@
         <xdr:cNvPr id="109" name="A4_223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8021,7 +8017,7 @@
         <xdr:cNvPr id="110" name="A4_224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8086,7 +8082,7 @@
         <xdr:cNvPr id="111" name="A4_1111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8151,7 +8147,7 @@
         <xdr:cNvPr id="118" name="A2_19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8233,7 +8229,7 @@
         <xdr:cNvPr id="120" name="Picture 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8277,7 +8273,7 @@
         <xdr:cNvPr id="112" name="TextBox 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8343,7 +8339,7 @@
         <xdr:cNvPr id="113" name="TextBox 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8409,7 +8405,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8482,7 +8478,7 @@
         <xdr:cNvPr id="121" name="TextBox 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8561,7 +8557,7 @@
         <xdr:cNvPr id="123" name="TextBox 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8640,7 +8636,7 @@
         <xdr:cNvPr id="82" name="TextBox 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8718,7 +8714,7 @@
         <xdr:cNvPr id="115" name="TextBox 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9107,1054 +9103,1054 @@
   <sheetData>
     <row r="1" spans="3:82" ht="26.25" customHeight="1"/>
     <row r="2" spans="3:82" ht="20.25" customHeight="1">
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="BK2" s="288" t="s">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="BK2" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="BL2" s="279"/>
-      <c r="BM2" s="279"/>
-      <c r="BN2" s="279"/>
-      <c r="BO2" s="279"/>
-      <c r="BP2" s="291" t="s">
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BO2" s="30"/>
+      <c r="BP2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="BQ2" s="292"/>
-      <c r="BR2" s="292"/>
-      <c r="BS2" s="292"/>
-      <c r="BT2" s="293"/>
-      <c r="BU2" s="279" t="s">
+      <c r="BQ2" s="62"/>
+      <c r="BR2" s="62"/>
+      <c r="BS2" s="62"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="BV2" s="279"/>
-      <c r="BW2" s="279"/>
-      <c r="BX2" s="279"/>
-      <c r="BY2" s="279"/>
-      <c r="BZ2" s="285" t="s">
+      <c r="BV2" s="30"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="286"/>
-      <c r="CB2" s="286"/>
-      <c r="CC2" s="286"/>
-      <c r="CD2" s="287"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="57"/>
     </row>
     <row r="3" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="Y3" s="208" t="s">
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="Y3" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="208"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="208"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="208"/>
-      <c r="AG3" s="208"/>
-      <c r="AH3" s="208"/>
-      <c r="AI3" s="208"/>
-      <c r="AJ3" s="208"/>
-      <c r="AK3" s="208"/>
-      <c r="AL3" s="208"/>
-      <c r="AM3" s="208"/>
-      <c r="AN3" s="208"/>
-      <c r="AO3" s="208"/>
-      <c r="AP3" s="208"/>
-      <c r="AQ3" s="208"/>
-      <c r="AR3" s="208"/>
-      <c r="AS3" s="208"/>
-      <c r="AT3" s="208"/>
-      <c r="AU3" s="208"/>
-      <c r="AV3" s="208"/>
-      <c r="AW3" s="208"/>
-      <c r="AX3" s="208"/>
-      <c r="AY3" s="208"/>
-      <c r="AZ3" s="208"/>
-      <c r="BA3" s="208"/>
-      <c r="BB3" s="208"/>
-      <c r="BC3" s="208"/>
-      <c r="BD3" s="208"/>
-      <c r="BE3" s="208"/>
-      <c r="BF3" s="208"/>
-      <c r="BG3" s="208"/>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="156"/>
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="156"/>
+      <c r="AL3" s="156"/>
+      <c r="AM3" s="156"/>
+      <c r="AN3" s="156"/>
+      <c r="AO3" s="156"/>
+      <c r="AP3" s="156"/>
+      <c r="AQ3" s="156"/>
+      <c r="AR3" s="156"/>
+      <c r="AS3" s="156"/>
+      <c r="AT3" s="156"/>
+      <c r="AU3" s="156"/>
+      <c r="AV3" s="156"/>
+      <c r="AW3" s="156"/>
+      <c r="AX3" s="156"/>
+      <c r="AY3" s="156"/>
+      <c r="AZ3" s="156"/>
+      <c r="BA3" s="156"/>
+      <c r="BB3" s="156"/>
+      <c r="BC3" s="156"/>
+      <c r="BD3" s="156"/>
+      <c r="BE3" s="156"/>
+      <c r="BF3" s="156"/>
+      <c r="BG3" s="156"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="137"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="136"/>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="137"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="137"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="137"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="32"/>
+      <c r="BS3" s="32"/>
+      <c r="BT3" s="33"/>
+      <c r="BU3" s="31"/>
+      <c r="BV3" s="32"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="32"/>
+      <c r="BY3" s="33"/>
+      <c r="BZ3" s="31"/>
+      <c r="CA3" s="32"/>
+      <c r="CB3" s="32"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="33"/>
     </row>
     <row r="4" spans="3:82" ht="17.25" customHeight="1">
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="209"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="208"/>
-      <c r="AC4" s="208"/>
-      <c r="AD4" s="208"/>
-      <c r="AE4" s="208"/>
-      <c r="AF4" s="208"/>
-      <c r="AG4" s="208"/>
-      <c r="AH4" s="208"/>
-      <c r="AI4" s="208"/>
-      <c r="AJ4" s="208"/>
-      <c r="AK4" s="208"/>
-      <c r="AL4" s="208"/>
-      <c r="AM4" s="208"/>
-      <c r="AN4" s="208"/>
-      <c r="AO4" s="208"/>
-      <c r="AP4" s="208"/>
-      <c r="AQ4" s="208"/>
-      <c r="AR4" s="208"/>
-      <c r="AS4" s="208"/>
-      <c r="AT4" s="208"/>
-      <c r="AU4" s="208"/>
-      <c r="AV4" s="208"/>
-      <c r="AW4" s="208"/>
-      <c r="AX4" s="208"/>
-      <c r="AY4" s="208"/>
-      <c r="AZ4" s="208"/>
-      <c r="BA4" s="208"/>
-      <c r="BB4" s="208"/>
-      <c r="BC4" s="208"/>
-      <c r="BD4" s="208"/>
-      <c r="BE4" s="208"/>
-      <c r="BF4" s="208"/>
-      <c r="BG4" s="208"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="Y4" s="156"/>
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="156"/>
+      <c r="AD4" s="156"/>
+      <c r="AE4" s="156"/>
+      <c r="AF4" s="156"/>
+      <c r="AG4" s="156"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="156"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="156"/>
+      <c r="AM4" s="156"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="156"/>
+      <c r="AR4" s="156"/>
+      <c r="AS4" s="156"/>
+      <c r="AT4" s="156"/>
+      <c r="AU4" s="156"/>
+      <c r="AV4" s="156"/>
+      <c r="AW4" s="156"/>
+      <c r="AX4" s="156"/>
+      <c r="AY4" s="156"/>
+      <c r="AZ4" s="156"/>
+      <c r="BA4" s="156"/>
+      <c r="BB4" s="156"/>
+      <c r="BC4" s="156"/>
+      <c r="BD4" s="156"/>
+      <c r="BE4" s="156"/>
+      <c r="BF4" s="156"/>
+      <c r="BG4" s="156"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
-      <c r="BK4" s="194"/>
-      <c r="BL4" s="189"/>
-      <c r="BM4" s="189"/>
-      <c r="BN4" s="189"/>
-      <c r="BO4" s="280"/>
-      <c r="BP4" s="194"/>
-      <c r="BQ4" s="189"/>
-      <c r="BR4" s="189"/>
-      <c r="BS4" s="189"/>
-      <c r="BT4" s="280"/>
-      <c r="BU4" s="194"/>
-      <c r="BV4" s="189"/>
-      <c r="BW4" s="189"/>
-      <c r="BX4" s="189"/>
-      <c r="BY4" s="280"/>
-      <c r="BZ4" s="194"/>
-      <c r="CA4" s="189"/>
-      <c r="CB4" s="189"/>
-      <c r="CC4" s="189"/>
-      <c r="CD4" s="280"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="36"/>
     </row>
     <row r="5" spans="3:82" ht="9" customHeight="1"/>
     <row r="6" spans="3:82" ht="24" customHeight="1">
-      <c r="C6" s="210" t="s">
+      <c r="C6" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="210"/>
-      <c r="E6" s="141" t="s">
+      <c r="D6" s="122"/>
+      <c r="E6" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="195" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="195"/>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="192" t="s">
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="31" t="s">
+      <c r="T6" s="158"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="32" t="s">
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="118"/>
+      <c r="AN6" s="118"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="118"/>
+      <c r="AT6" s="118"/>
+      <c r="AU6" s="119"/>
+      <c r="AV6" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="135" t="s">
+      <c r="AW6" s="118"/>
+      <c r="AX6" s="118"/>
+      <c r="AY6" s="118"/>
+      <c r="AZ6" s="118"/>
+      <c r="BA6" s="118"/>
+      <c r="BB6" s="118"/>
+      <c r="BC6" s="118"/>
+      <c r="BD6" s="118"/>
+      <c r="BE6" s="118"/>
+      <c r="BF6" s="118"/>
+      <c r="BG6" s="118"/>
+      <c r="BH6" s="118"/>
+      <c r="BI6" s="118"/>
+      <c r="BJ6" s="118"/>
+      <c r="BK6" s="119"/>
+      <c r="BL6" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="BM6" s="136"/>
-      <c r="BN6" s="136"/>
-      <c r="BO6" s="136"/>
-      <c r="BP6" s="136"/>
-      <c r="BQ6" s="136"/>
-      <c r="BR6" s="136"/>
-      <c r="BS6" s="136"/>
-      <c r="BT6" s="136"/>
-      <c r="BU6" s="136"/>
-      <c r="BV6" s="136"/>
-      <c r="BW6" s="136"/>
-      <c r="BX6" s="136"/>
-      <c r="BY6" s="136"/>
-      <c r="BZ6" s="136"/>
-      <c r="CA6" s="137"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="32"/>
+      <c r="BV6" s="32"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="32"/>
+      <c r="BY6" s="32"/>
+      <c r="BZ6" s="32"/>
+      <c r="CA6" s="33"/>
       <c r="CD6" s="3"/>
     </row>
     <row r="7" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="177"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="202"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="130"/>
       <c r="Y7" s="41"/>
-      <c r="Z7" s="40"/>
+      <c r="Z7" s="37"/>
       <c r="AA7" s="41"/>
-      <c r="AB7" s="40"/>
+      <c r="AB7" s="37"/>
       <c r="AC7" s="41"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="202"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="130"/>
       <c r="AG7" s="41"/>
-      <c r="AH7" s="40"/>
+      <c r="AH7" s="37"/>
       <c r="AI7" s="41"/>
-      <c r="AJ7" s="40"/>
+      <c r="AJ7" s="37"/>
       <c r="AK7" s="41"/>
-      <c r="AL7" s="200"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="202"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="130"/>
       <c r="AO7" s="41"/>
-      <c r="AP7" s="40"/>
+      <c r="AP7" s="37"/>
       <c r="AQ7" s="41"/>
-      <c r="AR7" s="40"/>
+      <c r="AR7" s="37"/>
       <c r="AS7" s="41"/>
-      <c r="AT7" s="200"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="294" t="s">
+      <c r="AT7" s="165"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AW7" s="295"/>
-      <c r="AX7" s="34"/>
-      <c r="AY7" s="34"/>
-      <c r="AZ7" s="34"/>
-      <c r="BA7" s="34"/>
-      <c r="BB7" s="34"/>
-      <c r="BC7" s="278"/>
-      <c r="BD7" s="277"/>
-      <c r="BE7" s="34"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="34"/>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="34"/>
-      <c r="BK7" s="278"/>
-      <c r="BL7" s="220" t="s">
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="66"/>
+      <c r="AZ7" s="66"/>
+      <c r="BA7" s="66"/>
+      <c r="BB7" s="66"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="117"/>
+      <c r="BE7" s="66"/>
+      <c r="BF7" s="66"/>
+      <c r="BG7" s="66"/>
+      <c r="BH7" s="66"/>
+      <c r="BI7" s="66"/>
+      <c r="BJ7" s="66"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="BM7" s="221"/>
-      <c r="BN7" s="221"/>
-      <c r="BO7" s="222"/>
-      <c r="BP7" s="251"/>
+      <c r="BM7" s="100"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="101"/>
+      <c r="BP7" s="51"/>
       <c r="BQ7" s="41"/>
-      <c r="BR7" s="252"/>
+      <c r="BR7" s="49"/>
       <c r="BS7" s="41"/>
-      <c r="BT7" s="251"/>
+      <c r="BT7" s="51"/>
       <c r="BU7" s="41"/>
-      <c r="BV7" s="252"/>
+      <c r="BV7" s="49"/>
       <c r="BW7" s="41"/>
-      <c r="BX7" s="251"/>
-      <c r="BY7" s="252"/>
-      <c r="BZ7" s="40"/>
-      <c r="CA7" s="217"/>
+      <c r="BX7" s="51"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="37"/>
+      <c r="CA7" s="38"/>
       <c r="CB7" s="4"/>
       <c r="CD7" s="3"/>
     </row>
     <row r="8" spans="3:82" ht="21.75" customHeight="1">
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="212"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="189"/>
-      <c r="U8" s="189"/>
-      <c r="V8" s="189"/>
-      <c r="W8" s="189"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="201"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="203"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="201"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="203"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="201"/>
-      <c r="AU8" s="45"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="131"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="131"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="42"/>
       <c r="AV8" s="29"/>
-      <c r="AW8" s="254"/>
-      <c r="AX8" s="254"/>
-      <c r="AY8" s="254"/>
-      <c r="AZ8" s="254"/>
-      <c r="BA8" s="254"/>
-      <c r="BB8" s="254"/>
-      <c r="BC8" s="255"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="54"/>
       <c r="BD8" s="29"/>
-      <c r="BE8" s="254"/>
-      <c r="BF8" s="254"/>
-      <c r="BG8" s="254"/>
-      <c r="BH8" s="254"/>
-      <c r="BI8" s="254"/>
-      <c r="BJ8" s="254"/>
-      <c r="BK8" s="255"/>
-      <c r="BL8" s="223"/>
-      <c r="BM8" s="224"/>
-      <c r="BN8" s="224"/>
-      <c r="BO8" s="225"/>
-      <c r="BP8" s="253"/>
-      <c r="BQ8" s="45"/>
-      <c r="BR8" s="201"/>
-      <c r="BS8" s="45"/>
-      <c r="BT8" s="253"/>
-      <c r="BU8" s="45"/>
-      <c r="BV8" s="201"/>
-      <c r="BW8" s="45"/>
-      <c r="BX8" s="253"/>
-      <c r="BY8" s="201"/>
-      <c r="BZ8" s="44"/>
-      <c r="CA8" s="281"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="53"/>
+      <c r="BG8" s="53"/>
+      <c r="BH8" s="53"/>
+      <c r="BI8" s="53"/>
+      <c r="BJ8" s="53"/>
+      <c r="BK8" s="54"/>
+      <c r="BL8" s="102"/>
+      <c r="BM8" s="103"/>
+      <c r="BN8" s="103"/>
+      <c r="BO8" s="104"/>
+      <c r="BP8" s="52"/>
+      <c r="BQ8" s="42"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="42"/>
+      <c r="BT8" s="52"/>
+      <c r="BU8" s="42"/>
+      <c r="BV8" s="50"/>
+      <c r="BW8" s="42"/>
+      <c r="BX8" s="52"/>
+      <c r="BY8" s="50"/>
+      <c r="BZ8" s="39"/>
+      <c r="CA8" s="40"/>
       <c r="CB8" s="5"/>
       <c r="CC8" s="6"/>
       <c r="CD8" s="3"/>
     </row>
     <row r="9" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="66" t="s">
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="75" t="s">
+      <c r="H9" s="276"/>
+      <c r="I9" s="277"/>
+      <c r="J9" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="40"/>
+      <c r="K9" s="285"/>
+      <c r="L9" s="285"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="286"/>
+      <c r="P9" s="37"/>
       <c r="Q9" s="41"/>
-      <c r="R9" s="40"/>
+      <c r="R9" s="37"/>
       <c r="S9" s="41"/>
-      <c r="T9" s="40"/>
+      <c r="T9" s="37"/>
       <c r="U9" s="41"/>
-      <c r="V9" s="40"/>
+      <c r="V9" s="37"/>
       <c r="W9" s="41"/>
-      <c r="X9" s="40"/>
+      <c r="X9" s="37"/>
       <c r="Y9" s="41"/>
-      <c r="Z9" s="40"/>
+      <c r="Z9" s="37"/>
       <c r="AA9" s="41"/>
-      <c r="AB9" s="40"/>
+      <c r="AB9" s="37"/>
       <c r="AC9" s="41"/>
-      <c r="AD9" s="141" t="s">
+      <c r="AD9" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="204"/>
-      <c r="AG9" s="289" t="s">
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="290"/>
-      <c r="AI9" s="290"/>
-      <c r="AJ9" s="290"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="46"/>
-      <c r="AN9" s="46"/>
-      <c r="AO9" s="46"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="46"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="46"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="46"/>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="46"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="46"/>
-      <c r="BF9" s="46"/>
-      <c r="BG9" s="46"/>
-      <c r="BH9" s="46"/>
-      <c r="BI9" s="46"/>
-      <c r="BJ9" s="46"/>
-      <c r="BK9" s="46"/>
-      <c r="BL9" s="46"/>
-      <c r="BM9" s="46"/>
-      <c r="BN9" s="46"/>
-      <c r="BO9" s="46"/>
-      <c r="BP9" s="46"/>
-      <c r="BQ9" s="46"/>
-      <c r="BR9" s="46"/>
-      <c r="BS9" s="46"/>
-      <c r="BT9" s="46"/>
-      <c r="BU9" s="46"/>
-      <c r="BV9" s="46"/>
-      <c r="BW9" s="46"/>
-      <c r="BX9" s="46"/>
-      <c r="BY9" s="46"/>
-      <c r="BZ9" s="46"/>
-      <c r="CA9" s="46"/>
-      <c r="CB9" s="46"/>
-      <c r="CC9" s="46"/>
-      <c r="CD9" s="47"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="225"/>
+      <c r="AL9" s="225"/>
+      <c r="AM9" s="225"/>
+      <c r="AN9" s="225"/>
+      <c r="AO9" s="225"/>
+      <c r="AP9" s="225"/>
+      <c r="AQ9" s="225"/>
+      <c r="AR9" s="225"/>
+      <c r="AS9" s="225"/>
+      <c r="AT9" s="225"/>
+      <c r="AU9" s="225"/>
+      <c r="AV9" s="225"/>
+      <c r="AW9" s="225"/>
+      <c r="AX9" s="225"/>
+      <c r="AY9" s="225"/>
+      <c r="AZ9" s="225"/>
+      <c r="BA9" s="225"/>
+      <c r="BB9" s="225"/>
+      <c r="BC9" s="225"/>
+      <c r="BD9" s="225"/>
+      <c r="BE9" s="225"/>
+      <c r="BF9" s="225"/>
+      <c r="BG9" s="225"/>
+      <c r="BH9" s="225"/>
+      <c r="BI9" s="225"/>
+      <c r="BJ9" s="225"/>
+      <c r="BK9" s="225"/>
+      <c r="BL9" s="225"/>
+      <c r="BM9" s="225"/>
+      <c r="BN9" s="225"/>
+      <c r="BO9" s="225"/>
+      <c r="BP9" s="225"/>
+      <c r="BQ9" s="225"/>
+      <c r="BR9" s="225"/>
+      <c r="BS9" s="225"/>
+      <c r="BT9" s="225"/>
+      <c r="BU9" s="225"/>
+      <c r="BV9" s="225"/>
+      <c r="BW9" s="225"/>
+      <c r="BX9" s="225"/>
+      <c r="BY9" s="225"/>
+      <c r="BZ9" s="225"/>
+      <c r="CA9" s="225"/>
+      <c r="CB9" s="225"/>
+      <c r="CC9" s="225"/>
+      <c r="CD9" s="226"/>
     </row>
     <row r="10" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="282"/>
-      <c r="AH10" s="283"/>
-      <c r="AI10" s="283"/>
-      <c r="AJ10" s="283"/>
-      <c r="AK10" s="283"/>
-      <c r="AL10" s="283"/>
-      <c r="AM10" s="283"/>
-      <c r="AN10" s="283"/>
-      <c r="AO10" s="283"/>
-      <c r="AP10" s="283"/>
-      <c r="AQ10" s="283"/>
-      <c r="AR10" s="283"/>
-      <c r="AS10" s="283"/>
-      <c r="AT10" s="283"/>
-      <c r="AU10" s="283"/>
-      <c r="AV10" s="283"/>
-      <c r="AW10" s="283"/>
-      <c r="AX10" s="283"/>
-      <c r="AY10" s="283"/>
-      <c r="AZ10" s="283"/>
-      <c r="BA10" s="283"/>
-      <c r="BB10" s="283"/>
-      <c r="BC10" s="283"/>
-      <c r="BD10" s="283"/>
-      <c r="BE10" s="283"/>
-      <c r="BF10" s="283"/>
-      <c r="BG10" s="283"/>
-      <c r="BH10" s="283"/>
-      <c r="BI10" s="283"/>
-      <c r="BJ10" s="283"/>
-      <c r="BK10" s="283"/>
-      <c r="BL10" s="283"/>
-      <c r="BM10" s="283"/>
-      <c r="BN10" s="283"/>
-      <c r="BO10" s="283"/>
-      <c r="BP10" s="283"/>
-      <c r="BQ10" s="283"/>
-      <c r="BR10" s="283"/>
-      <c r="BS10" s="283"/>
-      <c r="BT10" s="283"/>
-      <c r="BU10" s="283"/>
-      <c r="BV10" s="283"/>
-      <c r="BW10" s="283"/>
-      <c r="BX10" s="283"/>
-      <c r="BY10" s="283"/>
-      <c r="BZ10" s="283"/>
-      <c r="CA10" s="283"/>
-      <c r="CB10" s="283"/>
-      <c r="CC10" s="283"/>
-      <c r="CD10" s="284"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="279"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="287"/>
+      <c r="K10" s="288"/>
+      <c r="L10" s="288"/>
+      <c r="M10" s="288"/>
+      <c r="N10" s="288"/>
+      <c r="O10" s="289"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="168"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="44"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="44"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44"/>
+      <c r="BD10" s="44"/>
+      <c r="BE10" s="44"/>
+      <c r="BF10" s="44"/>
+      <c r="BG10" s="44"/>
+      <c r="BH10" s="44"/>
+      <c r="BI10" s="44"/>
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="44"/>
+      <c r="BM10" s="44"/>
+      <c r="BN10" s="44"/>
+      <c r="BO10" s="44"/>
+      <c r="BP10" s="44"/>
+      <c r="BQ10" s="44"/>
+      <c r="BR10" s="44"/>
+      <c r="BS10" s="44"/>
+      <c r="BT10" s="44"/>
+      <c r="BU10" s="44"/>
+      <c r="BV10" s="44"/>
+      <c r="BW10" s="44"/>
+      <c r="BX10" s="44"/>
+      <c r="BY10" s="44"/>
+      <c r="BZ10" s="44"/>
+      <c r="CA10" s="44"/>
+      <c r="CB10" s="44"/>
+      <c r="CC10" s="44"/>
+      <c r="CD10" s="45"/>
     </row>
     <row r="11" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="206"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="92"/>
-      <c r="CC11" s="92"/>
-      <c r="CD11" s="93"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="282"/>
+      <c r="I11" s="283"/>
+      <c r="J11" s="290"/>
+      <c r="K11" s="291"/>
+      <c r="L11" s="291"/>
+      <c r="M11" s="291"/>
+      <c r="N11" s="291"/>
+      <c r="O11" s="292"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="170"/>
+      <c r="AF11" s="171"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="47"/>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="47"/>
+      <c r="BE11" s="47"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="47"/>
+      <c r="BH11" s="47"/>
+      <c r="BI11" s="47"/>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="47"/>
+      <c r="BL11" s="47"/>
+      <c r="BM11" s="47"/>
+      <c r="BN11" s="47"/>
+      <c r="BO11" s="47"/>
+      <c r="BP11" s="47"/>
+      <c r="BQ11" s="47"/>
+      <c r="BR11" s="47"/>
+      <c r="BS11" s="47"/>
+      <c r="BT11" s="47"/>
+      <c r="BU11" s="47"/>
+      <c r="BV11" s="47"/>
+      <c r="BW11" s="47"/>
+      <c r="BX11" s="47"/>
+      <c r="BY11" s="47"/>
+      <c r="BZ11" s="47"/>
+      <c r="CA11" s="47"/>
+      <c r="CB11" s="47"/>
+      <c r="CC11" s="47"/>
+      <c r="CD11" s="48"/>
     </row>
     <row r="12" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="60" t="s">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="75" t="s">
+      <c r="H12" s="196"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="284" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="89"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="89"/>
-      <c r="AO12" s="89"/>
-      <c r="AP12" s="89"/>
-      <c r="AQ12" s="89"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="89"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="89"/>
-      <c r="AV12" s="89"/>
-      <c r="AW12" s="89"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="89"/>
-      <c r="BB12" s="89"/>
-      <c r="BC12" s="89"/>
-      <c r="BD12" s="89"/>
-      <c r="BE12" s="89"/>
-      <c r="BF12" s="89"/>
-      <c r="BG12" s="89"/>
-      <c r="BH12" s="89"/>
-      <c r="BI12" s="89"/>
-      <c r="BJ12" s="89"/>
-      <c r="BK12" s="89"/>
-      <c r="BL12" s="89"/>
-      <c r="BM12" s="89"/>
-      <c r="BN12" s="89"/>
-      <c r="BO12" s="89"/>
-      <c r="BP12" s="89"/>
-      <c r="BQ12" s="89"/>
-      <c r="BR12" s="89"/>
-      <c r="BS12" s="89"/>
-      <c r="BT12" s="89"/>
-      <c r="BU12" s="89"/>
-      <c r="BV12" s="89"/>
-      <c r="BW12" s="89"/>
-      <c r="BX12" s="89"/>
-      <c r="BY12" s="89"/>
-      <c r="BZ12" s="89"/>
-      <c r="CA12" s="89"/>
-      <c r="CB12" s="89"/>
-      <c r="CC12" s="89"/>
-      <c r="CD12" s="90"/>
+      <c r="K12" s="285"/>
+      <c r="L12" s="285"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="285"/>
+      <c r="O12" s="286"/>
+      <c r="P12" s="293"/>
+      <c r="Q12" s="294"/>
+      <c r="R12" s="294"/>
+      <c r="S12" s="294"/>
+      <c r="T12" s="294"/>
+      <c r="U12" s="294"/>
+      <c r="V12" s="294"/>
+      <c r="W12" s="294"/>
+      <c r="X12" s="294"/>
+      <c r="Y12" s="294"/>
+      <c r="Z12" s="294"/>
+      <c r="AA12" s="294"/>
+      <c r="AB12" s="294"/>
+      <c r="AC12" s="294"/>
+      <c r="AD12" s="294"/>
+      <c r="AE12" s="294"/>
+      <c r="AF12" s="294"/>
+      <c r="AG12" s="294"/>
+      <c r="AH12" s="294"/>
+      <c r="AI12" s="294"/>
+      <c r="AJ12" s="294"/>
+      <c r="AK12" s="294"/>
+      <c r="AL12" s="294"/>
+      <c r="AM12" s="294"/>
+      <c r="AN12" s="294"/>
+      <c r="AO12" s="294"/>
+      <c r="AP12" s="294"/>
+      <c r="AQ12" s="294"/>
+      <c r="AR12" s="294"/>
+      <c r="AS12" s="294"/>
+      <c r="AT12" s="294"/>
+      <c r="AU12" s="294"/>
+      <c r="AV12" s="294"/>
+      <c r="AW12" s="294"/>
+      <c r="AX12" s="294"/>
+      <c r="AY12" s="294"/>
+      <c r="AZ12" s="294"/>
+      <c r="BA12" s="294"/>
+      <c r="BB12" s="294"/>
+      <c r="BC12" s="294"/>
+      <c r="BD12" s="294"/>
+      <c r="BE12" s="294"/>
+      <c r="BF12" s="294"/>
+      <c r="BG12" s="294"/>
+      <c r="BH12" s="294"/>
+      <c r="BI12" s="294"/>
+      <c r="BJ12" s="294"/>
+      <c r="BK12" s="294"/>
+      <c r="BL12" s="294"/>
+      <c r="BM12" s="294"/>
+      <c r="BN12" s="294"/>
+      <c r="BO12" s="294"/>
+      <c r="BP12" s="294"/>
+      <c r="BQ12" s="294"/>
+      <c r="BR12" s="294"/>
+      <c r="BS12" s="294"/>
+      <c r="BT12" s="294"/>
+      <c r="BU12" s="294"/>
+      <c r="BV12" s="294"/>
+      <c r="BW12" s="294"/>
+      <c r="BX12" s="294"/>
+      <c r="BY12" s="294"/>
+      <c r="BZ12" s="294"/>
+      <c r="CA12" s="294"/>
+      <c r="CB12" s="294"/>
+      <c r="CC12" s="294"/>
+      <c r="CD12" s="295"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="92"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="92"/>
-      <c r="BE13" s="92"/>
-      <c r="BF13" s="92"/>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="92"/>
-      <c r="BJ13" s="92"/>
-      <c r="BK13" s="92"/>
-      <c r="BL13" s="92"/>
-      <c r="BM13" s="92"/>
-      <c r="BN13" s="92"/>
-      <c r="BO13" s="92"/>
-      <c r="BP13" s="92"/>
-      <c r="BQ13" s="92"/>
-      <c r="BR13" s="92"/>
-      <c r="BS13" s="92"/>
-      <c r="BT13" s="92"/>
-      <c r="BU13" s="92"/>
-      <c r="BV13" s="92"/>
-      <c r="BW13" s="92"/>
-      <c r="BX13" s="92"/>
-      <c r="BY13" s="92"/>
-      <c r="BZ13" s="92"/>
-      <c r="CA13" s="92"/>
-      <c r="CB13" s="92"/>
-      <c r="CC13" s="92"/>
-      <c r="CD13" s="93"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="290"/>
+      <c r="K13" s="291"/>
+      <c r="L13" s="291"/>
+      <c r="M13" s="291"/>
+      <c r="N13" s="291"/>
+      <c r="O13" s="292"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="47"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
+      <c r="AX13" s="47"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="47"/>
+      <c r="BA13" s="47"/>
+      <c r="BB13" s="47"/>
+      <c r="BC13" s="47"/>
+      <c r="BD13" s="47"/>
+      <c r="BE13" s="47"/>
+      <c r="BF13" s="47"/>
+      <c r="BG13" s="47"/>
+      <c r="BH13" s="47"/>
+      <c r="BI13" s="47"/>
+      <c r="BJ13" s="47"/>
+      <c r="BK13" s="47"/>
+      <c r="BL13" s="47"/>
+      <c r="BM13" s="47"/>
+      <c r="BN13" s="47"/>
+      <c r="BO13" s="47"/>
+      <c r="BP13" s="47"/>
+      <c r="BQ13" s="47"/>
+      <c r="BR13" s="47"/>
+      <c r="BS13" s="47"/>
+      <c r="BT13" s="47"/>
+      <c r="BU13" s="47"/>
+      <c r="BV13" s="47"/>
+      <c r="BW13" s="47"/>
+      <c r="BX13" s="47"/>
+      <c r="BY13" s="47"/>
+      <c r="BZ13" s="47"/>
+      <c r="CA13" s="47"/>
+      <c r="CB13" s="47"/>
+      <c r="CC13" s="47"/>
+      <c r="CD13" s="48"/>
     </row>
     <row r="14" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="48" t="s">
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="267" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="186" t="s">
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="269"/>
+      <c r="M14" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="178"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="57"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="189"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="173"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="173"/>
+      <c r="Y14" s="186"/>
+      <c r="Z14" s="176"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="192"/>
       <c r="AC14" s="180"/>
       <c r="AD14" s="181"/>
       <c r="AE14" s="182"/>
-      <c r="AF14" s="242" t="s">
+      <c r="AF14" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="AG14" s="243"/>
-      <c r="AH14" s="243"/>
-      <c r="AI14" s="243"/>
-      <c r="AJ14" s="256" t="s">
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="151"/>
+      <c r="AJ14" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="AK14" s="257"/>
-      <c r="AL14" s="257"/>
-      <c r="AM14" s="257"/>
-      <c r="AN14" s="257"/>
-      <c r="AO14" s="257"/>
-      <c r="AP14" s="257"/>
-      <c r="AQ14" s="257"/>
-      <c r="AR14" s="257"/>
-      <c r="AS14" s="257"/>
-      <c r="AT14" s="257"/>
-      <c r="AU14" s="257"/>
-      <c r="AV14" s="257"/>
-      <c r="AW14" s="257"/>
-      <c r="AX14" s="257"/>
-      <c r="AY14" s="257"/>
-      <c r="AZ14" s="257"/>
-      <c r="BA14" s="257"/>
-      <c r="BB14" s="257"/>
-      <c r="BC14" s="257"/>
-      <c r="BD14" s="257"/>
-      <c r="BE14" s="257"/>
-      <c r="BF14" s="257"/>
-      <c r="BG14" s="257"/>
-      <c r="BH14" s="257"/>
-      <c r="BI14" s="257"/>
-      <c r="BJ14" s="257"/>
-      <c r="BK14" s="257"/>
-      <c r="BL14" s="257"/>
-      <c r="BM14" s="257"/>
-      <c r="BN14" s="257"/>
-      <c r="BO14" s="258"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="88"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="88"/>
+      <c r="AQ14" s="88"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="88"/>
+      <c r="AU14" s="88"/>
+      <c r="AV14" s="88"/>
+      <c r="AW14" s="88"/>
+      <c r="AX14" s="88"/>
+      <c r="AY14" s="88"/>
+      <c r="AZ14" s="88"/>
+      <c r="BA14" s="88"/>
+      <c r="BB14" s="88"/>
+      <c r="BC14" s="88"/>
+      <c r="BD14" s="88"/>
+      <c r="BE14" s="88"/>
+      <c r="BF14" s="88"/>
+      <c r="BG14" s="88"/>
+      <c r="BH14" s="88"/>
+      <c r="BI14" s="88"/>
+      <c r="BJ14" s="88"/>
+      <c r="BK14" s="88"/>
+      <c r="BL14" s="88"/>
+      <c r="BM14" s="88"/>
+      <c r="BN14" s="88"/>
+      <c r="BO14" s="89"/>
     </row>
     <row r="15" spans="3:82" ht="15.75" customHeight="1">
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="190"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="179"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="179"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="59"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
+      <c r="I15" s="271"/>
+      <c r="J15" s="271"/>
+      <c r="K15" s="271"/>
+      <c r="L15" s="272"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="179"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="179"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="179"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="194"/>
       <c r="AC15" s="183"/>
       <c r="AD15" s="184"/>
       <c r="AE15" s="185"/>
-      <c r="AF15" s="244"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="94"/>
-      <c r="AJ15" s="259"/>
-      <c r="AK15" s="260"/>
-      <c r="AL15" s="260"/>
-      <c r="AM15" s="260"/>
-      <c r="AN15" s="260"/>
-      <c r="AO15" s="260"/>
-      <c r="AP15" s="260"/>
-      <c r="AQ15" s="260"/>
-      <c r="AR15" s="260"/>
-      <c r="AS15" s="260"/>
-      <c r="AT15" s="260"/>
-      <c r="AU15" s="260"/>
-      <c r="AV15" s="260"/>
-      <c r="AW15" s="260"/>
-      <c r="AX15" s="260"/>
-      <c r="AY15" s="260"/>
-      <c r="AZ15" s="260"/>
-      <c r="BA15" s="260"/>
-      <c r="BB15" s="260"/>
-      <c r="BC15" s="260"/>
-      <c r="BD15" s="260"/>
-      <c r="BE15" s="260"/>
-      <c r="BF15" s="260"/>
-      <c r="BG15" s="260"/>
-      <c r="BH15" s="260"/>
-      <c r="BI15" s="260"/>
-      <c r="BJ15" s="260"/>
-      <c r="BK15" s="260"/>
-      <c r="BL15" s="260"/>
-      <c r="BM15" s="260"/>
-      <c r="BN15" s="260"/>
-      <c r="BO15" s="261"/>
-      <c r="BS15" s="214" t="s">
+      <c r="AF15" s="152"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="153"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="91"/>
+      <c r="AO15" s="91"/>
+      <c r="AP15" s="91"/>
+      <c r="AQ15" s="91"/>
+      <c r="AR15" s="91"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="91"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="91"/>
+      <c r="BC15" s="91"/>
+      <c r="BD15" s="91"/>
+      <c r="BE15" s="91"/>
+      <c r="BF15" s="91"/>
+      <c r="BG15" s="91"/>
+      <c r="BH15" s="91"/>
+      <c r="BI15" s="91"/>
+      <c r="BJ15" s="91"/>
+      <c r="BK15" s="91"/>
+      <c r="BL15" s="91"/>
+      <c r="BM15" s="91"/>
+      <c r="BN15" s="91"/>
+      <c r="BO15" s="92"/>
+      <c r="BS15" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="BT15" s="215"/>
-      <c r="BU15" s="215"/>
-      <c r="BV15" s="215"/>
-      <c r="BW15" s="215"/>
-      <c r="BX15" s="215"/>
-      <c r="BY15" s="215"/>
-      <c r="BZ15" s="215"/>
-      <c r="CA15" s="215"/>
-      <c r="CB15" s="215"/>
-      <c r="CC15" s="215"/>
-      <c r="CD15" s="216"/>
+      <c r="BT15" s="69"/>
+      <c r="BU15" s="69"/>
+      <c r="BV15" s="69"/>
+      <c r="BW15" s="69"/>
+      <c r="BX15" s="69"/>
+      <c r="BY15" s="69"/>
+      <c r="BZ15" s="69"/>
+      <c r="CA15" s="69"/>
+      <c r="CB15" s="69"/>
+      <c r="CC15" s="69"/>
+      <c r="CD15" s="70"/>
     </row>
     <row r="16" spans="3:82" ht="12.75" customHeight="1">
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
@@ -10183,22 +10179,22 @@
       <c r="AO16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BS16" s="214"/>
-      <c r="BT16" s="215"/>
-      <c r="BU16" s="215"/>
-      <c r="BV16" s="215"/>
-      <c r="BW16" s="215"/>
-      <c r="BX16" s="215"/>
-      <c r="BY16" s="215"/>
-      <c r="BZ16" s="215"/>
-      <c r="CA16" s="215"/>
-      <c r="CB16" s="215"/>
-      <c r="CC16" s="215"/>
-      <c r="CD16" s="216"/>
+      <c r="BS16" s="68"/>
+      <c r="BT16" s="69"/>
+      <c r="BU16" s="69"/>
+      <c r="BV16" s="69"/>
+      <c r="BW16" s="69"/>
+      <c r="BX16" s="69"/>
+      <c r="BY16" s="69"/>
+      <c r="BZ16" s="69"/>
+      <c r="CA16" s="69"/>
+      <c r="CB16" s="69"/>
+      <c r="CC16" s="69"/>
+      <c r="CD16" s="70"/>
     </row>
     <row r="17" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="H17" s="13" t="s">
@@ -10207,882 +10203,882 @@
       <c r="AO17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="BS17" s="245"/>
-      <c r="BT17" s="209"/>
-      <c r="BU17" s="209"/>
-      <c r="BV17" s="209"/>
-      <c r="BW17" s="209"/>
-      <c r="BX17" s="209"/>
-      <c r="BY17" s="209"/>
-      <c r="BZ17" s="209"/>
-      <c r="CA17" s="209"/>
-      <c r="CB17" s="209"/>
-      <c r="CC17" s="209"/>
-      <c r="CD17" s="246"/>
+      <c r="BS17" s="71"/>
+      <c r="BT17" s="72"/>
+      <c r="BU17" s="72"/>
+      <c r="BV17" s="72"/>
+      <c r="BW17" s="72"/>
+      <c r="BX17" s="72"/>
+      <c r="BY17" s="72"/>
+      <c r="BZ17" s="72"/>
+      <c r="CA17" s="72"/>
+      <c r="CB17" s="72"/>
+      <c r="CC17" s="72"/>
+      <c r="CD17" s="73"/>
     </row>
     <row r="18" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BS18" s="245"/>
-      <c r="BT18" s="209"/>
-      <c r="BU18" s="209"/>
-      <c r="BV18" s="209"/>
-      <c r="BW18" s="209"/>
-      <c r="BX18" s="209"/>
-      <c r="BY18" s="209"/>
-      <c r="BZ18" s="209"/>
-      <c r="CA18" s="209"/>
-      <c r="CB18" s="209"/>
-      <c r="CC18" s="209"/>
-      <c r="CD18" s="246"/>
+      <c r="BS18" s="71"/>
+      <c r="BT18" s="72"/>
+      <c r="BU18" s="72"/>
+      <c r="BV18" s="72"/>
+      <c r="BW18" s="72"/>
+      <c r="BX18" s="72"/>
+      <c r="BY18" s="72"/>
+      <c r="BZ18" s="72"/>
+      <c r="CA18" s="72"/>
+      <c r="CB18" s="72"/>
+      <c r="CC18" s="72"/>
+      <c r="CD18" s="73"/>
     </row>
     <row r="19" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="250" t="s">
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="250"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="250"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="250"/>
-      <c r="N19" s="250"/>
-      <c r="O19" s="250"/>
-      <c r="P19" s="250"/>
-      <c r="Q19" s="250"/>
-      <c r="R19" s="250"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="250"/>
-      <c r="V19" s="250"/>
-      <c r="W19" s="250"/>
-      <c r="X19" s="250"/>
-      <c r="Y19" s="250"/>
-      <c r="Z19" s="250"/>
-      <c r="AA19" s="250"/>
-      <c r="AB19" s="250"/>
-      <c r="AC19" s="250"/>
-      <c r="AD19" s="250"/>
-      <c r="AE19" s="250"/>
-      <c r="AF19" s="250"/>
-      <c r="AG19" s="250"/>
-      <c r="AH19" s="250"/>
-      <c r="AI19" s="250"/>
-      <c r="AJ19" s="250"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
       <c r="AV19" s="15"/>
-      <c r="BS19" s="245"/>
-      <c r="BT19" s="209"/>
-      <c r="BU19" s="209"/>
-      <c r="BV19" s="209"/>
-      <c r="BW19" s="209"/>
-      <c r="BX19" s="209"/>
-      <c r="BY19" s="209"/>
-      <c r="BZ19" s="209"/>
-      <c r="CA19" s="209"/>
-      <c r="CB19" s="209"/>
-      <c r="CC19" s="209"/>
-      <c r="CD19" s="246"/>
+      <c r="BS19" s="71"/>
+      <c r="BT19" s="72"/>
+      <c r="BU19" s="72"/>
+      <c r="BV19" s="72"/>
+      <c r="BW19" s="72"/>
+      <c r="BX19" s="72"/>
+      <c r="BY19" s="72"/>
+      <c r="BZ19" s="72"/>
+      <c r="CA19" s="72"/>
+      <c r="CB19" s="72"/>
+      <c r="CC19" s="72"/>
+      <c r="CD19" s="73"/>
     </row>
     <row r="20" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="229" t="s">
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="230"/>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="136"/>
+      <c r="G20" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="31" t="s">
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="267"/>
-      <c r="AV20" s="268"/>
-      <c r="AW20" s="240" t="s">
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="119"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="108"/>
+      <c r="AW20" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="AX20" s="241"/>
+      <c r="AX20" s="149"/>
       <c r="AY20" s="16"/>
       <c r="AZ20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="BA20" s="18"/>
       <c r="BB20" s="18"/>
-      <c r="BC20" s="34"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="35"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="37"/>
-      <c r="BS20" s="245"/>
-      <c r="BT20" s="209"/>
-      <c r="BU20" s="209"/>
-      <c r="BV20" s="209"/>
-      <c r="BW20" s="209"/>
-      <c r="BX20" s="209"/>
-      <c r="BY20" s="209"/>
-      <c r="BZ20" s="209"/>
-      <c r="CA20" s="209"/>
-      <c r="CB20" s="209"/>
-      <c r="CC20" s="209"/>
-      <c r="CD20" s="246"/>
+      <c r="BC20" s="66"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="264"/>
+      <c r="BJ20" s="265"/>
+      <c r="BK20" s="265"/>
+      <c r="BL20" s="265"/>
+      <c r="BM20" s="265"/>
+      <c r="BN20" s="265"/>
+      <c r="BO20" s="265"/>
+      <c r="BP20" s="265"/>
+      <c r="BQ20" s="266"/>
+      <c r="BS20" s="71"/>
+      <c r="BT20" s="72"/>
+      <c r="BU20" s="72"/>
+      <c r="BV20" s="72"/>
+      <c r="BW20" s="72"/>
+      <c r="BX20" s="72"/>
+      <c r="BY20" s="72"/>
+      <c r="BZ20" s="72"/>
+      <c r="CA20" s="72"/>
+      <c r="CB20" s="72"/>
+      <c r="CC20" s="72"/>
+      <c r="CD20" s="73"/>
     </row>
     <row r="21" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="176"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="176"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="220" t="s">
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="273"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="273"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="273"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="172"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="AF21" s="221"/>
-      <c r="AG21" s="221"/>
-      <c r="AH21" s="222"/>
-      <c r="AI21" s="265"/>
-      <c r="AJ21" s="263"/>
-      <c r="AK21" s="236"/>
-      <c r="AL21" s="237"/>
-      <c r="AM21" s="262"/>
-      <c r="AN21" s="263"/>
-      <c r="AO21" s="236"/>
-      <c r="AP21" s="237"/>
-      <c r="AQ21" s="262"/>
-      <c r="AR21" s="263"/>
-      <c r="AS21" s="236"/>
-      <c r="AT21" s="237"/>
-      <c r="AU21" s="269"/>
-      <c r="AV21" s="270"/>
-      <c r="AW21" s="273" t="s">
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="97"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="94"/>
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="93"/>
+      <c r="AR21" s="94"/>
+      <c r="AS21" s="97"/>
+      <c r="AT21" s="98"/>
+      <c r="AU21" s="109"/>
+      <c r="AV21" s="110"/>
+      <c r="AW21" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="AX21" s="273"/>
-      <c r="AY21" s="274"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="114"/>
       <c r="AZ21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="BA21" s="20"/>
-      <c r="BB21" s="157"/>
-      <c r="BC21" s="157"/>
-      <c r="BD21" s="157"/>
-      <c r="BE21" s="157"/>
-      <c r="BF21" s="157"/>
-      <c r="BG21" s="157"/>
-      <c r="BH21" s="157"/>
+      <c r="BB21" s="144"/>
+      <c r="BC21" s="144"/>
+      <c r="BD21" s="144"/>
+      <c r="BE21" s="144"/>
+      <c r="BF21" s="144"/>
+      <c r="BG21" s="144"/>
+      <c r="BH21" s="144"/>
       <c r="BI21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="BJ21" s="20"/>
-      <c r="BK21" s="157"/>
-      <c r="BL21" s="157"/>
-      <c r="BM21" s="157"/>
-      <c r="BN21" s="157"/>
-      <c r="BO21" s="157"/>
-      <c r="BP21" s="157"/>
-      <c r="BQ21" s="158"/>
-      <c r="BS21" s="247"/>
-      <c r="BT21" s="248"/>
-      <c r="BU21" s="248"/>
-      <c r="BV21" s="248"/>
-      <c r="BW21" s="248"/>
-      <c r="BX21" s="248"/>
-      <c r="BY21" s="248"/>
-      <c r="BZ21" s="248"/>
-      <c r="CA21" s="248"/>
-      <c r="CB21" s="248"/>
-      <c r="CC21" s="248"/>
-      <c r="CD21" s="249"/>
-      <c r="CV21" s="30"/>
-      <c r="CW21" s="30"/>
-      <c r="CX21" s="30"/>
+      <c r="BK21" s="144"/>
+      <c r="BL21" s="144"/>
+      <c r="BM21" s="144"/>
+      <c r="BN21" s="144"/>
+      <c r="BO21" s="144"/>
+      <c r="BP21" s="144"/>
+      <c r="BQ21" s="146"/>
+      <c r="BS21" s="74"/>
+      <c r="BT21" s="75"/>
+      <c r="BU21" s="75"/>
+      <c r="BV21" s="75"/>
+      <c r="BW21" s="75"/>
+      <c r="BX21" s="75"/>
+      <c r="BY21" s="75"/>
+      <c r="BZ21" s="75"/>
+      <c r="CA21" s="75"/>
+      <c r="CB21" s="75"/>
+      <c r="CC21" s="75"/>
+      <c r="CD21" s="76"/>
+      <c r="CV21" s="155"/>
+      <c r="CW21" s="155"/>
+      <c r="CX21" s="155"/>
     </row>
     <row r="22" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="177"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="177"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="223"/>
-      <c r="AF22" s="224"/>
-      <c r="AG22" s="224"/>
-      <c r="AH22" s="225"/>
-      <c r="AI22" s="266"/>
-      <c r="AJ22" s="238"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="238"/>
-      <c r="AM22" s="264"/>
-      <c r="AN22" s="238"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="238"/>
-      <c r="AQ22" s="264"/>
-      <c r="AR22" s="238"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="238"/>
-      <c r="AU22" s="271"/>
-      <c r="AV22" s="272"/>
-      <c r="AW22" s="275"/>
-      <c r="AX22" s="275"/>
-      <c r="AY22" s="276"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="274"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="274"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="85"/>
+      <c r="W22" s="274"/>
+      <c r="X22" s="85"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="85"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="103"/>
+      <c r="AG22" s="103"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="95"/>
+      <c r="AN22" s="96"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="96"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="96"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="112"/>
+      <c r="AW22" s="115"/>
+      <c r="AX22" s="115"/>
+      <c r="AY22" s="116"/>
       <c r="AZ22" s="5"/>
       <c r="BA22" s="6"/>
-      <c r="BB22" s="154"/>
-      <c r="BC22" s="154"/>
-      <c r="BD22" s="154"/>
-      <c r="BE22" s="154"/>
-      <c r="BF22" s="154"/>
-      <c r="BG22" s="154"/>
-      <c r="BH22" s="154"/>
+      <c r="BB22" s="145"/>
+      <c r="BC22" s="145"/>
+      <c r="BD22" s="145"/>
+      <c r="BE22" s="145"/>
+      <c r="BF22" s="145"/>
+      <c r="BG22" s="145"/>
+      <c r="BH22" s="145"/>
       <c r="BI22" s="5"/>
       <c r="BJ22" s="6"/>
-      <c r="BK22" s="154"/>
-      <c r="BL22" s="154"/>
-      <c r="BM22" s="154"/>
-      <c r="BN22" s="154"/>
-      <c r="BO22" s="154"/>
-      <c r="BP22" s="154"/>
-      <c r="BQ22" s="239"/>
-      <c r="CV22" s="30"/>
-      <c r="CW22" s="30"/>
-      <c r="CX22" s="30"/>
+      <c r="BK22" s="145"/>
+      <c r="BL22" s="145"/>
+      <c r="BM22" s="145"/>
+      <c r="BN22" s="145"/>
+      <c r="BO22" s="145"/>
+      <c r="BP22" s="145"/>
+      <c r="BQ22" s="147"/>
+      <c r="CV22" s="155"/>
+      <c r="CW22" s="155"/>
+      <c r="CX22" s="155"/>
     </row>
     <row r="23" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="141" t="s">
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="142"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="135" t="s">
+      <c r="H23" s="166"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="136"/>
-      <c r="T23" s="136"/>
-      <c r="U23" s="136"/>
-      <c r="V23" s="136"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="135" t="s">
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="136"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="136"/>
-      <c r="AG23" s="136"/>
-      <c r="AH23" s="136"/>
-      <c r="AI23" s="136"/>
-      <c r="AJ23" s="136"/>
-      <c r="AK23" s="136"/>
-      <c r="AL23" s="136"/>
-      <c r="AM23" s="136"/>
-      <c r="AN23" s="136"/>
-      <c r="AO23" s="136"/>
-      <c r="AP23" s="136"/>
-      <c r="AQ23" s="136"/>
-      <c r="AR23" s="136"/>
-      <c r="AS23" s="136"/>
-      <c r="AT23" s="136"/>
-      <c r="AU23" s="136"/>
-      <c r="AV23" s="136"/>
-      <c r="AW23" s="136"/>
-      <c r="AX23" s="136"/>
-      <c r="AY23" s="136"/>
-      <c r="AZ23" s="136"/>
-      <c r="BA23" s="136"/>
-      <c r="BB23" s="136"/>
-      <c r="BC23" s="136"/>
-      <c r="BD23" s="136"/>
-      <c r="BE23" s="136"/>
-      <c r="BF23" s="136"/>
-      <c r="BG23" s="136"/>
-      <c r="BH23" s="136"/>
-      <c r="BI23" s="136"/>
-      <c r="BJ23" s="136"/>
-      <c r="BK23" s="136"/>
-      <c r="BL23" s="136"/>
-      <c r="BM23" s="136"/>
-      <c r="BN23" s="136"/>
-      <c r="BO23" s="136"/>
-      <c r="BP23" s="137"/>
-      <c r="BQ23" s="135" t="s">
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="32"/>
+      <c r="BF23" s="32"/>
+      <c r="BG23" s="32"/>
+      <c r="BH23" s="32"/>
+      <c r="BI23" s="32"/>
+      <c r="BJ23" s="32"/>
+      <c r="BK23" s="32"/>
+      <c r="BL23" s="32"/>
+      <c r="BM23" s="32"/>
+      <c r="BN23" s="32"/>
+      <c r="BO23" s="32"/>
+      <c r="BP23" s="33"/>
+      <c r="BQ23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="BR23" s="136"/>
-      <c r="BS23" s="136"/>
-      <c r="BT23" s="136"/>
-      <c r="BU23" s="136"/>
-      <c r="BV23" s="136"/>
-      <c r="BW23" s="136"/>
-      <c r="BX23" s="136"/>
-      <c r="BY23" s="136"/>
-      <c r="BZ23" s="136"/>
-      <c r="CA23" s="136"/>
-      <c r="CB23" s="136"/>
-      <c r="CC23" s="136"/>
-      <c r="CD23" s="137"/>
-      <c r="CE23" s="213"/>
-      <c r="CF23" s="213"/>
+      <c r="BR23" s="32"/>
+      <c r="BS23" s="32"/>
+      <c r="BT23" s="32"/>
+      <c r="BU23" s="32"/>
+      <c r="BV23" s="32"/>
+      <c r="BW23" s="32"/>
+      <c r="BX23" s="32"/>
+      <c r="BY23" s="32"/>
+      <c r="BZ23" s="32"/>
+      <c r="CA23" s="32"/>
+      <c r="CB23" s="32"/>
+      <c r="CC23" s="32"/>
+      <c r="CD23" s="33"/>
+      <c r="CE23" s="125"/>
+      <c r="CF23" s="125"/>
       <c r="CG23" s="4"/>
-      <c r="CV23" s="30"/>
-      <c r="CW23" s="30"/>
-      <c r="CX23" s="30"/>
+      <c r="CV23" s="155"/>
+      <c r="CW23" s="155"/>
+      <c r="CX23" s="155"/>
     </row>
     <row r="24" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="231"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="226" t="s">
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="126"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="192"/>
+      <c r="X24" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="227"/>
-      <c r="Z24" s="227"/>
-      <c r="AA24" s="227"/>
-      <c r="AB24" s="227"/>
-      <c r="AC24" s="227"/>
-      <c r="AD24" s="227"/>
-      <c r="AE24" s="227"/>
-      <c r="AF24" s="227"/>
-      <c r="AG24" s="228"/>
-      <c r="AH24" s="168" t="s">
+      <c r="Y24" s="133"/>
+      <c r="Z24" s="133"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="133"/>
+      <c r="AC24" s="133"/>
+      <c r="AD24" s="133"/>
+      <c r="AE24" s="133"/>
+      <c r="AF24" s="133"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="AI24" s="168"/>
-      <c r="AJ24" s="168"/>
-      <c r="AK24" s="168"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="46"/>
-      <c r="AS24" s="46"/>
-      <c r="AT24" s="46"/>
-      <c r="AU24" s="46"/>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="46"/>
-      <c r="AX24" s="46"/>
-      <c r="AY24" s="46"/>
-      <c r="AZ24" s="46"/>
-      <c r="BA24" s="46"/>
-      <c r="BB24" s="46"/>
-      <c r="BC24" s="46"/>
-      <c r="BD24" s="46"/>
-      <c r="BE24" s="46"/>
-      <c r="BF24" s="46"/>
-      <c r="BG24" s="46"/>
-      <c r="BH24" s="46"/>
-      <c r="BI24" s="46"/>
-      <c r="BJ24" s="46"/>
-      <c r="BK24" s="46"/>
-      <c r="BL24" s="46"/>
-      <c r="BM24" s="46"/>
-      <c r="BN24" s="46"/>
-      <c r="BO24" s="46"/>
-      <c r="BP24" s="47"/>
-      <c r="BQ24" s="172" t="s">
+      <c r="AI24" s="224"/>
+      <c r="AJ24" s="224"/>
+      <c r="AK24" s="224"/>
+      <c r="AL24" s="225"/>
+      <c r="AM24" s="225"/>
+      <c r="AN24" s="225"/>
+      <c r="AO24" s="225"/>
+      <c r="AP24" s="225"/>
+      <c r="AQ24" s="225"/>
+      <c r="AR24" s="225"/>
+      <c r="AS24" s="225"/>
+      <c r="AT24" s="225"/>
+      <c r="AU24" s="225"/>
+      <c r="AV24" s="225"/>
+      <c r="AW24" s="225"/>
+      <c r="AX24" s="225"/>
+      <c r="AY24" s="225"/>
+      <c r="AZ24" s="225"/>
+      <c r="BA24" s="225"/>
+      <c r="BB24" s="225"/>
+      <c r="BC24" s="225"/>
+      <c r="BD24" s="225"/>
+      <c r="BE24" s="225"/>
+      <c r="BF24" s="225"/>
+      <c r="BG24" s="225"/>
+      <c r="BH24" s="225"/>
+      <c r="BI24" s="225"/>
+      <c r="BJ24" s="225"/>
+      <c r="BK24" s="225"/>
+      <c r="BL24" s="225"/>
+      <c r="BM24" s="225"/>
+      <c r="BN24" s="225"/>
+      <c r="BO24" s="225"/>
+      <c r="BP24" s="226"/>
+      <c r="BQ24" s="230" t="s">
         <v>64</v>
       </c>
-      <c r="BR24" s="173"/>
-      <c r="BS24" s="133"/>
+      <c r="BR24" s="231"/>
+      <c r="BS24" s="128"/>
       <c r="BT24" s="41"/>
-      <c r="BU24" s="56"/>
-      <c r="BV24" s="217"/>
-      <c r="BW24" s="133"/>
+      <c r="BU24" s="126"/>
+      <c r="BV24" s="38"/>
+      <c r="BW24" s="128"/>
       <c r="BX24" s="41"/>
-      <c r="BY24" s="56"/>
-      <c r="BZ24" s="217"/>
-      <c r="CA24" s="133"/>
+      <c r="BY24" s="126"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="128"/>
       <c r="CB24" s="41"/>
-      <c r="CC24" s="56"/>
-      <c r="CD24" s="217"/>
-      <c r="CE24" s="213"/>
-      <c r="CF24" s="213"/>
+      <c r="CC24" s="126"/>
+      <c r="CD24" s="38"/>
+      <c r="CE24" s="125"/>
+      <c r="CF24" s="125"/>
       <c r="CG24" s="4"/>
     </row>
     <row r="25" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="138"/>
-      <c r="Q25" s="139"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="191"/>
-      <c r="X25" s="133"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="156"/>
-      <c r="AI25" s="157"/>
-      <c r="AJ25" s="157"/>
-      <c r="AK25" s="157"/>
-      <c r="AL25" s="157"/>
-      <c r="AM25" s="157"/>
-      <c r="AN25" s="157"/>
-      <c r="AO25" s="157"/>
-      <c r="AP25" s="157"/>
-      <c r="AQ25" s="157"/>
-      <c r="AR25" s="157"/>
-      <c r="AS25" s="157"/>
-      <c r="AT25" s="157"/>
-      <c r="AU25" s="157"/>
-      <c r="AV25" s="157"/>
-      <c r="AW25" s="157"/>
-      <c r="AX25" s="157"/>
-      <c r="AY25" s="157"/>
-      <c r="AZ25" s="157"/>
-      <c r="BA25" s="157"/>
-      <c r="BB25" s="157"/>
-      <c r="BC25" s="157"/>
-      <c r="BD25" s="157"/>
-      <c r="BE25" s="157"/>
-      <c r="BF25" s="157"/>
-      <c r="BG25" s="157"/>
-      <c r="BH25" s="157"/>
-      <c r="BI25" s="157"/>
-      <c r="BJ25" s="157"/>
-      <c r="BK25" s="157"/>
-      <c r="BL25" s="157"/>
-      <c r="BM25" s="157"/>
-      <c r="BN25" s="157"/>
-      <c r="BO25" s="157"/>
-      <c r="BP25" s="158"/>
-      <c r="BQ25" s="174"/>
-      <c r="BR25" s="175"/>
-      <c r="BS25" s="219"/>
-      <c r="BT25" s="43"/>
-      <c r="BU25" s="42"/>
-      <c r="BV25" s="218"/>
-      <c r="BW25" s="219"/>
-      <c r="BX25" s="43"/>
-      <c r="BY25" s="42"/>
-      <c r="BZ25" s="218"/>
-      <c r="CA25" s="219"/>
-      <c r="CB25" s="43"/>
-      <c r="CC25" s="42"/>
-      <c r="CD25" s="218"/>
-      <c r="CE25" s="213"/>
-      <c r="CF25" s="213"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="176"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="176"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="176"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="176"/>
+      <c r="AF25" s="126"/>
+      <c r="AG25" s="192"/>
+      <c r="AH25" s="214"/>
+      <c r="AI25" s="144"/>
+      <c r="AJ25" s="144"/>
+      <c r="AK25" s="144"/>
+      <c r="AL25" s="144"/>
+      <c r="AM25" s="144"/>
+      <c r="AN25" s="144"/>
+      <c r="AO25" s="144"/>
+      <c r="AP25" s="144"/>
+      <c r="AQ25" s="144"/>
+      <c r="AR25" s="144"/>
+      <c r="AS25" s="144"/>
+      <c r="AT25" s="144"/>
+      <c r="AU25" s="144"/>
+      <c r="AV25" s="144"/>
+      <c r="AW25" s="144"/>
+      <c r="AX25" s="144"/>
+      <c r="AY25" s="144"/>
+      <c r="AZ25" s="144"/>
+      <c r="BA25" s="144"/>
+      <c r="BB25" s="144"/>
+      <c r="BC25" s="144"/>
+      <c r="BD25" s="144"/>
+      <c r="BE25" s="144"/>
+      <c r="BF25" s="144"/>
+      <c r="BG25" s="144"/>
+      <c r="BH25" s="144"/>
+      <c r="BI25" s="144"/>
+      <c r="BJ25" s="144"/>
+      <c r="BK25" s="144"/>
+      <c r="BL25" s="144"/>
+      <c r="BM25" s="144"/>
+      <c r="BN25" s="144"/>
+      <c r="BO25" s="144"/>
+      <c r="BP25" s="146"/>
+      <c r="BQ25" s="232"/>
+      <c r="BR25" s="233"/>
+      <c r="BS25" s="129"/>
+      <c r="BT25" s="121"/>
+      <c r="BU25" s="120"/>
+      <c r="BV25" s="127"/>
+      <c r="BW25" s="129"/>
+      <c r="BX25" s="121"/>
+      <c r="BY25" s="120"/>
+      <c r="BZ25" s="127"/>
+      <c r="CA25" s="129"/>
+      <c r="CB25" s="121"/>
+      <c r="CC25" s="120"/>
+      <c r="CD25" s="127"/>
+      <c r="CE25" s="125"/>
+      <c r="CF25" s="125"/>
       <c r="CG25" s="4"/>
     </row>
     <row r="26" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="231"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="134"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="159"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="160"/>
-      <c r="AN26" s="160"/>
-      <c r="AO26" s="160"/>
-      <c r="AP26" s="160"/>
-      <c r="AQ26" s="160"/>
-      <c r="AR26" s="160"/>
-      <c r="AS26" s="160"/>
-      <c r="AT26" s="160"/>
-      <c r="AU26" s="160"/>
-      <c r="AV26" s="160"/>
-      <c r="AW26" s="160"/>
-      <c r="AX26" s="160"/>
-      <c r="AY26" s="160"/>
-      <c r="AZ26" s="160"/>
-      <c r="BA26" s="160"/>
-      <c r="BB26" s="160"/>
-      <c r="BC26" s="160"/>
-      <c r="BD26" s="160"/>
-      <c r="BE26" s="160"/>
-      <c r="BF26" s="160"/>
-      <c r="BG26" s="160"/>
-      <c r="BH26" s="160"/>
-      <c r="BI26" s="160"/>
-      <c r="BJ26" s="160"/>
-      <c r="BK26" s="160"/>
-      <c r="BL26" s="160"/>
-      <c r="BM26" s="160"/>
-      <c r="BN26" s="160"/>
-      <c r="BO26" s="160"/>
-      <c r="BP26" s="161"/>
-      <c r="BQ26" s="174"/>
-      <c r="BR26" s="175"/>
-      <c r="BS26" s="219"/>
-      <c r="BT26" s="43"/>
-      <c r="BU26" s="42"/>
-      <c r="BV26" s="218"/>
-      <c r="BW26" s="219"/>
-      <c r="BX26" s="43"/>
-      <c r="BY26" s="42"/>
-      <c r="BZ26" s="218"/>
-      <c r="CA26" s="219"/>
-      <c r="CB26" s="43"/>
-      <c r="CC26" s="42"/>
-      <c r="CD26" s="218"/>
-      <c r="CE26" s="213"/>
-      <c r="CF26" s="213"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="179"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="179"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="179"/>
+      <c r="R26" s="174"/>
+      <c r="S26" s="179"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="179"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="207"/>
+      <c r="Y26" s="179"/>
+      <c r="Z26" s="174"/>
+      <c r="AA26" s="179"/>
+      <c r="AB26" s="174"/>
+      <c r="AC26" s="179"/>
+      <c r="AD26" s="174"/>
+      <c r="AE26" s="179"/>
+      <c r="AF26" s="174"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="215"/>
+      <c r="AI26" s="216"/>
+      <c r="AJ26" s="216"/>
+      <c r="AK26" s="216"/>
+      <c r="AL26" s="216"/>
+      <c r="AM26" s="216"/>
+      <c r="AN26" s="216"/>
+      <c r="AO26" s="216"/>
+      <c r="AP26" s="216"/>
+      <c r="AQ26" s="216"/>
+      <c r="AR26" s="216"/>
+      <c r="AS26" s="216"/>
+      <c r="AT26" s="216"/>
+      <c r="AU26" s="216"/>
+      <c r="AV26" s="216"/>
+      <c r="AW26" s="216"/>
+      <c r="AX26" s="216"/>
+      <c r="AY26" s="216"/>
+      <c r="AZ26" s="216"/>
+      <c r="BA26" s="216"/>
+      <c r="BB26" s="216"/>
+      <c r="BC26" s="216"/>
+      <c r="BD26" s="216"/>
+      <c r="BE26" s="216"/>
+      <c r="BF26" s="216"/>
+      <c r="BG26" s="216"/>
+      <c r="BH26" s="216"/>
+      <c r="BI26" s="216"/>
+      <c r="BJ26" s="216"/>
+      <c r="BK26" s="216"/>
+      <c r="BL26" s="216"/>
+      <c r="BM26" s="216"/>
+      <c r="BN26" s="216"/>
+      <c r="BO26" s="216"/>
+      <c r="BP26" s="217"/>
+      <c r="BQ26" s="232"/>
+      <c r="BR26" s="233"/>
+      <c r="BS26" s="129"/>
+      <c r="BT26" s="121"/>
+      <c r="BU26" s="120"/>
+      <c r="BV26" s="127"/>
+      <c r="BW26" s="129"/>
+      <c r="BX26" s="121"/>
+      <c r="BY26" s="120"/>
+      <c r="BZ26" s="127"/>
+      <c r="CA26" s="129"/>
+      <c r="CB26" s="121"/>
+      <c r="CC26" s="120"/>
+      <c r="CD26" s="127"/>
+      <c r="CE26" s="125"/>
+      <c r="CF26" s="125"/>
       <c r="CG26" s="4"/>
     </row>
     <row r="27" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C27" s="210"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="231"/>
-      <c r="G27" s="60" t="s">
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="130" t="s">
+      <c r="H27" s="196"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="150"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="151"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="151"/>
-      <c r="AP27" s="151"/>
-      <c r="AQ27" s="151"/>
-      <c r="AR27" s="151"/>
-      <c r="AS27" s="151"/>
-      <c r="AT27" s="151"/>
-      <c r="AU27" s="151"/>
-      <c r="AV27" s="151"/>
-      <c r="AW27" s="151"/>
-      <c r="AX27" s="151"/>
-      <c r="AY27" s="151"/>
-      <c r="AZ27" s="151"/>
-      <c r="BA27" s="151"/>
-      <c r="BB27" s="151"/>
-      <c r="BC27" s="151"/>
-      <c r="BD27" s="151"/>
-      <c r="BE27" s="151"/>
-      <c r="BF27" s="151"/>
-      <c r="BG27" s="151"/>
-      <c r="BH27" s="151"/>
-      <c r="BI27" s="152"/>
-      <c r="BJ27" s="162" t="s">
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="206"/>
+      <c r="P27" s="209"/>
+      <c r="Q27" s="210"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="210"/>
+      <c r="T27" s="210"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
+      <c r="AC27" s="210"/>
+      <c r="AD27" s="210"/>
+      <c r="AE27" s="210"/>
+      <c r="AF27" s="210"/>
+      <c r="AG27" s="210"/>
+      <c r="AH27" s="210"/>
+      <c r="AI27" s="210"/>
+      <c r="AJ27" s="210"/>
+      <c r="AK27" s="210"/>
+      <c r="AL27" s="210"/>
+      <c r="AM27" s="210"/>
+      <c r="AN27" s="210"/>
+      <c r="AO27" s="210"/>
+      <c r="AP27" s="210"/>
+      <c r="AQ27" s="210"/>
+      <c r="AR27" s="210"/>
+      <c r="AS27" s="210"/>
+      <c r="AT27" s="210"/>
+      <c r="AU27" s="210"/>
+      <c r="AV27" s="210"/>
+      <c r="AW27" s="210"/>
+      <c r="AX27" s="210"/>
+      <c r="AY27" s="210"/>
+      <c r="AZ27" s="210"/>
+      <c r="BA27" s="210"/>
+      <c r="BB27" s="210"/>
+      <c r="BC27" s="210"/>
+      <c r="BD27" s="210"/>
+      <c r="BE27" s="210"/>
+      <c r="BF27" s="210"/>
+      <c r="BG27" s="210"/>
+      <c r="BH27" s="210"/>
+      <c r="BI27" s="211"/>
+      <c r="BJ27" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="BK27" s="163"/>
-      <c r="BL27" s="164"/>
-      <c r="BM27" s="169" t="s">
+      <c r="BK27" s="219"/>
+      <c r="BL27" s="220"/>
+      <c r="BM27" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="BN27" s="170"/>
-      <c r="BO27" s="170"/>
-      <c r="BP27" s="170"/>
-      <c r="BQ27" s="170"/>
-      <c r="BR27" s="170"/>
-      <c r="BS27" s="170"/>
-      <c r="BT27" s="170"/>
-      <c r="BU27" s="170"/>
-      <c r="BV27" s="170"/>
-      <c r="BW27" s="170"/>
-      <c r="BX27" s="170"/>
-      <c r="BY27" s="170"/>
-      <c r="BZ27" s="170"/>
-      <c r="CA27" s="170"/>
-      <c r="CB27" s="170"/>
-      <c r="CC27" s="170"/>
-      <c r="CD27" s="170"/>
-      <c r="CE27" s="170"/>
-      <c r="CF27" s="171"/>
+      <c r="BN27" s="228"/>
+      <c r="BO27" s="228"/>
+      <c r="BP27" s="228"/>
+      <c r="BQ27" s="228"/>
+      <c r="BR27" s="228"/>
+      <c r="BS27" s="228"/>
+      <c r="BT27" s="228"/>
+      <c r="BU27" s="228"/>
+      <c r="BV27" s="228"/>
+      <c r="BW27" s="228"/>
+      <c r="BX27" s="228"/>
+      <c r="BY27" s="228"/>
+      <c r="BZ27" s="228"/>
+      <c r="CA27" s="228"/>
+      <c r="CB27" s="228"/>
+      <c r="CC27" s="228"/>
+      <c r="CD27" s="228"/>
+      <c r="CE27" s="228"/>
+      <c r="CF27" s="229"/>
     </row>
     <row r="28" spans="3:102" ht="19.5" customHeight="1">
-      <c r="C28" s="210"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="232"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="127" t="s">
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="154"/>
-      <c r="AF28" s="154"/>
-      <c r="AG28" s="154"/>
-      <c r="AH28" s="154"/>
-      <c r="AI28" s="154"/>
-      <c r="AJ28" s="154"/>
-      <c r="AK28" s="154"/>
-      <c r="AL28" s="154"/>
-      <c r="AM28" s="154"/>
-      <c r="AN28" s="154"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
-      <c r="AQ28" s="154"/>
-      <c r="AR28" s="154"/>
-      <c r="AS28" s="154"/>
-      <c r="AT28" s="154"/>
-      <c r="AU28" s="154"/>
-      <c r="AV28" s="154"/>
-      <c r="AW28" s="154"/>
-      <c r="AX28" s="154"/>
-      <c r="AY28" s="154"/>
-      <c r="AZ28" s="154"/>
-      <c r="BA28" s="154"/>
-      <c r="BB28" s="154"/>
-      <c r="BC28" s="154"/>
-      <c r="BD28" s="154"/>
-      <c r="BE28" s="154"/>
-      <c r="BF28" s="154"/>
-      <c r="BG28" s="154"/>
-      <c r="BH28" s="154"/>
-      <c r="BI28" s="155"/>
-      <c r="BJ28" s="165"/>
-      <c r="BK28" s="166"/>
-      <c r="BL28" s="167"/>
-      <c r="BM28" s="233" t="s">
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="203"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
+      <c r="AL28" s="145"/>
+      <c r="AM28" s="145"/>
+      <c r="AN28" s="145"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="145"/>
+      <c r="AQ28" s="145"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="145"/>
+      <c r="AT28" s="145"/>
+      <c r="AU28" s="145"/>
+      <c r="AV28" s="145"/>
+      <c r="AW28" s="145"/>
+      <c r="AX28" s="145"/>
+      <c r="AY28" s="145"/>
+      <c r="AZ28" s="145"/>
+      <c r="BA28" s="145"/>
+      <c r="BB28" s="145"/>
+      <c r="BC28" s="145"/>
+      <c r="BD28" s="145"/>
+      <c r="BE28" s="145"/>
+      <c r="BF28" s="145"/>
+      <c r="BG28" s="145"/>
+      <c r="BH28" s="145"/>
+      <c r="BI28" s="213"/>
+      <c r="BJ28" s="221"/>
+      <c r="BK28" s="222"/>
+      <c r="BL28" s="223"/>
+      <c r="BM28" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="BN28" s="234"/>
-      <c r="BO28" s="234"/>
-      <c r="BP28" s="234"/>
-      <c r="BQ28" s="234"/>
-      <c r="BR28" s="234"/>
-      <c r="BS28" s="234"/>
-      <c r="BT28" s="234"/>
-      <c r="BU28" s="234"/>
-      <c r="BV28" s="234"/>
-      <c r="BW28" s="234"/>
-      <c r="BX28" s="234"/>
-      <c r="BY28" s="234"/>
-      <c r="BZ28" s="234"/>
-      <c r="CA28" s="234"/>
-      <c r="CB28" s="234"/>
-      <c r="CC28" s="234"/>
-      <c r="CD28" s="234"/>
-      <c r="CE28" s="234"/>
-      <c r="CF28" s="235"/>
+      <c r="BN28" s="142"/>
+      <c r="BO28" s="142"/>
+      <c r="BP28" s="142"/>
+      <c r="BQ28" s="142"/>
+      <c r="BR28" s="142"/>
+      <c r="BS28" s="142"/>
+      <c r="BT28" s="142"/>
+      <c r="BU28" s="142"/>
+      <c r="BV28" s="142"/>
+      <c r="BW28" s="142"/>
+      <c r="BX28" s="142"/>
+      <c r="BY28" s="142"/>
+      <c r="BZ28" s="142"/>
+      <c r="CA28" s="142"/>
+      <c r="CB28" s="142"/>
+      <c r="CC28" s="142"/>
+      <c r="CD28" s="142"/>
+      <c r="CE28" s="142"/>
+      <c r="CF28" s="143"/>
     </row>
     <row r="29" spans="3:102" ht="12" customHeight="1">
       <c r="E29" s="21"/>
@@ -11094,247 +11090,247 @@
       <c r="CF30" s="6"/>
     </row>
     <row r="31" spans="3:102" ht="15.75" customHeight="1">
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="105"/>
-      <c r="AD31" s="107" t="s">
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="243"/>
+      <c r="I31" s="243"/>
+      <c r="J31" s="243"/>
+      <c r="K31" s="243"/>
+      <c r="L31" s="243"/>
+      <c r="M31" s="243"/>
+      <c r="N31" s="243"/>
+      <c r="O31" s="243"/>
+      <c r="P31" s="243"/>
+      <c r="Q31" s="243"/>
+      <c r="R31" s="243"/>
+      <c r="S31" s="243"/>
+      <c r="T31" s="243"/>
+      <c r="U31" s="243"/>
+      <c r="V31" s="243"/>
+      <c r="W31" s="243"/>
+      <c r="X31" s="243"/>
+      <c r="Y31" s="243"/>
+      <c r="Z31" s="243"/>
+      <c r="AA31" s="243"/>
+      <c r="AB31" s="244"/>
+      <c r="AD31" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="108"/>
-      <c r="AJ31" s="108"/>
-      <c r="AK31" s="108"/>
-      <c r="AL31" s="108"/>
-      <c r="AM31" s="108"/>
-      <c r="AN31" s="108"/>
-      <c r="AO31" s="108"/>
-      <c r="AP31" s="108"/>
-      <c r="AQ31" s="108"/>
-      <c r="AR31" s="108"/>
-      <c r="AS31" s="108"/>
-      <c r="AT31" s="108"/>
-      <c r="AU31" s="108"/>
-      <c r="AV31" s="108"/>
-      <c r="AW31" s="108"/>
-      <c r="AX31" s="108"/>
-      <c r="AY31" s="108"/>
-      <c r="AZ31" s="108"/>
-      <c r="BA31" s="108"/>
-      <c r="BB31" s="108"/>
-      <c r="BC31" s="109"/>
-      <c r="BE31" s="101" t="s">
+      <c r="AE31" s="247"/>
+      <c r="AF31" s="247"/>
+      <c r="AG31" s="247"/>
+      <c r="AH31" s="247"/>
+      <c r="AI31" s="247"/>
+      <c r="AJ31" s="247"/>
+      <c r="AK31" s="247"/>
+      <c r="AL31" s="247"/>
+      <c r="AM31" s="247"/>
+      <c r="AN31" s="247"/>
+      <c r="AO31" s="247"/>
+      <c r="AP31" s="247"/>
+      <c r="AQ31" s="247"/>
+      <c r="AR31" s="247"/>
+      <c r="AS31" s="247"/>
+      <c r="AT31" s="247"/>
+      <c r="AU31" s="247"/>
+      <c r="AV31" s="247"/>
+      <c r="AW31" s="247"/>
+      <c r="AX31" s="247"/>
+      <c r="AY31" s="247"/>
+      <c r="AZ31" s="247"/>
+      <c r="BA31" s="247"/>
+      <c r="BB31" s="247"/>
+      <c r="BC31" s="248"/>
+      <c r="BE31" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="BF31" s="102"/>
-      <c r="BG31" s="102"/>
-      <c r="BH31" s="102"/>
-      <c r="BI31" s="102"/>
-      <c r="BJ31" s="102"/>
-      <c r="BK31" s="102"/>
-      <c r="BL31" s="102"/>
-      <c r="BM31" s="102"/>
-      <c r="BN31" s="102"/>
-      <c r="BO31" s="102"/>
-      <c r="BP31" s="102"/>
-      <c r="BQ31" s="102"/>
-      <c r="BR31" s="102"/>
-      <c r="BS31" s="102"/>
-      <c r="BT31" s="102"/>
-      <c r="BU31" s="102"/>
-      <c r="BV31" s="102"/>
-      <c r="BW31" s="102"/>
-      <c r="BX31" s="102"/>
-      <c r="BY31" s="102"/>
-      <c r="BZ31" s="102"/>
-      <c r="CA31" s="102"/>
-      <c r="CB31" s="102"/>
-      <c r="CC31" s="102"/>
-      <c r="CD31" s="102"/>
-      <c r="CE31" s="102"/>
-      <c r="CF31" s="102"/>
+      <c r="BF31" s="241"/>
+      <c r="BG31" s="241"/>
+      <c r="BH31" s="241"/>
+      <c r="BI31" s="241"/>
+      <c r="BJ31" s="241"/>
+      <c r="BK31" s="241"/>
+      <c r="BL31" s="241"/>
+      <c r="BM31" s="241"/>
+      <c r="BN31" s="241"/>
+      <c r="BO31" s="241"/>
+      <c r="BP31" s="241"/>
+      <c r="BQ31" s="241"/>
+      <c r="BR31" s="241"/>
+      <c r="BS31" s="241"/>
+      <c r="BT31" s="241"/>
+      <c r="BU31" s="241"/>
+      <c r="BV31" s="241"/>
+      <c r="BW31" s="241"/>
+      <c r="BX31" s="241"/>
+      <c r="BY31" s="241"/>
+      <c r="BZ31" s="241"/>
+      <c r="CA31" s="241"/>
+      <c r="CB31" s="241"/>
+      <c r="CC31" s="241"/>
+      <c r="CD31" s="241"/>
+      <c r="CE31" s="241"/>
+      <c r="CF31" s="241"/>
       <c r="CG31" s="4"/>
     </row>
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="22"/>
       <c r="D32" s="12"/>
-      <c r="L32" s="125" t="s">
+      <c r="L32" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="125"/>
-      <c r="R32" s="125"/>
-      <c r="S32" s="125"/>
-      <c r="T32" s="125"/>
-      <c r="U32" s="125"/>
-      <c r="V32" s="125"/>
-      <c r="W32" s="125"/>
-      <c r="X32" s="125"/>
-      <c r="Y32" s="125"/>
-      <c r="Z32" s="125"/>
-      <c r="AA32" s="125"/>
-      <c r="AB32" s="126"/>
+      <c r="M32" s="262"/>
+      <c r="N32" s="262"/>
+      <c r="O32" s="262"/>
+      <c r="P32" s="262"/>
+      <c r="Q32" s="262"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="262"/>
+      <c r="T32" s="262"/>
+      <c r="U32" s="262"/>
+      <c r="V32" s="262"/>
+      <c r="W32" s="262"/>
+      <c r="X32" s="262"/>
+      <c r="Y32" s="262"/>
+      <c r="Z32" s="262"/>
+      <c r="AA32" s="262"/>
+      <c r="AB32" s="263"/>
       <c r="AD32" s="4"/>
-      <c r="AR32" s="106" t="s">
+      <c r="AR32" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="AS32" s="106"/>
-      <c r="AT32" s="106"/>
-      <c r="AU32" s="106"/>
-      <c r="AV32" s="106"/>
-      <c r="AW32" s="106"/>
-      <c r="AX32" s="106"/>
-      <c r="AY32" s="106"/>
-      <c r="AZ32" s="106"/>
-      <c r="BA32" s="106"/>
-      <c r="BB32" s="106"/>
-      <c r="BC32" s="121"/>
-      <c r="BE32" s="98" t="s">
+      <c r="AS32" s="245"/>
+      <c r="AT32" s="245"/>
+      <c r="AU32" s="245"/>
+      <c r="AV32" s="245"/>
+      <c r="AW32" s="245"/>
+      <c r="AX32" s="245"/>
+      <c r="AY32" s="245"/>
+      <c r="AZ32" s="245"/>
+      <c r="BA32" s="245"/>
+      <c r="BB32" s="245"/>
+      <c r="BC32" s="258"/>
+      <c r="BE32" s="237" t="s">
         <v>61</v>
       </c>
-      <c r="BF32" s="99"/>
-      <c r="BG32" s="99"/>
-      <c r="BH32" s="99"/>
-      <c r="BI32" s="99"/>
-      <c r="BJ32" s="99"/>
-      <c r="BK32" s="99"/>
-      <c r="BL32" s="99"/>
-      <c r="BM32" s="99"/>
-      <c r="BN32" s="99"/>
-      <c r="BO32" s="99"/>
-      <c r="BP32" s="99"/>
-      <c r="BQ32" s="99"/>
-      <c r="BR32" s="99"/>
-      <c r="BS32" s="99"/>
-      <c r="BT32" s="99"/>
-      <c r="BU32" s="99"/>
-      <c r="BV32" s="99"/>
-      <c r="BW32" s="99"/>
-      <c r="BX32" s="99"/>
-      <c r="BY32" s="99"/>
-      <c r="BZ32" s="99"/>
-      <c r="CA32" s="99"/>
-      <c r="CB32" s="99"/>
-      <c r="CC32" s="99"/>
-      <c r="CD32" s="99"/>
-      <c r="CE32" s="99"/>
-      <c r="CF32" s="100"/>
+      <c r="BF32" s="238"/>
+      <c r="BG32" s="238"/>
+      <c r="BH32" s="238"/>
+      <c r="BI32" s="238"/>
+      <c r="BJ32" s="238"/>
+      <c r="BK32" s="238"/>
+      <c r="BL32" s="238"/>
+      <c r="BM32" s="238"/>
+      <c r="BN32" s="238"/>
+      <c r="BO32" s="238"/>
+      <c r="BP32" s="238"/>
+      <c r="BQ32" s="238"/>
+      <c r="BR32" s="238"/>
+      <c r="BS32" s="238"/>
+      <c r="BT32" s="238"/>
+      <c r="BU32" s="238"/>
+      <c r="BV32" s="238"/>
+      <c r="BW32" s="238"/>
+      <c r="BX32" s="238"/>
+      <c r="BY32" s="238"/>
+      <c r="BZ32" s="238"/>
+      <c r="CA32" s="238"/>
+      <c r="CB32" s="238"/>
+      <c r="CC32" s="238"/>
+      <c r="CD32" s="238"/>
+      <c r="CE32" s="238"/>
+      <c r="CF32" s="239"/>
       <c r="CG32" s="4"/>
     </row>
     <row r="33" spans="3:85" ht="21" customHeight="1">
-      <c r="C33" s="110"/>
-      <c r="D33" s="111"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="249"/>
       <c r="E33" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-      <c r="Z33" s="122"/>
-      <c r="AA33" s="122"/>
-      <c r="AB33" s="123"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="111"/>
+      <c r="L33" s="259"/>
+      <c r="M33" s="259"/>
+      <c r="N33" s="259"/>
+      <c r="O33" s="259"/>
+      <c r="P33" s="259"/>
+      <c r="Q33" s="259"/>
+      <c r="R33" s="259"/>
+      <c r="S33" s="259"/>
+      <c r="T33" s="259"/>
+      <c r="U33" s="259"/>
+      <c r="V33" s="259"/>
+      <c r="W33" s="259"/>
+      <c r="X33" s="259"/>
+      <c r="Y33" s="259"/>
+      <c r="Z33" s="259"/>
+      <c r="AA33" s="259"/>
+      <c r="AB33" s="260"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="249"/>
       <c r="AF33" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AJ33" s="114"/>
-      <c r="AK33" s="114"/>
-      <c r="AL33" s="114"/>
-      <c r="AM33" s="114"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="114"/>
-      <c r="AP33" s="114"/>
-      <c r="AQ33" s="114"/>
-      <c r="AR33" s="114"/>
-      <c r="AS33" s="114"/>
-      <c r="AT33" s="114"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="114"/>
-      <c r="AX33" s="114"/>
-      <c r="AY33" s="114"/>
-      <c r="AZ33" s="114"/>
-      <c r="BA33" s="114"/>
-      <c r="BB33" s="114"/>
-      <c r="BC33" s="115"/>
-      <c r="BE33" s="117" t="s">
+      <c r="AJ33" s="251"/>
+      <c r="AK33" s="251"/>
+      <c r="AL33" s="251"/>
+      <c r="AM33" s="251"/>
+      <c r="AN33" s="251"/>
+      <c r="AO33" s="251"/>
+      <c r="AP33" s="251"/>
+      <c r="AQ33" s="251"/>
+      <c r="AR33" s="251"/>
+      <c r="AS33" s="251"/>
+      <c r="AT33" s="251"/>
+      <c r="AU33" s="251"/>
+      <c r="AV33" s="251"/>
+      <c r="AW33" s="251"/>
+      <c r="AX33" s="251"/>
+      <c r="AY33" s="251"/>
+      <c r="AZ33" s="251"/>
+      <c r="BA33" s="251"/>
+      <c r="BB33" s="251"/>
+      <c r="BC33" s="252"/>
+      <c r="BE33" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="BF33" s="118"/>
-      <c r="BG33" s="97" t="s">
+      <c r="BF33" s="255"/>
+      <c r="BG33" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="BH33" s="97"/>
-      <c r="BI33" s="97"/>
-      <c r="BJ33" s="97"/>
-      <c r="BK33" s="97"/>
-      <c r="BL33" s="97"/>
-      <c r="BM33" s="97"/>
-      <c r="BN33" s="97"/>
-      <c r="BO33" s="97"/>
-      <c r="BP33" s="97"/>
-      <c r="BQ33" s="97"/>
-      <c r="BT33" s="106" t="s">
+      <c r="BH33" s="236"/>
+      <c r="BI33" s="236"/>
+      <c r="BJ33" s="236"/>
+      <c r="BK33" s="236"/>
+      <c r="BL33" s="236"/>
+      <c r="BM33" s="236"/>
+      <c r="BN33" s="236"/>
+      <c r="BO33" s="236"/>
+      <c r="BP33" s="236"/>
+      <c r="BQ33" s="236"/>
+      <c r="BT33" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="BU33" s="106"/>
-      <c r="BV33" s="106"/>
-      <c r="BW33" s="106"/>
-      <c r="BX33" s="106"/>
-      <c r="BY33" s="106"/>
-      <c r="BZ33" s="106"/>
-      <c r="CA33" s="106"/>
-      <c r="CB33" s="106"/>
-      <c r="CC33" s="106"/>
-      <c r="CD33" s="106"/>
-      <c r="CE33" s="106"/>
+      <c r="BU33" s="245"/>
+      <c r="BV33" s="245"/>
+      <c r="BW33" s="245"/>
+      <c r="BX33" s="245"/>
+      <c r="BY33" s="245"/>
+      <c r="BZ33" s="245"/>
+      <c r="CA33" s="245"/>
+      <c r="CB33" s="245"/>
+      <c r="CC33" s="245"/>
+      <c r="CD33" s="245"/>
+      <c r="CE33" s="245"/>
       <c r="CG33" s="4"/>
     </row>
     <row r="34" spans="3:85" ht="21" customHeight="1">
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="249"/>
       <c r="E34" s="23" t="s">
         <v>8</v>
       </c>
@@ -11355,139 +11351,139 @@
       <c r="Z34" s="296"/>
       <c r="AA34" s="296"/>
       <c r="AB34" s="297"/>
-      <c r="AD34" s="110"/>
-      <c r="AE34" s="111"/>
+      <c r="AD34" s="137"/>
+      <c r="AE34" s="249"/>
       <c r="AF34" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ34" s="114"/>
-      <c r="AK34" s="114"/>
-      <c r="AL34" s="114"/>
-      <c r="AM34" s="114"/>
-      <c r="AN34" s="114"/>
-      <c r="AO34" s="114"/>
-      <c r="AP34" s="114"/>
-      <c r="AQ34" s="114"/>
-      <c r="AR34" s="114"/>
-      <c r="AS34" s="114"/>
-      <c r="AT34" s="114"/>
-      <c r="AU34" s="114"/>
-      <c r="AV34" s="114"/>
-      <c r="AW34" s="114"/>
-      <c r="AX34" s="114"/>
-      <c r="AY34" s="114"/>
-      <c r="AZ34" s="114"/>
-      <c r="BA34" s="114"/>
-      <c r="BB34" s="114"/>
-      <c r="BC34" s="115"/>
-      <c r="BE34" s="117"/>
-      <c r="BF34" s="118"/>
+      <c r="AJ34" s="251"/>
+      <c r="AK34" s="251"/>
+      <c r="AL34" s="251"/>
+      <c r="AM34" s="251"/>
+      <c r="AN34" s="251"/>
+      <c r="AO34" s="251"/>
+      <c r="AP34" s="251"/>
+      <c r="AQ34" s="251"/>
+      <c r="AR34" s="251"/>
+      <c r="AS34" s="251"/>
+      <c r="AT34" s="251"/>
+      <c r="AU34" s="251"/>
+      <c r="AV34" s="251"/>
+      <c r="AW34" s="251"/>
+      <c r="AX34" s="251"/>
+      <c r="AY34" s="251"/>
+      <c r="AZ34" s="251"/>
+      <c r="BA34" s="251"/>
+      <c r="BB34" s="251"/>
+      <c r="BC34" s="252"/>
+      <c r="BE34" s="254"/>
+      <c r="BF34" s="255"/>
       <c r="BG34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BL34" s="94"/>
-      <c r="BM34" s="94"/>
-      <c r="BN34" s="94"/>
-      <c r="BO34" s="94"/>
-      <c r="BP34" s="94"/>
-      <c r="BQ34" s="94"/>
-      <c r="BR34" s="94"/>
-      <c r="BS34" s="94"/>
-      <c r="BT34" s="94"/>
-      <c r="BU34" s="94"/>
-      <c r="BV34" s="94"/>
-      <c r="BW34" s="94"/>
-      <c r="BX34" s="94"/>
-      <c r="BY34" s="94"/>
-      <c r="BZ34" s="94"/>
-      <c r="CA34" s="94"/>
-      <c r="CB34" s="94"/>
-      <c r="CC34" s="94"/>
-      <c r="CD34" s="94"/>
+      <c r="BL34" s="153"/>
+      <c r="BM34" s="153"/>
+      <c r="BN34" s="153"/>
+      <c r="BO34" s="153"/>
+      <c r="BP34" s="153"/>
+      <c r="BQ34" s="153"/>
+      <c r="BR34" s="153"/>
+      <c r="BS34" s="153"/>
+      <c r="BT34" s="153"/>
+      <c r="BU34" s="153"/>
+      <c r="BV34" s="153"/>
+      <c r="BW34" s="153"/>
+      <c r="BX34" s="153"/>
+      <c r="BY34" s="153"/>
+      <c r="BZ34" s="153"/>
+      <c r="CA34" s="153"/>
+      <c r="CB34" s="153"/>
+      <c r="CC34" s="153"/>
+      <c r="CD34" s="153"/>
       <c r="CG34" s="4"/>
     </row>
     <row r="35" spans="3:85" ht="21" customHeight="1">
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="249"/>
       <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="124"/>
-      <c r="P35" s="124"/>
-      <c r="Q35" s="124"/>
-      <c r="R35" s="124"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="124"/>
-      <c r="U35" s="124"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="124"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="124"/>
+      <c r="L35" s="261"/>
+      <c r="M35" s="261"/>
+      <c r="N35" s="261"/>
+      <c r="O35" s="261"/>
+      <c r="P35" s="261"/>
+      <c r="Q35" s="261"/>
+      <c r="R35" s="261"/>
+      <c r="S35" s="261"/>
+      <c r="T35" s="261"/>
+      <c r="U35" s="261"/>
+      <c r="V35" s="261"/>
+      <c r="W35" s="261"/>
+      <c r="X35" s="261"/>
+      <c r="Y35" s="261"/>
+      <c r="Z35" s="261"/>
       <c r="AA35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="AB35" s="25"/>
-      <c r="AD35" s="110"/>
-      <c r="AE35" s="111"/>
+      <c r="AD35" s="137"/>
+      <c r="AE35" s="249"/>
       <c r="AF35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AJ35" s="114"/>
-      <c r="AK35" s="114"/>
-      <c r="AL35" s="114"/>
-      <c r="AM35" s="114"/>
-      <c r="AN35" s="114"/>
-      <c r="AO35" s="114"/>
-      <c r="AP35" s="114"/>
-      <c r="AQ35" s="114"/>
-      <c r="AR35" s="114"/>
-      <c r="AS35" s="114"/>
-      <c r="AT35" s="114"/>
-      <c r="AU35" s="114"/>
-      <c r="AV35" s="114"/>
-      <c r="AW35" s="114"/>
-      <c r="AX35" s="114"/>
-      <c r="AY35" s="114"/>
-      <c r="AZ35" s="114"/>
-      <c r="BA35" s="114"/>
+      <c r="AJ35" s="251"/>
+      <c r="AK35" s="251"/>
+      <c r="AL35" s="251"/>
+      <c r="AM35" s="251"/>
+      <c r="AN35" s="251"/>
+      <c r="AO35" s="251"/>
+      <c r="AP35" s="251"/>
+      <c r="AQ35" s="251"/>
+      <c r="AR35" s="251"/>
+      <c r="AS35" s="251"/>
+      <c r="AT35" s="251"/>
+      <c r="AU35" s="251"/>
+      <c r="AV35" s="251"/>
+      <c r="AW35" s="251"/>
+      <c r="AX35" s="251"/>
+      <c r="AY35" s="251"/>
+      <c r="AZ35" s="251"/>
+      <c r="BA35" s="251"/>
       <c r="BB35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="BC35" s="25"/>
-      <c r="BE35" s="117"/>
-      <c r="BF35" s="118"/>
+      <c r="BE35" s="254"/>
+      <c r="BF35" s="255"/>
       <c r="BG35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="BL35" s="94"/>
-      <c r="BM35" s="94"/>
-      <c r="BN35" s="94"/>
-      <c r="BO35" s="94"/>
-      <c r="BP35" s="94"/>
-      <c r="BQ35" s="94"/>
-      <c r="BR35" s="94"/>
-      <c r="BS35" s="94"/>
-      <c r="BT35" s="94"/>
-      <c r="BU35" s="94"/>
-      <c r="BV35" s="94"/>
-      <c r="BW35" s="94"/>
-      <c r="BX35" s="94"/>
-      <c r="BY35" s="94"/>
-      <c r="BZ35" s="94"/>
-      <c r="CA35" s="94"/>
-      <c r="CB35" s="94"/>
+      <c r="BL35" s="153"/>
+      <c r="BM35" s="153"/>
+      <c r="BN35" s="153"/>
+      <c r="BO35" s="153"/>
+      <c r="BP35" s="153"/>
+      <c r="BQ35" s="153"/>
+      <c r="BR35" s="153"/>
+      <c r="BS35" s="153"/>
+      <c r="BT35" s="153"/>
+      <c r="BU35" s="153"/>
+      <c r="BV35" s="153"/>
+      <c r="BW35" s="153"/>
+      <c r="BX35" s="153"/>
+      <c r="BY35" s="153"/>
+      <c r="BZ35" s="153"/>
+      <c r="CA35" s="153"/>
+      <c r="CB35" s="153"/>
       <c r="CC35" s="24" t="s">
         <v>2</v>
       </c>
       <c r="CG35" s="4"/>
     </row>
     <row r="36" spans="3:85" ht="29.25" customHeight="1">
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="250"/>
       <c r="E36" s="26" t="s">
         <v>63</v>
       </c>
@@ -11497,53 +11493,53 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="116"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="113"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="153"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="153"/>
+      <c r="AA36" s="153"/>
+      <c r="AB36" s="253"/>
+      <c r="AD36" s="139"/>
+      <c r="AE36" s="250"/>
       <c r="AF36" s="26" t="s">
         <v>1</v>
       </c>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AJ36" s="94"/>
-      <c r="AK36" s="94"/>
-      <c r="AL36" s="94"/>
-      <c r="AM36" s="94"/>
-      <c r="AN36" s="94"/>
-      <c r="AO36" s="94"/>
-      <c r="AP36" s="94"/>
-      <c r="AQ36" s="94"/>
-      <c r="AR36" s="94"/>
-      <c r="AS36" s="94"/>
-      <c r="AT36" s="94"/>
-      <c r="AU36" s="94"/>
-      <c r="AV36" s="94"/>
-      <c r="AW36" s="94"/>
-      <c r="AX36" s="94"/>
-      <c r="AY36" s="94"/>
-      <c r="AZ36" s="94"/>
-      <c r="BA36" s="94"/>
-      <c r="BB36" s="94"/>
-      <c r="BC36" s="116"/>
-      <c r="BE36" s="119"/>
-      <c r="BF36" s="120"/>
+      <c r="AJ36" s="153"/>
+      <c r="AK36" s="153"/>
+      <c r="AL36" s="153"/>
+      <c r="AM36" s="153"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="153"/>
+      <c r="AP36" s="153"/>
+      <c r="AQ36" s="153"/>
+      <c r="AR36" s="153"/>
+      <c r="AS36" s="153"/>
+      <c r="AT36" s="153"/>
+      <c r="AU36" s="153"/>
+      <c r="AV36" s="153"/>
+      <c r="AW36" s="153"/>
+      <c r="AX36" s="153"/>
+      <c r="AY36" s="153"/>
+      <c r="AZ36" s="153"/>
+      <c r="BA36" s="153"/>
+      <c r="BB36" s="153"/>
+      <c r="BC36" s="253"/>
+      <c r="BE36" s="256"/>
+      <c r="BF36" s="257"/>
       <c r="BG36" s="27" t="s">
         <v>0</v>
       </c>
@@ -11551,27 +11547,27 @@
       <c r="BI36" s="6"/>
       <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
-      <c r="BL36" s="95" t="s">
+      <c r="BL36" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="BM36" s="96"/>
-      <c r="BN36" s="96"/>
-      <c r="BO36" s="96"/>
-      <c r="BP36" s="96"/>
-      <c r="BQ36" s="96"/>
-      <c r="BR36" s="96"/>
-      <c r="BS36" s="96"/>
-      <c r="BT36" s="96"/>
-      <c r="BU36" s="96"/>
-      <c r="BV36" s="96"/>
-      <c r="BW36" s="96"/>
-      <c r="BX36" s="96"/>
-      <c r="BY36" s="96"/>
-      <c r="BZ36" s="96"/>
-      <c r="CA36" s="96"/>
-      <c r="CB36" s="96"/>
-      <c r="CC36" s="96"/>
-      <c r="CD36" s="96"/>
+      <c r="BM36" s="235"/>
+      <c r="BN36" s="235"/>
+      <c r="BO36" s="235"/>
+      <c r="BP36" s="235"/>
+      <c r="BQ36" s="235"/>
+      <c r="BR36" s="235"/>
+      <c r="BS36" s="235"/>
+      <c r="BT36" s="235"/>
+      <c r="BU36" s="235"/>
+      <c r="BV36" s="235"/>
+      <c r="BW36" s="235"/>
+      <c r="BX36" s="235"/>
+      <c r="BY36" s="235"/>
+      <c r="BZ36" s="235"/>
+      <c r="CA36" s="235"/>
+      <c r="CB36" s="235"/>
+      <c r="CC36" s="235"/>
+      <c r="CD36" s="235"/>
       <c r="CE36" s="6"/>
       <c r="CF36" s="6"/>
       <c r="CG36" s="4"/>
@@ -11700,26 +11696,135 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="BU2:BY2"/>
-    <mergeCell ref="BZ3:CD4"/>
-    <mergeCell ref="BZ7:CA8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AG10:CD11"/>
-    <mergeCell ref="BV7:BW8"/>
-    <mergeCell ref="BR7:BS8"/>
-    <mergeCell ref="BT7:BU8"/>
-    <mergeCell ref="AW8:BC8"/>
-    <mergeCell ref="BZ2:CD2"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="BU3:BY4"/>
-    <mergeCell ref="BP3:BT4"/>
-    <mergeCell ref="BL6:CA6"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="BP2:BT2"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BC7"/>
+    <mergeCell ref="CV21:CX23"/>
+    <mergeCell ref="G20:AD20"/>
+    <mergeCell ref="AE20:AT20"/>
+    <mergeCell ref="BC20:BH20"/>
+    <mergeCell ref="BI20:BQ20"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AK9:CD9"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="G14:L15"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G9:I11"/>
+    <mergeCell ref="J9:O11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="J12:O13"/>
+    <mergeCell ref="P12:CD13"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="BL35:CB35"/>
+    <mergeCell ref="BL36:CD36"/>
+    <mergeCell ref="BG33:BQ33"/>
+    <mergeCell ref="BE32:CF32"/>
+    <mergeCell ref="BE31:CF31"/>
+    <mergeCell ref="C31:AB31"/>
+    <mergeCell ref="BT33:CE33"/>
+    <mergeCell ref="AD31:BC31"/>
+    <mergeCell ref="AD33:AE36"/>
+    <mergeCell ref="AJ33:BC33"/>
+    <mergeCell ref="AJ34:BC34"/>
+    <mergeCell ref="AJ35:BA35"/>
+    <mergeCell ref="AJ36:BC36"/>
+    <mergeCell ref="BL34:CD34"/>
+    <mergeCell ref="BE33:BF36"/>
+    <mergeCell ref="AR32:BC32"/>
+    <mergeCell ref="C33:D36"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="L35:Z35"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="G23:I26"/>
+    <mergeCell ref="P27:BI28"/>
+    <mergeCell ref="AH25:BP26"/>
+    <mergeCell ref="BJ27:BL28"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AL24:BP24"/>
+    <mergeCell ref="BM27:CF27"/>
+    <mergeCell ref="AF25:AG26"/>
+    <mergeCell ref="BQ23:CD23"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC14:AE15"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W8"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="X6:AU6"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="AT7:AU8"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AD9:AF11"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="S2:T4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="Y3:BG4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="CE23:CF26"/>
+    <mergeCell ref="BS15:CD15"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="CC24:CD26"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="BL7:BO8"/>
+    <mergeCell ref="X23:BP23"/>
+    <mergeCell ref="X24:AG24"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="E20:F28"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="BM28:CF28"/>
+    <mergeCell ref="AS21:AT22"/>
+    <mergeCell ref="BB21:BH22"/>
+    <mergeCell ref="BK21:BQ22"/>
+    <mergeCell ref="AW20:AX20"/>
+    <mergeCell ref="AF14:AI15"/>
     <mergeCell ref="BS16:CD21"/>
     <mergeCell ref="E19:AJ19"/>
     <mergeCell ref="E6:F15"/>
@@ -11744,135 +11849,26 @@
     <mergeCell ref="AV6:BK6"/>
     <mergeCell ref="R9:S11"/>
     <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="CE23:CF26"/>
-    <mergeCell ref="BS15:CD15"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="CC24:CD26"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="BL7:BO8"/>
-    <mergeCell ref="X23:BP23"/>
-    <mergeCell ref="X24:AG24"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="E20:F28"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="BM28:CF28"/>
-    <mergeCell ref="AS21:AT22"/>
-    <mergeCell ref="BB21:BH22"/>
-    <mergeCell ref="BK21:BQ22"/>
-    <mergeCell ref="AW20:AX20"/>
-    <mergeCell ref="AF14:AI15"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="S2:T4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="Y3:BG4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W8"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="X6:AU6"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="AT7:AU8"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AD9:AF11"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC14:AE15"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="M14:P15"/>
-    <mergeCell ref="V24:W26"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="G23:I26"/>
-    <mergeCell ref="P27:BI28"/>
-    <mergeCell ref="AH25:BP26"/>
-    <mergeCell ref="BJ27:BL28"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AL24:BP24"/>
-    <mergeCell ref="BM27:CF27"/>
-    <mergeCell ref="AF25:AG26"/>
-    <mergeCell ref="BQ23:CD23"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="BL35:CB35"/>
-    <mergeCell ref="BL36:CD36"/>
-    <mergeCell ref="BG33:BQ33"/>
-    <mergeCell ref="BE32:CF32"/>
-    <mergeCell ref="BE31:CF31"/>
-    <mergeCell ref="C31:AB31"/>
-    <mergeCell ref="BT33:CE33"/>
-    <mergeCell ref="AD31:BC31"/>
-    <mergeCell ref="AD33:AE36"/>
-    <mergeCell ref="AJ33:BC33"/>
-    <mergeCell ref="AJ34:BC34"/>
-    <mergeCell ref="AJ35:BA35"/>
-    <mergeCell ref="AJ36:BC36"/>
-    <mergeCell ref="BL34:CD34"/>
-    <mergeCell ref="BE33:BF36"/>
-    <mergeCell ref="AR32:BC32"/>
-    <mergeCell ref="C33:D36"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="L35:Z35"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="CV21:CX23"/>
-    <mergeCell ref="G20:AD20"/>
-    <mergeCell ref="AE20:AT20"/>
-    <mergeCell ref="BC20:BH20"/>
-    <mergeCell ref="BI20:BQ20"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AK9:CD9"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="G14:L15"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="G9:I11"/>
-    <mergeCell ref="J9:O11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="J12:O13"/>
-    <mergeCell ref="P12:CD13"/>
-    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="BU2:BY2"/>
+    <mergeCell ref="BZ3:CD4"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="AG10:CD11"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="BR7:BS8"/>
+    <mergeCell ref="BT7:BU8"/>
+    <mergeCell ref="AW8:BC8"/>
+    <mergeCell ref="BZ2:CD2"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BU3:BY4"/>
+    <mergeCell ref="BP3:BT4"/>
+    <mergeCell ref="BL6:CA6"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="BP2:BT2"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BC7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/国民年金第３号被保険者住所変更届.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\out\production\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2561,9 +2561,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2670,6 +2667,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2955,7 +2955,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="576629" y="205154"/>
-          <a:ext cx="2161442" cy="922257"/>
+          <a:ext cx="2228117" cy="922257"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="227" cy="85"/>
         </a:xfrm>
@@ -9087,10 +9087,8 @@
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="4" width="1.625" style="1"/>
-    <col min="5" max="5" width="1.625" style="1" customWidth="1"/>
-    <col min="6" max="14" width="1.625" style="1"/>
-    <col min="15" max="15" width="1.625" style="1" customWidth="1"/>
-    <col min="16" max="37" width="1.625" style="1"/>
+    <col min="5" max="5" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="37" width="1.625" style="1"/>
     <col min="38" max="38" width="1.625" style="1" customWidth="1"/>
     <col min="39" max="67" width="1.625" style="1"/>
     <col min="68" max="68" width="1.875" style="1" customWidth="1"/>
@@ -9575,19 +9573,19 @@
       <c r="D9" s="122"/>
       <c r="E9" s="80"/>
       <c r="F9" s="81"/>
-      <c r="G9" s="275" t="s">
+      <c r="G9" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="276"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="284" t="s">
+      <c r="H9" s="275"/>
+      <c r="I9" s="276"/>
+      <c r="J9" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="285"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="286"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="284"/>
+      <c r="N9" s="284"/>
+      <c r="O9" s="285"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="41"/>
       <c r="R9" s="37"/>
@@ -9665,15 +9663,15 @@
       <c r="D10" s="122"/>
       <c r="E10" s="80"/>
       <c r="F10" s="81"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="287"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="288"/>
-      <c r="O10" s="289"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="279"/>
+      <c r="J10" s="286"/>
+      <c r="K10" s="287"/>
+      <c r="L10" s="287"/>
+      <c r="M10" s="287"/>
+      <c r="N10" s="287"/>
+      <c r="O10" s="288"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="121"/>
       <c r="R10" s="120"/>
@@ -9747,15 +9745,15 @@
       <c r="D11" s="122"/>
       <c r="E11" s="80"/>
       <c r="F11" s="81"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="282"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="291"/>
-      <c r="L11" s="291"/>
-      <c r="M11" s="291"/>
-      <c r="N11" s="291"/>
-      <c r="O11" s="292"/>
+      <c r="G11" s="280"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="282"/>
+      <c r="J11" s="289"/>
+      <c r="K11" s="290"/>
+      <c r="L11" s="290"/>
+      <c r="M11" s="290"/>
+      <c r="N11" s="290"/>
+      <c r="O11" s="291"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="39"/>
@@ -9834,81 +9832,81 @@
       </c>
       <c r="H12" s="196"/>
       <c r="I12" s="197"/>
-      <c r="J12" s="284" t="s">
+      <c r="J12" s="283" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="285"/>
-      <c r="L12" s="285"/>
-      <c r="M12" s="285"/>
-      <c r="N12" s="285"/>
-      <c r="O12" s="286"/>
-      <c r="P12" s="293"/>
-      <c r="Q12" s="294"/>
-      <c r="R12" s="294"/>
-      <c r="S12" s="294"/>
-      <c r="T12" s="294"/>
-      <c r="U12" s="294"/>
-      <c r="V12" s="294"/>
-      <c r="W12" s="294"/>
-      <c r="X12" s="294"/>
-      <c r="Y12" s="294"/>
-      <c r="Z12" s="294"/>
-      <c r="AA12" s="294"/>
-      <c r="AB12" s="294"/>
-      <c r="AC12" s="294"/>
-      <c r="AD12" s="294"/>
-      <c r="AE12" s="294"/>
-      <c r="AF12" s="294"/>
-      <c r="AG12" s="294"/>
-      <c r="AH12" s="294"/>
-      <c r="AI12" s="294"/>
-      <c r="AJ12" s="294"/>
-      <c r="AK12" s="294"/>
-      <c r="AL12" s="294"/>
-      <c r="AM12" s="294"/>
-      <c r="AN12" s="294"/>
-      <c r="AO12" s="294"/>
-      <c r="AP12" s="294"/>
-      <c r="AQ12" s="294"/>
-      <c r="AR12" s="294"/>
-      <c r="AS12" s="294"/>
-      <c r="AT12" s="294"/>
-      <c r="AU12" s="294"/>
-      <c r="AV12" s="294"/>
-      <c r="AW12" s="294"/>
-      <c r="AX12" s="294"/>
-      <c r="AY12" s="294"/>
-      <c r="AZ12" s="294"/>
-      <c r="BA12" s="294"/>
-      <c r="BB12" s="294"/>
-      <c r="BC12" s="294"/>
-      <c r="BD12" s="294"/>
-      <c r="BE12" s="294"/>
-      <c r="BF12" s="294"/>
-      <c r="BG12" s="294"/>
-      <c r="BH12" s="294"/>
-      <c r="BI12" s="294"/>
-      <c r="BJ12" s="294"/>
-      <c r="BK12" s="294"/>
-      <c r="BL12" s="294"/>
-      <c r="BM12" s="294"/>
-      <c r="BN12" s="294"/>
-      <c r="BO12" s="294"/>
-      <c r="BP12" s="294"/>
-      <c r="BQ12" s="294"/>
-      <c r="BR12" s="294"/>
-      <c r="BS12" s="294"/>
-      <c r="BT12" s="294"/>
-      <c r="BU12" s="294"/>
-      <c r="BV12" s="294"/>
-      <c r="BW12" s="294"/>
-      <c r="BX12" s="294"/>
-      <c r="BY12" s="294"/>
-      <c r="BZ12" s="294"/>
-      <c r="CA12" s="294"/>
-      <c r="CB12" s="294"/>
-      <c r="CC12" s="294"/>
-      <c r="CD12" s="295"/>
+      <c r="K12" s="284"/>
+      <c r="L12" s="284"/>
+      <c r="M12" s="284"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="285"/>
+      <c r="P12" s="292"/>
+      <c r="Q12" s="293"/>
+      <c r="R12" s="293"/>
+      <c r="S12" s="293"/>
+      <c r="T12" s="293"/>
+      <c r="U12" s="293"/>
+      <c r="V12" s="293"/>
+      <c r="W12" s="293"/>
+      <c r="X12" s="293"/>
+      <c r="Y12" s="293"/>
+      <c r="Z12" s="293"/>
+      <c r="AA12" s="293"/>
+      <c r="AB12" s="293"/>
+      <c r="AC12" s="293"/>
+      <c r="AD12" s="293"/>
+      <c r="AE12" s="293"/>
+      <c r="AF12" s="293"/>
+      <c r="AG12" s="293"/>
+      <c r="AH12" s="293"/>
+      <c r="AI12" s="293"/>
+      <c r="AJ12" s="293"/>
+      <c r="AK12" s="293"/>
+      <c r="AL12" s="293"/>
+      <c r="AM12" s="293"/>
+      <c r="AN12" s="293"/>
+      <c r="AO12" s="293"/>
+      <c r="AP12" s="293"/>
+      <c r="AQ12" s="293"/>
+      <c r="AR12" s="293"/>
+      <c r="AS12" s="293"/>
+      <c r="AT12" s="293"/>
+      <c r="AU12" s="293"/>
+      <c r="AV12" s="293"/>
+      <c r="AW12" s="293"/>
+      <c r="AX12" s="293"/>
+      <c r="AY12" s="293"/>
+      <c r="AZ12" s="293"/>
+      <c r="BA12" s="293"/>
+      <c r="BB12" s="293"/>
+      <c r="BC12" s="293"/>
+      <c r="BD12" s="293"/>
+      <c r="BE12" s="293"/>
+      <c r="BF12" s="293"/>
+      <c r="BG12" s="293"/>
+      <c r="BH12" s="293"/>
+      <c r="BI12" s="293"/>
+      <c r="BJ12" s="293"/>
+      <c r="BK12" s="293"/>
+      <c r="BL12" s="293"/>
+      <c r="BM12" s="293"/>
+      <c r="BN12" s="293"/>
+      <c r="BO12" s="293"/>
+      <c r="BP12" s="293"/>
+      <c r="BQ12" s="293"/>
+      <c r="BR12" s="293"/>
+      <c r="BS12" s="293"/>
+      <c r="BT12" s="293"/>
+      <c r="BU12" s="293"/>
+      <c r="BV12" s="293"/>
+      <c r="BW12" s="293"/>
+      <c r="BX12" s="293"/>
+      <c r="BY12" s="293"/>
+      <c r="BZ12" s="293"/>
+      <c r="CA12" s="293"/>
+      <c r="CB12" s="293"/>
+      <c r="CC12" s="293"/>
+      <c r="CD12" s="294"/>
     </row>
     <row r="13" spans="3:82" ht="15.75" customHeight="1">
       <c r="C13" s="122"/>
@@ -9918,12 +9916,12 @@
       <c r="G13" s="198"/>
       <c r="H13" s="199"/>
       <c r="I13" s="200"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="291"/>
-      <c r="M13" s="291"/>
-      <c r="N13" s="291"/>
-      <c r="O13" s="292"/>
+      <c r="J13" s="289"/>
+      <c r="K13" s="290"/>
+      <c r="L13" s="290"/>
+      <c r="M13" s="290"/>
+      <c r="N13" s="290"/>
+      <c r="O13" s="291"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="47"/>
       <c r="R13" s="47"/>
@@ -9997,14 +9995,14 @@
       <c r="D14" s="122"/>
       <c r="E14" s="80"/>
       <c r="F14" s="81"/>
-      <c r="G14" s="267" t="s">
+      <c r="G14" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="269"/>
+      <c r="H14" s="267"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="267"/>
+      <c r="L14" s="268"/>
       <c r="M14" s="188" t="s">
         <v>35</v>
       </c>
@@ -10072,12 +10070,12 @@
       <c r="D15" s="122"/>
       <c r="E15" s="82"/>
       <c r="F15" s="83"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
-      <c r="I15" s="271"/>
-      <c r="J15" s="271"/>
-      <c r="K15" s="271"/>
-      <c r="L15" s="272"/>
+      <c r="G15" s="269"/>
+      <c r="H15" s="270"/>
+      <c r="I15" s="270"/>
+      <c r="J15" s="270"/>
+      <c r="K15" s="270"/>
+      <c r="L15" s="271"/>
       <c r="M15" s="190"/>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
@@ -10357,15 +10355,15 @@
       <c r="BF20" s="66"/>
       <c r="BG20" s="66"/>
       <c r="BH20" s="66"/>
-      <c r="BI20" s="264"/>
-      <c r="BJ20" s="265"/>
-      <c r="BK20" s="265"/>
-      <c r="BL20" s="265"/>
-      <c r="BM20" s="265"/>
-      <c r="BN20" s="265"/>
-      <c r="BO20" s="265"/>
-      <c r="BP20" s="265"/>
-      <c r="BQ20" s="266"/>
+      <c r="BI20" s="263"/>
+      <c r="BJ20" s="264"/>
+      <c r="BK20" s="264"/>
+      <c r="BL20" s="264"/>
+      <c r="BM20" s="264"/>
+      <c r="BN20" s="264"/>
+      <c r="BO20" s="264"/>
+      <c r="BP20" s="264"/>
+      <c r="BQ20" s="265"/>
       <c r="BS20" s="71"/>
       <c r="BT20" s="72"/>
       <c r="BU20" s="72"/>
@@ -10384,7 +10382,7 @@
       <c r="D21" s="122"/>
       <c r="E21" s="137"/>
       <c r="F21" s="138"/>
-      <c r="G21" s="273"/>
+      <c r="G21" s="272"/>
       <c r="H21" s="85"/>
       <c r="I21" s="172"/>
       <c r="J21" s="85"/>
@@ -10392,7 +10390,7 @@
       <c r="L21" s="85"/>
       <c r="M21" s="84"/>
       <c r="N21" s="85"/>
-      <c r="O21" s="273"/>
+      <c r="O21" s="272"/>
       <c r="P21" s="85"/>
       <c r="Q21" s="172"/>
       <c r="R21" s="85"/>
@@ -10400,7 +10398,7 @@
       <c r="T21" s="85"/>
       <c r="U21" s="84"/>
       <c r="V21" s="85"/>
-      <c r="W21" s="273"/>
+      <c r="W21" s="272"/>
       <c r="X21" s="85"/>
       <c r="Y21" s="172"/>
       <c r="Z21" s="85"/>
@@ -10476,7 +10474,7 @@
       <c r="D22" s="122"/>
       <c r="E22" s="137"/>
       <c r="F22" s="138"/>
-      <c r="G22" s="274"/>
+      <c r="G22" s="273"/>
       <c r="H22" s="85"/>
       <c r="I22" s="85"/>
       <c r="J22" s="85"/>
@@ -10484,7 +10482,7 @@
       <c r="L22" s="85"/>
       <c r="M22" s="86"/>
       <c r="N22" s="85"/>
-      <c r="O22" s="274"/>
+      <c r="O22" s="273"/>
       <c r="P22" s="85"/>
       <c r="Q22" s="85"/>
       <c r="R22" s="85"/>
@@ -10492,7 +10490,7 @@
       <c r="T22" s="85"/>
       <c r="U22" s="86"/>
       <c r="V22" s="85"/>
-      <c r="W22" s="274"/>
+      <c r="W22" s="273"/>
       <c r="X22" s="85"/>
       <c r="Y22" s="85"/>
       <c r="Z22" s="85"/>
@@ -11181,25 +11179,25 @@
     <row r="32" spans="3:102" ht="15.75" customHeight="1">
       <c r="C32" s="22"/>
       <c r="D32" s="12"/>
-      <c r="L32" s="262" t="s">
+      <c r="L32" s="261" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="262"/>
-      <c r="N32" s="262"/>
-      <c r="O32" s="262"/>
-      <c r="P32" s="262"/>
-      <c r="Q32" s="262"/>
-      <c r="R32" s="262"/>
-      <c r="S32" s="262"/>
-      <c r="T32" s="262"/>
-      <c r="U32" s="262"/>
-      <c r="V32" s="262"/>
-      <c r="W32" s="262"/>
-      <c r="X32" s="262"/>
-      <c r="Y32" s="262"/>
-      <c r="Z32" s="262"/>
-      <c r="AA32" s="262"/>
-      <c r="AB32" s="263"/>
+      <c r="M32" s="261"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="261"/>
+      <c r="S32" s="261"/>
+      <c r="T32" s="261"/>
+      <c r="U32" s="261"/>
+      <c r="V32" s="261"/>
+      <c r="W32" s="261"/>
+      <c r="X32" s="261"/>
+      <c r="Y32" s="261"/>
+      <c r="Z32" s="261"/>
+      <c r="AA32" s="261"/>
+      <c r="AB32" s="262"/>
       <c r="AD32" s="4"/>
       <c r="AR32" s="245" t="s">
         <v>9</v>
@@ -11334,23 +11332,23 @@
       <c r="E34" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="296"/>
-      <c r="M34" s="296"/>
-      <c r="N34" s="296"/>
-      <c r="O34" s="296"/>
-      <c r="P34" s="296"/>
-      <c r="Q34" s="296"/>
-      <c r="R34" s="296"/>
-      <c r="S34" s="296"/>
-      <c r="T34" s="296"/>
-      <c r="U34" s="296"/>
-      <c r="V34" s="296"/>
-      <c r="W34" s="296"/>
-      <c r="X34" s="296"/>
-      <c r="Y34" s="296"/>
-      <c r="Z34" s="296"/>
-      <c r="AA34" s="296"/>
-      <c r="AB34" s="297"/>
+      <c r="L34" s="295"/>
+      <c r="M34" s="295"/>
+      <c r="N34" s="295"/>
+      <c r="O34" s="295"/>
+      <c r="P34" s="295"/>
+      <c r="Q34" s="295"/>
+      <c r="R34" s="295"/>
+      <c r="S34" s="295"/>
+      <c r="T34" s="295"/>
+      <c r="U34" s="295"/>
+      <c r="V34" s="295"/>
+      <c r="W34" s="295"/>
+      <c r="X34" s="295"/>
+      <c r="Y34" s="295"/>
+      <c r="Z34" s="295"/>
+      <c r="AA34" s="295"/>
+      <c r="AB34" s="296"/>
       <c r="AD34" s="137"/>
       <c r="AE34" s="249"/>
       <c r="AF34" s="23" t="s">
@@ -11408,21 +11406,21 @@
       <c r="E35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="261"/>
-      <c r="M35" s="261"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
-      <c r="P35" s="261"/>
-      <c r="Q35" s="261"/>
-      <c r="R35" s="261"/>
-      <c r="S35" s="261"/>
-      <c r="T35" s="261"/>
-      <c r="U35" s="261"/>
-      <c r="V35" s="261"/>
-      <c r="W35" s="261"/>
-      <c r="X35" s="261"/>
-      <c r="Y35" s="261"/>
-      <c r="Z35" s="261"/>
+      <c r="L35" s="297"/>
+      <c r="M35" s="297"/>
+      <c r="N35" s="297"/>
+      <c r="O35" s="297"/>
+      <c r="P35" s="297"/>
+      <c r="Q35" s="297"/>
+      <c r="R35" s="297"/>
+      <c r="S35" s="297"/>
+      <c r="T35" s="297"/>
+      <c r="U35" s="297"/>
+      <c r="V35" s="297"/>
+      <c r="W35" s="297"/>
+      <c r="X35" s="297"/>
+      <c r="Y35" s="297"/>
+      <c r="Z35" s="297"/>
       <c r="AA35" s="24" t="s">
         <v>2</v>
       </c>
@@ -11872,7 +11870,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
